--- a/all data5.xlsx
+++ b/all data5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -55,115 +55,124 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>!4m7!3m6!1s0x3088940700000007</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Andaman Navigator  </x:t>
+    <x:t>!4m7!3m6!1s0x308f2b6f218276cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Henry Lawrence  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rating Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Review Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       43MG+C33, Andaman and Nicobar Islands 744211      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADcaSURBVHhe7Z3/Uxxnfufv7/All0vq7pK7VN25rnIX/6AkHFRRmlxWXFyeWpfZuExOZREr+GIZIgfZlrQEreRjkUVQlrC3OHiJsIlHZs2JlbBYaSULo5UhPhE2Mjha8MoghEYCRkKMhfZzn8/TT8883fPtgWFgYN6vqg9N9/P0091PP/15P9+m+18QAAAAYMGf1dQSRAMAAIAVEA0AAADWQDQAAABYk1+isfiAlh7q/9eaR1GavxfVKwAAAFbDuorGTN8MPfbyTcdqbtI3vnuHxhZ1IN2nU2/epIODS3o9W+bp2MszdHJGr/7TbXriQJjG9OqWY3GBTn53hp5ImreFhNz3m1R70XvxUvZ29t3Xa9nzyds36diIXtlMPLpPn7wzQ7/HZUSew6+9eZs+CS/rwDVg5DY99va8XjGQ7UfukPs4bjrSPF+btiyskvUXDbdAPVykkR/M0OP1YZp85GxaW3yisaV5QP3fuUk731+geclLydv3OW+/N0drJcGbB0c0HquZpY8M3YBoOIyFZqj0u3dpRlr03PqeuThLpfIMOsHZsyVFI/3zBdHIIR7RUCyq1sXhT5xuo3jm36eTR2bocNcsBWu04+caUr9W+scPzFL/tK4d8faP3tY1gL0zdPAiO4aZO7RT1rWpNGVbrNAu0/zobdpd64T7aw2HT9+lgwd02Dvzccc7zdu/6Wx/4pvGOWw4C/TW65xP03pVWJinEyfuOs7AyLtYHnEejLwjNfIHEkOty7W//GMnI5a4Zebmz87QwiYSH6eyUNvMzpHLmnveXtFYohF2nqq2zfnx1j/Fr8687t/737dpxCgXte/cpp17nfKk1t8P08u+PFr6ZJYeN5zj/MVbeSTeS8r5HR42y+096j8Rpk8WnLWk9109O7fpFOeZev5qb9GpWNlfpkkWnqCbl+/cShAN9dzzfo5xy0Y2PrxHp9znuXaGWobXTtDXnvTPVzqfYVue5N6kKpP5xgaLhrPt8RPONsnIuGgYyk5RGjkxwzdD1tnhD9+mr71+W3U1Tfawc3hrjual5rQwR8f45p74UvbxtTRM0ZD/RYy+5J0ePaAxX63h8W/foUmd3uFX3fTu06lvi8CJk31IM+fYGTTf5aPkAywAXXwN37pNH00njtvE8kjy8sswCyrXwuViufb3ONc6neK5QC2v3qJ+cR6cP7v3smOY5Uzgh/skX3ftJVdc8h193yd4yWWh5TPHuZmiMdPPzorvnaptf+lcq7ruJb7fXC5O6HLx0Vs3KfiDiNpHykWshq7XzXJy7HVd+XnEx3UrOlxuP/qu3p4nKBF7/Rad/Mxohrmkuu/yvHCeHht2yv7kKaMVe52fxVe5PC1wPnMNXCpwmVsaUZV/X3tbl8lZdrix5ywfSf98pfQZKyhPKctkHpIXouFuk4w0WxrxriV5EM1M5PBvSbizPDGhNwuxwfTUojF5mp1ol3FHlrjQakcaPwfBES9nnZuozTdp9w9YuJbypYVhskSTg7fpZXZeUnM72OcKLuOZYODmHf+rHJwWkIkwBbUISgH25M/wbHJHkJfE7/sSn7fqeuF8iIuGI/4tnzmxVQuLH2Z1j/2TJYzr9paLxPV45cdpwakWm5QrN3/zBmllh+lgPZcTrtG+/M6cx3Elve/Gs6MwBECeJdcRKmy6px6xM33Z6xQnf+BLJ+9I/Xyl9BnW5SlNmcxD8ril4XP4seZt3I6N+ITBQ2rRkON4+7fjcVMWAGFhgU5xTepr3KTMr+4pk2VaCi/Qye/weXK+Kn8VnqOWN3X3lDI3X5wuqWMjy+qhdbumZJs/rzdPf7R535dUTX/n6fs0GRMNCU+8Pidsicb6ZukbujtBmaVoeJzlZ7ep9M27NPnJLD2RzIHmC4v36CNuwT/BtWT3uTDzRJnc9zSiIft4niUb0VDPs+6m0iTzDflJ4vPlLQumz7AtT+nKZP6R12MaMYevaibJamxOvNW0NDy1GquWhslDmv8J12L1w7bhmOMXLrEHM0offY9bSKcjtKRqRr584Yf5ibfv8HXeolNzzqaE/NlUJN733VyjPsZi7zyEfE/9rVOXL8P0jddv00dzTtXbLK/ecpG4LnnmVn6IInTim7eollumIsj5g3f8wiGeXynvexrRWH1Lw/s853VLI+3zlcZnWJenNGUyD9k40UgyeyqekY4YxB587ficMQ1eXYrQybfDNMb3wjumsUAt9TP01nXZhx8G6Vt2B6/Mgi//pxnTSFoA3P7JL0TguInPtci8EY1HfN3cbK7t18LAzWLlxNSsGKdb7eCg9EfzeY/fVv3TsbyVLireV2rGsUddCvurLCKSPyKQn9ymY4P5WetJxCcafM2SF2bNTZWZZt0HLf3wodvUP8v/Swuh/rYqV/RQJg+kqhk66/4xjWMj8a4IOcZjNexUdNnODxZVWZCBWvW86Hv7NbcLLdV9TyMazj68f6YxjdHb9Pi3OL/UyiYb00j7fKXxGSsoTynLZB6y/qLhNr9quPb79l3PbwniGekXDcacJ801R2cGEJNs9pRiWc1GeJy3HxvlVU/BTz97KmkBYGQmhPRpyj551z3FgnmiOcX8e5n15c7sYLFt+ZbOE4V31pSDM9kg2ayP/McvGswjrvnXG81987cKUg5js8OcGSzuDKET79+ix4yuG/Mhl3WZ/ZIw08hFxlO4kpN3POTWhu5iVfe2fpZOXnfPPMV9TycavE+m2VMKdrxvSRlkIVXZuKlmTzFpnq/UPsO+PKUuk/nHuooGAAUBt15linPLP+VT1xQAawNEA4C1RGrlXLP0/L4HgC0ERAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAEAi/t9mAKCBaAAAEoFogBRANAAoWJw3L8h3a74hvxCvMd6ooEQjxTc0Hj3wfPtB3vjq/iZFfumc6tsS5vdogn9zN0cfXwO5BqIBQMHivPIi9t0a+Y6D+v4D/69+pJj8GxryOqD4e7cW6C1O47Dx0tHk35aQd5zNUMsop8ei84m8yiSUh69ZARmBaABQsHjfrabeQ/bWTdrdz60Nf/dU7H1TvM+3zG8/sB78ZJYe0x/zSvkeJnlhofnRsml0f21WIBoAFCx+0XBaEerFjilFI8kLIY0XGKYSDc/LSmPmvFocbC4gGgAULKttaXi//WDV0pCv1sU+LQw2MxANAAoWx6n7xzRUKyKlaDithnRjGklFQ3+PRo1psDgtfXGHjvVgTGMzAtEAoGDRovGdVLOnkotGptlTSUWDWbp+JzZ7Kn8/lwwyAdEAoGDxOnUAbIBoAFCwQDTAyoFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArFGiMfb5BMFgMBgMlsnQ0gAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA16yoad+79gupPRejrLXfoN1+bUSb/y7YwhwEAAMhv1k00zowu0b9/dYYee/lmUpOwH44s6digsBmm5qIq6pnWqwXDGlz3rXEauhbWK9kxcrSEakL5cBMkX0qo+YpeXWPCoSradnRYr4FMrItonBx6EBOHP37rLl0Yi+oQUv/LNjdc4uYL4e4qKvY9xNFr3dT4bIC2cSHeFqiggx2jFL8ap3Bvq+iiKb3Fw+JFaizl8Be6yXysI8MddLCijI/FYaVlVFnbQSNzOtCW5WkaOl5N5QFOg9PZ/mQ1tQ96jkIToXqqdMOfraXQ1YgOEzKFZyJKQ4c4X6p7OaVsgWgkcKWJ70uQWofjpc3B61DDPdVUHGyjCWc1K3IrGtPU84Jt+hCNfCLnonFr4RH96l5HEBr77umtiUiYxJG4M7zPhhPup4Pi4M2HWG0LUvMl7YzDg9QcDNDhs66b1KJRVEbtV/Umg+iFekcYDNGIsjMoL91FrZcmKSL+YHGSBg4FaVuwhcaWnTiZmaa+qgAVV3XQ2DQnshyl8GgH1ci5XnHOLXKmlp1JEw3pA0cuyXH303ktTpnCMzLHecPXHSyroNCk3rZqIBoJKNHgssP3aGRRb1PkzqFCNEAyci4aMl4hYlD+3Tt6C9EX4WX67oX79O0z99T/Lt/gOBL3L/9v9nXV7IjQQF2AapqaqMZ4iCMXGqiittfTSpAHK17gpHDvon3V3Go4dNFogQhh6qsu4bBqQzQmKVRRQpWdPi+7PErtZSXUeM5Xq5zu5vNhp6FXXZQYldbTgC/bJtrL9bH4ehrK6aDHG5kPYqbwzER6uYbL1zx0vIwq2r3Xox7KI/000lZFO0SIuYXWeMY8VoTGzLBQGx02nedy2GhFBaj8pTYac69V5UkD9ZxxW0kBqqzrp6m5UeqsclpvxWVV1Gm2mm4NUvtLQdrOYdsCQdrXZrQWdXrnh9uopkxalDq9VAKeJq2sr9tEiUYFVXJ5KW8Z1RsF731SxzRbspFx6qmrcM6PW7E1xwfJeORo6mxD7Dp3VDXQwA0dwCjRaOtNnY8296W7Vl1fYjlKFI3o1Tba96TTipeWcuewm5i/LOpWsXveFfV0PnbeEreKQpd6dY+AXJdxXsKNfiOshXqadnlEI/V5ACHnovF7b8wqIfho3HmURCRk3bXf2DcTE45Ln0fVtt89MqvWNwqp/QcrOmjihhT81DXeqBS+oNll4BTYngtdVFnETtysEU7yNnbsQ+f44XcfalU7L6fQdRUjMylEY6yljLbV+UWKCY/T0KVxfsR8cEtk6mw9lSfUWjWZwhMQ8Qs4D7VcZ5m3laQcWVGQGs9OU1RaQSy+waJaXyuH8+sGX0E0TGPt3m7BibYgt6K6aEIucDlCQ0d53RVllScs8O2jFJbdb/RyazBA28uqKTTKuczHm+ji9OScJD6NUye3Dmu6JvlceHXOaS02XtC5p9Jjx3yIhUKdzkVqZgE/eCaZ40ifVrbX7UGJBrcEr3dw2QoSX64mnWg4LdDyo4MUUec3TiFedysp0XNc2Qjup77rfHw3n4zKh6oQlbIDNvNRyrAuE5nvi+RjL01MR5z88eATDX4WDhuteNXSLaqmPrXqvcbI2f2eVvGUnFesS9iJq1rdEr7I18zHCbpCKxUyuWecgZIn0Ul5hvk6XdFIex5AyLlo/HKNIw4LD5zZUa0/vu8RDTHZJkgcWf9XvM+GoQqVfihVwU98iB1nILWrMjrYbdaqpcCW8b66VdEbL2ljXAMPHudE5eF3H+oU6adExU8UDW9rJx3Og6rO/Q9qqS+hGylTeAo8QiHXbjhhRuWXR9QknwIstvK/c0wzr2iZna+RL9FIxOm6c5E8LNX5oPKkgYYMpzR0hM//yKBeY8x8ZucXmfM6Mcm/4iadfyquV/A94SYZ0sr2uj1o0ZBrnmivoG1SqVHH9TpUj2iwwFT4Ky/jvdTaOcwViSTHV/cu7sjlWl7sMk+GKwflcQHNfF98x/bgHD8mGir+fqO1HKaJS4M0oU7Pe420yMc109X3t++WrEhcb0VM5UmVzhM+R1WBMO7ZVJfR0kh7HkDIuWj8Bz1jyhWNhtNOd5VpftGQfTYKeSCD7HDUs6ALYyqn7rQ0AvwQuSUqXrhVl5Fb+1nm7aV6nCOdaKh17bTZnAfKSdPd5jGdjr1oaNjZqZZEKdd6kz0MmcJ9iCCaXWxuV5XrT9RD6zk/0wnI/yK0KkAj24x88Q3yO2Y6J6+QJuRHQj4bXUqueZxGhvRM0qSV9XWbGKLhVGxKqFJ1A5pp6mO65Uv22ZliUobaL7GVq1qt+pzlus3uI0EEObZthffFi080eP38gXIqlsklDR3UNyqtMx3ku0Zp1YzFuqfc47r5lpiHZp6o//f2e1rf3vuU7jyAkHPR+INjYSUEw5NfqXV/99SvG91T//DFV2qb7LMhSEE3HaXf2SRB1VJihdAo3GpcwhEKU0BkRlbsoZbZVAmOQ/A+UFGuzUqNNnKtg16U2pu7rqt5KbunVE04YauGj7EzVbeLkClcowTRdBquxZv02TnPKDuvMqcbxK1dmg7Uxsmb93GR02ZnU9M1HnMGnvg26blkSCu76/ZhXrMw2kLlEveGtE7WTjRGmtgR63NOLxorvy9e/KLhEL0xSgOhFjr4bICKd7bRmErbzDd9jap7Spdtz3OamIdmnqj/04qGQ/LzAELOReOQHgh/44fx2yQiIa0LaXW4giG4rRDZZyNQD4xyeIkmhTvcu58qDngHwpVoxBy2t3DLQHTxoW7qMbqqPA81/5XuANVt5SH5A5XqQXQHwt2+Zpf4QHhY1Z4Oe7oiHFFwBtszhadGHTt2PS5RGqjzXXNK5+lca+puGifczVPFYAPfk9TOKa1oJImvurPc+DbpuWRIK7vr9uEXDXHaTUG+v1V8Dj6H6t6PZN1T8juOYa49Jzs+72XfPbXy++LF2d89VvTGsD4vjZ4M4qTvfa4SxOxGF1em7ERD8jFd91T68wBCzkXjp1MPlRD8x/230jbzvuIwiSNxZZ+8wHQ2gvTdF8UHydJ1TylUfHYihkP3igYjg+2lQTocGqWwxIlGKDzaRQe5BhufyqtJ9SAu8wMoA56vddOY1L64heGfcjvVWaFrZxI/sfspfXiERjqbKJQwiyRC5/cmETdGBlnd36ukd56cim9AeKRllzEgzMd4LUBBmcG0GFUDl81Pi7indk5pRUMNdJZR45lJinJ6MnuoQlpKbnyb9FwypJXddftIEA2GWzqtMohrpOktXzYD4fr4fM8numspaD0QvvL74sUrGqrlJMe65hw8er2L9w9S5zVZ8+abDMBve4Fr/1zWo+FRClXLcd18yyAaqmvPGAgf76XD5kB42vMAQs5FQ/jvuovqnZ/4qsIGMgVX4vz+m05xzwtMZ6NRP8RT0/VkCqJMkxyP10r8oqFrbmZLIkE0BE+/eIB2PF1Nzb1muprFaRpJNhtKWJ6kgYb49McdFbXUaf64b5kdf0dtbFqqTFPs0Q+GIm24fsC7ffcm3Ev7ilL8LkN1vZWrhy2T8xQHlHbqaSQ+fXb7s3xePU3xGvRKRYORKZXx6bTd1NfELTK3tbgS0WDSpZX1dZskEw1G/c7HSDOhfJlTbqWfvmPYERDNVK8xdVWm3Br3Uq7bO+W2NuZMFSu8L158osGEB1tiU11lem/zOTfMl29cSTqvr0nitZ/t4nxzu9oyiIaQYcpt6vMAwrqIxtmfLilBeKJ+lpaSNCLknVQytiFxJC7IM9zxmYSxFwBAobEuoiF8rclpbRzuTawnV749p8I2bAAcpCU62kb7moYTWz4AgIJj3UTjn2eX1W82xEZuxJsbvVedVohslzgAAADyl3UTDcF9v9TvHJlVg+LyOnT3zbffTvNeKgAAAPnBuorGo18Q/eFxp5vq5a55qtBvty1rDqswAAAA+c26ioZwc/6Ret+UiIWY/C/bAAAA5D/rLhqCO5tKDLOlAABg87AhoiHIGAbGMQAAYHOxYaIBAABg8wHRAAAAYA1Ew0C9bqCoJIm530Aw0S+MS/mqhGTh5hfHkn8VLDqp3665K0j7/O90kndKjQ9TX0c97Xu6jFpjr6MAAID1AaKRiastFIx9FcxAvZpaBCWFaCQJl9eix14QJ+vyUkDzq2DqDZxV1NjRQc3liS8CFFHb/mwttbKo7OO04+8wAgCA9QGikZYwnd8b8L0+mlmWz5sGqbWpPrloJA0PU1+V/6V/zqum4y9i08skL3NTxML9L74DAID1AaKRDve73r6X80qNv1jeZJrizaOZwmOoDxgl+0Z4CtGIAdEAAGwMEI2URGnoUPzbAzHC/XQwoL8zkUwUMoUbyKdli31fEXOAaAAA8hOIRirUtyKM8QZFhAbq5POe2pkniEKm8DhTZ/ZTeZDDEhWDgWgAAPITiEYKxlqCVHzI/Yyrg3Q3BYPGpyJ9opAp3EV9OKe0inpu6A0JQDQAAPkJRCMZ8tW5Uv8X6ZyB7MTpuI41X8kUrpOZ7KKaAAtGsq/dxYBoAADyE4hGEtTvNap7k4w1+EjRkojhD9ffA3e/250aiAYAID+BaPhRnzYNUOMFi+/UrVA01LemjdZHzPzfDIdoAADyFIgGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwZl1Eo+vKA/qNV2/RYy/ftLLfrp+lH4480HsDAADIF9ZFNEQEkolDOhORAQAAkF+si2i4QmDLSuMDAABYH9ZVNFZqAAAA8guIxoYyTT0vlFDzFb1aEAxTc1EV9UzrVQDApgLdU34i49RTV0E7SktoW1GAdlTUUmg4ogPXmnSi4YTVhLaad4VoALCZWRfRWCkbJxrT1FcVoPJD/TQViRItRyk82kE1pUFqHeb1NQeiAQDYXKyLaHy77x59+8w9vZaZDRONW91UU7SLem7odc3Y8TLadmRQrxFNnWugmrKA0xKpaqOROR0wLfs30Pnhtlh4ZR0L0LIOZ6bO1FNlgFsxpWVUc7yLWncmEQ2VjrR0tL3QTWEdNHXWPHYDDfjO1cERnMrOSb3OXO+giqJq6tMJpUtn5KhPrNT5uI7ecfqdoRZ1HYmipsN743mwY28XTcQaa0546FIvNT4bz8MxszE3N0yh2graLtceqKCDHaMUk2yLPI5e7aCDKu0S2v5sPfUZ2QAAyI6ci8Y/fvlVTARshWPDRGN5lNrL2BG2jVPEcEIm0cEGCgabaEic73KYxtqq4k5dO3vVUmEvFw1fpGZO7+AZ7RFHW6i8lB3mKMfmVszU2Xoq5/i2LY3ouXoqDu6nvutOK2iiq4qKS+tpIEnvWThknJe7Xt1LEjVTOplFo4SKRSwnIyQNMi9OuMqDRV4Nj1KIW2/Fhy5qx+/u30FjcnKL4xTi6wy2jKpQWp6kUAULQcuwcw/Cg9QcZAFs154/Ux7f6OKWIZ+rvjYR6WBZE43IuQAAsmZdWhrv/GRxRcKxYaLBRK910+GnuZYqNdyGDhoYd92u4DjyxnOGp1y8SI3sUPvkZyXKobHzNRyUOODipmH9f4CCx7VzVHB6yVoaCr9oOOv7es3zCVNfdbLaPhPupX0xR+/Ec/bNnE5m0Sin0HUVkgQJ97XWrrZQMJYvifsrQavSAneliYrLWmjMFG3Zv5Qdv2yzyOMKV2AULELlAWp1ggEAWZIT0XCdfirLJBxuvA1DaqijvRSqq1ID4tt3ud0nTi051m0UM+1QlUNj5yZRNeLQth0Vj+U461iNWOFssxON5M56rKVMp+/HEIq5fjoY65rKnE5m0XD/T0aS8GVuLaTZ32wVqf/r3FaJRp2/3scijxPvT6o8BgCslA0RjYbTpuNMxI2XF0h3CTsip/tEHF4ZtZuNBZMNEI2RJm4VJRUNokhvNW3b20/hc/WxrimbdNZcNHRrLNX+GUVDjTXpfVacxwCAtWRduqfk3VO2giFslGhIX/82f9cIM9W1S3efSH+7b4BZcOOndWjy/zp2Twm6hXFwb8DYL3M6cs4vdhlpZisaahDe7J5KLRp23VOp8jhKQ4fM8RON734CAFZP7gfCbzxckWAIGyUatDhMrcEAVTYNGlNuu+kwb6vpdrxc5EwtFctg9jXnWiIyJfdZdnLipTKIhn8gfKJ3f5qBcKKhI9zCaRqmaNRxgc4ANjvfG865TXTXsjPl9ZTZGqHze/n4PiedKR3lxCtaaES8+OIkDRwKGmnYiEZ8oJqik9RTxWLJeeBcRQbR0APhNdyccwbCh6n9Wf9AeIY8LgpS41nnANEb/dT4dC2dNzUSALBq1qWl0XAmYi0YwoaJhjA3Tn0N1VQu02LZ+W1/chc1hsY9Ndep3nqqVNM9nSmdPVpAMjo0xmrKrSbKgvSiihtPM35sPVU2w3RS1UVlzKJySZvO8jSdP1BOxXx9xWUV1NjSQC+uSDR2UWtXS2xKbMWB7oQptylFQ5gbps6XgsaUWz2TSrDI48hwG+170rk/xWVV1D4IxQBgrVgX0VgpGyoaWwzpEkvZfZUTMokKAGAzsy6isVIRgGisAYsRiozLbxbiP+hbHyAaAGxl1lU0Vmpg9ajZUKXldPjMentviAYAWxmIBgAAAGvQPQUAAMCadRGN39hn/31w1/7rX87qvQEAAOQL6yIa8u4pEYFk4pDMRGTe5X0AAADkF+siGgAAALYGEA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDVKNB4sLREMBoPBNtAePMi8zMYkjTUwiAYMBoNtZnMFIdnSNDd+lgbRgMFgsHw00/m7y2zMTDsLg2jAYDDYVjBXGMylaWbcLAyiAYPBYPlopvN3l9mYmXYWBtGAwWCwrWCuMJhL08y4WRhEAwaDwfLRTOfvX67G3HSzNIgGDAaDbQVzhSHVco0MogGDwWD5YJmcviyzMUljDWzdRePe4hKFrixQ4Ogs/T7be/y/bEsWFwaDwWAZzBWEZEvT3PhZ2rqJxq25B3S8f55+q24m4Zvgsq357LyKk2xfGAwGKzgznb+7zMbMtLOwnIvG5zcf0Ksn79K/rY2LxeMHZqjpw3ll8r+7XeLs47iyT7K0YDAYDJbCXGEwl6aZcbOwnInGwPh92vm3d+iXquMtiv/xV7PUPRTxdEfJ/7LtD5tvx+LJPv/zrbBKw0wTBoPBCsZM5+8uszEz7SwsZ6LhCsCv7b1J/+vEHbr6RWYB+IeJ+/RS5x36Vd7H3T9ZvI21y/RmUQm9OZAsLNHmxy/T0Hg4aVjWNvke7Sk6SkPJwsRujNLHV6eTh6WzTOlmY6s9JxgMlt5cYTCXpplxs7Cci8b03eTh6Uz22UjRmL36Hr3x3A4qZnHYVrqDnj/wHn122w1fmWgMNQWouPY0zSYJW7ENHKVtpjPP4Ny/fH8PFT/VSp8lCUtrORSNVZ8TDFZoZjp//3I15qabpeVcNJKFpbIL1+KtkY0SjfnLR+mZoqfojdPjNLvA67fH6cd1T1Hx7vfoZ/clzspEY01thaKxastlSwMGg+XGXGFItVwjyxvRePvSgor/zQ/m1PrGiMY4vftcCT3fNu7dfvdH9EZRQAuFXzTC9Nm7dfT8jgA79ADteK6OPrzuhnFLo4FbKw2X1f9fvrubth06QR8eeI62Sysm8By9cWqSZodaaY+7/+5WGom1anzpyD7a1PGVcz9CH16O7//8gdNa3PTxKt+jL910rp+OtaCKd/CxP/Bdp2s63ZOn+LoCcrwk6eprcsyXJ/cn1TXuKOV9VUvtg+TnlOH8xeaH2un1P5KwEtr+R3V0ajwelvZ60pwDDJaXlsnpyzIbkzTWwPJCNN65HInFP3xqA0Xj1ml6vegZeveaP2yBfnb5Ig1dX+D/vQ5y9vRrVPzUUfp42ln/2YndVPzcCfqZ3jdBNEp307ufTtP8fU7z/VeouJSFYk87jcj+d0fp5O4APdX8qYqfYElbGiX0TB07WmkVTf+I3txRQq+fcsZQvKIxSt9/KkB7TozzsTnutRO0h53p94Z0WqYlpHuR3nyKxbTDccqZROOzVmmZnaDPeN8HC+PONTU515QoGqnP/8F1OcfddPIa57vkF4vYUzv4+lWXZ/rrSXcOMNiWMlcQki1Nc+NnaRsuGic/SRQMMdv919SUE2MnNZkkLGa+WvXdMM2a4zY6jVM3nPXElsbFeNz77IwlrYt63Y1jtg5MSyoadfRj4/hyvOKjxvFiacl5P0Pfv+rGNYUwvr8yle4R+tis8X9YR9t2HKcR/j+TaMg5PNc6Ggufv36ZPr48SfP8f6JopD7/oYYAPedp9XFL8JkA/fVl+T/99aQ7B3cbDJbXZjp/d5mNmWlnYTkTjV97xXH6dxack734WeLsqZ5/iMSm5JqCIfvINknDjJ9zW41o3A/TSKx7SrpyxOJpJIhGGmcbi7Mi0fCOPSQcL5bWAo20PU/buTa+50ArnTw/SrOpumuSpCu1/j/V2zJdx/yn7fSnAelqq6Pvv3uRPtOtMLFE0Uh1/pN0stLNT685x0l/PenOAQbbkuYKg7k0zYybheVMNP5L3S3l+MenF+nAD+bU/3//k3itVgTjl2sSBUNMftwn2yUNc3vOLWX3FDuh29yikK4On4NUTlB1T+lr8wlP/oiGtulRGvqgnd7YvYOKn3qNPkwmkFmKhrL70/TZ5Q/o3QO7aUfpU1R/elJt95yThWjEuqpSWbrrSXEOMNimMNP5u8tszEw7C8uZaHyjNawcv7xbSkRB/pdWRe//i9Dpq/dSCoaY7CNhkoY/LLemB8J1333M0gyEi5Pb867hjJRzzUPRYOf6sdTGY3Gn6dQe37m7ptLN0D1ldrN5roMd9XlvzX72gz2x87AXjQX6uC5AxXU/8nYpueeU9nrSn4O7DQbbUuYKg7k0zYybheVMNP7q7Lxy/LvevqPWXeH4139+k36FLZVgiFV+/44KlzSShefS5tkxP1P6PP31eT3AmmHKrQy4bqtspRFuacxPf0rv7pFuqhyJhhKkPXTqBh9LWj0rEg1uRXFt+w23tq0GnQNc+04izCrd1APhIl7Fpa/QKRk/WJimkbbdagaTKxof1gTUvl9KfnFt/8eHuBWgf6tiLxq8/ulxPf3ZOed5mS319VfoQxGDtNeT/hzcY8FgeW2m8/cvV2NuullazkTD7WKSFsWXYeeEXeFIJxgS122F/PMGvYNq9nI7ve7+uC/wFL1y5IPUP+7TUztlCm3xjt30vdMnqN7o4lpT0VjiY732jDqvPe9Nr0w02ObNHy0GnqPX2z9NPjCs0vVNuT3yI8cBqzhhGml9Xk8b5vxpPc7XbFzH7VE66U53lX1faY9NI16RaLDNXm6lV/7QGS9S+Xsx/mvytNeT5hxgsC1prjCkWq6R5Uw0xL7e4rxP6pW/vxvbJmKRSjDEJK7sI/smC4fBYLAtaZmcviyzMUljDSynoiHvkpKuKGk5DI7fSxrHtMufO2Mdss+nk3hZIQwGg2U0VxCSLU1z42dpORUNse9dcAa1f/O1mzTyxWLSOGL/+PNFFUfitl1M8tsBGAwGKyQznb+7zMbMtLOwnIuGWG3I6XL6d7UzavaUP1x+ES5hEkfi+sNhMBgMlsFcYTCXpplxs7B1EY3FB95B8L94767quur/6T312Vd3+7fSjHXAYDBYQZnp/N1lNmamnYWti2i49uE/3qPf/kvnR3+myba+kcxjHjAYDAZLYa4wmEvTzLhZ2LqKhtjC/SV6e2CB/tsbs8rkf9mWLC4MBoMVrJnO379cjbnpZmnrLhowGAwGy4G5wpBquUYG0YDBYLB8sExOX5bZmKSxBgbRgMFgsM1sriAkW5rmxs/SIBowGAyWj2Y6f3eZjZlpZ2EQDRgMBtsK5gqDuTTNjJuFQTRgMBgsH810/u4yGzPTzsIgGjAYDLYVzBUGc2maGTcLg2jAYDBYPprp/P3L1ZibbpYG0YDBYLCtYK4wpFqukSnRIAAAAMACiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArJmP3INoAAAAsAOiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMCanInG6ZEl+t0js/TYyzet7Yn6Wfoh77f5GKbmoirqmdarfq400bYXuimsV1dLOFRlnY6Ke3RYr62Q6W6qSXc9AICCJWei8Z8P3koqDJnsV/78Jv106qFOZQOZ7KLKojJqv6rX0wLRAAAUBjkTDVcEVsILHXNqn985PEvRZb1xgxhrKaNgWRkVH7pIUb0tNRANAEBhkFeisfDgF/Rb33RaKAc/WNBbN4DlUWovq6DQlV7aV1RPA4t6e4wIjbVV0Y7SEtoWqKDGUBsdNp1sZJQ6q1hwikpo+7P11NO2P42zj9BEqJ4qywK0rShAOyrq6fwNHeTDLxrRa93UWOEcp5jPt/FM3MuruEe66HxdBW3ncHWeRrgwda6BatzjVrXRyJwOgGgAAFKQV6IhfDLxFf3Lamdf+X8jiF6op2LlnKM0dChA+3q97j5yppaKgywmN7gNEg3TWHsVO27XyYbp/N4AlR/qpykVPEqhKnbMKUQjcnY/p9VEQzpwqovTquiiKWfVg0c05vrpcGmQmi/pHSe7qKaUhW7SWVVxi4LUeHaaW21RCl9qovKieHh0sIGC7nGX+RpYBGNpQzQAACnIO9EQDvdG1L7S6pDWx/riE4qrLRT0OPFp6nmhxCsky4Px7inlcKupzwgmdtApWxqLEYqYLRntsPtu6XUDj2iwEETmzI4z57xqup2jOC2NQfW/Q5QG6koo2DLK/ztxG88Z+y9epEb3uBANAEAK8lI0Hj4iKm28rfb/079z+0zWiXAv7SutpyHXkbtdVbqG7oxflFG7+N4YxpiGjF+UtdCYE+CQbkxjOUJjse6pEm3JHbZHNJiI0T3l7lsTcnZUcX1jGlNdu/Q2Od/4PnEzhQ+iAQBIJO9F40861lc0nG6dRIcaPO6qxNqKhjqe6ibStf40DtsjGiqe0z3lTBrQLQ1r0fBfgwFEAwCQgrzunnr8wHp3T01SqCJAzVf0qsv1DqoQITCc81p1T40cjTt6xY0uetFGNBKEiM9rp080UnZPyXWWUGVnrPnk4M5Yg2gAAFKQ1wPhA5+v80D4aAsFS5toJGG6LzvZ8gA1XnBaA/6B8JGWXWkGwoepfWfqgfCJtiCHtdEYtzTUoHm1dFNZiMa1NirneJ2j3NJYDNNYZ7WaJeURjTQD4eoaSqsodC3irI92UM2zLIxyiRANAEAK8ko0NnrK7djx1L/LmGgvp22v9euwNZxyuzwdmxZbXFZF7We7OK1yCl3X4QYe0WCmztRTZYDPobSMao73U+i1Eqpod1TBaWl4p9w2n/OewVRvfCxFnacWEIgGACAVeSUa+fTjPgAAAInkTDTcFsNKLW9eIwIAACCBnImGvLDwd1b4wsLfrp+l3qub8YWFAABQGORMNAAAAGw9IBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiATxEv/qK7s4t0PTNWZr8Yoo+v/4FjX0+ASsgk3su917KgJQFKRMAuEA0gGJ+IUI/vzFN1yd+TjO3bvP6PVpaitLyo0c6BigU5J7LvZcyIGVByoSUDSkjAEA0CpzIvfuqVnljaobu8f8AJEPKhpQRKStSZkDhAtEoYKQWOfHFlxALYI2UFSkzUnZAYQLRKEAePlxW3Q148MFqkbIjZUjKEigsIBoFhjzk0sUQvjOntwCwOqQMSVmCcBQWEI0CQ2qHEAywVkhZkjIFCgeIRgEhXQrokgJrDcpVYQHRKBBkxosMYAKQC6RsYVZVYQDRKBCk7xmzpECukLIlZQxsfSAaBYD8KEvm2AOQS6SM4QeAWx+IRgEgA5W5bGW0DyzSnnfn6ed38OvxQkbKGAbFtz4QjS2OvDdIXgORC37xC6Lqrnl67OWbyv7TgVv0s9srnX4ZoYlQPVWWBWhbUQltf7Ka2gfDOgxkzzT1vFBC244OO6ujLVReFKCDZ3KTx1LW8K6qrQ1EY4sjL5zLxcwWEYwXT8zFBMO1nX97V8ewI3KmlorZiVUe6aaBS/0UOlDO60FqHY7qGPnOMDWz2NWE8rWG7ReNNqooDdDhs1o0rjSxWFdRzxqdvpQ1KXNg6wLR2OLIm0rlxXNriSkY/+YvZjyi8Z3zK+sGGznKDm1nF8WHUMM0dnaYpjaLZmw20fCzxqIhZU3KHNi6QDS2ODKjRd5YulaIYPzJ9x3BCA09oI/Go/RL1Y5gvPLevI5lz1RnBTutIDWenaZoQs9WMofnc9LLERrpqKXKAMfjFsuOinpqP7KL/2+iEScGZ0I/NVeVcQuG4wSCtK+thQ57HH36LrLotW5qrDD2Pz5IYTlX5XDluK4ld77hwRba96STtmd/RonmC23U11ZFO0olDW511XXTRKrx5Mg49dRVxOKWv9RCQ7d0mDDnhG9Xx6qgxtAw9dXx/24eTndTDYc1X9HHjp072wvdLNnZIWUNs6i2NhCNLY58G2GtXm++zMm4gtF5eVFt6x5+oERjNYKhWA7TwBHpkmKnJQ61oZfGYj9YzywaYy1B5TxfbHC6t3pYMFRarmiE++kgO9jip2ups3eQhnrbaF/QcZJuGlOhKiouLafm3nEKz03TWGg/lce6yEapvayEgnW9NDEdoakrbVRTtos6h9mrh8dp6FIH7eO0Kvi8hy5xC8nJljhzg9T8dDkd7uSwOd7/UhNV8vmUt4yqYNdxF+9soJ6zgywe1XzsEqrsnFThHpY5P6oCfC0N1Dc+TZHpUep5ja8/yNcqx13mc5VrC+yi5lA/DZ3tpuadHF8EJoloRMY5P9qr+fh87T38/zALtxNr1UhZkzIHti4QjS2OfFRnLXjIgvHHb91NEIzVtjASEAccamCHzDVyduCtV6SqnUE0Fi9SIzvEynbTwUZo6EhZTDRUS6a0ngbMmvuNLuU4VRrLnB6nUdE2rgOFKA1I7bzuIv83SaEKdupVbTQyGUnSGrLsnopGKMKiEWGvPHSE09a1ekc09hvnF6Hze3lbVZJaP7dsitnBd17T64LkAR+/8VyUohfqObyCQtd1mCBCwqKXTDQUa9w9JaxVmQP5CURji7MWD7AIxh/9H0cw/vaSIxhdV9ZIMJbZ2ZnVW6lNi1Aop5lBNPwOUBPmloMrGk73j98BJ6bh6aZxzd0vMk59x2vpxaeli8rffZRBNPh6+vbqri1luuZviobv/JKfs3tdbjpek+Ob122i0oNogDUCorHFybZ76iuuWacSjJfeybaF4dSCi1WNPk68Jq5FwwwP96ruIOWkdS07XUtjor08fUtDt1b29XpddPj6OEV0qyJ8pZ/G3ODoKHWW8zk3uUKWXjTC3eLIq7j2r69gmVsS0opZhWg4LYlq6jMDlsM0Me5syIeWBrqntj4QjS1ONgPhIhhf/5s7SiBaf+zMiur4eDEmGDIoni3iVKX2XrG3jfouDXKNfpcaxHWFYKxFBEAGr3tp6GwXHX7aGVB2nbR/TMOZsstOMuWYRgu9qAbN42lMdMo4iDEu0iDnEKCabg6POKJS/PR+Cp0dpIFQgxqTCOoxCRGNVgnf2cTn30sjpsNmZEqxM9A/SZG5aZrobaAKjr8a0aDlSQrt5Os3xyx2SXdeFfXJpbhjGqXeMQ3VGkklGsPS5cWtpybO395hYxbb6sBA+NYHorHFyWbK7Z91Oj/cy5VguIQvxWcXFZfJjJ94Ld+dLeTMBnLEo5NbH7GavW/2lHQdDbT5ummM2VPFZVXUPtjrax1ElDNX4yk6TjM7+Rjm7KvSMqpp6KcpY2wjcoGFRB+//are6MItgaHj8ZlR5S+1Uftr/P9qREOQrrKGeHo7qhpowGxombOn+Fwr62RyAP+fSjT4KEMNbv62JHRtrRRMud36QDS2ONn8uO/J42H6g2OO62q7eD8ngpE10Wkau+Z1r2PHuXVS3kFuz3pkfJSmzO4p3cUlg8dgbcGP+7Y+EI0tTjavERHR+PV9M1T2V2ElGLv/bi6/BIOiNNKku6eOy5RXX9eSIDVr6T7S3Usy5fagdHG501TBmoLXiGx9IBoFwGpfWPha94ISDrF97y/Qo7wSDI3bPWV2LfWOewbWVffSS0GnC4YFpbK2zfuDOLAm4IWFhQFEowDAq9HBeoBXoxcGEI0CQWa05PL16KCwkbKFWVOFAUSjQMDnXkEuwedeCweIRgEhM1ty8Zp0UNigXBUWEI0CQwYqw3dibwQEICukLGHwu7CAaBQYDx8uq75nCAfIFilDUpakTIHCAaJRgMhDLrVDdCmA1SJlR8oQBKPwgGgUMPLgywAmZlUBW6SsSJlBhaNwgWgUODLjRboYZI49xAOkQsqGlBEpK5glVdhANIBCfpQl3Q3yGgipRcqL5+SNpWv11T+weZB7LvdeyoCUBSkTUjbwwz0gQDSAB3lvkLxwTt5UKrVK+TaCfFQHVjgm91zuvZQBKQt4lxQwgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBolGsk++QiDwWAwmN/Q0gAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgzXzkHv1/+J0BIT644y4AAAAASUVORK5CYII=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>744211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aboriginal and Torres Strait Islander organization</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       Claim this business      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x3088d3243d8e4939</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> India Post Havelock Post Office - 744211  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       India Post Havelock Post Office, SH4, Govind Nagar, Havelock Island, Andaman and Nicobar Islands 744211      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADiDSURBVHhe7Z2Pcxvneefv70jbaZvptZ3pTK93TS83c8wdC15Z4S5DXD3G1WM0GuOqs1i50NUKWblkFUlhqUguQyUs1ePxEjZIWLNmDIc1x6xFk5EiVTQVhYxPDHsymSqkQxOyJFiUIFGCDPu553l3F3h3sQCWBAGCxPcz8wx293333ffdffF8319Y/AvaYj75wg36xOdv0MPHRO2v3lPbP9Nywwz1xu3kR+o8SatyzFJvfQP1XjH2ErEI1Z2eNXYUWviVHqoL9NGCEWAgxw6MUELt2NOidJIWYp3UHPBTHR83LEKjcQmUuNa2SXo6e0zSDQ3SkhFiMk/RgJV+nM4fC5HPH6bjXYM0Ph+nVFpFUsyd5mvZyqHjyKdCPybbIYpdVwEZFvoCmTRlO9g3z1sJGm/xU/eFlDpuIz5CrVoZJU+tMa3AjnAAQHXyJ61ttOWi8Ut/9r5y+Pcffaz2v/iaIRz57Lf/8raKp5PkcyVM0qocdge6laKh0gr20EzCdKg2JylxHQ5z/SJ1FxSNWepvtDv71Mo8TcX66PheP/n2DdDCunG8HKIx18PiZ6U530dByd/aJB1v7KQZ87o2IBoA7ArKIhp1X7qlHP7CjWxzt5BwuPVC/l/8QxUmaVUOF0efTzSUk2uhcUMhDKa78opGjpNcGaaDhUTj+iCF6ztpShyw27USY9RunpNamaWZWe5dmEGU1nshxUSDeweRBmof0xPX8x6n0QPOcOlR6OWR64Uo2tdJdR0Xs/nQgWgAsCsoi2j80eCacvhR5fGy5BMON9H4+sUHKkzSqhwbEA12nOcP+yl0YpJW2UumErMU3cet7zyisTQQ5DBu/XNPI5WYp1iLDFPpotGQSYtSyzQa8VOQr2044CRNdWSvJeHjhwPksxw0t/RDjRGKXUvKHqWuD7MDDtLQNbVLq8P7qa6F85Xia4uOpxM0NzFNq0Z0Sp5tI1+QBWqZw1MJWohGyKflPXWu0whf4aulU7Q00kZB7lFMmecLS9EQ+Rr91H3OyLGQWp6mqVlTbCAaAOwKyiIar/zgoXL4v/Nl+7BT+iOyiYVlTtH46ONsb0XSqhwbEQ0mOU9DEXbefGzP3k4aHThaYE4jTuc7wrSHj/kCEYpODNPJzLCPxN1P/cN91KrmPPwUPjZCS5pTpjQLBZ/f1Mi9hsYAtXaxgGjzFonpPmp/wpgvkfR7z+kOeZJOPmWI1PhN3l/jfXbw0atGsIjSwkDESNsfpu7YAOdNyzuzOmbNx/ipKdLFAmMGWOg9IxMRSl/LmHE/IBoA7ArKIhqPPiT61BdvKqf/TUdv49ePGsfd7HdP36a33/2QBv7R6GX8Jqchae1+RDS22WFqAmSbTwEAAI2yiIbwvXdSyvH/LPcizv7okXmU6B/mHtFnThq9CDf7VMdN+sXDxrakURtsr2gkRlsobA19pRM0c1qG0qweEwAAZCmbaAhfnbivnP/Ptd6gHt5+bLZm8w1T6Sbn1g7b3NMQoTjTQiF/gxp+Cj0/QHOVnEoCAOwYyioawuk3DeEQ+8ypW/T61Udk/QYjn315vJYEAwAAdg5lFw3h/LUU/dZf5J/LsEziSFwAAADVSUVEQ5AJ7ZEfPqSDL63Rf+q6Tb/S/r4y2ZZjElYbk94AALBzqZhoAAAA2PlANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwTNlE43dP36ZPfP6GzT5z6hbdf/SxGQMAAMBOo2yi8ctt7+eIhtj5aykzBgAAgJ1G2UTjP754y1U0eibumzEAAADsNMomGn/4jTuuovE/onfMGFVKcpFGO8K0p76B6hoD1NwxSatpM4xJXRuh7r1+qpNwf5iOD86Tre+0vkwLEyPU37afQi0jlDAPW6ye7aTmgJzvp6bIAM2tmQGKJC3FrPAG2vNECw3NJs2wXFRewgHyqbwEqX1glpJaXml5zB5+ZpoSmfCNXStLiuZ6gnxOD82ZRxQ3pyka0fOi3xfzWn4Ok2vtbaPYVS/XAgBUG2UTja9deOAqGp/7WjWLRopmTvgpyEKhnGtqmUYjfgoNLBrBiUk63hik3kumFCSmqTfop5MTlgOcpV4WmtaOQYp1hajugF00UrM9FGqM0Oh1dqfpBM2cZuerxUmMRMgX7KSpFcPdJiY6KVTfQuNO5RHiI9TKeemeiFNK8hqfpO5gA7WPmZHT8xRlQWgdXjbCVV6z4Ru6ls58H8cT56+LxjLFwg3UyvdJiZbjviTPtvG1emjGTDt5Se7DUTpvE0wAwE6gbKKxdDudIxif7rxFKx98ZMaoQtYvUnd9iGLXzX1huovqQoO0xJvJC10UbhuzCcHcaXagp2fNPcZsySdikRzRmDnVQOHosrnHqOsFKDovOwkaj7DjHdHPYGccaqDeK+auhjj9uog9/aUoC5WVFxGVehaouLErLA2wSKnwjV0rQ1rEIUj9PZ120bg+SOF6FqB1c59ZHd5PdR0XWYaTNMUCelzPiIgrC0/BawEAqpKyiYawR1tB9e+/dItuJatYMATlaLtoxnT8ipVhOugcijFJrUjrnp3orG2ASpErGnEaPcCOOqY7T+PY8bN5hmrS0nNxiFgB5k77NVESB6/1NNaM1v/xs7pQaHi4lpTJJ0JwpccuGrK/b5hWzV2FiK1DNBXpFK1Kr4Z7HnOayAAAdgZlFY2XrzxUgvEzLTcofrfKBUNQouEQCJdjShDUEE2Ajo9oPQeNXNFI0VSHo6chorHPKSRZlqJh8h2e5La6B7i139zYRud1Lx0fo+OfNeYRxMJ9qkvjStFrydCc30zfTTScApFzzBBIlZfPttG4+20DAFQ5ZRWNjz4m+sxJYxXVl8Y8ub7txaNoWBg9DffWu9vwVOpCJ/m0OY2FKLfc2Yl2n8vtqayePWq0xr3cNs7HSe7x9F7RIsucBufNPqfhntfi10qy4ElaprhtSjRMrJ6GU+AAADuCsoqG8NY/P1ai8XOtN+jqTz80j1YpGxyeEtTYvUsL3U001CqioTZqauTWtj9M3bEx6g9ZcxpZZPhHTZivmAcKkZxVYpDTW5ntIV+gjxbMXSF1rjNnGMnLtSROMMhpWfdFBMEpGl6HpxRGDyvvsBwAoGopu2gIrd++q4Tj14/epNW1nTsRnhg7SuFj9onw7ISvHXfRcCBDSuLYdZFaHqZWPztxL8M3aWN1l/QmchBHbubbQomGfszTtYxJc2uIy2lqMrvgRHiCzh8L0UlrVZfCEA23HhYAoLqpiGg8fJydFK/7kvsKKjm292t3qPmba/SXbyTpO7MP6b07lRYYx5LbtUWKsVNuHjK9KjvZ5vrsktuNDk9lSCVp9cowneRzT05oMVa4pyNLevVhpnyk2fHKcuDTszmCpRABbAxQ91lzSW5iXpUlZM1rbORaTpw9DeeSW7X810/dF4ycrQ6Fqc5acovhKQB2NBURDSFx/2O15FaE49e+8D5dWWIlMfnnW2n618dvqjDdfvOLN80YFcTx475W2w/iZDRokI6bP+7zBWSIadHVaecTDXW8np338100fs3usNXyXa0VnzE38VGO2yWuvsy2wI/7NnQtJzmiwdh+3Oe4L+kkzQ22mT/u81NTuJNGHWUHAOwMKiYaggiH9SJDWVF1ZOQe/fDdx/RrR9zfU/ULf3rDPBMAAEA1UFHREGSoqv3Ve64i4TSIBgAAVBcVFw2L719/TL/z5dzXp+sG0QAAgOpi20RD+Phjold+8JA++9UERAMAAHYA2yoaOovvp+n/XHhA4b+5Q/Uv3qZPHr5B/4XFBAAAQPVQNaIBAACg+oFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB45m7yPkQDAACANyAaAAAAPAPRAAAA4BmIBgAAAM9si2i8euUxBb/6QJlsAwAA2BlUXDTmfvoR+Trv20yOAQAAqH4qLhrD049zREOOAQAAqH7Q0wCVJZ2ghUuLlEib+xvlSg/VHRihhLkLdGaptz5Co3Fzt2bYgnLfXKSZa1tTq+ZON1BrbPc+BMxpOLk5TdHng7SnvoHqGgPU3DFGq6aDS53rJF9jhMZt9SFJM6cC7MiGzXhSgflczfY80UK9Y4uUUvGJErEIH/dT9wXriJ3VobA6r/eKecADq2Od1BzwZ64Xnc79AiQu9VH7UwHyFfuCpZdpqquFQn4t/xPLZmCJ3Byj9sYgDV0z9zdKAdFQ9zXn+TDxEWqtWmeaopkT/NxaxrgmlQpEIwepL/VB6p91fteM76n1HUuMtpAvOEBLxm5JQDRqifVZ6g/6qTU6T0kRgLVFikX8FDwzb4Tz13qqw0++w5OZL3hqtodC9WGKXTcPOCojpVOUmB+k1kY/HT9ruDpDNNghuzqKZYqFDWftWTSu9lGQneXodeOLkbwkeWqh8YxnTdHcmRA17e+jqcU4Jd21yiAdp1Euc+jICC3EOaJL/reVYqLB980XcYRXs2isTdLx+gAFA1yHStZliEYOSjT4+xTsobl185jC8T3dQiAatQQLgK+RK5e5K0jvwuakEvwlZwfafY7dfXqeosEGao7q33b3yrjQx72Rjouqt6GcW0sLtYvYOB2FCECAw/a5VGjl/Oz5E1R6Nke6SEOcr8z5y8PUHOyjBQ9DQqkL0pvqpBnbF4yFaKyF6kKDtpbY6kQXtarejZ+aIl00tWIcXzjDvZnTs8aOgoUwZPasHA5cfcGGpmm8I6x6d75AhIaualKanKehiPSOuMezt5NGB44WFo1QmJqdAucUjXSCZs5YPSkWyOcHaEFXb+c1o3xPtPueujZC3WEj3MfOvvts1kGo8gyMUHQv35c8+dSR++o7cZHzE6CwrR6Z5Tk1SXMDEWpq5Lz67dfis2lBD4sN0Emv5VT3pItGz3IP1Qxv7pik1bVs2XOehd4L9wepfWA+03u20js/O5CpEyq9fHWuQFoll1tHiQbXCW6Ihfqsxp9g/57mfIeSizRq1kkZcWg9M20bUs1X9wWjDozlv49enstImypfOUStVCAaRVCVyXT2FomRCFeELor1hbkF43TG7qKxFA1RndlDUWmeZkdxwu9wFMZQRfPQRRo94F00lCjoPY1p7mk0ttF58xuwOryfQqcGKJqvEmvo4lYINVQXPErjck3ujSwN8z1hsZmSZOel58P5tO6Lyp8pRA4HLl8wGVKKzXNmJZ0hvjcBvqcqNEHnD/OX6gQ7H75MKjGven4FRYPDltQwYrb8zmsuDQS5NzJMS1LIdJJmTvM+O26jzMY1g4c5nfVU9prWfeeewcnGIPVeMhPnsrU2ZsXfKk/0yjIlC3bpBOlV+o3nLPdIyq3VJVWe+iB1T8QpJT2+C10UrOdyrRnhybNt/Az4nq+om0MLUX4GXsup7onRq07I6StjqjG0hxssmWchzzTzLKQhwvGHlzkvvLs2Tb28nxliVemxY848q4vUG2hg8XarZ4XTKrXcNpRo9NDM9UFq5jS5uCaFRCNO49LbPj1tG3FoHjIecsG6z+TUaTPcaogVfy5yH8doKZ407k+VAdEoRPIidbODyFY0ExnCYafuZaxUSF5zGZ4SAVG9Cs1RJMa49yHDSkb6nkWDSYxxy4Svq7ri9SFbnp2VeJVbl0HdqWqouLZeghtG/trH9AQSNN5idcu5BxYIUPSqGcLltX8p7KJhE04zfPymta0PszHTXUVFI8HSrIYRLfFzXDOVTNqH6MSxWD1MR1yF6XhUON+/5Jp+snEvWkeMHOWUpxA2oZD7Z5/nUuWxCbjULT/XOdl2eQZpdr4bKmcXzWhOaeYUP/tT0+Yeo98LVW67E5Oy+nrMuqLisuPUeqi2cJ0iaZVabhvas1uKciMvzL1ldd0CosECE3aUhRbHqH9olmtWsbpvlOXgsJ4Z6WlnBbT4c3Fcu8rYctH4IT+RoanH6jMf9x99TKOzj5XJdj5kVZUsx92W1VVJdnz7uDXkNjaZtuYdAtQ77WxJGZXRcN6WBelkzDERriqo0dK0tbDUPIdRMY0K7ZaeaVYl55Z9SO9pyJxGRhS4QkecjsxeiXWkwuuiofYz1zQrtspTSJvHMVC9FPNc2Q6q4QCHM3Q4ZUnfdo/1cPkyZVq6JnKsqGjIjjaM6LimiH52eMBRNs3JZHAcS2rDU9b5usNwrTMuyDCe1XoVrKEqWz2xCbju6GSbhdnWoJFjHsup7om9nM5nn3Pf4tqQkmVWfC/p6RRIq+Ry6+jPzjacrKfpqDtyzr5hWlUhTuS8wnXfrQ6IIGeObfC5VBtbKhrfdvwGQ/adiEiEzjzIxPmDv153FQ5ZVdWgpVXRVVbWZDBXAusLrLPK3U2ZWBsd4M8At9ZsvtdeGQ3nZe+t6BVUzRUoodAFZJb6tfHMFLfKpGUmPZaD0gqx9s3mylyP33TQFiluaVutHWPbWYnzOTd9GM2GzXG6f3EkH5kvuwxRyRyITPTqcyQOR5STDz1crrlZ0WDUMIY8H3by2Wum+Jrs8GV4wMqTXjZbOU30Yyp/xvCU0VI2BN4qQ777mkOa76GMyWechmXZnlVpzrNIOb04ef1ZrHPaARlS4saP2R60xfeSnkWRtMomGoI0sCTuivROtk409LrvVgeyorHx51JtbKloPPnVrBiIyb4T6V3occTkmBNZjqvHkf2KYI4xZsYznawM80M1exhmjyPE3eqsuOgV3EB1izVnZqug6xepWybEY/pQVW4aijwVSiqpc25EhMI6ljtPwY5uX57xZhkycw4JCbYvX/EuujFEFaJoX6f92rojYnK+YHq42t7M8JSFMTYdPBChcOaaei/ORNK0ynbT5Zp62WXbcQ25l1YZ3ByGG2rBQU45jOdm3dfCztPlGdiGaYqU06Uu6Y5bkfMs7PHVcJYV30t6FkXSKq3cDmz1VmCn3RPkZxjhPGTvj63uuA1Pye84ZuN8tsv1+Szvw1Mbfy7VxpaKxn/rsTt62XdS3aKR5Acuk1QjeVZ9GE4oM1YuqJZL/gk2hdmyUkMljN25mev0+ZzsUMXGREM5oEAnnZeJQSaplshqeZLzeF8mFrNzGrkrpAzMe7Cvh2aWjXHn1NoyC6lM+mfXsRuTgfzFkmtymksjbSpNazJQkF6LTw0RZeXKKEP2C15QNPgO2SfCZ9WQoXfRYFTZ2SFl0kzS+SMsJLKyRya6lyep9yltolu/pttE+LUB1VIdmueexnqCFoZa1BCLu2jwvRzqodisU5w5D4fdxUWt1gsbrdzCzpNTcUwIz/Xt1yaEi5TTpS4VFA21ACBA3WeXudxchya6KCz31YrvJT2LImmVVm4HOaLBqKX1UieyadrrjpeJ8Px1X5U770T4xp9LtbGlovH3P/jQ5uhl34kMRcmQlBWn0PCUnlZFhqfUAzMqk9Okcq1yxbKtylGYLZfMKip3h28MlXBl4IqT49xyWvd5RGM9TnOXFrna5VLsx31qmagsA5VwWUZ6zS0VE+5tLcSy6cmSyINtAzQjk9Ma2Wuayw71zo7g1mLTHRFTWDSYjS65dQlTz61QmqM99ny6XVP7IovoqmWqainmJMWOZHt19vIYrUprkjyDWvCQ53cZqucZUj9+LOY8xQEVXHpaqJxenLzjWaSu6stpR2i8J5TtRXpJT6NQWiWXW8dNNJgUHw9paebUHX3JLV/j+OCsbeShUN1XdcC25LaNYvr3bYPPpdrY8onwf3rvI4p9/7H6zIeIhPQuxNwEw2JbJ8JB7eLoZarWfx6hKohMvMoqMtv4OwA7my0XDQB2NjI+HTJ/IyC709QbdB9KKkZqfoDabfNdAOx8IBoAOMn5tbJ9aAKAWgaiAQAAwDMQDQAAAJ7ZFtGQlVCyhFasoj/aAwAAUBIVFw1ZCaUvpRXD6igAANgZVFw08HevAACwc0FPAwAAgGcwp7Fp8vxqe4vI/VUsAABsP9siGtWL+doHTz/kgmgAAGoPiIYNiAYAABQComEjVzTkxWrtTxgv7pMXAQ5l3lia+xK1pcxL/vzUFJa3zppBKm6EYpfGzJcGykvOHP9LvTKphfXRaM9+m2jkzwcAAFQOiIYNh2g4/g9a/SNe5m20dtFIThwlX7CHZsy32skfNfnMV1xbcX2RQVqQ8PVFivF1Mn+cpP5RzK/+r1leVyGvS+6WVzdbolEwHwAAUDkgGjYcoqFeU3xU+4+IBC1dmqYlF9Gg9SQlXV4Brv7rWsW1/9uXGn6KmG9OvdJj/IG//urlYa2nUTAfAABQOSAaNpzDU3E6fyxEPnmfftcgjc+bbz5VOETD+R8Uyqx3/Etc+/v+9ff3q23HX6za5zQK5QMAACoHRMOG+0R4amWepmJ9dHyvn3z7BmhB9SjsoqGcvBqeMl+EbfY0tkY0DNzzAQAAlQOiYcMuGqmVWfN/gU3Un+pYQmEXjZx/oFsZpoMeRaPY8FThfAAAQOWAaNhw9DTk/7/lv37Nv2pMXR/m3kNQ/RWnUzSWBuTP6rn1zz0N9b/SLTJM5VE0nBPhi2N0Up8IL5gPAACoHBANG7nDU4npvsxSV18gQr3nrDC7aFA6TufN/xSWeNGJYTqZmfwuIhpCkSW3+fMBAACVA6IBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPVEQ0hq88pF/985v0ic/f8GSf7rxF/zD30DwbAABAtVAR0RARcBOHQiYiAwAAoLqoiGhYQuCVjcYHAABQGSoqGhs1AAAA1QVEY1uJ0+iBBuq9Yu7WBLPUWx+h0bi5CwDYUWB4yklykUY7wtTU2EB19X5qCrdRbDZpBm41hUTDCGuN7TbvCtEAYCdTEdHYKNsnGnEaj/gpdGKSVpMponSKEvOD1NoYpP5Z3t9yIBoAgJ1FRUTjy+P36ctn75t7xdk20bg5Qq31+2l0xdw3WTgToLpT0+Ye0eq5LmoN+I2eSGSA5tbMgLic30XnZwcy4c0dLEBpM5xZPdtJzX7uxTQGqPXMMPXvcxENlY70dEw7MEIJM2h1Qr92F0058mpgCE7z0LK5z1wfpHB9C42bCRVKZ+60Q6xUfixHbzj9oVifKkeuqJnhY9l70HR4mJYynTUjPHZpjLr3Zu/hgt6ZW5ulWFuY9kjZ/WE6PjhPGcn2cI9TVwfpuEq7gfbs7aRx7TYAAEqj7KLxo/ceZ0TAq3Bsm2ik5ykaYEc4sEhJzQnppKa7KBjsoRlxvukELQxEsk7ddPaqp8JeLpW4SL2c3vGzpkec76NQIzvMeY7NvZjViU4KcXyvPY3UuU7yBY/S+HWjF7Q0HCFfYydNuYyeJWJavqz9ljGSqMXSKS4aDeQTsVxOknTI7Bjh6h6s825inmLce/OduGg6fuv8QVqQzK0vUozLGeybV6GUXqZYmIWgb9Z4Bolp6g2yAEZNz1/sHq8Mc8+Q82qWTUQ6GOihOckLAKBkKtLT+Lvvr29IOLZNNJjUtRE6+RS3UqWF2zVIU4uW2xUMR959TvOU6xepmx3quPysRDk0dr6agxIH7OuZNbf9FDxjOkcFp+fW01A4RcPYbx/T85Og8Ra31j6TGKP2jKM34hnnFk+nuGiEKHZdhbgg4Y7e2tU+CmbuS+75StAipsBd6SFfoI8WdNGW8xvZ8csxD/c4bAmMgkUo5Kd+IxgAUCJlEQ3L6eezYsJhxds2pIU6P0axjoiaEN+z3xo+MVrJmWGjjJkOVTk0dm4S1UQcWt1p8ViGs860iBXGMW+i4e6sF/oCZvpONKFYm6TjmaGp4ukUFw1r2w2X8DT3Fgqcr/eK1HaH1SsxUfk3z/Fwj3OfT757DADYKNsiGl1v6I4zFyteVSDDJeyIjOETcXgBiuqdBZ1tEI25Hu4VuYoGUXKsheoOT1LiXGdmaMpLOlsuGmZvLN/5RUVDzTWZ52z4HgMAtpKKDE/Ju6e8CoawXaIhY/11zqERZnV4vzl8IuPtjglmwYpf0KHJdgWHpwSzh3H8sF87r3g6kueDw1qapYqGmoTXh6fyi4a34al89zhFMyf0+RMTx/MEAGye8k+Er3y4IcEQtks0aH2W+oN+au6Z1pbcjtBJPtY6Yni55Nk28slk9jWjLElZkruXnZx4qSKi4ZwIXxo7WmAinGjmFPdwemYplTJcoDGBzc53xcjb0kgbO1Pez3tbk3T+MF/f4aSLpaOceLiP5sSLry/T1ImgloYX0chOVFNqmUYjLJZ8D4xSFBENcyK8lbtzxkT4LEX3OifCi9zj+iB1TxgXSK1MUvdTbXRe10gAwKapSE+j62zSs2AI2yYawtoijXe1UEiWxbLz2/PEfuqOLdparqtjndSslnsaSzpHTQEp6tAYT0tuTVIsSAdV3Gya2WubS2WLLCdVQ1TaKiqLgumk43T+WIh8XD5fIEzdfV10cEOisZ/6h/syS2LDx0ZyltzmFQ1hbZaGng9qS27NlVSCh3ucnB2g9ieM5+MLRCg6DcUAYKuoiGhslG0VjV2GDInlHb4qC8VEBQCwk6mIaGxUBCAaW8B6kpKL8puF7A/6KgNEA4DdTEVFY6MGNo9aDdUYopNnK+29IRoA7GYgGgAAADyD4SkAAACeqYho/Gq79/8Ht+zf/sUt82wAAADVQkVEQ949JSLgJg5uJiLzMp8DAACguqiIaAAAANgdQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPKNF4+OgRwWAwGKyK7OHD/J+bMSvdEg2iAYPBYLvBLGHI97lFBtGAwWCwarBiTl8+SzFJYwsMogGDwWA72SxBcPvUzYpfokE0YDAYrBpNd/7WZymmp12CQTRgMBhsN5glDPqnbnrcEgyiAYPBYNVouvO3PksxPe0SDKIBg8Fgu8EsYdA/ddPjlmAQDRgMBqtG052/83MzZqVbolVcNO6vP6LYlXvkP32L/jPbK7wtx9ziwmAwGMyjWcKQ73OLrGKicXPtIZ2ZvEuf6ng/5z/B5VjvxF0Vx+1cGAwG2/VWzOnLZykmaWyBlV00fnzjIf35q3foX7ZlxeI3jr1PPW/eVSbb1nGJ085x5Ry3tGAwGAzmMEsQ3D51s+KXaGUTjanFB7TvGx/Qz7ZkexT/9a9u0chM0jYcJdty7Pd6b2fiyTl/+DcJlYaeJgwGg9WM6c7f+izF9LRLsLKJhiUAnzx8g/7nSx/Q1XeLC8APlx7Q80Mf0C/yOdb5bvG21y7TV+ob6CtTbmG5dnfxMs0sJlzDSrblV+hQ/WmacQsTW5mnt67G3cMKWbF0S7HN5gkGgxU2Sxj0T930uCVY2UUjfsc9vJDJOdspGreuvkIvPtNEPhaHusYmevbYK/TObSt8Y6Ix0+MnX9sbdMslbMM2dZrqdGdexLm/951D5Huyn95xCStoZRSNTecJBqs1052/9VmK6WmXYGUXDbewfHbhWrY3sl2icffyaXq6/kl68Y1FunWP928v0vc6niTfc6/QTx5InI2JxpbaBkVj01bOngYMBiuPWcKgf+qmxy3BqkY0vnnpnor/xdfW1P72iMYivfxMAz07sGg/fue79GK93xQKp2gk6J2XO+jZJj87dD81PdNBb163wrin0cW9la7Lavu9l5+juhMv0ZvHnqE90ovxP0Mvvr5Mt2b66ZB1/nP9NJfp1TjSkXNMU9dXzv0UvXk5e/6zx94wxc28XvMr9J6VzvU3Mj0oXxNf+zVHOS0z0331dS6XX67nkq5ZJsMc9+TBsipjUyOfq3pqr7nnqUj+xe7OROkLn5OwBtrzuQ56fTEbVrA8BfIAg+0I052/83MzZqVbolWFaPzd5WQm/snXt1E0br5BX6h/ml6+5gy7Rz+5fJFmrt/jbbuDvPXGEfI9eZreihv7P3npOfI98xL9xDw3RzQan6OX347T3Qec5ndeIF8jC8WhKM3J+Xfm6dXn/PRk79sqfo659jQa6OkOdrTSK4p/l77S1EBfeN2YQ7GLxjx960k/HXppka/Nca+9RIfYmX59xkxLt5x0L9JXnmQxHTSccjHReKdfemYv0Tt87sN7i0aZeowy5YpG/vw/vC55fI5evcb3Xe4Xi9iTTVx+NeRZuDyF8gCD7UqzhCHf5xbZtovGqz/IFQwxr+dvqSknxk5q2SUsY45W9Z0E3dLnbcw0Xl8x9nN7GhezcR+wM5a0Lpr7Vhy9d6Cbq2h00Pe068v1fKe162XSknw/Td+6asXVhTB7vjKV7il6S2/xv9lBdU1naI63i4mG5OGZ/vlM+N3rl+mty8t0l7dzRSN//me6/PSMrdfHPcGn/fTXl2W7cHkK5cE6BoNVlRVz+vJZikkaW2BlE41PvmA4/Q/uGZm9+E7u6qnRHyYzS3J1wZBz5Jikoccvu21GNB4kaC4zPCVDOWLZNHJEo4CzzcTZkGjY5x5yrpdJ6x7NDTxLe7g1fuhYP716fp5u5RuucUlXWv1/bB4rVo67b0fpj/0y1NZB33r5Ir1j9sLEckUjX/6X6dVm637azbhO4fIUygMMtqvMEgS3T92s+CVa2UTjtzpuKse/GF+nY3+/pra//f1sq1YE4+dacwVDTH7cJ8clDf142S3v8BTfqNvco5ChDoeDVE5QDU+ZZXMIT/WIhmnxeZp5LUovPtdEvieP0JtuAlmiaCh7EKd3Lr9GLx97jpoan6TON5bVcVuePIhGZqgqnxUqT548wGA7wnTnb32WYnraJVjZROMP+hPK8cu7pUQUZFt6FWP/N0lvXL2fVzDE5BwJkzScYeU1cyLcHLvPWIGJcHFyh17WnJFyrlUoGuxc35LWeCZunF4/5Mi7ZSrdIsNT+jCbrRzsqM/bW/a3XjuUyYd30bhHb3X4ydfxXfuQkpWnguUpnAfrGAy2q8wSBv1TNz1uCVY20firibvK8e//5gdq3xKOX/jTG/TzbPkEQ6z5Wx+ocEnDLbycdpcd89ONz9JfnzcnWIssuZUJ17rmfprjnsbd+Nv08iEZpiqTaChBOkSvr/C1pNezIdHgXhS3tl+0Wttq0tnPrW8XYVbp5p8IF/HyNb5Ar8v8wb04zQ08p1YwWaLxZqtfnfue3C9u7X/vBPcCzN+qeBcN3n/7jLn82cjzXVkt9fsv0JsiBgXLUzgP1rVgsKo23flbn6WYnnYJVjbRsIaYpEfxXsLIsCUchQRD4lq9kH/epndQ3bocpS9YP+7zP0kvnHot/4/7zKWdsoTW1/Qcff2Nl6hTG+LaUtF4xNc68rTK16FX4hsTDba7+o8W/c/QF6Jvu08Mq3QdS25PfddwwCpOgub6nzWXDfP96T/DZdbKcXueXrWWu8q5L0Qzy4g3JBpsty730wu/Z8wXqft7Mftr8oLlKZAHGGxXmiUM+qduetwSrGyiIfb7fcb7pF749p3MMRGLfIIhJnHlHDnXLRwGg8FqwnTn7/zcjFnplmhlFQ15l5QMRUnPYXrxvmsc3S7/2JjrkHPeXsbLCmEwGMyzWcKQ73OLrKyiIfb1C8ak9q8duUFz7667xhH70U/XVRyJO3DR5bcDMBgMtputmNOXz1JM0tgCK7toiLXFjCGnX257X62ecobLL8IlTOJIXGc4DAaDwfKYJQhun7pZ8Uu0iojG+kP7JPifvXJHDV1N/tN99bev1vEvFZjrgMFgsJoy3flbn6WYnnYJVhHRsOzNH92nT/+F8aM/3eTY+FzxOQ8YDAaD5TFLGPRP3fS4JVhFRUPs3oNH9M2pe/TbL95SJttyzC0uDAaD1azpzt/6LMX0tEuwiosGDAaDwcpgljDon7rpcUswiAYMBoNVo+nO3/m5GbPSLdEgGjAYDLYbzBKGfJ9bZBANGAwGqwYr5vTlsxSTNLbAIBowGAy2k80SBLdP3az4JRpEAwaDwarRdOdvfZZietolGEQDBoPBdoNZwqB/6qbHLcEgGjAYDFaNpjt/67MU09MuwSAaMBgMthvMEgb9Uzc9bgmmRIMAAAAAD0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPAMRAMAAIBnIBoAAAA8A9EAAADgGYgGAAAAz0A0AAAAeAaiAQAAwDMQDQAAAJ6BaAAAAPBM2UTjjblH9B9O3aJPfP6GZ/t3nbfoH/i8nccs9dZHaDRu7jq50kN1B0YoYe5ulkQs4jkdFff0rLm3QeIj1FqoPACAmqVsovFvjt90FYZi9vN/eoP+afVDM5VtZHmYmusDFL1q7hcEogEAqA3KJhqWCGyEA4Nr6pzPnLxFqbR5cJtY6AtQMBAg34mLlDKP5QeiAQCoDapKNO49/Jg+9UWjh3L8tXvm0W0gPU/RQJhiV8aovb6TptbN4xmStDAQoabGBqrzh6k7NkAndSebnKehCAtOfQPt2dtJowNHCzj7JC3FOqk54Ke6ej81hTvp/IoZ5MApGqlrI9QdNq7j4/x2n816eRX31DCd7wjTHg5X+dTChdVzXdRqXTcyQHNrZgBEAwCQh6oSDeEHS4/pZ1qMc2V7O0hd6CSfcs4pmjnhp/Yxu7tPnm0jX5DFZIX7IKkELUQj7LgtJ5ug84f9FDoxSasqeJ5iEXbMeUQjOXGU0+qhGTNwdZjTCg/TqrFrwyYaa5N0sjFIvZfME5eHqbWRhW7Z2FVx64PUPRHnXluKEpd6KFSfDU9Nd1HQum6ay8AimEkbogEAyEPViYZwciypzpVeh/Q+KotDKK72UdDmxOM0eqDBLiTp6ezwlHK4LTSuBRM76Lw9jfUkJfWejOmwx2+a+xo20WAhSK7pA2dGvlpHjKsYPY1ptW2QoqmOBgr2zfO2Ebf7nHb++kXqtq4L0QAA5KEqRePDj4gau2+r8//4b60xkwqRGKP2xk6asRy5NVRlttCN+YsARcX3ZtDmNGT+ItBHC0aAQaE5jXSSFjLDUw2muTtsm2gwSW14yjq3NWacqOI65jRWh/ebxyS/2XOypgsfRAMAkEvVi8YfDVZWNIxhnVyHGjxjqcTWioa6nhomMlv9BRy2TTRUPGN4ylg0YPY0PIuGswwaEA0AQB6qenjqN45VenhqmWJhP/VeMXctrg9SWIRAc85bNTw1dzrr6BUrw3TQi2jkCBHna59DNPIOT0k5G6h5KNN9MrBWrEE0AAB5qOqJ8KkfV3gifL6Pgo09NJez3JedbMhP3ReM3oBzInyub3+BifBZiu7LPxG+NBDksAFa4J6GmjRvkWEqD6JxbYBCHG9onnsa6wlaGGpRq6RsolFgIlyVoTFCsWtJY39+kFr3sjBKESEaAIA8VJVobPeS24Uz+X+XsRQNUd2RSTNsC5fcpuOZZbG+QISiE8OcVohi181wDZtoMKtnO6nZz3loDFDrmUmKHWmgcNRQBaOnYV9y23vOnoPVsexcisqnKSAQDQBAPqpKNKrpx30AAAByKZtoWD2GjVrVvEYEAABADmUTDXlh4Wc2+MLCT3feorGrO/GFhQAAUBuUTTQAAADsPiAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAG6nHj+nO2j2K37hFy++u0o+vv0sLP16C1ZDJM5dnL3VA6oLUCQAsIBpAcfdekn66EqfrSz+l92/e5v379OhRitIffWTGALWCPHN59lIHpC5InZC6IXUEAIhGjZO8/0C1KldW36f7vA2AG1I3pI5IXZE6A2oXiEYNI63IpXffg1gAz0hdkTojdQfUJhCNGuTDD9NquAFffLBZpO5IHZK6BGoLiEaNIV9yGWJIfLBmHgFgc0gdkroE4agtIBo1hrQOIRhgq5C6JHUK1A4QjRpChhQwJAW2GtSr2gKiUSPIiheZwASgHEjdwqqq2gCiUSPI2DNWSYFyIXVL6hjY/UA0agD5UZassQegnEgdww8Adz8QjRpAJirL2cuITq3ToZfv0k8/wK/HaxmpY5gU3/1ANHY58t4geQ1EOfj4Y6KW4bv0ic/fUPavjt2kn9ze6PLLJC3FOqk54Ke6+gba80QLRacTZhgonTiNHmigutOzxu58H4Xq/XT8bHnusdQ1vKtqdwPR2OXIC+fKsbJFBOPgS2sZwbBs3zfumDG8kTzbRj52Ys2nRmjq0iTFjoV4P0j9sykzRrUzS70sdq2xam1hO0VjgMKNfjo5YYrGlR4W6wiNblH2pa5JnQO7F4jGLkfeVCovnttKdMH4pT973yYa/+v8xobB5k6zQ9s3TNkp1AQtTMzS6k7RjJ0mGk62WDSkrkmdA7sXiMYuR1a0yBtLtwoRjD/6liEYsZmH9I+LKfrZFkMwXnjlrhnLO6tDYXZaQeqeiFMqZ2TLzeE5nHQ6SXODbdTs53jcY2kKd1L01H7e7qE5IwbfhEnqjQS4B8Nx/EFqH+ijkzZHX3iILHVthLrD2vlnpikheVUOV65rmbvzTUz3UfsTRtq28xklmgcGaHwgQk2Nkgb3ujpGaCnffHJykUY7wpm4oef7aOamGSasGeF71LXC1B2bpfEO3rbuYXyEWjms94p57Uze2Q6MsGSXhtQ1rKLa3UA0djny3whb9XrzNCdjCcbQ5XV1bGT2oRKNzQiGIp2gqVMyJMVOSxxq1xgtZH6wXlw0FvqCynke7DKGt0ZZMFRalmgkJuk4O1jfU200NDZNM2MD1B40nKSVxmosQr7GEPWOLVJiLU4LsaMUygyRzVM00EDBjjFaiidp9coAtQb209Ase/XEIs1cGqR2TivM+Z65xD0k47ZkWZum3qdCdHKIw9b4/Es91Mz5CfXNq2DLcfv2ddHoxDSLRwtfu4Gah5ZVuI0034+In8vSReOLcUrG52n0CJc/yGWV66Y5r1I2/37qjU3SzMQI9e7j+CIwLqKRXOT7EW3h63PZR3l7loXbiLVppK5JnQO7F4jGLkf+VGcr+JAF47//zZ0cwdhsDyMHccCxLnbI3CJnB95/RZraRURj/SJ1s0NsjuoONkkzpwIZ0VA9mcZOmtJb7ivDynGqNNKcHqcRHlg0A4UUTUnrvOMiby1TLMxOPTJAc8tJl96Qx+GpVJKSLBpJ9sozpzhts1VviMZRLX9JOn+Yj0VcWv3cs/Gxgx+6Zu4Lcg/4+t3nUpS60MnhYYpdN8MEERIWPTfRUGzx8JSwVXUOVCcQjV3OVnyBRTA+9zVDML5xyRCM4StbJBhpdnZ681Za0yIUymkWEQ2nAzRJcM/BEg1j+MfpgHPTsA3TWGadl1yk8TNtdPApGaJyDh8VEQ0uz/hhc2hLmdny10XDkT/3PFvlstKxm1xfL7eOSg+iAbYIiMYup9Thqcfcss4nGM//Xak9DKMV7FMt+izZlrgpGnp4YkwNByknbbayC/U0lqKhwj0Ns7fSPmZ30Ynri5Q0exWJK5O0YAWn5mkoxHnusYSssGgkRsSRR7j1b5YgzT0J6cVsQjSMnkQLjesB6QQtLRoHqqGngeGp3Q9EY5dTykS4CMbv/+8PlED0f89YFTX41npGMGRSvFTEqUrrPXx4gMYvTXOLfr+axLWEYKFPBEAmr8doZmKYTj5lTChbTto5p2Es2WUnmXdOo48OqknzbBpLQzIPos2LdEke/NQ6wuFJQ1R8Tx2l2MQ0TcW61JxE0JyTENHol/B9PZz/MZrTHTYjS4qNif5lSq7FaWmsi8IcfzOiQelliu3j8utzFvtlOC9C41IUa06j0T6noXoj+URjVoa8uPfUw/d3bFZbxbY5MBG++4Fo7HJKWXL7J0PGD/fKJRgWiUvZ1UW+gKz4ybbyrdVCxmogQzyGuPeRadk7Vk/J0NHUgGOYRls95QtEKDo95ugdJJUzV/MpZpxedvIZ9NVXjQFq7ZqkVW1uI3mBhcS8fvSqedCCewIzZ7Iro0LPD1D0CG9vRjQEGSrryqbXFOmiKb2jpa+e4rw2d8jiAN7OJxp8lZku6/725QxtbRQsud39QDR2OaX8uO+JMwn67FcN1zVw8UFZBKNkUnFauGZ3rwtnuHcSGiRrZD25OE+r+vCUOcQlk8dga8GP+3Y/EI1dTimvERHR+JX29ynwVwklGM/97Vp1CQalaK7HHJ46I0teHUNLgrSsZfjIHF6SJbfHZYjLWqYKthS8RmT3A9GoATb7wsIjI/eUcIi1f+cefVRVgmFiDU/pQ0tji7aJdTW89HzQGIJhQWluG7D/IA5sCXhhYW0A0agB8Gp0UAnwavTaAKJRI8iKlnK+Hh3UNlK3sGqqNoBo1Aj4u1dQTvB3r7UDRKOGkJUt5XhNOqhtUK9qC4hGjSETlYkPMm8EBKAkpC5h8ru2gGjUGB9+mFZjzxAOUCpSh6QuSZ0CtQNEowaRL7m0DjGkADaL1B2pQxCM2gOiUcPIF18mMLGqCnhF6orUGTQ4aheIRo0jK15kiEHW2EM8QD6kbkgdkbqCVVK1DUQDKORHWTLcIK+BkFakvHhO3li6Vf/6B3YO8szl2UsdkLogdULqBn64BwSIBrAh7w2SF87Jm0qlVSn/jSB/qgOrHZNnLs9e6oDUBbxLCuhANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzEA0AAACegWgAAADwDEQDAACAZyAaAAAAPAPRAAAA4BmIBgAAAM9ANAAAAHgGogEAAMAzSjTc/vIRBoPBYDCnoacBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAMxANAAAAnoFoAAAA8AxEAwAAgGcgGgAAADwD0QAAAOAZiAYAAADPQDQAAAB4BqIBAADAM3eT9+n/A+M4FB7R9UfLAAAAAElFTkSuQmCC</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       indiapost.gov.in      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>03192 282 403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x308895123f074e9f</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Ramakrishna Mission  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       MQ82+J3R, Rajiv Gandhi Nagar, Port Blair, Andaman and Nicobar Islands 744104      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADLsSURBVHhe7d2Nd1TnfSfw/TN80nSbpt2253SPd7tNUu+p7NWOqMqc+KBTL3PKWic+Vuo1Co7YDZFiDOXNsrDAquRoha1SR4mIQEVmHBUtisHCxlbBUEWKw1QNSDFINkggMUYwgDQg+O7ze+69M3ferzQvGjTfzzm/My/3dYbh+d7nuXdG/w5EREQO3AjcAkODiIgcYWgQEZFjDA0iInKMoUFERI4xNIiIyDGGBhEROZaz0Ji7B/xsaBbrD8xgRcM1/N5LV/FHm6/q+/Jc9y9ncXfenJmIiPJSTkLj+K+D+PorU/jS968krcfqpnHiXNBcioiI8k3WQ6Px2K1QKHzt5Sm8fPgmTv3mLmbuPNB18jdB/ZxMs+Z7/b1b5tJERJRPshoaTarxlxD4/Zeu4sjZOTx4YE6IQ6bJPDKvLPPDPgZHpg3sewzf7r1mPiIiWrishcaH54O68f/KD67gXy/fM58Ns3oV0XxqXllGpsk6lsLc+cPY3vBNPLr9MTzy8jexbt9RjATMibl2dQBvtqzBN8x9KW87ivEEb8vVYxvUPm+A97L5RBSGBhGlKyuhISe9/9Qcbmo/dcd8NlKi0BD71DIyTdYxe9d8MleGf4wnt6/BS73ncfV6ADcmz8O7dw0ebXwb4/fNeXJl1ofX65/Auu7zuCFBcf089jc/gRX/eN6Ybjf9AV56WQULQ4OIsigrofH2L2Z1o/+12incTzAklSw0ZBnrxPkhta7cCeBIy2Mo775oPjbdP483dz6Gl943uxuXD+Pb25vhff81lOuGegXK953EDVuozPnexksNK9S0x/CNhtdwJLRKFQSqYd9/5qjqzcj0J/B483744vVkftWKR19uVUuEzZ18DY+8fhhXzceGIPrfWoF1B5rVfqUIjcMDONL2nO65PPrKBrT5bN2W4GX07duAx+U16R7WSVtQGvttX/fV3g3hfbHek2Nb9fKvD8qTQfgObcST5nv0ZIt6ndfl+cy7c+eOrlSczkdE8WUlNNbum9ENfrLzEslCQ8iyMr1SrStnrquj9e3PYP+n5mMbX9dTeOQnA8YD3UCaPQCVaXOfn8Sr9SpsDpst6udq+suqgf1UNcj3g7j64WtYsbMZAzr/pPFVDXbz2/D51cPARex//TGs6IrTe4hDN9RvncSc+VjMDTZjRYPqCcl2U4TGI2q/9g+rhAoGMXJYrWvnj81QkuB5Ak/uPYpx2c/Zi/CqXs2joW05CY3H8GTbUYxMBjCnXvqN/jo8Wt+MfnmdwQD6963BIy1HcUPmz7A333wTTU1NSQNBpsk8UkS0OFkJjaJXp3WDf/bz2HMZllSh4bt0T0+XdeWMbvjiN7rxjqoHbD2LG30b8chu1XCr+wP7nsDqiN6KCobdT+D1X8l9aXwjg0mvu/loVO8hjsBJbH95Dd4cNh8L6QXVm88l2X8hoRGxX+b8R2TD+v5GHLG/3dNHsSG0Pieh8Rr6bR1DPX2vLeD8F9F/5mJWQuPy5cvYsmVLwuCwAqOmpgYDA2b4E9GCZSU0vrrRCISbs4kvl0oVGrKsTJd15UySRjduaOgpJn2UL89dg1f1HGRYKrqMIZsUjW8iARUOjSuwrjdy58a7n8MK1QPSDXOS/Rcx5zTs86veihV6YcawnKP9jveeXP4A21VYfqNhK149fBS+zxOcwc+QRMHBwCDKnKyEhnzb22loyPDTrbnY+azQkEtwc2ZBw1NRDeSnb2O1LTRC5z9iLCI07l/WQ0VP7vNFDEvp/Xh5K/qs3kHGQ0Pta+j8xCJCQ8jw3PBJeA9sRfnLT6D80PnI15Bh0cHBwCDKrKyExn/daQxPyRBTIt1Ds/iDTUa4yEnvX34WeZmUXHor03I6PJXwRPhF7G+IPRFub4L0CWrd6AbR3/YEHm0zj/4tTk8oR7sfUI39GhUYAxEn2oXvwBNxezRS8a6SShoa+n6q4anvwvu5nqIlDw0VFr8aiOxd+H6MFfGCJcPswcHAIMqsrITGd35qnAhvTvEFvYmZ+1jV7Nfzfrn6Cnb/PIB5s2GUZeX573Tk8ES4SHDJ7SP1P4bParR1A2m7FNY/gNfrbQ2yuY5X+43H+kT57q1mg7yQ0AjqwHi0+bCzy33tIRBH0tCwToS3ncRV80T4kTeesp0IN3pQ5f/o0695btw4+Z+sp+Hrkn1/GyNyxZTqcYzLiff6/RgxJmeVFRwMDKLMykpo2C+5vZeisZPLa/e8fwv/vuYKVjZd09/xkGVkWVlHbi+5NaT8cp9uIOvQ1hu+5PbbByJ7Ajd+tR8bdq7QR/1yaeubA1ZjvYDQ0NsJ9x7sZQwZRUkrNJTgZX05bsQlt/bTEJ8b5yj0ZcINr+HNn3w3aWjg/jUMHLAuuZVLi5vRb+upZJsEBwODKLOyEhrS8Fu/JZXoy33RZDjKf8s4tyHLyLLy5T5ZV96J10ASERWArISGkF+rlYZffhIk2aW30WTepf4ZkZQYGkRUoLIWGkJ+rVYaf7kC6ue+1D9YKPM8FD9YyNAgogKV1dAQ0T+NvuPwTXz86V09FCUV76fRZRkiIso/WQ8N4fSPMMk8/CNMRET5KyehIeSEtnw3w/pzr3+4OfbPveblSW8iIgrJWWgQEdHDj6FBRESOMTSIiMgxhgYRETnG0CAiIscYGkRE5BhDg4iIHGNoEBGRYwwNIiJyjKFBRESOMTSIiMgxhgYRETnG0CAiIscYGkRE5BhDg4iIHGNoEBGRYwwNIiJyjKFBRESOMTSIiMgxhgYRETmWs9CYuwd0/3IW6w/MYEXDNfzeS1fxh5uvokTdl+dkmsxDRET5Kyeh8f6vg/j6K1P40vevJC2ZR+YlIqL8lPXQeP29W3EDIrqkx2Hdl2WIiCj/ZDU0nAbGN16Zxvx94B8+uo2v/MB4bjkHh99bhaKmIfNRLF9TSdLpdsHxIfjGA+YjZ2T9Nd5J8xERkXNZC40PzwdjwiFeFe++hqPDc+ZSwNF/ncNvVRvTZB3LQXQIZDI0fHvccG05joXEBkODiBYrK6Exexf405cTn8OQUEhmzwdGD0XWIet62GUzNBaDoUFEi5WV0Dj0i9mYoLBXqtCQoaqvmaEj68qdIbQUV6Gztw01ZW4UFbux6sUujNkP42eG4N1UgZXFqmF3V2BHxzBC/aHJbtQUN6CnexNWlZagZUDWp+YLVTN8ajYdGru6cKI2vJ7Go+FGPDo0gue60VhRBpea11WWZN6Y7Ye3dexFWd7YfkRozE+ip8qN8qbTCMyb09p60VllbU+9H2cDmDhah0q3vAY3KmuPY0LNm8hEX0P4/atqwKlL5gTFWH832p9R09d1wy9PXjqORnms529FT6vaZ2saEeWVrIRG5b6ZmKCw11/83TVzzsTa/vm2nlfWlTtGI1++UzWKd9RD/zC8qkF17ew3gmF+HN4K1Wi2DukGFv7TaPGUoLJ9XKaajbYs34uxyQCCZsMaHQK6IS/2oLFvUs0ThP9kM8qLK+A1VxMx/8xx1Jd60HLSbELHu1BTmmDeONsPbat3FP4ZI950w61DI6Due+Cq6g6FgF6fpw6nxtW88374WitUqKnXLO+JeipovuYdR+MPiAU/qIPLsw3HLsjyQYx1VcFVqtZnzq7XX1qF9oFxBAIyzzDa5T3cMwR/MIjguAoQ9ZihQZSfshIaRa9O6wZ/rS08UvUuov3Lxbt6OVlX7khorEWP7cgYZ1vhKVaNnoTIQLM68m7FiP0oW6aXqiN4eU432ua8NhENu2Ic/Z82H4kgTtWWwNM6rB9FzK8a3oDZ2BtUz2CdavS7jSY1Yt4429fbqjVDzyTLSGhMqGkuj9p3W/sv09Z32YauLnVhfdR7Ev16wox929xrb+79OFZthZSxbIUVskLeU+v9M+l9ZmgQ5aWshMZXNxpBIecjNr9zc1GhcS1wXy8n68odY3iqx9ZmYl4dWZvPxWuApSeww1pGN9rGEJBddCOr1xPV6E50rQ09Fz1/wDY8ZQ112Rvh0Lxxth9vW7LM+to6VBaXofGjyB6DTAsNXQm9zsj3JHr/wuT9K4f3gvnQNNJaFvHa7OuPFxAMDaL8lZXQ+P2XruoG/9bcA/345cNGcCSq//5a7HBVQC0r02RduRMnNO70ozFZaEzZGtVshIZepzE8ZQx3mT2NNENDD0mpXlJ5nJ5GpkPD1+yOeG0MDaKHV1aHp0auhMcckgVHvF7Iryfv6Wm5H56KCo0LHahY0PCUw9BwOjylthnZgKrQeC790DCWD6oG3YNyNd0KwuhGfWGh4Wx4KmL9Q7HvKUODKH9lJTS+02Gcy2iPGtxPFBzxQuNH/caJcFlX7khomCfCpRUNjusrizxWo2qeCK9pHzZPhA+h/ZnoE+GxoaF7EdWqEZQTvWo53Sg6PRF+rk1Nq0LnsOpp3PFjpLNaX3GVmdBQAqfRUlaGltNGdyOmUU8VGlNDOHVyPBQ6xolwFbKX1DNyIrx7kwpV9dh2Ijxi/fpEuPGe8kQ4Uf7LSmhYl9xGXyUll9Law8Kq6NC4/yDcW8n9JbdrsberNXTJaMX27phLbju/57FdcmteSSUShAYmj6N+jayvCsemzIY86pLblg/CTWREo6yELnctLUPNnuPwbgmfTI6YdzGhoeiG3mzYYxr1FKER6NsGl7s1YpsTvWp/7Zfc2s57x6xfRF9y26xClqFBlJeyEhrya7XW9yz2RfU2Ht2W+Et/f9l0DZ98di90ua18uS+3v3wbZ3iKss82NCXG2stjgo6I8kNWQkNYPyPyZdWLkJ8GsfzcN4fH641eRLz6Wu0UfvdF437uf0aEoZFzwWG0r6mCd9joVwQvyPdQytAykOt/eyJyImuhIX7YZ/wcyG/XXEGzun/XPKJMNExlL1k29xgaSyHmG++9tvEsIsorWQ0N0WT7pdvHd03jyNk5WN/BSFR/d4w/jU5ElI+yHhrixDnnf4RJ5iUiovyUk9AQ0X/uVf7Uq5Tc5597JSJ6OOQsNIiI6OHH0CAiIscYGkRE5BhDg4iIHGNoEBGRYwwNIiJyjKFBRESOMTSIiMgxhgYRETnG0CAiIscYGkRE5BhDg4iIHGNoEBGRYwwNIiJyjKFBRESOMTSIiMgxhgYRETnG0CAiIscYGkRE5BhDg4iIHGNoEBGRY1kLjb9suoYvff9KRD2+axq35h6YcxAR0cMma6HxB5uuxoSG1IlzQXMOIiJ62GQtNP7b7um4odHcd8ucg4iIHjZZC42/+cn1uKHxv9qvm3PkqcAoemorsLK4BEWlZaisPY6JeXOaEjzXjcZn3CiS6e4K7OgYRkTf6c44Rvq6sXfTWpRXd8NvPm2ZOFqHyjJZ3o1VVW3wzZgTtADGvNb0Eqx8qhqdQwFzWiy9LxVlcOl98WBz2xACjvd1YdsKC8LX7FHLNMNnPiOysy0iyjdZC423ProdNzS+9VY+h0YQgzvd8Kig8EvjGxxHT5Ub5W2jxmT/cewo9aDlpBkF/tNo8bhR32c1gENoUUFTU9sBb0M5itZFhkZwqBnlpVXouaCa03k/BptU42ubx99dBZenDqcuGc2tv68O5cXVOBadPGKyGzVqXxr7JhGUfZ08jkZPCTb3WvuWfF8XtC274VY1nwoGe2hka1tElHeyFhpj1+ZjAuPP6qZx6Yv75hx56E4/GovL4b1gPhanG1BU3oExdTfwUQMqNvVGBIGvSTWgTUPmI8U80vd7q2JCY3BXCSrax81Hit5eGdqH5YEfx6pKUNNtX2Ic3vIStAyYD22kIS6qilz/WLsKKnNfku/rwrYVMq/mqfBgb3NdRGhkZVtElJeyFhpipe0Kqj9/dRrTgTwODCFH78UNGLQN8eBSF9ZHDcVYgpfk6F41okPhgRhLbGhMomedajy9k+ZjYTy342iCoZp56blEhVgSviZ3ZCjZJNtXzcG25DW5avsRHGiOGZ6yy8S2iCg/ZTU0Dg7M6sD4reormLyR54EhdGhENYZxntOBoIdoyrCjO34jHRsaQZyqjeppSGg8Fx0kYWPtFXC9eByORv8vdKCydBNO2A/oFSf7KlJuS4ag3Ob6E4RGxrZFRHkrq6Fx/wHweL1xFdWrvQ9BE+EwNCzGEbVb9RSiWmolNjTU/B/VwWU7pzHSro7cVSPb+EHsEfnE0W0o96jtOnnb1H7UqyP7loHEMyfb19TbCqjAc6Omyww3Rz2NxW6LiPJZVkNDfPzpXR0av11zBWc/v2c+m6cWODwlJrrWoijOUXO80NBXEXVuwqpSdTTurkCjtxd7y61zGmEy/KNPmF8yn0gmMKRPOifqrdjF21cn25J5PJ5WjFjvS4rQEIvdFhHlt6yHhqh5+4YOjke3TWFi5uE9Ee7v3YaK7ZEnfHXjKOP85mNL/NCIIkNKZbbGWIx3ocatGtbEozth88bVXTVdsTM72ldH2zJOZBvDTrElJ7Mzty0iync5CY3Zu+GT4kWvxr+CSp575q3rqNw3g9feDeBnQ7O4fD3XARN1ye3MKLyqUa7sNFs61fBVFocvLV3o8FRIMICJgS7Uq2Xr+2xzXFI9Hbl0NckwU8j8pHE5cNNQTGBpqfZ1IduKFt3TyOa2iCiv5CQ0hP/WA33JrQTHH2+9ioExlSSmT6fn8Sc7pvQ0e/3py1PmHDkU9eW+mj2njQAxBYY6sMP8EpurTIaYRuM22olCQz9frBr77zXg2LnIRlRfpmo7ig9VvPDRDXeceYvV0bw5UpVsXxe0rWhxhqeyti0iyis5Cw0hwWH9kKFcUbWl+yZ++dld/PGW+L9T9ZUfXDGXJCKifJDT0BAyVLX5nZtxQyK6GBpERPkl56Fh+ZcLd/EXfxf78+n2YmgQEeWXJQsN8eABcOgXs3jyh36GBhHRQ2BJQ8Nu9Oo8/uGj26j48XUU776Gr754Bd9UYUJERPkjb0KDiIjyH0ODiIgcY2gQEZFjDA0iInKMoUFERI4xNIiIyDGGBhEROcbQICIixxgaRETkGEODiIgcY2gQEZFjOjRm5+bAYrFYrDyq2dnEt4spa71pFkODxWKxlkNZwZDoNkPF0GCxWKx8qFSNvtymU7KODBRDg8VisR7msgIh3q29rPnTLIYGi8Vi5WPZG3/rNp2yrzuNYmiwWCzWcigrGOy39rLPm0YxNFgsFisfy974W7fplH3daRRDg8VisZZDWcFgv7WXfd40iqHBYrFY+Vj2xj/6djFlrTfNyklo7P84gD/62yl86ftXHNU3XpnC4aGbcdfFYrFYrDhlBUOi2wxVTkJDQiBeOCQrCZl462KxWKxlWakafblNp2QdGaichIYVBPGmxauFzs9isVgFW1YgxLu1lzV/mpXT0FhoxVsXi8ViFUTZG3/rNp2yrzuNYmgsaY3jncoSvH4q3rTlWmfwevELeGc83jQWi7XosoLBfmsv+7xpFIenouvaMN7Z/ixWlZagqNiNVc9uxMEz/vjzpl3JQsOYtuHgeJxpD3MxNFgsR2Vv/K3bdMq+7jQqJ6Gx0Fq60BjHkRfceLr2XVy8dhOzt2/i8ift2FC6Gm+cycbVXAwNFouVobKCwX5rL/u8aVROQmNX7wx2HZmJOy1eLVloXDqEDcXP450Lkc/7mlehaGd/6PHF93Zhwyq30RN5YS8Gp8x5x2X5XXjvzN7Q9Oe3qwC6HV7XxSO1eN6tejGlq7Ch+QDe+Js4oaHXIz0dsyoP4bK1/Lv2be/Ch1H7apQROM93jIafO9eOZ4s34Mik8TjZegYbosJK74/V0BuN/k8P7tGvIzbUzOmHw+/BqpoDOH8tcvrBE4ex+1vh99AXmq5q6gwObnwWK+W1u5/F1vZPcMOa5uA9vjHYjq163SVY+a1aHBkNT2OxHpqyN/7Rt4spa71pVtZDY+jirVAIOA2OJQuN25/gR6tUQ7h3GNO2RsheN/p3YfXqJnwsje/tSfj2vhBu1M3GXvdUbqp5J9/H62p9W4+Yw1uf7MHTparB/GRS92IuvluLp9X8TnsaN96rhWv1Fhw5Z/SCzh94Aa7SWnxob3DNunzQtl/W4w2HMa3up1pP6tAogUvCctSPafU6Q/PpMqbr9+C6ejz5CQ6q3pur9n2z4beWb4dP3sPrwzioXufqlk+M5W+P4uCzKghazhj/BpP9eH21CsA2MwBTvccXDqieodpX87VJSK9e1YRB2Re9fRZrmZYVDIluM1Q56Wn89NTNBQXHkoWGqhtnD6Hur9VRqhzh7mrHh8OqgQ9NNxry3e/Zhqquv4/dqkE9cknd1w2aanxtDZQ0wK6mM+Z9N1Y3m42jLrW+eD0Na1pEaBiPNx62788kjmyId7SvavIwNoYaemM+Y9nU60kdGk/j4Dlr2eiS6VG9tcE9WB16X2KX14H2ghlwp5rgWrUHPntoy/KlquGX5xy8x89aAaNLhdDTbrxxJjw/i5WXlarRl9t0StaRgcpKaFiNfqJKFRzWfPGm5aTkCPWTwzi4/QV9Qnzl89bwiXGUHBo2CpXZoOoGTTVutnVJg1bUIA2a0ViHjoh1Gc85C434jbWvZZW5/sjnI4Ji6l1sDQ1NpV5P6tCw7serONNvq95CkuXtvSJ9f7vVKzFL77+5jIP3OPbfJ9F7zGItg7ICId6tvaz506wlCY36fA8Ne8lwiWqIjOETafBW4UefxJlPaglCY7BJ9YrihsYcpg9vQFHNu7j8Xm1oaMrJejIeGmZvLNHyKUNDn2syl1nwe8xiPaRlb/yt23TKvu40KifDU/LbU04DQ2qpQkPG+ouih0ZUXTzwvDl8IuPtUSeYpaz5kzZocj+Hw1NSZg9ja43btlzq9cg+f/dABkNDn4S3D08lDg1nw1OJ3uOb+LjWfv7ErKh/TxZrWZYVDPZbe9nnTaOyfyL8wu0FBYbUUoXG7PUzeGO1G8839dsuuT2EOvXchkNGIzp9ZCNccjL7rHE0Oy2X5H5LNXJyQjhFaESfCD9/eEuSE+Fz+Hin6uE0ncGNm8Y5FOMEtmp8L5gnsA9tVI2pehznRLhRfrxXo7Yf1UinWo9uxJ/dg0F9onoUH9autq3DSWiET1TP3hzFOy+osFTvQfhEeJLQME+Eb2j7xDwRfgY/+lb0ifAU73Hxaux+1/j3unHhXez+6414z7xqjMV6aMre+Fu36ZR93WlUTnoa9b0zjgNDaslCQ2pqGEd2bcDTclmsavxW/tXz2H1wOOLI9eLhWjyvL/c0Lul8xwyQlA2aKkeX3Jp1QwXSd/W84XWGt21eKpviclI9RGW7isqqpOu5PY73tjwNl3p9rlXPYnfLLnx3QaHxPN44sCd0SeyzWw7FXHKbMDSkps7gp/97te2SW/NKKpnm4D2ePrMXG//K+PdxrXoBP+q396pYrGVaVjDYb+1lnzeNykloLLSWNDSWWcmQWMLhq6xUqlBhsViOyt74R98upqz1plk5CY2FhgBDIwN13Y/pYfnOQvgLfbkphgaLtSRlBUOi2wxVTkNjoRVvXSxnpa+GKn0adUdy2cuQYmiwWIuqVI2+3KZTso4MFEODxWKxHuayAiHerb2s+dMsDk+xWCxWPpa98bdu0yn7utOonITGH21e+J97/Xot/9wri8ViOS4rGOy39rLPm0blJDTkt6ckBOKFQ7ySkOlQy8RbF4vFYhVE2Rt/6zadsq87jcpJaLBYLBYry2UFg/3WXvZ50yiGBovFYuVj2Rv/6NvFlLXeNIuhwWKxWMuhrGBIdJuhYmiwWCxWPlSqRl9u0ylZRwaKocFisVgPc1mBEO/WXtb8aRZDg8VisfKx7I2/dZtO2dedRjE0WCwWazmUFQz2W3vZ502jGBosFouVj2Vv/K3bdMq+7jSKocFisVjLoaxgsN/ayz5vGqVDA0RERA4wNIiIyDGGBhEROcbQICIixxgaRETkGEODiIgcY2gQEZFjDA0iInKMoUFERI7lPDTm7wOHP5nFN3/ox5Oq/kndl+eIiCj/5Sw0bs4+wN9/eBtffyX2b4XLc60nbut5iIgof2U9ND7/4j62/9NN/IdNV0Mh8Sc7pvDGB7d1yX3reZlnm5pXliEiovyTtdD4xdhdrN03gy9Xh3sUT+3x48jZuYjhKLkvz/2PN74IzSfLPN9+Xa+DiIjyR9ZCwwqAr754BRsO3sD5K/fMKYn928Q9VHfdwO+qZazl888QWopL0DJgPkwhOD4E33jAfJRhk92oKW6Gz3wYY2oUg+f85oMFSLXedCx2n4goL2Q9NL64vfDzFLLMUoZG4Fw3GivK4FLhUFRahsraboyF2v2FhYZvjxuuLceRkdgYaEaRvTFP0bj7e6rh8rRhzHzsWBZDY9H7RER5IeuhsRCnPw0PRy1VaASHmlFe7EFj3zgCQfU4MI5TOz1wVXVjYl7mWFhoZNQCQ2PRstnTIKKHWt6ERueZO3r+nUeMY/KlCY1xeCtKUNk+bj423elHY7HbDIro0AhgzFuHyjK3atDdWFVRhxOXzEmKr0n1VpqG9H2/twpFu7pworYCK6UX465A49FJBM62ocZavqoNI3G6JXo9soxZevu6cW/AiaHw8pW1x81wM7e3rhuhwaBLx0M9KFeZ2nZv1Ou0mOvtOapel1u2F2e95msyRL0n85P6Na4qVcvqnlpv/H1Ksf8ieLYDO56RaSVY+Uwdjtl3OdnrSbIPRLR4eREa3sHZ0PwN7y5haMwcx47icngvmI9DgpgYOg3fJdX1iGogA33b4PI0Y9BsmSe6quCq6MKE8TA2NEqr4B32Iziv1tmzCa5SFRTVHRiR5e+MoqfKDU/rsJ4/RtyeRgnKd6qGVnpF/n60lJVgx1HjPYwMjVF0etyo6RpX21bzXuhCjWpM28/qiZFi1nsaLR4Vpp1Go5wqNMbapGfWhTF5u4LjxmvaY7ym2NBIvP+4JPtYhZ4LaqK8XyrEPGXq9d+RiclfT7J9IKLFW/LQ6PnVXGheKzCE0+UzSjdiqpGaNB/HFXVUfSeAgG7ETOY6jk0ZD2N7Gqf1fW1eNcayLttTkQ19lLihUYdTtu3L9lzNtu2F1iX7XY7Oc/qBYg/CKHq9DRi0H/F/UIeislaMqPupQkP2oaJt1HigBC8NYXBoUm0xXmgk3n9fkxsVEb0+1RMsd2Ovnpz89STbByJavKyFxlc3Go3+naBxIvzMhdjLZ4/+61zoklx7YMgy8pysI6cWExrzAYyEhqdkKEcqvI6Y0EjS2IqFh0bkuYeY7YXWFcRI+1qsVEfjNbVt6Dk5ikCi4Zo465Wj/vXmc6leR3C4A+vdMtRWh07vaYzZXkxsaCTa/0n0rLPez8gytpP89STbByJavKyFxjdemdYN/2f+ebzy/wL6fvcvZ82pRmD8dk1sYAj5cp88L+vIqYTDU6oRCqgehT5MjWwgdSOoh6fMY9io4Mmf0DD5R+Hr7UBjVRlcnm04ES8g0wwNbd6PsaFeeGursKrUg/o+Y0MR++QgNEJDVYkkez0J9oGIFi9rofHMW9d1wy+/LSWhIPelV9H3b3N4/9fBhIEhZBmZJuvILfNEuDl2H5LkRLg0cjVeW2OkG9c8DA3VuA7K0bieIvw4Vh217xa93hTDU/ZhtojXoRrqk5FH9oHe6tB+OA+NIAZ3uuHa2R85pGTtU9LXk3wfiGjxshYab564rRv+dR0z+rEVHF/5wRX8jqpEgSFe2D+jp8s6ci2oGuby0rXYe9I8wZrikls54Vq0rg0jqqcR9A/DWy3DVFkKDR1I1Tg2pbYlLemCQkP1otTRdqN1tK1POrvV0XecfwO93sQnwiW8XKWbcEzOHwT9GGmv0lcwWaFx4kW3XlZ1MvXR/qldqhdgflfFeWgow63m5c/GPgflaqk1m3BCFk76epLvAxEtXtZCwxpikh7FtYDxuyFWcCQLDJnX6oVcWqLfoAoMdWCH9eU+twebG3oTf7nPvLRTLqF1lVWhva8L9bYhroyGBtS2tpfr/arpVnMsJDSUoP1Li+4K7OgYjn9iWK836pLbhn6jAdYCGGlba142rN6ftlb1mm2vIzCKHutyV1l2U0foMuIFhYYSGGrD5qeM80X6/T0dfmeSvp4k+0BEi5e10BD/c6/xe1Kb37lpPmMER6LAEDKvLCPLEhFRfslqaMhvSclQlPQchsZT//jgLz+7q+eVZX49mfq3qoiIKLeyGhpi3ynjm97/cetVjFwJjW/EGL06r+eReX/6sf2LD0RElC+yHhpia7cx5PQHm67qq6eiyTfCZZrMI/MSEVF+ykloPHgQeRL8b392Uw9d9Y8G9Z99tZ5/Lcm5DiIiWno5CQ3Lh+eDeKzO+NKfveS5E+fiXsdDRER5JKehIe7OA53/cgeu167pkvvyHBER5b+chwYRET28GBpEROQYQ4OIiBxjaBARkWMMDSIicoyhQUREjjE0iIjIMYYGERE5xtAgIiLHGBpEROQYQ4OIiBxjaBARkWMMDSIicoyhQUREjjE0iIjIMYYGERE5xtAgIiLHGBpEROQYQ4OIiBxjaBARkWMMDSIicoyhQUREjmUtNN71zeGJXdP40vevOK7H6qbxc7Xcw2cILcVV6Jk0H0YbaEbRum74zYeL5fdWOV6PnrdpyHy0QJPdqEn2eoioYGUtNP7Ljqm4wZCqfucHV/BvE/fMtSyh8S5UFpeh/az5OCmGBhEVhqyFhhUCC7GuY0Yv83j9NILz5pNLZKS1DJ6yMrh29iNoPpcYQ4OICkNehcbN2Qf42stGD2XH4Zvms0tgfhjtZRXwDvRic3EdTt0xnw8JYKStCqtKS1DkrkCjtw319kY2MIzOKhU4xSVY+Uwdetq2JWnsAxjz1qGyzI2iYjdWVdThxCVzUpTo0Aie60ZjhbEdl9rfxqPhVl7Pu6sLJ2orsFJN1/tpmy4mPmhAjbXdqjb4ZswJDA0iSiCvQkP8YuwufqvaWFbuL4XgR3Vw6cY5iMGdbmzujWzuA0c3weVRYXJJ9UGCfoy0V6mG22pk/TjxohvlO49jQk8ehrdKNcwJQiPQt02tqxmD5sSJLrWuii5MGA8jRITGzHHUl3rQctJccLwLNaUq6MaNh3reYg8a+yZVry0I/8lmlBeHpwdPN8BjbXdevQYVgqF1MzSIKIG8Cw1R3xvQy0qvQ3ofuRUVFGdb4YloxCfRs64kMkjmT4eHp3SDW41jtslQDXTCnsadAAL2nozZYB+bMh/bRISGCoLAjH3gzNivmm5jK0ZP47S+bwjiVG0JPK3D6r4xb+MHtuXv9KPR2i5Dg4gSyMvQuHcfKG28ppf/7n5rzCRH/L3YXFqHQasht4aqzCN04/xFGdql7Q2xndOQ8xdlrRgxJhiSndOYD2AkNDxVYlb8BjsiNJSAbXjKWrbGayyo5406pzHRtdZ8TvY3vEy47MHH0CCiWHkfGt/pyG1oGMM6sQ2qZ4+VEpkNDb09PUxkHvUnabAjQkPPZwxPGRcNmD0Nx6ER/RpsGBpElEBeD0/95+25Hp4ah7fCjZYB86HlQgcqJAhsjXOmhqd8TeGGXrvUhfVOQiMmiNR+PRcVGgmHp+R1lqCyM9R9MlhXrDE0iCiBvD4Rfuo3OT4RPtwKT2kzfDGX+6pGttyNxo+M3kD0iXBf69okJ8KH0P5c4hPhY20eNa0NI6qnoU+aV8swlYPQONeGcjVf57DqadzxY6SzWl8lFREaSU6E69dQWgXvuYDxeLgDNc+oYJSXyNAgogTyKjSW+pLbkT2Jv5cx1l6Ooi3HzWkZvOR2fjJ0WayrrArtfV1qXeXwXjCn20SEhjJxtA6VbrUPpWWo2XMc3i0lqGg3UsHoaURectvyQeQeTPSGz6Xo/TQDhKFBRInkVWjk05f7iIgoVtZCw+oxLLTy5mdEiIgoRtZCQ36w8PEF/mDhn9VNo/fsw/iDhUREhSFroUFERMsPQ4OIiBxjaBARkWMMDSIicoyhQUREjjE0iIjIMYYGERE5xtAgIiLHGBpEROQYQ4OIiBxjaBARkWMMDSIicoyhQUREjjE0iIjIMYYGERE5xtAgIiLHGBpEROQYQ4OIiBxjaBARkWMMDSIicoyhQUREjjE0iIjIMYYGERE5xtAgIiLHGBpEROQYQ4OIiBxjaBARkWMMDSIicoyhQUREjjE0iIjIMYYGERE5xtCgCMG7d3F95iYmr0xj/LMJ/ObCZxj5zRirgEr+zeXfXj4D8lmQzwSRhaFB2o2bAXx+aRIXxj7H1alr6vEtzM0FMX//vjkHFQr5N5d/e/kMyGdBPhPy2ZDPCBFDo8AFbt3WR5WXJq7ilrpPFI98NuQzIp8V+cxQ4WJoFDA5ihz77DLDghyTz4p8ZuSzQ4WJoVGA7t2b18MN/I9PiyWfHfkMyWeJCgtDo8DIf3IZYvB/MWM+Q7Q48hmSzxKDo7AwNAqMHB0yMChT5LMknykqHAyNAiJDChySokzj56qwMDQKhFzxIicwibJBPlu8qqowMDQKhIw98yopyhb5bMlnjJY/hkYBkC9lyTX2RNkknzF+AXD5Y2gUADlRmc1eRvupO9hw8AY+/4LfHi9k8hnjSfHlj6GxzMnvBsnPQGTDgwdAddcNfOn7V3T9p+1TuHhtoZdfBjDmrUNlmRtFxSVY+VQ12k/7zWmUvkn0rCtBUdOQ8XC4FeXFbuw4mp33WD5r/K2q5Y2hsczJD85l48oWCYz1B2ZCgWHVcz+5bs7hTODoJrhUI1a5qxunTh6Hd3u5euzB3qGgOUe+G0KLCrsab74eYUeHRhsqSt2o7zNDY6BZhXUVejK0+/JZk88cLV8MjWVOfqlUfnguk+yB8fsvXY0IjTdPLGwYzNekGrTnuhA+herHSN8QJh6WzHjYQiNahkNDPmvymaPli6GxzMkVLfKLpZkigfGdnxqB4R2cxT+PBvHlaiMwNh66Yc7l3ERnhWq0PGjsm0QwZmQrXoMX1UjPB+Dr2IRKt5pP9VhWVdShfddadb8ZPmMO9SYcR0tVmerBqHncHmxua0V9REOffIgseK4bjRW25fechl/2VTe4sl2r4je+/tOt2PyUse6I5RUdmuvacKytCqtKZR2q11XbjbFE55MDo+iprQjNW/69VgxOmdPEjDF9pd5WBRq9QzhWq+5b7+FkN2rUtJYBc9uhfVe1rltFdnrks8arqJY3hsYyJ38bIVM/bz6vVmMFRueZO/q57qFZHRqLCQxt3o9Tu2RISjVa0qA29GIk9IX11KEx0urRjef6BmN4q0cFhl6XFRr+49ihGljXmk3o7D2Nwd42bPYYjaS1jglvFVyl5WjpHYV/ZhIj3m0oDw2RDaO9rASe2l6MTQYwMdCGmrK16BxSrbp/FIMnO7BZratC7ffgSdVDMt6WsJnTaFlTjvpONW1GLX+yGZVqf8pbh/Vkq+F2PdeAnr7TKjyq1bZLUNk5rqdHmFfvR5VbvZYGHBudRGByGD1b1Ov3qNcq251X+yqvzb0WLd7jGOzrRstzan4JmDihERhV70d7tdq+eu096v6QCm5jrkWTz5p85mj5Ymgsc/JHdTLhngqMb//4ekxgLLaHEUMaYG+DapDVEblqwPcOyKF2itC4049G1SBWttsb2AAGd5WFQkP3ZErrcMp+5H6pSzeceh3zan1qHRVto+ZEEcQpOTqv7Vf3xuGtUI16VRt844E4vSGHw1PBAAIqNAKqVR7cpdZtHtUbobHNtn8BnHhRPVcV56hf9WxcqoHvPGc+FvIeqO03fhBE8KM6Nb0C3gvmNCFBokIvXmhoGR6eEpn6zFF+Ymgsc5n4DyyB8a23jMD4yUkjMLoGMhQY86qxsx/eytG0BIVuNFOERnQDaPKrnoMVGsbwT3QDHLuOiGEaq6zlAqM4tmcT1q+RIaro4aMUoaFez7EXzaEtXeaRvz00ovYv/j5br8taT2TJ9u2v206vj6FBGcLQWObSHZ66q46sEwXG9/4x3R6GcRTs0kf0YeEjcTM07NP9vXo4SDfS5lF2sp7GWHt58p6G2VvZ3BvZRPsvjCJg9ir8A8cxYk0ODqOzXO1zsxVkyUPD3y0NeZU6+jdfwbzqSUgvZhGhYfQkqnHMPmHej7FR44l86GlweGr5Y2gsc+mcCJfA+Ou//0IHxN4PjauiOj6+EwoMOSmeLmlU5ei94sU2HDt5Wh3Rr9Unca0gGGmVAJCT170Y7OtC/RrjhLLVSEef0zAu2VWNZMJzGq1Yr0+ah9cx1innQWznRRpkH9yo6VbTA0aouNZsg7fvNE55G/Q5CY95TkJCY69Mf65Z7X8vfPYGW5FLio0T/eMIzExirLcBFWr+xYQG5sfhfU69fvs5i7UynFeFY/JSrHMapZHnNHRvJFFoDMmQl+o9Nav3t3fIdhXb4vBE+PLH0Fjm0rnk9v90Gl/cy1ZgWPwnw1cXucrkip/wUb51tZBxNZARHp2q9xE6so+6ekqGjk61RQ3T2K6ecpVVof10b1TvIKAbc30+xZynRTXyIfarr0rLUNNwHBO2cxuBj1SQmNtvP2s+aVE9gcE94Sujyr/XhvYt6v5iQkPIUFlDeH2rqhpwyt7Rsl89pfa1slYuDlD3E4WG2spgg/X+tsYMbS0UL7ld/hgay1w6X+57ao8fT/7QaLra+m9nJTDSFpzEyLnI5nVkj+qdlHfAGlkPjA5jwj48ZQ5xycljyix+uW/5Y2gsc+n8jIiExh9uvoqy/+vXgfHC/pn8CgwE4Ws2h6f2yCWvUUNLQo6sZfjIHF6SS253yBCXdZkqZRR/RmT5Y2gUgMX+YOGW7ps6OKQ2/+wm7udVYJis4Sn70FLvaMSJdT289D2PMQSjAqVyU1vkF+IoI/iDhYWBoVEA+NPolAv8afTCwNAoEHJFSzZ/Hp0Km3y2eNVUYWBoFAj+uVfKJv6518LB0CggcmVLNn4mnQobP1eFhaFRYOREpf+L0C8CEqVFPks8+V1YGBoF5t69eT32zOCgdMlnSD5L8pmiwsHQKEDyn1yODjmkQIslnx35DDEwCg9Do4DJf3w5gcmrqsgp+azIZ4YHHIWLoVHg5IoXGWKQa+wZHpSIfDbkMyKfFV4lVdgYGqTJl7JkuEF+BkKOIuWH5+QXSzP1V//o4SH/5vJvL58B+SzIZ0I+G/ziHgmGBkWQ3w2SH5yTXyqVo0r52wjyR3VYhVPyby7/9vIZkM8Cf0uK7BgaRETkGEODiIgcY2gQEZFjDA0iInKMoUFERI4xNIiIyDGGBhEROcbQICIixxgaRETkGEODiIgcY2gQEZFjDA0iInKMoUFERI4xNIiIyDGGBhEROcbQICIixxgaRETkGEODiIgc06ER708+slgsFosVXexpEBGRYwwNIiJyjKFBRESOMTSIiMgxhgYRETnG0CAiIscYGkRE5BhDg4iIHGNoEBGRYwwNIiJyjKFBRESOMTSIiMgxhgYRETnG0CAiIscYGkRE5BhDg4iIHGNoEBGRYzcCt/D/AdOcxa4z/jJtAAAAAElFTkSuQmCC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>744104</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       portblairrkm.org      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>03192 232 432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x308895ed602df007</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Cellular Jail  </x:t>
   </x:si>
   <x:si>
     <x:t>4.7</x:t>
   </x:si>
   <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       CIARI ROAD, BATHU BASTI, GARACHARMA PO, PAHARGOAN, Port Blair, Andaman and Nicobar Islands 744105      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADnSSURBVHhe7Z2PcxTnnebvz0hl9+629rZ2t2qrcj92b9dXp+RUo5yWqU2hWh9T67IqPpRwRsEZdk2kQCAEsCIMRCuIVooVEitRLKMgexwVCjLIYAgEWUSRQlCUgGSDZAsJEAMSA4KxZT/3ft/unulu9cy0GEmMNM+n6qmZ7rf77bff6fk+/f6Ynn8HYjKBjg1FqIxMGItTJ7GnOIT6c1G9GDtXh9LCCnTpxX7UFxahvlcnIXZiBwKhOvQZm2K8LYxAWRvG9ZKxbSDcgiFJnxlGRB0n1DioUzE7iOZQEJXNg4jNAvHRk6gNFaFgf7+RnrYc6RhFpCyI2jNxc9lkRpWnpAyRK67zNYn31iFU1oKRsXZUFobR4Uw2UNsUFNZhwFzUyLp11jmb9NSgYEM7rKIO7FfnvS6M8qA6v8IgyqvaMRIzEwkhOc+/VG4FTSOBK4hOSNDcge5EUIti5FwPRnQEdJoGZmKIzZjvBb1vGF03ZUG2LVVBWqdoopEwCsJmMFXBNlDSiCFlGBbjbeuTppG2HKmJn6m2GVeSocYQSrVheZiGNrAQlH8lzmFepmEzCI1jXRxDHdWobejB+JSqL9McA7vPqhRCyHKApuHAHUQncHpnKQLBMuyqaUHX4ATiicDuMo3ZGIYi1SgvCapgKnfRIivgyrbO4KtNwwym+v3mk7DfcOt1lmmkLUcqouiqKMK2TpezXGlRZaxBnz7YXNMYaS5DaG+PEcQX3DQ8uNiIUGE1uu2GSwjJWWgaDlJ014wNojvSiF3PBBFY14QhHeCcpqGDvO6eMu+ZHQE3W9Mw8C5HCgYbUVpcjT7HNnJ+Qew6boVw1/lKmYu34nQi+RFMI0P31BzSHYMQknPQNBw4g2h8rB99/equXi8ppOumxDIKp2lIX73DbMbasNGnaUiwTdc9lb4cXsTRtzuI8tZRc9mkXx0n0QpySZXlXJ29leSU20g9TUO1YspcrQZ9HlVm91PsLOpLd+C07rIz8diHEJK70DQcuO689d16GJFLRhsgfqVN3RWH0HpJlpymMdIUUoFX3f2rlkY8OohIhQRgn6bhHggf7sQe+0B42nJ4oO/e/QyUe7esEsy3paEH3lV+TcP6PDAhYxb2gfgoTm8OonR/j5EeH0VHWLWaOKZByLKBpuFgbhCN9jRi25PGHXigJIz6U1aa0zQwO4HTVWVYZW7XfKINexKD3xlMQxhTAfYZOU4Qq8ON6KizDYQrUpdjLkMNJT4D8UKbhuJmD5rD6viqnAXBMtRGhp3liA2jw6ynguISlFd1Yjzj+AwhJFegaRBCCPENTYMQQohvaBqEEEJ8Q9MghBDim+nYPZoGIYQQf9A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb5ZMtN4+BHws/4H2HhoCp+vuYX/9I0b+MttN/R7Wdf+mwf4cNbcmBBCSE6yJKZx8g9x/Pdv38Snv3Y9rZ6onsTpS3FzL0IIIbnGoptGbde9hCn8zQs38cKRu+h+90NMzXyide7duF4nadZ2B966Z+5NCCEkl1hU09ivgr+YwJ994waOXnyITz4xEzyQNNlGtpV9vnuCxrEQRCNhFGxoR9RcJoSQbFg00/jF5bgO/n/y9ev43bWPzLVJrFaFmwG1rewjaZLH4+Dh5SPYWfMP+MzOJ/CpF/4BG35yHEMxMzHXmJ1AX0MFSoNFKCgswqonK9Dck7SInDONiXZUqnJKWd0K1PXrTXSZHWlBrC6rRscl60OYQMcGtb64Gn0z5ioHo4iUyX51GDDXEEIWhkUxDRn0/muzu6m52/NbndI0hJ+ofSRN8njwoblyqRj8Eb6w8yl8o/MybtyJYXriMiIHn8Jnal/D6MfmNjnDBLrCQQTCLRiaUAY7G0d0sAWVxSHU9xoBdlm0NGYH0VxShsiosTinzPEYxk9Uo7RQbXNFVpimoQxlW6fHmY22oVybDU2DkIVmUUzjtV8/0EH/b6pu4uMUXVLpTEP2sQbOX1d5LR0xHK1/AqXtV81lk48v46XdT+Abb5t3uteO4Es76xB5+zsofUG1RnZ+HqU/OYdpm6k8HHgN36j5vEp7An9b8x0cTWQ5gAM7N+HV88dVa0bSP4fP1r2KgUdoycTPVCOg7ra7XfuONJcmgu6cADw7iu6aMFYXy516CSprzmLcPmtt7CRqy0oQUEE3oAJ5bacZyU3GT9WgsiRo3P2HmzAwZSYo4hebsO1JSTNaPK39/k4qdnwrAhWdqvYNvI0uju6qIoQaB9V7wzS2VVSgoKwN48YGCYYaShBSaRsXyTRmZma0MuF3O0KWE4tiGut/MqUDfrpxiXSmIci+kl6u8loy7pzCN3Y+g1ffM5dtDLQ9iU/9uNdY0KbxOWxov4xp5WkPPziHF/coszlyzUj/QKW/sAmR99Td/8dx3PjFd/D53XXo1f4npvEEPlP3GgYkKsau4tUDT+DzbZclcV4MNZagoOqsCqcuosPoOzesg7AzAMdU4A2idHsnRmSn+Cg6pKWSyGMYraEgKttGEVdGEr/SplotJWi+qBMR76lBKFSHPslsNoqhJlveUyexR1o458wjnatTLYMKdBmLaZCupCBqzyTPwq9p1J86i9riUrP1YTIj61SL5Ix0gy2Oabz00kvYv39/WkOQNNlGRMhKYlFMo+DFSR3wL34wdyzDIpNpDIx9pNMlryVDm4EK9mbst3OjcxM+deAIbsiC2dLotbUspk9swaf2vaZCIND7k89hjaO1ooxh3+dw4LfyXkzDaUw677rjRt7zYGC/ai3sN8YBUuEIwHo8wRXIo53YVhhGx4Qs9KO+sBStl3SKIo7x/h71WUhANwJ17SmbRUmAVvt23VTvdd47bK2eKEbO9WAkg2no1pKrteBlGrHBJpV/Cep7k2XZdVwZl7QqGsRIDGKdqvUhrRZdnsUxjWvXrmH79u0pjcMyjMrKSvT2mjcahKwQFsU0/nSLYQh3H6SeLpXJNGRfSZe8loz5moZOMZHWhV53CxHVcpBuKbcO9MmGRveU/RiOvB3E0bc3iFV7e+a2JhTzNo3eOhSUtmBEp1jIeIK6a9cnE8dQ83qskm6rqiZ0SGsl0XUlhmKMIzhlGc4ETu8sRSBYhl01LeganNCtlfRE0VUxd1xCl9l1HGdXmWEalRF1YBm/SAyIm91Wkt8imoaQyjhoGGSlsyimIb/29msa0v107+Hc7SzTkCm4S8a8uqdcpvHea1hjM43E+MccFs40UnZPzcYRmzLWZjaNfhwstkzDJDqMgc4W1IZLEAjtwOlEK6QEzcmbek/iY4PojjRi1zNBBNY1YShdl/5gI0o9ZkB5tTSc2EzDbjx2A+mvQ2CRB8LdxkHDIPnAopjG/9htdE9JF1Mq2vsf4M+3GuYig96/ed85TUqm3kraknZPpRwIv4pXa+YOhNvDwsNz3zG7p+I42/Q5fKapFw/NNE2iK2s+ppEeayDcHXRTDoRn6p6yjYUYGAHZCM7GNNbyVufAOMzWRHysH339qnVhLKr19haMF8oQdwfn5qeYn2monE5Vo6CsBR32rioxyEU2DcFuHDQMkg8siml85RVjILwuww/0xqc+xuq6qN72jyuuY9+bMcyawVX2lfVfaVnCgXAhxZTbT+35EQaswK9NwxwIlygZ7cWBPU/gS523jHQzjxfPGst6oHzft3BU+9/CmYb8RkMGsku3t2MoqgqSccqtORC++yTGpdzxUXRtVq0Jq7USPYldat/aE0YwRvQs6kuC2HPCyEvPcioOI2L+XiImx3qmEUOys241JNP0IHphyDY+4sLLwEzmaxrG4Ld0YyWn7S6VaQiWcdAwSD6wKKZhn3L7kW2w2AuZXtvw9j38h8rrWLX/lv6Nh+wj+0oeSzvl1iDjj/u0aVSjqTM55fZLh3odU26nf/sqNu3+vB7L+My3N+GlXtNQFtI0BD2F1vpxn/wIbita0/24T23fVVVmm3KrDMQ29hC/1J6Yclsg4xMtg47ur/HOapTrKbdFWPWM/Qd36lg9jYkpt4GSMOpPmUHdAxnADuz26FpTzNs0FJKfHgA3l5fSNAQxDhoGyQcWxTQk8FvPkkr14z430h0VvWeMbcg+sq/8uE/yyjm8xjQIISQPWBTTEORptRL45ZEg6abeupFtH/djRDJC0yCE5CmLZhqCPK1Wgr/MgHpzIPMDC2WbZfHAQpoGISRPWVTTENyPRt915C7eee9D3RUl8no0uuxDCCEk91h00xD8/gmTbMM/YSKEkNxlSUxDkAFt+W2G9Xevf7Ft7t+95uSgNyGEkARLZhqEEEKWPzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHENzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnyzaKbx9/tv4dNfu+7QZ/dO4t7DT8wtCCGELDcWzTT+fOuNOaYhOn0pbm5BCCFkubFopvG/9k16mkbdiXvmFoQQQpYbi2YaX/7xHU/T+H/Nd8wtcpTYMDqqyrCqsAgFxSUorzqJ8VkzTRg7idqyEgRUeqAkjNb+mJngJo6BuhAKCuswoJf7US95eincjqjexiB2qR2160O6DPW95kpNDCORapQHZb8gVpdV4/SYmeRFhrLGRwfRHWnELnWsbZEJc61FDENNFSg1j1Ve1emshzTp0Ug4eW4OBXGw39iGELI8WTTT+OGZ+56m8cUf5rJpxNG3O4iQMoqoBMD4KDrCQZQ2DRvJM/04GAqism0UcZUeO1eH0sIwOtzxVhhsVGkSKC3T8CKKroogas8ku+yiHRVY/dQORHpHEZsxV5rEz1Sr4K+MQo43G8dIWxiBUBNGjGQnmcraW6eNpLalBfWlRah0mUa0XfKuQ5+4mVkPof39qoYMMqXP4WIjQmVtGDcXCSHLk0UzjZFbs3MM4++qJzF2+2Nzixxk5ixqC0sRuWIuCz01KChtMQKz/b0mju6qIoQaB81lk9lRRMpCOFhXnd40xFhKGjFk3cHL8YNbcdre7EhgHKusedRcVsz2qNaLq7wWmcpqHRMT6NjgNg21bl0Rak/ZLOBKC8oKVdmmZCFTupsoTm8OYlun54kRQpYRi2YawirbDKr/+eIkJmM5bBjCRDsqC2vQlwioirE2bDQDv+522eDsStLrNp+EveNH1gWqziKu7uZTm4bRqilvtZmABPrn6xCxuseCZag9bgVzI7jX95iLGiN4O7uwDPyW1crXaRpGV5ozX1lXgmbtOZnSXYy2oby4Gn2ulhMhZPmxqKZxuPeBNow/qriOiekcNwxBm4YryNvWxU+ploPj7h0Yb1vvDM7Rk9hltRbSmYZHINVBvTCE2hMTRpfSYJM6dsgMxKZpOAK11zoDX2XVeJmGaimVuloSulVjHStTuh0PcySELFsW1TQ+/gT47B5jFtWLnakGjHOIDKahu4+KbeMEgy2oLFYtAmlV6I1j6K6SdDMApzGNoYYShBqct+UDdUFbXoK9S2l+ppG5rBZepqEMprUMBYkxiwl075ZB/WRXWKb0BNFObCusQJfTqQghy5RFNQ3hnfc+1Kbx7yuv4+IHH5lrc5QM3VNC/FIbdpWo4K5nDLWjq640MU4g3VGhkG2MIpVpSGukuAwR1833SHMpCvY7pxfp1odeZxqEz+4pIV1Zk3ibBmaj6K4xuslkwLz5RBv22McsMqWbDDWGENjtNipCyHJl0U1DqHxtWhvHZ3bcxPjUMh4Id6MHvEvQfFEWougKy2wpb9kDu9ylewXS2PGtc47Vt9dqacxzINyNo6x2UpiGC+nuClR0usZDknim69bOXHMkhCxflsQ0HnyYHBQveNF7BpWse+aHd1D+kyl851gMP+t/gGt3ltpgXFNup4YRCXv0x8/GERvtR2R7CKu2uweWbXi1NGb6UV/iFbwV1jTZ5mHEdJeSjGkkg65zym0MQ81hBDJNY81Y1gymMTOBkRN1KA+WotXdSBHSpOtWUhqjIYQsP5bENITovU/0lFsxjr/61g30jignMXlvchb/dddNnWbXX79w09xiCXH9uK+yoccwEAvdhVWEVU9WoL7TCO4p8TCNWGcFCtIF+ps9aA4nf5DX3GMfDHD9uC/ciL50VeSrrKlNY2C/UQflW5vQ5+EpadNnB9Fc4vwNCiFk+bNkpiGIcVgPMpQZVdvb7+I373+Iv9ru/ZyqP/n6dXNPQgghucCSmoYgXVXb3rjraRJu0TQIISS3WHLTsPjVlQ/xv/917uPT7aJpEEJIbvHYTEP45BPg9V8/wBe+G6VpEELIMuCxmoad4Ruz+MGZ+yj70R0U7ruFP918Hf+gzIQQQkjukDOmQQghJPehaRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvtGk8ePgQFEVROakHD1K/Uv5l1WeWomlQFLUyZAXGdK/5LKmDBRBNg6Ko5SEr8Hm9Upll1WOWomlQFLUyZQVK+2s+y143WYimQVHU8pAV+OyvlH/Z6zIL0TQoilqZsgKl/TWfZa+bLETToChqecgKfOleqdSSOloA0TQoilqZsgKl12s+yqqXLPVYTOPwOzNYc+Celrz32oaiKErLCnher5R/WfWZpZbcNPquPESg+p5Dss5rW4qiKN+yAmO613yW1MECaMlN49AvZ+aYhqzz2paiKCohK/B5vVKZZdVjlmJLg1oW6qspQkHNec80t6aHz6NvOOqZttS6dvg53+VeScr+vKMY+dWvMBr1SvMpK1DeHcfVwTFMu4NovsldP48ojmlkkDNYnceBQrVsV3ANttSdxbX7yX2uHqnCs6uDOn3VP27Cy2cnEml+0tNJfxkLg9j39l3P9Ksta3W+B7qtdVFcPqyOFzTKu+qLW3C4L1VA9Xd+89bo69hU+BzeGPVIE3Xvdx5Tnd/Tz1bhjYvJcs7HNPrqgghsPYZJjzQ/mn67CoHCTTg64Z0+H9E03GmjeKO8CIHnXsc1V5rep9xafwFNX/gCak7YrlUr8Nlf/ejuNVwZ/ABTXmmPqDtTUxgbu5ZSXvsshG7fvo3fXhxA57EuLXkv67y2nSOrHrPUYzGN5SQv00gGZFWBoxdw+DkVpHa+jWlZ19eANcUqQF4ygvrk6f142h6AMqVnkGEaqkybjngExWEcXmsEXquMk0e3ILBmP94x89fHK96Ot27a97Pk4/weRb5MYz/6rOU7oxg4qM5zdQMGTLOaj2lkpyjeqizCmtWr8WzLsEf6/ETTcKcZpiE3BpteH3WkOU1jAWQFStXSuLKALY0bN25i89Yd+L9fLk+p5pZDnvs+quSY/9bwfc9jieoaGnHj5k3PfRNy188jiqaRQZlMQ+tSM9YWbtGBeO6FP4hX1iT3yZSekARSjy+Q3n/TJmwpXIvDw840bUirVdqXrfyi+MXep/Gtn9m/nCnOIV2a7fxkefJ8M771RbOl5Gq56PLtPoSjlavV3fp+nJJltZ2lTYedgULLbRoil9G4TWP64uvYt1aOoe5aV6/FvqPJfB3b6nz24o3Xt2B1carztmniCLYUV+EXZ1VdPt2My450qZ/ncPj0EezT5x/E6ucOYuCWbZsrx2xpDXhj/7O2cputPt3KVOlrq/CWrWtWyr3p4BG88px1Xs/hFVW3V49aLcUgnt15DFcTrb50+fkoq133J/BO3SY8bR7n6X+2b5vtedtlmMbatWsRKFbXlO1myfndOI+6zxfje+et9Nu48mYjXnz+q9j4/BZUvfRzXLppBkIJiFNX8duuN9DW+lNEjryFX1++gftWsNSm8T5uRcdx/doYJidv4d79GWdAnYd+8PKP8c0dL+i7fC+dPdetA/nA7wY995+vRkffx8ZNm/Hl9V/Fj5pb8P4HY4k0eS/rJE22kW3t+zpk1nO2omlk0HxN48HwITxrb0mclTt725cjU7qldKZR8zbeqQpibZP9TviuXvdsy9v6S+kZHO/fxdVjVXhatTz67nik+zk/9f7Z4mfxcrfRpWa0lJSBXTK21eUrXIN9RwZx7abZhTbfloYKYNLSsHdhOD6Hm8dQXbwGB06b3XqqTjcVJ010rmkU4emqI7g8GsV0hm426d4L6H2l1bYaL/fZ0436CTzXjAH5vO4M4rCq6zX1F4z0+xfw8hp1B910AZPqONPDKpCqGwKrLJPHtjtafVcPqXNcewhXzfx1udcowxpW9abqoK9+LQqC6jOtUkZxV+U3cRYHVH7fOmqYdPr8MpTVpcsH16htD+GyOs6D+1G8U6OWq6zWZXbn7ZRhGpsOD+IXO1ULtjLZjTjXNP4eL5mmcf3NnVj3tVdwcVItz0zhatdLeOF7Z3FDtp2ZwG8Ov4wjPaO4O6OWp9/HwNvH8Kvh28YxtWn8HiPjtw0jmbmH+/fueQfWFBp+9z28FmnX7xt/0ITqPTVztrEk3VNiGmIgXunzkbQwNj7/da33rlz13EYkadZ212/c8Nwm+RlkJ5pGBmU0jbujeGvnakeAv3ZE3dWq7Yy766fx8gXb9j7StdKZhnzRdKsi2X2j75B1N5fxpXQGfqtLQOkLW3DU3UJJKPP59dUEsabOGXgG6tSdsVlHunzurixfpmHVh1XO7Q4jdXwOyvwmLUPSMgPR64aJzDUNFYg9TdItp1FMHtlkC5wiqZ+nEwYp0udrmZs6j4D9M1G6esh2x30nikl7Ocx6OTpmLEu5v3rI1hK7cghfLXwWb7haI/7yy1BWl6ZvqbzEMKx18pkUW0ae5Xk7ZJmGOs9bb2NfcRD73jJMUOdpN40iq6VxBT9//oto6o4ZeUgAnBnBhY4zuCLnP3wC3//RL3FtxhYgr/8Ovzz1e9ySdWZLY8qePnM/+d6H3j59RhuBvF9K02ho/AHWrvvKnFaLdH+5u8B+p4xRtpV97OsTSnwG2WnBTeP88AO8cmZGv3qli25NP8Abv5rRkvde24hkVpVMx32cs6u8TMMZ4IymfJ81RnChQbUcbC0JPYZga0mkSzfvip35mzLLkPxiSYBLDojr9Xqcw8s0TFktDa+WjVam8zPy3veWPWCrczi6JfFl1+VwBwtfpmFvaahyHq3CGluLyPk5qGPauqesslpdX3NNw5Z3OokR2+78ra6qdxKBWerHeR72QKff2+6cE+lWWdQd/ECiO8kqdzI/Kbej+86j3hznlja/9GW11iV0f9TWPWXJbhpZnLdDNtNQy3rMTboDb7nLZ29p9ONHpd/EiQ/s+SQV7f0pvnd8CPfs62Oj+O3bvRibVu89Z0/Nr3vqcZhG9PZtnU/jwaY5aV6mIfq+KpvsI/u60+x1lo0W1DRaXb/BkGX3NmIST9cntyltuO9pHDKrqsiW1+OaZeVlGp4B2VTffnUn7ugCuKua4ck7yLTp+g5a3fGJVHAv+HIzBqxlM3DZv1hyJ2wYhd1AzuN7afvu1Zf2y8kuDqcynZ+3aVx73RVA3MFivqahdQEvr04ea64RGN1TRneTMxA9qmlIKyoZMJPacsSa3ZZd8NTvdXeSWX+uepmvaaTPbz6mcVflqwxYuqcsg3R8JotnGg8eTuCtSvWd2H0Wlx3ls7c0+pRpbMNb75txwgqAZjC8pUyj4fhl3LOCo2jqXfSd7MUHElu8Zk8tg5ZGd895nc/v/3DJM91Lsq3s88vud+am63rNXgtqGv/nQDLIi2TZvY20LuzbiGSdezuZjmvfRpbd2yy0BprWYm29/UI3AnoyyPswDfWldo81SB7WukzpCcmX1uML7vji31HNexlPOGzvqrKXUX0htz+N6kTQExmm4Q78hvycn4/uKXew8Ah+Ds3XNObUjXFOWZmG1KW0AF1lnH5LmXdiplqGQKzKla6bRsrlMAXd/ZTMb056BtNIn1+GsjpkBHLH5352r2/TyHTeTrlNQ0nOs3g1NpU/bSufvaVxBUeffybZPSWauYWR313GDelSe/ek7p4al/EMK/36IH55+g+49UC9191Ty880On7+ps7n9u07c9JStTRkW9lH9nWnJeomSy2oaYS+6wz0suzeJpdNQ8/PV4Hj8AW5g72La3qQd41tzCFzUNV5rJZZLEawm7zQrL4QyTwypSfkxzSU4cjgt9wNJ6eHOsuof7dhDZb67J5Kd37GQLhRR7I82d2AZ90D4e5gcf+syne1umu8i2l7v7klt2ncnVAG/pxjdo3DCC4eVJ/Lc3hFPqc7atuWTVilyu3LNC4dw/f2H0t2QZmyd7HZ1yeMWY8DZQie7gHhwSOotg0Iy2BzQflBDKiWwfTEBRzeJJ9dMr/5mkb6/DKU1aEo3tqqbgZkZtYdldfwMRz4J8nLp2lkOG+nPExDSVqruqsxUT4xjeTsqetv7sC6TT8xBsLv38EVGQhvOIPrsu3MBPp/+kO8+esx3JVxi6lr+MPpN3FeBsIlWGrTGMTIeBT3VPrMTAz37ykDcgfVNHocpnHk5506H/lNiDvt2y9+R8u9XraVfWRfd5q9vrPRgprG6z0PHIFelt3bSFeUdElZ26TrnrLntVTdU/Yf3smUR+cP73wEVaUF+XHfxCDeOT8657cRc7740g/v+J2Hq4z3o+hr3pKYsinTMu0/mnPK3/lNnj+ILf9oll+m3J53TbmdEyzuKhN4Vgf2wH6PQKJNQ8pnaW45HUaglJiGKneodcdweKuzNZfY1m0acqzEAK+lCRzdZDdeu8yW4MFB9d5HIE439fS+TCpYa9SDXFvHDqHaNsA8X9NIn5+Pstp160Jiqu+qL6q6/9l+rE1MIMjyvB3yNg05lzeeU/s7TCM5e+rBwzvqhuf72PN8GP+8aQvqf3wC7ybGmpSmR/CbzsN4rfWwnnLbd3kCMStQ6jGNDxC9LVNur+HWrflPuX0cpnGuu0fn49U9lco0rO4p2dedlqirLLXgA+EXRh7ip90z+tUrXSQmIa0LkZdhWMqFgXBqZUmPA7n636kclxXwvF6XSLk2EJ7KNGRb2WfZDIRTVG5rAm9t3eKYwkqtIFmBMd3rI8puGu+c/xWe2/g1bRxe2ln1ov7F+KRq0bjzma++9/0f6uPKdFr7eq8xjcHf/0FvK/vY1yckdbAAomlQFLU8ZAU+r9dFlt00RL/u/43+sV8qyY/y7Ps/quTRIPKDvfDzlbh6dcRzG5GkWT/uS/k4EasesxRNg6KolSkrUNpfH1GWaUjXUzp5zXTKVu+//4H/x4iobe37OmSvmyxE06AoannICnz21yWSzEqq2r1PG0c6SSvDa/9sJa0HeSih1zFFK/6BhTITSqbQih7Xj/YoilrhsgKl/TULiXHI4HY6SWvDa9+FkvVo9KNvHteS9yv+0egyE8o+lVbE2VEURWWUFfjSvVKpJXW0AFpy0+DfvVIUtSSyAqXXaz7KqpcsxZYGRVG5LSvgeb1S/mXVZ5bimMYjy9+vpx9V3r+spigqpazAmO41nyV1sAB6LKaRu0rxiANP0TQoakllBT6vVyqzrHrMUjQNh2gaFLViZAVK+2s+y143WYim4dBc05jusz2c7x834ZXEw/ncppHl/zVneOBb6nJQVJ7ICnz2V8q/7HWZhWgaDrlMw/Vf1Mb/YVtPlHWaRlb/15zpP5bTloOiKE9ZgdL+ms+y100Womk45DIN/Wjq7fqvKI30CVw+fRaXPUwjq/9rzvQnNmnLQVF5IivwpXulUkvqaAFE03DI3T01qv/5LhBci2/tbcbRC6Pm34uKXKaRxf816/dp/y4zXTkoivKUFSi9XvNRVr1kKZqGQ94D4dNXLuAXhxvwrS8GEfjyQQwk/pgmaRo6yD/i/zVnNg1D3uWgqBUuK+B5vVL+ZdVnlqJpOOQ0jekr553/nidjD6sto3Caxpx/XZvP/zVn6J5KXw6KorSswJjuNZ8ldbAAomk45GppXGjA0/J/2Obfjk5fOqRaD2vwykXZ1mkaWf1fc6b/WE5bDorKE1mBz+uVyiyrHrMUTcOhud1T1842JKa6yv8wH3jLSnOaRtb/15xhym3qclAU5SkrUNpf81n2uslCNA2KopaHrMBnf6X8y16XWYimQVHUypQVKO2v+Sx73WQhmgZFUctDVuBL90qlltTRAoimQVHUypQVKL1e81FWvWQpmgZFUbktK+B5vVL+ZdVnlqJpUBS1MmQFxnSv+SypgwUQTYOiqOUhK/B5vVKZZdVjlqJpUBS1MmUFSvtrPsteN1mIpkFR1PKQFfjsr5R/2esyC9E0KIpambICpf01n2WvmyxE06AoannICnzpXqnUkjpaANE0KIpambICpddrPsqqlyxF06AoKrdlBTyvV8q/rPrMUjQNiqJWhqzAmO41nyV1sADSpgFCCCHEBzQNQgghvqFpEEII8Q1NgxBCiG9oGoQQQnxD0yCEEOIbmgYhhBDf0DQIIYT4hqZBCCHEN0tiGm29D/CX37yJT3/tui/9XfUk3hx4YO5NCCEkV1gS0xAT8DKHdBKTIYQQklssiWlYRuCX+W5PCCFkaVhS05ivCCGE5BY0jcfKBDo2FKG+11zMC/pRXxhGx4S5SAhZVrB7yk1sGB1VZVhdXISCwiBWl21FpD9mJi406UzDSKuMrLToStMgZDmzJKYxXx6faUygKxxE6e6TGI/Fgdk4ooMtqCwO4WC/Wl5waBqEkOXFkpjGv3bdw78ev2cuZeaxmcbNdlQWrkfHmLlsMtRQgoK9PeYSMH6qBpUlQaMlEm7CwJSZMCH71+B0f1MivbxKGdCsma4YP16N8qBqxRSXoLKhDQfXeZiGzkdaOqY2tCNqJo2fsB+7Bt2ushoYhlPeOmouK660oKywAl1mRunyGdjvMitdHivQG0G/NdKoz2OuqZnpnck6WL25DSOJxpqRHjnXidpnknU4ZG/MTfUjsrUMq+Tcg2XY1TKIhGX7qOP4xRbs0nkXYdUz1eiyVQMhJDsW3TR+d+3DhAn4NY7HZhqzg2guUYGwaRgxWxCyE++pQShUhz4JvrNRDDWFk0HdDPa6paKiXDx6FvUqv13HzYg42IjSYhUwB9XWqhUzfqIapWp7vy2N+KlqBEI70HXFaAWNtIURKK5Gt0fvWTRiK5e1XNEJ2TRTPplNowgBMcvRGKRB5sRI13Uwoxajg4io1ltg91kz8Fv7t2BICjczjIg6z1DjoE7F7CgiZcoIGvuNzyDag/qQMsBmM/JnquOxNtUyVGU1z01MOlRShwEpCyEka5akpfHTX83Myzgem2ko4pfasecpdZcqd7g1LegetsKuYATy2lO2SDlzFrUqoHbJz0p0QFPB1xagJAAH6vrN90GEGszgqFH5ebU0NG7TMJa3ddrLE0VXhdfdviLaiW2JQG9sZ+ybOZ/MplGKyBWd4oGku1prFxsRStTL3P21oYVNg+utQ6CkEUN205b9i1Xgl3U+6rjMMhiNMqHSIA4ayYSQLFkU07CCfiplMg5ru8eG3KEOdiJSFdYD4qvWW90nxl1yotsoITOg6oCmgptsaiIBrWC/RCwjWCfuiDXGOn+m4R2shxpLzPzd2Ixi6iR2JbqmMueT2TSs9154pM+q1kKa/e2tIv2+ymqVmOjym/v4qOO5n0+qOiaEzJfHYho1x+yBcy7WdjmBdJeoQGR0n0jAK0GzvbFg5zGYxkCdahV5mgYQ66xAweaTiJ6qTnRN+clnwU3DbI2l2j+jaeixJnOfedcxIWQhWZLuKXn2lF/DEB6XaUhff4G7a0Qx3rbe7D6R/nbXALNgbZ82oMn7JeyeEswWxq7NQdt+mfORMm9ss+WZrWnoQXh791Rq0/DXPZWqjuPo220fPzFxfZ6EkEdn8QfCxz6al2EIj8s0MNOPg6Egyut6bFNu27FHratsN6Jc7PhWBGQw+5JxLjGZkvuMCnISpTKYhnsgfKRzR5qBcKBvr2rh1PUjHjdCoDGArYLvmFG2kfatKpiq5ZTVGsPpzer4riCdKR8dxMsaMSBRfGYU3btDtjz8mEZyoBrxUXSElVmqOjDOIoNpmAPhlao5ZwyE96P5GfdAeIY6Lgyh9oRxgPjYSdQ+tRWn7R5JCHlklqSlUXM85tswhMdmGsLUMLpqKlAq02JV8Fv15HrURoYdd67jndUo19M9jSmdHaaBZAxoCl9Tbk3iypA26m2TeSaPbU6VzTCdVHdR2WZRWaTNZ3YCp3eWIqDOL1BShtrGGmycl2msx8G2xsSU2LKd7XOm3KY0DWGqH63Ph2xTbs2ZVIKPOo71N2Hbk8bnEygJo7mHjkHIQrEkpjFfHqtprDCkSyxl99WikMlUCCHLmSUxjfmaAE1jAZiJITYsv1lI/qBvaaBpELKSWVLTmK/Io6NnQxWXYs/xpY7eNA1CVjI0DUIIIb5h9xQhhBDfLIlp/OU2//8Pbulvvz1p7k0IISRXWBLTkGdPiQl4mYOXxGQOq30IIYTkFktiGoQQQlYGNA1CCCG+oWkQQgjxDU2DEEKIb2gahBBCfEPTIIQQ4huaBiGEEN/QNAghhPiGpkEIIcQ3NA1CCCG+oWkQQgjxDU2DEEKIb2gahBBCfEPTIIQQ4huaBiGEEN/QNAghhPiGpkEIIcQ3NA1CCCG+oWkQQgjxDU2DEEKIb2gahBBCfEPTIIQQ4ptFM41jAw/xub2T+PTXrvvWE9WTeFPtt/zoR31hGB0T5qKb3joUbGhH1Fx8VKKRsO989Lb7+82leTLRjsp050MIyVsWzTT+266bnsaQSf/x69fx+/GPzFweI6NtKC8sQfNFczktNA1CSH6waKZhmcB82NAypff57J5JxGfNlY+JocYShEpKENh9FnFzXWpoGoSQ/CCnTOPug0/wNy8YLZRdR+6aax8Ds4NoLilDpLcT2wqr0T1jrk8Qw1BTGKuLi1AQLENtpAl77EE2NojWsDKcwiKseqYaHU070gT7GEYi1SgvCaKgMIjVZdU4PWYmuXCbRvxSO2rLjOMEVHlrjyejvN52bxtOV5VhlUrX5bSlC+OnalBpHTfchIEpM4GmQQhJQU6ZhvDrkQ/xRxXGvvL+cRA/U42ADs5x9O0OYlunM9zHjm9FIKTMZEy1QeJRDDWHVeC2gmwUpzcHUbr7JMZ18iAiYRWYU5hG7MQOlVcd+szE8TaVV1kbxo1FBw7TmDqJPcUh1J8zdxxtQ2WxMrpRY1FvWxhC7YkJ1WqLI3quDqWFyfR4Tw1C1nFn1TkoE0zkTdMghKQg50xD2NMZ0/tKq0NaH0uLyyguNiLkCOIT6NhQ5DSS2Z5k95QOuBXosiVDBeiULY2ZGGL2lowZsLtumss2HKahjCA2Ze84M8pV2W4cxWhp9Oj3BnF0VxUh1Dio3hvb1p6y7T9zFrXWcWkahJAU5KRpfPQxUFx7S+//1VetPpMlItqJbcXV6LMCudVVZd6hG+MXJWiW2JvANqYh4xcljRgyEgzSjWnMxjCU6J4qMuUdsB2moYjZuqesfSsjxo56W9eYxnjbenOdlDe5T1J246NpEELmkvOm8ZWWpTUNo1tnbkANNVgusbCmoY+nu4nMu/40AdthGno7o3vKmDRgtjR8m4b7HGzQNAghKcjp7qn/snOpu6dGESkLor7XXLS40oIyMQJbcF6o7qmB/clArxlrw0Y/pjHHiFS51rlMI2X3lJxnEcpbE80nA2vGGk2DEJKCnB4I7353iQfCBxsRKq7DwJzpvirIlgZRe8ZoDbgHwgca16cZCO9H87rUA+EjTSGV1oQh1dLQg+YV0k3lwzQuNaFUbdc6qFoaM1EMtVboWVIO00gzEK7PoTiMyKWYsTzYgspnlDHKKdI0CCEpyCnTeNxTbocaUv8uY6S5FAXbT5ppCzjldnYiMS02UBJG84k2lVcpIlfMdBsO01CMH69GeVCVobgElQ0nEdlehLJmwxWMloZzym39KWcJxjuTYym6nKaB0DQIIanIKdPIpR/3EUIImcuimYbVYpivcuYxIoQQQuawaKYhDyz87DwfWPh31ZPovLgcH1hICCH5waKZBiGEkJUHTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DeIg/uGHuDN1FxPXJzH6/jjevfI+ht4dofJI8pnLZy/XgFwLck0QYkHTIJrpuzF8MDaBKyMf4MbNW2r5Hh4+jGP244/NLUi+IJ+5fPZyDci1INeEXBtyjRBC08hzYvfu67vKsfEbuKfeE+KFXBtyjci1ItcMyV9oGnmM3EWOvH+NZkF8I9eKXDNy7ZD8hKaRh3z00azubuAXnzwqcu3INSTXEskvaBp5hnzJpYshenvKXEPIoyHXkFxLNI78gqaRZ8jdIQ2DLBRyLck1RfIHmkYeIV0K7JIiCw2vq/yCppEnyIwXGcAkZDGQa4uzqvIDmkaeIH3PnCVFFgu5tuQaIysfmkYeID/Kkjn2hCwmco3xB4ArH5pGHiADlYvZymjunsGmw9P44DZ/PZ7PyDXGQfGVD01jhSPPDZLHQCwGn3wCVLRN49Nfu671n3fexNVb851+GcNIpBrlJUEUFBZh1ZMVaO6JmmkkeybQsaEIBfv7jcXBRpQWBrHr+OLUsVxrfFbVyoamscKRB84txswWMYyNh6YShmFp3Y/vmFv4I3Z8KwIqiJXvbUf3uZOI7CxVyyEc7I+bW+Q6/ahXZlcZydU7bLdpNKGsOIg9J0zT6K1TZh1GxwIVX641uebIyoWmscKRJ5XKg+cWErth/Nk3bjhM46XT8+sGG9ivAtq6NiSHUKMYOtGP8eXiGcvNNNwssGnItSbXHFm50DRWODKjRZ5YulCIYXzlFcMwIn0P8MvhOP64wjCMLa9Pm1v5Z7y1TAWtEGpPTCA+p2fLK+C5gvRsDAMtW1EeVNupFsvqsmo0712v3tdhwNhCVcJJ1IdLVAtGbRMMYVtTI/Y4An36LrL4pXbUltn2b+hBVMqqA64c15J38I32NGLbk0bejv0V2jQ3NKGrKYzVxZKHanVVtWMk1XhybBgdVWWJbUufb0TfTTNNmDLSV+ljlaE20o+uKvXeqsOJdlSqtPpe89iJsittaFeWnR1yrXEW1cqGprHCkf9GWKjHm8+qbCzDaD0/o9e19z/QpvEohqGZjaJ7r3RJqaAlAbWmE0OJH6xnNo2hxpAOnhtrjO6tDmUYOi/LNKInsUsF2MBTW9Ha2YO+ziZsCxlB0spjPBJGoLgU9Z3DiE5NYCiyA6WJLrJBNJcUIVTViZGJGMZ7m1BZsh6t/SqqR4fRd64F21ReZarcfedUC8moliRTPah/qhR7WlXalNr/XB3KVXlKGwd1shW4A+tq0HGiR5lHhTp2EcpbR3W6g1lVH+GgOpcadA1PIDYxiI7t6vxD6lzluLOqrHJuwfWoj5xE34l21K9T24vBeJhGbFjVR3OFOr469w71vl8Zt7HVIyPXmlxzZOVC01jhyJ/qLAQfKcP40o/uzDGMR21hzEECcKRGBWR1R64C+MFeudXOYBozZ1GrAmJ5sz3AxtC3tyRhGrolU1yNbvud+1ibDpw6j1mVn8qjrGnYTBTi6Ja786qz6t0oImUqqIebMDAa82gN+eyeiscQU6YRU1G5b6/K27yrN0xjh618MZzerNaFPe76VcsmoAJ86yVzWZA6UMevPRVH/Ey1Si9D5IqZJoiRKNPzMg3NAndPCQt1zZHchKaxwlmIL7AYxhd/aBjGj88ZhtHWu0CGMauCnf32Vu6mxSh00MxgGu4AaBJVLQfLNIzuH3cAnpuHo5vGkrVfbBhdDVux8SnponJ3H2UwDXU+XZvNri0t887fbhqu8nmX2TovKx+n5Pj287aj86NpkAWCprHCybZ76kN1Z53KMJ7/abYtDOMuOKDv6JMk78RN07CnRzt1d5AO0uZddrqWxkhzafqWhtla2dbpDNHRK8OIma2KaO9JDFnJ8UG0lqoy11lGlt40ou0SyMPq7t88g1nVkpBWzCOYhtGSqECXPWE2ipFhY0UutDTYPbXyoWmscLIZCBfD+Kfv39YGcfAXxqyolndmEoYhg+LZIkFV7t7LNjeh61yPuqNfrwdxLSMYahQDkMHrTvSdaMOep4wBZStIu8c0jCm7KkimHNNoxEY9aJ7MY6RVxkFs4yI1UoYgKttVeswwlcBTOxA50YPuSI0ekwiZYxJiGgclfV2dKn8nBuwBWyFTio2B/lHEpiYw0lmDMrX9o5gGZkcRWafO3z5msV6688LoklOxxjSKnWMaujWSyjT6pctLtZ7qVP129ttmsT0aHAhf+dA0VjjZTLn9l1bjh3uLZRgW0XPJ2UWBEpnxk7zLt2YLGbOBDPNoVa2PxJ29a/aUdB11N7m6aWyzpwIlYTT3dLpaBzEdzPV4irlNvQryCeyzr4pLUFlzEuO2sY3YGWUk5vGbL5orLVRLoK8hOTOq9PkmNG9X7x/FNATpKqtJ5rc6XINue0PLPntKlbW8SiYHqPepTEMdpa/Gqt/GOV1b84VTblc+NI0VTjY/7nuyIYovfNcIXU1n7y+KYWRNfAJDl5zhdahBtU5KW2D1rMeGBzFu754yu7hk8JgsLPxx38qHprHCyeYxImIaf7HtBkr+LaoN47lXp3LLMBDHQJ3ZPdUgU15dXUuC3FlL95HZvSRTbndJF5c1TZUsKHyMyMqHppEHPOoDC7e339XGIdr2s7v4OKcMw8TqnrJ3LXUOOwbWdffS8yGjC0YZSvnWJucP4siCwAcW5gc0jTyAj0YnSwEfjZ4f0DTyBJnRspiPRyf5jVxbnDWVH9A08gT+3StZTPh3r/kDTSOPkJkti/GYdJLf8LrKL2gaeYYMVEZvJ54ISEhWyLXEwe/8gqaRZ3z00azue6ZxkGyRa0iuJbmmSP5A08hD5Esud4fsUiCPilw7cg3RMPIPmkYeI198GcDkrCriF7lW5JrhDUf+QtPIc2TGi3QxyBx7mgdJhVwbco3ItcJZUvkNTYNo5EdZ0t0gj4GQu0h58Jw8sXSh/vWPLB/kM5fPXq4BuRbkmpBrgz/cIwJNgziQ5wbJA+fkSaVyVyn/jSB/qkPlj+Qzl89ergG5FvgsKWKHpkEIIcQ3NA1CCCG+oWkQQgjxDU2DEEKIb2gahBBCfEPTIIQQ4huaBiGEEN/QNAghhPiGpkEIIcQ3NA1CCCG+oWkQQgjxDU2DEEKIb2gahBBCfEPTIIQQ4huaBiGEEN/QNAghhPiGpkEIIcQ3NA1CCCG+0abh9ZePFEVRFOUWWxqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Q9MghBDiG5oGIYQQ39A0CCGE+IamQQghxDc0DUIIIb6haRBCCPENTYMQQohvaBqEEEJ8Mx27h/8PqZh0oFj8tC0AAAAASUVORK5CYII=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aboriginal and Torres Strait Islander organization</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Website Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 094760 91997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x3088941b4dbc1183</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Kalapani Museum  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>397</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       Garacharama II, beside Susan's Roses, Port Blair, Andaman and Nicobar Islands 744105      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADowSURBVHhe7Z2Pcxvnmd/7Z2Ry1/bmenN3MzeT/rhf7pRJOWTKCnMZYc4j9DxGozFS1WLkwG0U8uxIVSyFR0VyWMphqYTVJUyY0GZNGz5WHPEsWooUq2LoY8j4xPIqk4lMxjJpS0ZMCbIkyLS/fZ933wXeXSyApUBQFPH9zDwD7L7vvvvuu+8+3/cXFv8IxEP21XY07BpCGllMHoxg70jahDhMH2lEXVMSqRm1fyWL+YEk6qI9mJXAlRn0xSJo7ZtBZkWltXAanTEV/8iUPhbLp3GoKYbu8ybNhUG0NiWQWnA2ddqxdowtZFVaaUz3JFAXiaD54Gksql3Z9Di6VXoHTmacA8KkVyyvPjKnnkJDrAuTJqnFwSQaEoNY1FtT6K5vREOyH7MSfnMOqV2NiPXM6NCy1+0jnVL5UGU8f0aVddMenDXnxNIQWuuTGF5yNnX+TRrZqS7E1bUMX1IFoUifalfb7Zi8qTZWFpBKqHLqmdLnhymn5j5TEDrdRsR95dg8YMJDlmPfxAIyGef8Hia6UFffhWmzOd8bU2U1iHmJml3AcDKC2FGnrNxrd840hwEpt8EFZCXfy5KvCDpfNdcocetj6Dy1pMKzSL/agVi9Kq9lHYzMyT3qnqn6cllfFGb71D2zyq9UPkqhn4Hcvc8j+WloO4es73odljC8S+X9TMZz37xInEa0pkwGNc6+7nGzqVH7dqh9E+6m3L8EHk9G1fWpehhV92LcrTRkPbmWuQGKhgefUFzoQcz38MgDkXCdkWAc3egV9V09TA3ilMUBGBYHd+YfIPXgZ5Ztp2MeoiHnfJL244PWA3V5EI/X78TwZbOt8DyQIdIrmlc/NzPIiAN28cQV0YgjdUmHaLRDSxrnV+66feQdZwZjbRHHEUmAOWehaGRVPN+1qKOn+7twVvIUcH5975qUY5N9Ot0OTFrhWSVYebFfZTn68TlRHb93zmypc12ewuSUcvzqu0c09HkzjmAY5NiGLqfcdFy3bDRyHyI4poOdPHoaNStKdHzlVywfxXEE2BWuHOnTOBAxAh8gGiJgW544re6ofd/8mHINEg1XIDS+fUvj6GvrwPDMkiqvJSOOeVEn6wdFw096BHvd1qsgLeiot3LKA+Gp9Jaj0w+5eXBc9D7rAcpcHEJnwmkx1Rlz0yuVtov/gaw0vRwrGcym2tEcjeTSqcvFFWflPc52fmGu28Y+VjujJqeFWlw0jBPxtEbz6PQ8zlWheg8H3LR0ur6WsRbk/L5VlaMfnxPNzvTjcdVD3Jpsx0BqHPOWX/dcuyAO8csxbLHO65ZbYRk6PT7Hmcr3KFTnzsJ7n0rloygitn4BNuLe6jZo/KKROYdO6QWaxo2/jua5S9EoII3RljJCTqoCRcOHfkjth9eY3aUv5Yj18aWcp47rDIM4rUvvQxTGyXseyDVIz0XnUw9PGdfriVtF0VDoYZao6gkox71monHFSktfSwnRWG05+gloecvw4vzUCFJtSWxtiuHQKed4z7XfVOWqRLp1cC7X27Dvb2EZrk40NEXyEUwaZ5+I5IftDDIcFYtZQuK53qzKcxRxd6hS4amjHrzl6hB0b9U+e3gqgOLnINWEouHB6ZYXVNRL/UhYLa8CB2I7V/UwlRymkYfNbmWah6Oocwpw8p6HZQ3ScymIq52qG7e0aJS9bh9+0ZB8j8p4+64kEtZ58teaDRieymBxyrSeA86/quGp1ZajHzk+50SVkz7vbdVnRlpy6XuuXefLKzaTh8OKhuNsiw9Plc5HIAuDaLZ72hrVqk+qPFmNKNu6T8k1BIcVCKnJs7csA+6tvo78cKjMxSX+2lbHoPpA1gOKhs2M5WQ8KDGJ58d4Szpi/4Tw3AgO2RPCF3sRV3EHZlSL9mYaswMteliiqHMqJxprkJ6LTJrW7erFrOppZNMzSLXIMJUbt4xolLtuH4WioZC8NYmjyZ/HvtYwE+Hu+ZGeQt/2VUyEr7Yc/fhEQ1rrcq605EW19McOR9Gwz+mJea5dT8BH0XlyQZ03i8VTHUhIGZhrLi0apodmTYRP9+xEfiK8dD4KcXoMYSbKvddbiKeOeggSDXVmmXiPtuOs7JZhUpmzsOcS1bNp3/vMeVUXOKdxT6BoWMweVQ/UQd8Qh2G+L4469bBJWFlHfPk0OreLw5Wx5B4Md3lb3Isn29EcUQ+VchatR08jtS/fYgrj5P0PZKXp5VhZwtm2hHaWenXKqUEcyrX2yoiGUOa6bQJFQ7Go9turf/zXmh7vQauec5FzdGDMdhrLUxhw5wYiCRzoNyupBH3dHRh2y0od39xxznGmhlWVox+/E83MYViV5VYtgupce/oxazy1/9qzF3pz19TcNoTRLlXXzFBbOdFQJ8Jsrww7OdfcmepV98y6TyXyUYDM54V1xGssGnId8zKfZu6N1J9J32KN/L1vxJYHWzAwVexCSDWhaBBCCAkNRYMQQkhoKBqEEEJCQ9EghBASGooGIYSQ0FA0CCGEhIaiQQghJDQUDUIIIaGhaBBCCAkNRYMQQkhoKBqEEEJCQ9EghBASGooGIYSQ0FA0CCGEhIaiQQghJDQUDUIIIaGhaBBCCAkNRYMQQkhoKBqEEEJCQ9EghBASGooGIYSQ0FA0CCGEhIaiQQghJDQUDUIIIaFZN9G4/SHwN1O38Phzy/hsx3v4Z199F7+/9139XfYN/fwW7qyYyIQQQjYk6yIap/9fFn/8V1fwya+8U9IeaL+Ksxez5ihCCCEbjaqLRufojZwo/NHXr+Drx69j7Bd3sHzzY23nf5HV+yTMjffMKzfM0YQQQjYSVRWNI8r5iwj8zlffxYkLt/HxxyYgAAmTOBJXjvnWKQrHWpBOJVG3awhps00IIZVQNdH4yRtZ7fx/6y/fwf99+0OzN4/bq/AzreLKMRImadwLbr9xHPs7/gyf2v8APvH1P8OuH57EbMYEbjRWljB5tAXxSCPq6hux5cEW9I3nJWIji0b6fA/2PhRFQ30Sw0tmp0LnWV1L3iLYmmjH8EX3JixheJfa39SOyZtml4cFpBJyXBemzR5CyNpQFdGQSe8/NMNNfWOBT3VR0RB+qI6RMEnj1h2zc72Y+T4+t/8hfHXkDbz7fgbXlt5A6thD+FTnC1j4yMTZMCxhNBlBQ7Ifs0tKYFeySM/0o7Uphu4Jx8FuTNHIYvpoHFt39mBsbgkZX9ugIM/ZDBZPtSNen0DqkuwwoqEEZe9IwJUtDKJZiw1Fg5C1piqi8cLPbmmn/0dtV/BRkSGpUqIhx7gT5y+qtNaPDE50P4D40Jtm2/DRG/jOwQfw1R+blu7bx/GF/V1I/fibiH9d9Ub2fxbxH57HNUtUbk+/gK92fFaFPYA/6fgmTuSSnMYz+3fj2ddOqt6MhH8Gn+56FtN30ZPJvtqOBtXaHvMdO98XzzndAge8soCxjiS2NklLPYrWjnNYtFetXT6NzoS0/hvREE2gc2TBBDgsnulAazTitP6TvZheNgGK7IVe7H1Qwpwez8BUkYsSpx7rwWyR1XLBQpfFWFsjYj0z6rsjGntbWlCXGMSiEyHH7NEoYirs8SqJxs2bN7WVI2w8Qu4nqiIaO3+4rB1+qXmJUqIhyLES3qzSWjfeP4Ov7t+OZ39pti2mBx/EJ34w4Wxo0fgMdg29gWtK026/dR7fOKTE5vjbTvhbKvzru5H6pWpCf5TFuz/5Jj57sAsTWv9ENB7Ap7pewLR4xcybePaZB/DZwTckcFXM9kRR13ZOuVMf6TlMnp9TEuh3wBnleCOI7xvBvByUXcCw9FRyacxhIBZB6+ACssqhZy8Nql5LFH0XdCCy4x2IxbowKYmtpDHba6W9fBqHpIdz3pzpfJfqGbRg1Nn0sDi4E/HDvehLuuKUxMCFvMCEFY3uM+fQ2RQ3vQ/DTdmneiSvDqG1SqLxne98B0eOHCkpCBImccQI2UxURTTqvnFVO/wLbxXOZbiUE43pyx/qcElr3dBioJy98f02747sxieeOY53ZcP0NCasnsW1U0/iE0+/AGmXT/zwM9jm6a0oYXj6M3jm7+W7iIZXmHTaXSedtFfB9BHVWzgyZbaC8TjgJXGkPkeeHsHe3JzCFLrr4xi4qEMUWSxOjat7IZLiOOrOM5ZEiYNWx45eUd912k9ZvZ405s+PYz5ANHS+m5JIzajAFXWOk+2INe3BWRM3SDQyM70q/Si6J/J5OXBSCZf0Ko6KkDhkRlTvo2UEGZ2f6ojG22+/jX379hUVDlcwWltbMTFhGhqEbBKqIhq//aQjCNdvFV8uVU405FgJl7TWjdWKhg4xSO9C73sPKdVzkGEpvz0zKRGd4Sn7HJ60PWQxeTiCLYfHC3sTilWLxkQX6uL9mNchLjPoi6pWu76YLGb7dmKLDFu19WJYeiu5ISQRFJkn8JsrOEs4uz+OhkgCBzr6MTqzpHsrhaQxmmxEos8e9lpAKi4i4CiOzrPvPN6hMkc0WlPqxDLUlZsQN8NWMs9RRdEQigkHBYNsdqoiGvJr77CiIcNPN24XxnNFQ5bgrhurGp7yicYvX8A2SzRy8x8FrJ1oFB2eUq33zLKzt7xoTOFYkysahvQcpkf60SnDR7GncDbXC4miL9+oDyR7eQZjqR4c2B5Bw45ezBY0xJ1hJu3wLUQA3X1BPQ0vlmiICLUYobAFZKoLDVWeCPcLBwWD1AJVEY1/fdAZnpIhpmIMTd3C7+5xxEUmvX/+K+8yKVl6K2HrOjxVdCL8TTzbUTgRbruF2+e/aYansjjX+xl8qncCt02YJjeUtRrRKI07Ee5fdlp0Irzc8JQ1F+LgOGTHOTvLWJsHvBPjML2J7OUpTE6p3oWzqfbbPRgvhWKnRGCHr6cRWjTUuc+0oy7Rj2F7qEoEssqiIdjCQcEgtUBVROOLP3ImwrvK/EBvcfkjbO1K67i/2fIOnv7bDFaMc5VjZf8X+9dxIlwosuT2E4e+j2nX8WvRMBPh4vnSE3jm0AP4wsh7TrhJ4xvnnG09Uf7013BC69/aiYb8RkMmsuP7hjCbVhkpu+TWTIQfPI1FyXd2AaNPqN6E68DTp3FAHdt5ynHGSJ9DdzSCQ6ectDIn9yiRSiJlfi+RkXNt78GsHDzTg7gVpifR62PW/IiFiJd7ntycRl78VisazuS3DGMlkHI1bZ1EQ3CFg4JBaoGqiIa95PZDa7I4CFlee/THN/BPWt/BliPv6d94yDFyrKSxvktuHcr+uE+LRjt6R/JLbr/w3IRnye21v38Wuw9+Vs9lfOqvduM7E0ZQ1lI0BL2E1v1xn/wIbg8GSv24T8UfbUtYS26VgFhzD9mLQ7klt3UyP9E/Y/UIlNCPtKNZL7ltxJbt9g/u1LnGe3JLbmVFVPcZ49QD0OfZXiSd1YqGQibE9QS42V5P0RBEOCgYpBaoimiI43ffJVXsx31+ZDgqfcOZ25Bj5Fj5cZ+kteEImtMghJAaoCqiIcjbasXxyytBSi299SNx7/VrRMpC0SCE1ChVEw1B3lYrzl9WQP3tdPkXFkqc++KFhRQNQkiNUlXREPyvRj9w/Dp++ss7eihKLOjV6HIMIYSQjUfVRUMI+ydMEod/wkQIIRuXdRENQSa05bcZ7t+9/t7ewr973ZCT3oQQQnKsm2gQQgi5/6FoEEIICQ1FgxBCSGgoGoQQQkJD0SCEEBIaigYhhJDQUDQIIYSEhqJBCCEkNBQNQgghoaFoEEIICQ1FgxBCSGgoGoQQQkJD0SCEEBIaigYhhJDQUDQIIYSEhqJBCCEkNBQNQgghoaFoEEIICQ1FgxBCSGgoGoQQQkJD0SCEEBKaqonGvz/yHj75lXc89unDV3Hj9scmBiGEkPuNqonG7+55t0A0xM5ezJoYhBBC7jeqJhr/9umrgaLRdeqGiUEIIeR+o2qi8Z9+8H6gaPznvvdNjA1KZg7DbQlsqW9EXVMUzW2nsbhiwoTLp9GZiKJBhTdEkxiYypgAQ8nwDOZT7WiOqLRV+Jbte5C6sIrwlTQmj7YgrsMj2Jpox+iCCQtizfLinOvsZRNkkT7fg70PyTmSGF4yO4VsGvNTI0i1tSAR7cK02U0Iub+pmmh899UPAkXj89/dyKKRxeTBCGJKKNIiFNkFDCcjiPfOOcE3p3AsFkHr4AKyKjxzvgtx21mWCc+c3IOGWBcm02Zbwpuewtlls10yPIvprhgakv2YlfCVDGb7kkoMejBri5pLhXnJvtqu0lZCIfFXspgfVOeK9WLeCVao/ByNY+vOHozNLSHjGXVcwvCuCJr39GC4p0WJDkWDkM1C1URj/r2VAsH40/aruPzrj0yMDcjNc+isjyN1yWwL4x2oi/c7ztL+rslirK0RsZ4ZZ7NkeAZjHXEc8DTHp9CtWvndE/K9XLgSgaYIjk3pAAedX18L36WivDhxE31WN2ZlXIVbZbMwiOZYEcES3P0TXRQNQjYRVRMNYYu1gurffOMqrmY2sGAIS0Nore/ApO0ILw/iceP00qkk6nYNwTTONXrfE6eVGy4f7kG13hdPtSOuWvvTN80+m3Lhgs5vO8YCwivLi/QUlICM61CD2rfDFRVgcXAn4od70Ze0hr88w1sGigYhm4qqisbzE7e0YPxGyztYurbBBUPQTtjn4Kx92TPtvta74zxd51wu3MFxyDKPUPe5PQFzEuXCXVRvoS2CuNvL8VFZXoxoGIFw8O6bPqKOaUoiNaNSE9E52Y5Y0x6ctVVKoGgQsqmoqmh89DHw6UPOKqpvjAS0QjcaZURDDwc1WfMEM/1obVLOs+0c9JB+uXAbt3Uf5GiFkuEZzPbsxJbkkHeS3qaivJQTjTRGk77hKywgFW/EgZO++0zRIGRTUVXREH76yztaNP5x6zu48NaHZu8GRQtE8eEpIXtxEAeiEeUII2huG8JoVzw/p6EoF+5FOeIdAY42R3D4YkompVWeyujw3efFCETR4SlnzqM15Z1Mkd6Hfx9Fg5DNRdVFQ2h94ZoWjk89dQWLy/fxRLifFdW6TkTRd8Fs+/GEp3F2fxyHRuxug+OIO89I279cuENmvEvPPUyaVU6hWVVeyk+Ez/ZEfb0W53j2NAjZ3KyLaNy6k58Ur/tG8Aoq2bf9u++j+YfL+ObLGfzN1C28/f56C4xvye3yHFJJ1Uof8E0srGSRWZhCal8MW/YFTywHhS8OJFAnDl98dcDwU7nwrHLA8aYkhgN+L1GUu8yLd8mtWd6bGMSiE6w0QvXKmmLoPKUiyPF6TqMdk/5JeYoGIZuKdRENIX3jY73kVoTjD772LibmlZIYfnl1Bf/ywBUdZtsffv2KibGO+H7c13p03BEQFz2E1YgtD7age2QOGf+cQqlw5Xyn+/d4fjA3fNGSnJLhqiW/S/YH2BF7Ha5FJXlR8uL5cV+yB5O+25G9OITO7TL8JT8O9B9voGgQsqlYN9EQRDjcFxnKiqp9Q9fx81/dwR/sC35P1W/95TvmSEIIIRuBdRUNQYaq9r50PVAk/EbRIISQjcW6i4bL3126g3/33wtfn24bRYMQQjYW90w0hI8/Bl782S187ltpigYhhNwH3FPRsJl7dwV//eoHSHz/fdQ//R5++4l38GdKTAghhGwcNoxoEEII2fhQNAghhISGokEIISQ0FA1CCCGhoWgQQggJDUWDEEJIaCgahBBCQkPRIIQQEhqKBiGEkNBQNAghhISGokEIISQ0FA1CCCGhoWgQQggJDUWDEEJIaCgahBBCQkPRIIQQEhqKBiGEkNBQNAghhISGokEIISQ090Q0Xpq4g9i3PtAm3wkhhNwfrLtoTL/1ERrab3hM9hFCCNn4rLtoDI7fKRAN2UcIIWTjw54Gub9YGkJrfRLDS2a7FCtpzJ6fQ3rFbN9LJrpQt2sIabNZM6zBdWcXpjC9kDFblTCF7rB1hxSFcxplmD7SiLojU2ZLKp3ati0Sw96j48YxBYS7lnQfnAzmU+1ojjj7t2zfg9SFkA/E8mkcqN+J4ctmW7h5Dp31EXRPmG3NFI41ufucPHnDHbzXZrOE4V1W3sWaomhuG8LssolylxQ/p1B43oZo3CpfibIK0bgygr1NMQxcNNurZgGpRCNiR2fMdgVQNApIp5KqXiUx6r+Xvns8fTSChn2n1ZNTKRSNteCeiMb9RJBo2A44uzSDVFJV6rZzyJp9XtIYbYmg81UnNHNyDxpiXZg0T1HmfBfiTU/hbChnrJxYvBGdZ6wzqYeyQeUp1mM5tkv9SNTvMWnevWi0pvJPVzazgLGDMdQl+jFfQcs9jGjkzruSRWbhNDqjjdg7YgpsNaJRKTM9iEWjiDW1Y/Km2Xe3UDQK0KIhDYNcg8pQtXtM0VgLKBplKCcaGo+T9qEcTzzag1ntaDMY64jjgKfWFkmzyMM23aUEqivvdGd7oni8pQWxuHLmZp8IU92OQSzqrbURDY3u1UTR5+rT8hRSexLYotKviyRwoH8mL5z6we/A8NAebG2S8zv5yPciujBtouYJPq8nn36HcmUcfV+OmTyoXl+vPw9uXMdhDKR6dC+v4NoCmD2qelcDU0r0fUKtkDy1DoxjtM25/oaoStvuMWZmMJCMakHfsr0dw71Pee9niXxrZ3p4EGdN2lK2nSeXkLnQi9ZoRJVdBFuTvZi1Tpe9OITOhHO+hqgT38VJ7zSme5P6XrjpBWN6wu55Eu04a/VsK75uC52veALNqld84KQVw3ePC+qplJ05h76W1Fz+nq+oxk2HuU7VO27tOIfFXCPH1IGRSspxEKNPSHhQ/a0NKBpl8FbYIg64qGhkMXkwohzPgtn2oVrSi6faEVc9j2l/S7aIaGTPtFuCID2POFIXVb5UNz//kEWsnkeRPCsKHsYcIURDPZyphLq2nilk5KFMj6M71ojmPnOt+sFvRPzgCOaXMsiaB7f4OYWAHs5l6WnEcGzKuAWPQ5nDQCyC1sEFJ/1lyUO+V1coGtKq7dXj4xmvBhQi12rKNPtqOxpaRjzDI/o6VHhqRt0hdR/nB5RDkcaBDk3j7BMRde2nsajOk007vdH8/Sydb+2cTNpZqSPDqneqHOvWln7MSgI35zCs0svd4+XTONQUQ/d5U1sWBtHalEDK3AqdXn0MnaeWdHrpVzsQK9LIyZx6ytMTXhxMoiHh1rdKr9uLzpcKm1d1uqFJ5ceNVEo0bk7hmF12S6p+5MpONcra1Pn3qTonm9kFXU75UQC3DnjLseGgCQ9bjiNzSC87KdYiFI0yeJ1cgAPOLqkWYTT4wVCVrjlwaMNxjrrF/bk9GA3SlGLdev1AmQdevusHNqseFrc17B/CcvKcb+H7LKxoyKSyaqnWRY3Aqfw15HpQhgs9iDWpcP0wSz7bMea79jCi4c9jc6/VkrQdinJameW8IAmSfq4n5nE+Ug5KYC/pkLJ4hGJlBn2q1ek6D0HOk3AFUjDnGr3ifm/BqH3zxjvy97NMvp0W7bj+rllRoqLKodva5TrcfHq2EzP3b8jJgI7rGT6VsogoITabNjeVoNr3zL4uRUXX7SN/DY6zzzl3k2aQaOhGk9WrFjLj/Th2UuUp6PzpEez11AHfnKDd4Ft1OdYmay4aP59fwcDYHf1ZjBu3P8bw1B1t8r0YsqpKluPey9VVdoUNdsCqZfNl1XoNaLXJ8EbJSVRVSXVPw21l6UrvT99YLg/iwJwHXs+PmP2573qy3G5FOnm+m56GNw/OUIUrcIEPkD63eUD1tRR24YufUygUK2mtDuxSLcshs8/nULBkDfO45qbviSvlYB1XEu88lOAMVeWdpVyHR1Ttc4ng51rfBn8joES+ddl6yqjwHuYdrkPGGlZx03PzFya9HCsZzOaGp9y08uVW8XVbeK4hreqO6k11nlEy7bvHdp3Rx9iCaiPn8gmK87y41xpQB7Qg5/etrhxrkzUVjRd8v8GQbT8iEvGjH+Ti/Mdv3wwUDllV1Wilda9WWXmdXImHzY9+CLyt02CUo9zRiAMn1cNiWqDalJjU7VDdaHfbav1NHpbW3ozVu1DIgyYPrHpwGjwPTvE8F3fghc7bj36A/KJxxXrY9YNfuWgIeo7GvSbbodxU16acW+ug6omYNoonfY/zCXAYxdDHOQ7DY1bPSs5z186zTL7DOHmPw9XndoZVnPS85RgmPRcdVw9PWfXKKreKrtuH5xoUuuET7cCkctz+c3rKZlWiISsJQ4rGqsuxNllT0dj2rbwYiMm2H+ld2HHEZJ8fWY5rx5HtajPbl0Cix64UzrBPmPkBP4sDifxYaY40zu6P45C7EkjjiIZ/orXUw6ad6L52dDbZwz9SwePobEt6JspL5dnjYD0EO28PKn/lh6eqLBoB5xBBzaVvxw1yGEXQ964gjzLsF0XfBWerpPPU30sM05TJdxgn73G4BXXFqVPFnV3pOuG5rsuDeNwqt4qu24fnGjRLGJW5ml1JJHzndPMfNDwlv+OYnFOpBJ1/NcNTqy7H2mRNReM/dHkdvWz72ciiocexrQnItCyHVS2P3GqhEg+bB92SzDsYG3FITktObfiHp2xKiIbzIKsH6Qnv2vX5vrhuEXsFqLSDCH4IQoiGmQhvVYXjTIRPoW+7fyK8UDQWB3eirkVdVzaba2XnKTxvVpbcxhoRd4XbdlJ64jKKzpMLyN6UsuxAQlbNuNdkx9XlkHdEeuVX12DAsKIz/BdUXlK+bkOgpPNUd807IazKZoc1IVwm36sWjYu9qp4mMSD19mYaswMtetiruLMrXifme2Mq3V7Mqp6GnshukWGqfLlVdN0+CkVDIelJWfjOmct/mIlwc36ZCNcrnXI9Yue6i06Er7oca5M1FY3//bMPPY5etv3IUJQMSblxSg1P2Wmt1/DU4kh+PFeWE/aN21W6+MNmkxlpQZ214sTDSgbT/XvMj/uceYLhi7brN6TnMDm15OupuDjjtJ6HV5DfFVgPm0PxPFckGoJyvAO5ZaOy5NaspBK0MykUDXnIDz3kOCJ3cjWPc17PkJDnx5MSxXZSyi9Yy1Dlx4ejXUo4AydUpRyssjFhBXnQvaUiv8vQrdKnMKZuV2nnqSiz9LRUvlctGorFk+YHo7LM9OhppPblJ6xXIxpYkYUd+eW0facGcchaQFDpddsEioZiUe1vsNIsqKfWklvJY/cpawxYNWZkOXB+ya0SkFzjxKkDniW3Twxi3nr8VleOtcmaT4T/w9sfIfV3d/RnMUQkpHchFiQYLhthIpxsUkQc/OPvhJCyrLloELLxyWL2r1twbCKgh0cIKQlFgxBCSGgoGoQQQkJD0SCEEBKaeyIashJKltCK3asf7RFCCFk96y4ashLKXkorxtVRhBByf7DuosG/eyWEkPsX9jQIIYSEhnMad02JX9WuAfz1KSFkI3JPRGPjEvL1GRqKBiGk9qBoeKBoEEJIKSgaHgLesnqhF3sfdF5guOXBFgxMua+e8ItGqf9Wdl6Uljo/gs7tJtz338SQvzXNhfVguGunRzSK54MQQtYPioYHn2j4/jM4o1+V7r6v3ysapf9b2Ylrv5I5pc6T+58O+TtRed2zec24+zrwnGiUzAchhKwfFA0PPtHQr312XoXtkMb8+XHMB4hG6f9Wlrje/6fWw09J81rogD800v874YpGyXwQQsj6QdHw4B+eWtL/tNcg/xXR0Y/RmSXrj4N8olHyv5UlrvWfAwotGua/BPR33x8qeec0SuWDEELWD4qGh+CJ8OzlGYylenBgewQNO3oxq3sUXtHQTr7ofytXKhoOwfkghJD1g6LhwSsa2ctT3n/Pk7mHqCsUXtEo+Eczz38rlxaNcsNTpfNBCCHrB0XDg6+nMdODuPxnuPk71uylQdV7iGHgomx5RaP0fyuXEQ3/RPjcCA7ZE+El80EIIesHRcND4fBUerwnt9RV/x/xGTfMKxql/1u5jGgIZZbcFs8HIYSsHxQNQgghoaFoEEIICQ1FgxBCSGgoGoQQQkJD0SCEEBIaigYhhJDQUDQIIYSEhqJBCCEkNBQNQgghoaFoEEIICQ1FgxBCSGgoGoQQQkJD0SCEEBIaigYhhJDQaNG4dfs2aDQajXYf261bhZ+22XErMIoGjUajbUSznb/7WYnZaVdgFA0ajUbbDOYKg/1pmx23AqNo0Gg02kY02/n7P+/G3HQrNIoGjUajbQZzhaHY5xoZRYNGo9E2gpVz+vJZiUkaa2AUDRqNRrufzRWEoE/b3PgVGkWDRqPRNqLZzt/9rMTstCswigaNRqNtBnOFwf60zY5bga2LaDz70wx+/79dwSe/8k4o+5O/uoLjU9cD06LRaLSaMNv5u5+VmJ12BbYuoiEiECQOpUxEJigtGo1GowWYKwz2p2123ApsXUTDFYKgsCBbbXwajUbbdGY7f//n3ZibboW2rqKxWgtKi0aj0WgB5gpDsc81MorGPbUFvNTciGfGgsI2q72GZ+ofw0sLQWE0Wg1bOacvn5WYpLEGxuEpv703g5f2P4KtTY2oq49g6yNP4vnX0sFxK7ZSouGE7X5+ISDsfjaKBo22puYKQtCnbW78Cm1dRGO1du9EYwEnHovg4baX8eZ713Hrg+t4+/U+7G7ahm+/Vo3VXBQNGo1WxGzn735WYnbaFdi6iMbhkWUcPrEcGBZk90w0Lr+I3fWP4qVL3v3TXVtRd/BcbvvNVw5j99aI0xN57Bgmr5i4C3L8Ybzy2rFc+KP7lQB9kE/rzRNteDSiejFNW7G76zl8+z8FiIZOR3o6xppfxNvu8S/b5z6Mn/jy6pgjOI/2z+X3XezDI/W7cWLJ2S6VzmSHT6x0flxH7zj9Hz1/VF9HoaiZ8OP5Mtja+hzeeM8b/vzZ43j68/kynM6FK7vyGp5/8hFskWuPPIKv9b2Oa25YiDK+NtmHr+m0G7Hl8204MZcPo9E2rbnCYH/aZsetwKouGlNv3siJQFjhuGei8cHr+N5W5QiPzeCq5YRsu3buMLZtO4KfivP9YAnTxx7LO3Xj7HVP5bqKu/RjPKPS+9oJM7z1+lE83KQc5utLuhfz5stteFjFD9vTuPZKGxq27cOJi04v6I3nHkNDUxt+YjtcY28/b+XL3d59HFfV93LplBeNRjSIWM6lcVVdZy6eNidcl8H7anvpdTyvem8NbT82jt89vg/TUobvz+B5dZ3bul93jv9gDs8/ooSg+zXnHiydwzPblAD2GgEsV8aXnlM9Q5VXc20i0tu2HsGk5EWfn0a7T8x2/u5nJWanXYGtS0/jR2PXVyUc90w0lF278CLa/0K1UqWFe7gPP5lRDj4X7jjyp1+xhqre/zGeVg71xGX1XTs05XwtByUOuOHIa+Z7BNu6jHPUptIL6mm4YR7RcLafPG7nZwkndge19pUtHceTOUfvxHOOLZ9OedF4GM9fdI/1m4T7emuTR7EtVy6Fx2tBe8wI3NgRNGw9imlbtOX4JuX4ZV+IMn7EFRhtSoQejuDbr+Xj02ib0lxhsD9ts+NWYFURDdfpF7NywuHGCwpbF5MW6uvH8fz+x/SE+JZH3eETp5WcGzbKmXGo2qEp52alJQ6trkMcmuOscy1ibc6+cKIR7Kynu7ea9L37PUJx5WV8LTc0VT6d8qLhfg+ygPAPVG+hxPF2r0h/3+/2Sozp/JtjQpRx4f0pVsY02gY22/n7P+/G3HQrtHsiGoc2umjYJsMlyhE5wyfi8Lbie68HxBO7B6IxeUT1igJF4zauHt+NutaX8fYrbbmhqTDprLlomN5YsePLioaeazLHrLqMabQaMVcYin2uka3L8JS8eyqsYIjdK9GQsf46/9CIsjefe9QMn8h4u2+CWcyNX9Khyfd1HJ4SMz2Mr7VGrOPKpyN5/tJzaygaehLeHp4qLhrhhqeKlfF1/LTNnj8x5rufNNqGtHJOXz4rMUljDaz6E+GXPliVYIjdK9G49f5r+Pa2CB49cs5acvsi2tW+3S86TvTqiSfRIJPZF5zW7FVZkvt55eRkQriMaPgnwt84vq/ERPht/PSg6uEceQ3XrjtzKM4EtnK+l8wE9otPKmeqtgMmwh1L45VWdX6fky6XjnbijxzFpJ6onsNP2rZZaYQRjfxE9a3rc3jpMSWWqgzyE+ElRMNMhO/ufd1MhL+G733ePxFepozrt+Hpl537de3Sy3j6L57EK2bVGI226cwVhKBP29z4Fdq69DQOjSyHFgyxeyYaYldmcOLwbjwsy2KV89vy54/i6ednPC3XN4+34VG93NNZ0vmSEZCyDk1ZqCW3xq4pQfqSjptPM39us1S2zHJSPURlraJyrWQ6HyzglX0Po0FdX8PWR/B092F8aVWi8Si+/dzR3JLYR/a9WLDktqhoiF15DT/6L9usJbdmJZWEhSjjq68dw5N/7tyfhq2P4Xvn7F4VjXafmO383c9KzE67AlsX0Vit3VPR2GQmQ2JFh6+qYuVEhUajVcVcYbA/bbPjVmDrIhqrFQGKxhrY+2lcnZHfLOR/0Lc+RtGg0dbEbOfvflZidtoV2LqKxmotKC1aONOroZoeRvuJ9exliFE0aLR7Yq4w2J+22XErMIoGjUajbUSznb//827MTbdC4/AUjUajbQZzhaHY5xrZuojG7+9d/d+9/nEb/+6VRqPVkJVz+vJZiUkaa2DrIhry7ikRgSBxCDIRmX51TFBaNBqNRrPMFYSgT9vc+BXauogGjUaj0VZptvN3PysxO+0KjKJBo9Fom8FcYbA/bbPjVmAUDRqNRtuIZjt/97MSs9OuwCgaNBqNthnMFQb70zY7bgVG0aDRaLSNaLbz93/ejbnpVmgUDRqNRtsM5gpDsc81MooGjUajbQQr5/TlsxKTNNbAKBo0Go12P5srCEGftrnxKzSKBo1Go21Es52/+1mJ2WlXYFo0QAghhISAokEIISQ0FA1CCCGhoWgQQggJDUWDEEJIaCgahBBCQkPRIIQQEhqKBiGEkNBQNAghhISGokEIISQ0FA1CCCGhoWgQQggJDUWDEEJIaKomGi9P38ZnDl/FJ7/yTmh7oP0q/lYdd/8xhe76JIaXzKafiS7U7RpC2mzeLelUMnQ6Ou6RKbO1SpaG0FrqegghNUvVRONfHbgSKAzl7J/+5Tv4h8UPTSr3kIVBNNdH0XfBbJeEokEIqQ2qJhquCKyGXf3L+phPH7qK7IrZeY+Y7YkiFo2i4eA5ZM2+4lA0CCG1wYYSjeu3PsYffd3poRw4ft3svQeszKAvmkBqYgR769sxdtPsz5HBbG8SW5saURdJoDPVi0O2k83MYCCpBKe+EVu2t2O496kSzj6D+VQ7mqMR1NVHsDXRjrOXTZAPv2hkLw6hM+Gcp0Hlt/Nk3svruIcHcbYtgS0qXOfTChcWz3Sg1T1vshfTyyaAokEIKcKGEg3hZ/N38BstzrHy/V6QfbUdDdo5ZzF5MIK9I153nzm5Bw0xJSaXVR8km8ZsX1I5btfJpnH2iQjiB09jUQfPIJVUjrmIaGROPaXS6sKkCVwcVGklBrHobHrwiMbyaRxqiqH7vDlwYRCtTUroFpxNHbc+hs5TS6rXlkX6fBfi9fnw7HgHYu55V9Q1KBHMpU3RIIQUYcOJhnBoJKOPlV6H9D7WF59QXOhBzOPElzC8q9ErJCvj+eEp7XBbMGoFQznooj2Nmxlk7J6McdijV8y2hUc0lBBklu2BMydfrUPOWZyexrj+7pDFWFsjYj0z6rsTt/OMdfzNc+h0z0vRIIQUYUOKxocfAU2d7+njv/SsO2ayTqRHsLepHZOuI3eHqkwL3Zm/iKJPfG8Oa05D5i+iPZh1AhxKzWmsZDCbG55qNBbssD2iochYw1Pusa0p50Ad1zensTi40+yT/OaPyZstfBQNQkghG140vti/vqLhDOsUOtTYUVcl1lY09Pn0MJFp9Zdw2B7R0PGc4Sln0YDpaYQWDf81WFA0CCFF2NDDU/9i/3oPTy0glYige8JsulzqR0KEwHLOazU8NX0k7+g1lwfxeBjRKBAila8dPtEoOjwl19mI5oFc98nBXbFG0SCEFGFDT4SP/WKdJ8JnehBr6sJ0wXJf5WTjEXS+6vQG/BPh0z07S0yET6FvR/GJ8PnemArrxazqaehJ8xYZpgohGhd7EVfxBmZUT+NmGrMDLXqVlEc0SkyE62toSiJ1MeNsz/SjdbsSRrlEigYhpAgbSjTu9ZLb2aPFf5cx3xdH3b7TJmwNl9yuLOWWxTZEk+g7NajSiiN1yYRbeERDsXiyHc0RlYemKFqPnkZqXyMSfY4qOD0N75Lb7jPeHCyO5OdSdD6NgFA0CCHF2FCisZF+3EcIIaSQqomG22NYrW2Y14gQQggpoGqiIS8s/PQqX1j4p+1XMXLhfnxhISGE1AZVEw1CCCGbD4oGIYSQ0FA0CCGEhIaiQQghJDQUDUIIIaGhaBBCCAkNRYMQQkhoKBqEEEJCQ9EghBASGooGIYSQ0FA0CCGEhIaiQQghJDQUDUIIIaGhaBBCCAkNRYMQQkhoKBqEEEJCQ9EghBASGooGIYSQ0FA0CCGEhIaiQQghJDQUDUIIIaGhaBBCCAkNRYMQQkhoKBqEEEJCQ9EghBASGooGIYSQ0FA0CCGEhIaiQQghJDQUDUIIIaGhaBBCCAkNRYMQQkhoKBrEQ/bOHby/fB1L71zFwq8W8YtLv8LsL+ZpNWRyz+XeSx2QuiB1ghAXigbRXLuewVuXl3Bp/i28e+U9tX0Dt29nsfLRRyYGqRXknsu9lzogdUHqhNQNqSOEUDRqnMyND3Sr8vLiu7ihvhMShNQNqSNSV6TOkNqFolHDSCty/ldvUyxIaKSuSJ2RukNqE4pGDfLhhyt6uIEPPrlbpO5IHZK6RGoLikaNIQ+5DDGkf71s9hByd0gdkrpE4agtKBo1hrQOKRhkrZC6JHWK1A4UjRpChhQ4JEXWGtar2oKiUSPIiheZwCSkGkjd4qqq2oCiUSPI2DNXSZFqIXVL6hjZ/FA0agD5UZassSekmkgd4w8ANz8UjRpAJiqr2cvoG7uJ3c9fw1u/5q/HaxmpY5wU3/xQNDY58t4geQ1ENfj4Y6Bl8Bo++ZV3tP3z/Vfw5nurXX6ZwXyqHc3RCOrqG7HlwRb0jadNGKmcJQzvakTdkSlnc6YH8foIDpysThlLXeO7qjY3FI1NjrxwrhorW0QwHn9uOScYru34wfsmRjgyJ/egQTmx5sNDGDt/Gqn9cbUdw7GprImx0ZlCtxK71tRGbWH7RaMXiaYIDp0yojHRpcQ6ieE1yr7UNalzZPNC0djkyJtK5cVza4ktGL/z1Xc9ovGds6sbBps+ohzajkHkp1DTmD01hcX7RTPuN9Hws8aiIXVN6hzZvFA0NjmyokXeWLpWiGB88UeOYKQmb+H/zGXxmy2OYDz54jUTKzyLAwnltGLoPLWEbMHIVpDD8znplQym+/egOaLiqR7L1kQ7+g7vVN+7MO3EUIVwGt3JqOrBqDiRGPb29uCQx9GXHiLLXhxCZ8I6/ug40pJX7XDlvK4FO9/0eA/2Puik7TleoUVzVy9Ge5PY2iRpqF5X2xDmi80nZ+Yw3JbIxY1/uQeTV0yYsOyEb9HnSqAzNYXRNvXdLcOlIbSqsO4Jc+5c3pXtGlKSXRlS17iKanND0djkyH8jrNXrzVdUMq5gDLx2U+8bmrqlReNuBEOzksbYYRmSUk5LHGrHCGZzP1gvLxqzPTHtPB/vcIa3hpVg6LRc0UifxgHlYBse2oOBkXFMjvRib8xxkm4ai6kkGpri6B6ZQ3p5CbOppxDPDZHNoC/aiFjbCOaXMlic6EVrdCcGppRXT89h8nw/9qq0Eirfk+dVD8kpljzL4+h+KI5DAypsWR1/vgvNKj/xnhkd7Druhh0dGD41rsSjRZ27Ec0DCzrcw4oqj2REXUsHRueWkFmawfA+df0xda1y3hWVV7m2yE50p05j8tQQuneo+CIwAaKRmVPl0deizq+ufVh9n1LC7cS6a6SuSZ0jmxeKxiZH/lRnLfhQCcYXvv9+gWDcbQ+jAHHAqQ7lkFWLXDnwYxPS1C4jGjfPoVM5xOY+28FmMHk4mhMN3ZNpaseY3XK/PKgdp05jRaWn0kj0zplAIYsxaZ23nVPfFpBKKKee7MX0QiagNxRyeCqbQUaJRkZ55cnDKm3TqndE4ykrfxmcfULtSwa0+lXPpkE5+IGLZluQMlDn7zyTRfbVdhWeQOqSCRNESJToBYmGZo2Hp4S1qnNkY0LR2OSsxQMsgvH57zqC8YPzjmAMTqyRYKwoZ2c3b6U1LUKhnWYZ0fA7QENa9Rxc0XCGf/wOuDANzzCNa+5xmTmMHt2Dxx+SISr/8FEZ0VDXM/qEGdrSZlr+tmj48hecZ/e63HS8Jue3r9tGp0fRIGsERWOTU+nw1B3Vsi4mGF/+X5X2MJxWcINu0efJt8SNaNjh6RE9HKSdtGlll+ppzPfFS/c0TG9l74jXRacvzSFjehXpidOYdYOzMxiIqzx3uUJWWjTSQ+LIk6r1b65gRfUkpBdzF6Lh9CRaMGoHrKQxP+fs2Ag9DQ5PbX4oGpucSibCRTD+4n/+WgvEsZ84q6L6f3ozJxgyKV4p4lSl9Z54ohej58dVi36nnsR1hWC2RwRAJq9HMHlqEIceciaUXSftn9NwluwqJ1l0TqMHj+tJ83wa8wMyD2LNi3RIHiJoHVLhGUdUGh56CqlT4xhLdeg5iZiZkxDROCbhO7pU/kcwbTtshSwpdib6F5BZXsL8SAcSKv7diAZWFpDaoa7fnrPYKcN5SYzKpbhzGk3eOQ3dGykmGlMy5KV6T12qfEemrFVsdwcnwjc/FI1NTiVLbv/rgPPDvWoJhkv6fH51UUNUVvzkW/nuaiFnNZAjHgOq95Fr2ftWT8nQ0Vivb5jGWj3VEE2ib3zE1zvIaGeu51NMnG7l5HPYq6+aomjtOI1Fa24j86oSEnP+vgtmp4vqCUweza+Min+5F3371Pe7EQ1Bhso68ultTXZgzO5o2aunVF6b22RxgPpeTDTUWSY73PLtKRjaWi1ccrv5oWhscir5cd+DR9P43Lcc19V77oOqCEbFZJcwe9HrXmePqt5JvB/uyHpmbgaL9vCUGeKSyWOytvDHfZsfisYmp5LXiIho/N7edxH9H2ktGI89u7yxBANZTHeZ4amjsuTVN7QkSMtaho/M8JIsuT0gQ1zuMlWypvA1IpsfikYNcLcvLNw3dF0Lh9jev7mOjzaUYBjc4Sl7aGlkzjOxroeXvhxzhmCUoDTv6fX+II6sCXxhYW1A0agB+Gp0sh7w1ei1AUWjRpAVLdV8PTqpbaRucdVUbUDRqBH4d6+kmvDvXmsHikYNIStbqvGadFLbsF7VFhSNGkMmKtO/zr0RkJCKkLrEye/agqJRY3z44Yoee6ZwkEqROiR1SeoUqR0oGjWIPOTSOuSQArlbpO5IHaJg1B4UjRpGHnyZwOSqKhIWqStSZ9jgqF0oGjWOrHiRIQZZY0/xIMWQuiF1ROoKV0nVNhQNopEfZclwg7wGQlqR8uI5eWPpWv3rH7l/kHsu917qgNQFqRNSN/jDPSJQNIgHeW+QvHBO3lQqrUr5bwT5Ux1a7Zjcc7n3UgekLvBdUsSGokEIISQ0FA1CCCGhoWgQQggJDUWDEEJIaCgahBBCQkPRIIQQEhqKBiGEkNBQNAghhISGokEIISQ0FA1CCCGhoWgQQggJDUWDEEJIaCgahBBCQkPRIIQQEhqKBiGEkNBQNAghhISGokEIISQ0FA1CCCGh0aIR9JePNBqNRqP5jT0NQgghoaFoEEIICQ1FgxBCSGgoGoQQQkJD0SCEEBIaigYhhJDQUDQIIYSEhqJBCCEkNBQNQgghoaFoEEIICQ1FgxBCSGgoGoQQQkJD0SCEEBIaigYhhJDQUDQIIYSEhqJBCCEkNBQNQgghobmWuYH/D66BRCdR4HapAAAAAElFTkSuQmCC</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 099332 93061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x3088958fe78c4491</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Voice of Christ to the world  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rating Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Review Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       JP85+J8F, Garacharama, Port Blair, Andaman and Nicobar Islands 744105      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADpwSURBVHhe7Z3/Uxxnfufv7/Ald5fU3SX3pe58V5ecf1ASFVRRmktWVPY8tT6z6zI5lUWkxRfLEPuQZVvLopUcFlkc8hJtFgevVliUR8uaiEhYrGXL0qKVIT5x7MqwkcErgwCNBIyFGAv5c5/P00/PPN3T09PDMDDMvF9Vn5rp6aeffvrppz/v59v0808IAAAACMBf1DcQRAMAAEAgIBoAAAACA9EAAAAQmMISjaV7tHxff19rHsRp4fO43gAAALAa1lU0Zvpn6KFnb1pWf5O+/v3bNLakd9JdOv3qTdo/uKy3c2WBjjw7Q6dm9OYvb9EjL0dpTG8WHUuLdOr7M/SIZ96WEnLfb1LDBefFS9nb0X9Xb+XOh2/cpCMjemMz8eAuffjmDP0RlxF5Dr/y6i36MLqid64BI7fooTcW9IaB/H7oNtmP46bD5/natGVhlay/aNgF6v4Sjfxkhh5uitLkA+untcUlGkXNPRr43k3a8eNFWpC8lLz9MeftD+ZprSR482CJxkP1c/SBoRsQDYuxyAxVfP8OzUiLnlvfMxfmqEKeQWt37hSlaPg/XxCNPOIQDcWSal0c/NDqNkpm/l06dWiGDnbPUbheO36uIQ1opX/45TkamNa1I/79gzd0DeC5Gdp/gR3DzG3aIdvaVJzyW6LQrtDC6C3a3WDtd9caDp65Q/tf1vveXEg63mn+/VvW7498y0jDhrNIr7/I+TStN4XFBTpx4o7lDIy8S+QR58HIm1Ijvych1LZc+7PvWRmxzC0zO392RBY3kfhYlYWGNnaOXNbsdDtFY5lG2Hmq2jbnx+u/TF6ded1/9Fe3aMQoFw1v3qIdz1nlSW3/OErPuvJo+cM5ethwjgsXZgtIvJeV8zs4bJbbz2ngRJQ+XLS2PO+7enZu0WnOM/X8NczS6UTZX6FJFp6wnZdvzqaIhnru+TjLuGUjP97/nE7bz3PDDLUPr52grz3+z5efzwhanuTepCuThcYGi4b128MnrN8kI5OiYSg7xWnkxAzfDNlmhz98i77y4i3V1TTZy87h9XlakJrT4jwd4Zt74jM5xtXSMEVDvosYfcYHPbhHY65aw8PfvU2TOr6DL9jx3aXT3xWBEyd7n2beZWfQdofPUgiwAHTzNXznFn0wnTpuk8gjycvPoiyoXAuXi+Xa38Nc67SK5yK1vzBLA+I8OH92P8eOYY4zgR/uU3zdDRdtcSl09H2f4E8uC+0fW87NFI2ZAXZWfO9Ubfsz61rVdS/z/eZycUKXiw9ev0nhn8TUMVIuEjV0vW2WkyMv6srPAz6vXdHhcvvB9/XvBYISsRdn6dTHRjPMJt19l+eF8/TIsFX2J08brdjr/Cy+wOVpkfOZa+BSgcvc0oir/PvKG7pMzrHDTTxnhYj/85XWZ2RRntKWyQKkIETD/k0y0mxpJLuW5EE0M5H3f0f2W58nJvTPQmIwPb1oTJ5hJ9pt3JFlLrTakSbTIFjiZW1zE7XtJu3+CQvXcqG0MEyWaXLwFj3Lzktqbvv7bcFlHBMM7Lzjr8rBaQGZiFJYi6AUYEf+DM95O4KCJHnflzndquuF8yEpGpb4t39shVYtLH6Y1T12T5YwrttZLlK3k5UfqwWnWmxSruz8LRiklR2l/U1cTrhG++yb8w7H5XnfjWdHYQiAPEu2I1QE6Z56wM70WadTnPyJK56CI/3zldZnBC5PPmWyACnglobL4Seat0k7MuISBgfpRUPO4+zfToZNWwCExUU6zTWpr3CTsrC6p0xWaDm6SKe+x+nkfFX+KjpP7a/q7illdr5YXVJHRlbUQ2t3Tclv7rzePP3R5n1fVjX9HWfu0mRCNGR/6vVZ+5ZprH+Ovq67E5QFFA2Hs/z4FlW8eocmP5yjR7wcaKGw9Dl9wC34R7iWbD8XZp4ok/vuIxpyjONZCiIa6nnW3VQaL99QmKQ+X86yYPqMoOXJr0wWHgU9ppFw+Kpm4lVjs8KtpqXhqNUEammY3KeFn3MtVj9sG445fmGTeDDj9MEPuIV0JkbLqmbkyhd+mB954zZf5yydnrd+SsmfTUXqfd/NNeojLPbWQ8j31N06tfksSl9/8RZ9MG9Vvc3y6iwXqduSZ3blhyhGJ741Sw3cMhVBLhyc4xcWyfxKe999RGP1LQ3n81zQLQ3f58vHZwQuTz5lsgDZONHwmD2VzEhLDBIPvnZ81pgGby7H6NQbURrje+Ec01ik9qYZev26HMMPg/Qt24NXZsGX7z5jGp4FwO6f/FQEjpv4XIssGNF4wNfNzeaGAS0M3CxWTkzNirG61fYPSn80p3v8luqfTuStdFHxsVIzTjzqUthfYBGR/BGB/PAWHRkszFpPKi7R4GuWvDBrbqrMtOk+aOmHj9yigTn+Li2EpluqXNF9mTyQrmZobbvHNI6MJLsi5BwP1bNT0WW7MFhSZUEGatXzou/tV+wutHT33Uc0rGP4+ExjGqO36OHvcH6pjU02puH7fPn4jCzKU9oyWYCsv2jYza96rv2+ccfxX4JkRrpFgzHnSXPN0ZoBxHjNnlKsqNkID/PvR0Z501Hw/WdPeRYARmZCSJ+mHFNw3VMsmCfa0sy/l1lf9swOFtv27+g8UThnTVlYkw28Zn0UPm7RYB5wzb/JaO6b/1WQcpiYHWbNYLFnCJ348Sw9ZHTdmA+5bMvsl5SZRjYynsKVnILjPrc2dBerurdNc3Tqup3yNPfdTzT4mEyzpxTseF+XMshCqrJxU82eYnyer/Q+I3h5Sl8mC491FQ0ASgJuvcoU5/ZfFlLXFABrA0QDgLVEauVcs3T8vweAIgKiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAKTi/m8GABqIBgAgFYgGSANEA4CSxXrzgqxb83X5h3i98UYFJRpp1tB4cM+x9oO88dX+T4r80znd2hLmejThv76Tp8XXQL6BaABQslivvEisWyPrOKj1H/i7+pOi9xoa8jqg5Hu3Ful1juOg8dJR77Ul5B1nM9Q+yvGx6HworzKJFOBrVkBGIBoAlCzOd6up95C9fpN2D3Brw909lXjfFB/zHXPtB9aDn8/RQ3oxr7TvYZIXFpqLlk2j+2uzAtEAoGRxi4bVilAvdkwrGh4vhDReYJhONBwvK02Y9WpxsLmAaABQsqy2peFc+yFQS0NWrUssLQw2MxANAEoWy6m7xzRUKyKtaFitBr8xDU/R0OvRqDENFqflT2/TkV6MaWxGIBoAlCxaNL6XbvaUt2hkmj3lKRrM8vXbidlThbtcMsgERAOAksXp1AEIAkQDgJIFogGyB6IBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGCUaIz9aoJgMBgMBstkaGkAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYNZVNG5//iU1nY7R19pv07/bN6NMvstvUd4HAACgsFk30Tg7ukz/5oUZeujZm54m+/5+ZFmHBiAN0z1Uv7WVRvQmyDMqv2upd1pv+7ESpbGL4xRd0dsbyjC1BU13MXGllbbs6qGo3swH6yIap4buJcThz16/Q++PxfUeUt/lN3u/hC0kRg6X05bDw3pLCiJvmxYK096jg44HZaqviWoqQ2r/tq/WUeeg8xaqOF3x1EdWWbqlkJhOdH6Yup4J0zaJt6KSahp7aCKm93mlX1mGh4vjjDRU0/YKCRui7dUNFBlORLq+FKloRCO1rnsi+dxEvddyy2dn+XUzTb27zHOWU1lllbM8ZyMas320tyJMXdf0dtZMUqS6nMJHR/V2LkA08kXeRWN28QH91nOWILT0f65/TUX2SRgJO8PHFApeotF2RW8y8elRitSGqKzxAikpvNpO4QourNctYYxdbKWqrXXUn7iLcbrUWE57I5MUm48lLamj2eEQjSj115VT1eFBislDH5+kXk5b8iFMTX9GYnxMOEQ1rYM0JYlcidPUuSa+pjB1rsWznS3FLBrmwx6P6Xyupsh1/dsqCCIaiQoL39vY5AC1VHL57NMpyUY0cmWUn53KSn5+mmhoSf+2aiAa+SLvoiHjFSIGVd+/rX8h+pSrMd9//y599+zn6rvN1zmMhP32321QLdaDTKKhuH6cqrc20Pl5j4efxqkrbB5jPagZHXfQm+8QDQ9RO/eSEU/2ojHVVU1bqrtpSm/bjB2tpC22UDLxaz3UUl1JZRx/WWU1tZxNPq2Sh/UdPdT5BLe+dFr8wgvRwXaqt1trTxg1buXEmun8cIfez4LWOEBTiWIUo4mI3dKzauvnb+hd2pF0RdqpJmQ7ywDh+5Ln2l7bQWPz03S+sdpqzYXcafeLLz2p5UawKhjhdq3OK5N0qbnWavFxK7K++YJx3e5rG1D3OtmK8BJal2hoHGXeLRorURo6WkdVfA65vqpnOD/sx9UV1uu++yFlqqZrWFV8Wt511qJU/hwaoJEOff0e+T5m7ot00EEz3bOD1Gm3wKV3oGM0UXbtMtV7lu+bvi5VpuZHqavWLqOct1cNv+QTX+a0Osn47HQNUr8ubynpiCXTqJ6TDvN5zw95F40/emVOCcEH41aWikjItm2/u3cmIRwXfxVXv/3hoTm1XQhkKxo02U01ZktjkFsaFbwvcRclDn44ag2nExlPFmCbVYlGnIYO8INstzTYyUhLo8p2OunSn5YYnX+unKo7J/V2GuYH6GBFmNou6tRyHtRXcA1ZH6bykPOk8wq3rqS1kiF8fFjyLJmHUalx27VP9YBza+oAP9S8Ox69QG1cM95/1nqQYiySZeFWGtJRT3XXUllC9KzrL2PHPzJpte6ChFfnknNHh6mzmh9OuWfnpinONfOoaknqe8/4x5eezKIR4+98L/f10YRki25FJlq4HtcmOMuvm1TRiN+QlkaYjg3rCFxCMNER5nN0W2lYidHQYd4+oNPgIRqO++7H0gVqkXvOx8bfb6Kyuj6+4iQqf7h1m8j395spbOb72QbO9ya6dIPPE4/SWCfneyItUnELUX33JB/Lm/ODqvXc8r55jbyfm85ROfxGH+2vCNG2yjqKjPId4fNNyH2sbKcxdYB/fJnS6iDgs5NIRxfHnUhHlJ9PLhOJZ8Hq9dj0ovGb9ZY4LN6zZkcde++uQzTE5DdBwsj2P+NjCoWMohGXWifXuo0bFe1roO0czqrhVTm7ceLjXGtoos6LVveU1QVhFGCbVYkGszJKnY/Z5y6n7c/1GXFY6U/WPi1LP57iXRNNgQtzbN5Mvz6uxzqz5KFDeHzDW47SKVRRGjneSuelm0Y94OwcjO4Lib+sVd+jJXaYZteGdmT9s7Ih11/l7O7JGH4n9RothanunbRlhykCrjLhG196vEQjNsotHK5gtF3hvFLxmN2cTLSP9iYco8e1Mc7y68bKd3d5qOkwKjE6/bYQxGNJQVJI+avQ5c8VNuW+++AQCinDXOO2Haeg8sdo2VrXG2Jxk+/WdSS61IQVduR2WlR5i1kOXuMoMyrdzTRk7B86xHlxaFBvMea1ZYjPP60usn12dDpUeVLfXWVisHnzi8a/1TOmbNFoPmN1V5nmFg05plBwPnSWg3A+ZFYTfcSuRYy2O2rJakzD0dJIJdHVowqBO35t6R58h2jomodrTGP1LQ1dgBOi4XIyRuGMGU1se799nOShW3jSh7fO0WY8rw5UHjm7Whz3iGu/Y4nuITtu25HJ9SedmiLL8KnO3ZWnvvGlx6qd2uEtU10VfdphyH2uOk4T1pZGnKt9bo9rY5zl1437/nKR4dpq1y6uRffo30xnKaxMG91TtqUXDfd990bG4pwVJ6urKuksVf44rsPMd/le6Rpjc+XHtNGdZJsdX6YyJbjzwSc+/7SmktWzY6ZDykSi1aGR3za7aPzJkagSguHJL9S2u3vqd4zuqX/49Av1mxxTKDgLj//NF0ZaQ8k+aIVVc36627jxLhKOSNdglHELZMuO4zRmb5u1VxNTNGalQLmawarrzK5FZU6/E1efuoHDeaqCbDWxrdqX0xl5F/x04XMTDZUu1T2kHZDjYXc5EmZV4X1Ewz++9KTG68JTNIbpWIV97tS0CinOz0GqaAjS1ZM4lyP9cY6PnZt0T9nl0Sx/rmtNue/pUMclHWbCxCFarsHKn7SOWL77iMYSf2cRr+/mFpSOz5Ev6vxZiEaG+PzT6kLFm+2zo9NRrKJxQA+Ev/L3yR5KEQlpXUirwxYMwW6FyDEbwVhnNVW3mzfb7TR9br5GbrKzSe7sbom930zVL5tdRkQTnVWu5izjdfNHj1NNVTuNJLOM4u+yuNgFRxUoZ9eNJRr2b5nT7ybWV+d4eG0cTi4lrVzwd/gUfN/wXt1TMZoaHqQJOSDDA55yrhvd9HTCkcn1J52akG34VOfuzFP/+NKTUTTUdWfqnko9j5k3qWQrGlZ4R/mR7pAcRUMmW5SlpHGSIlUsBFetLX9HbKUrbfeUR5lR3U92fBnKlMK8tgzxZSUa2T47Kekowu6pX0zdV0LwH16aTaiyF1/wPgkjYeWYjUD1q+pBp+Qgpzm11Ofma1QclTJjxpKAGDv6+gojjugA7TcGvuLXZeAr4JiGGiw0BuyiMgBXbnQ/WfPc6ztGdffUNF06EKay5wb0oGKa9Mv/MFq7k11sJitciKWLa18PjU3zSaU1ND1Kvc9xjXOfjvdaB+dTLXVJvi1FaayrTjXb0xb8DOEzD4Snf8BloHbLrg4a4wxSA4N10k1kO7JUx5pt+Eyi4RufTz5nFA3OaTUQrgc9peuxX+6BYyDcmVZBjcHUcbxxTk/K85cqGnGZcmuWKdNJcRrO7+OWtMwsWuL4OGzbY3J9AUQj7bVLF1vI85mSypQ9yJ7JEbsHwkfadyYHwtVgcyW1nJ3k8iZTxrniJrOa7PgylCmFeW0Z4stKNLJ9dhx57B4IH6bOHXw/NrtoCH+su6je/Hm6PhZSU3AlzH97NZ+Xmxnzj3kyvc35xzyfm2+Q6c99aoqdTENU5zD6rU2i4zQ0PO1sfQiTfcn+T5l26fpjoTycmf7cl5J+XRDTDta6+rHVH8Ca+4x4+Zrt6YoqTQMU2ZdsLaQUfMYvvJCccivTXJvpkr0r0wPOabWnw6r7d66bDiYGiD0ca5bhM4mGb3w++ZxZNJgVFgqOOznllp1F4t57XJswzQ5OOXav81qiobqCbHP/WdXhpBj3FM/e1mRL1hXWcd/TXbv6X1Oa/2WoVvJLdInLWWZH7D/lNn7VnKLdQ/2tRus+U5kSXNfmF19WosFk9exkuh/FMOVWOPeLZSUIjzTN0bJHI0LeSSVjGxJGwoJ1Rh5cd98oWHtKOZ9RxoqGdREN4SutVmvjYJ9RPdXUvDGv9hXSAHjpEKex79fRsSup9wWsJaWczyhjxcS6icY/zq2o/2yIjdxINjf6rlqtEPldwgAAAChc1k00BPv9Un9waE4Nysnr0O03337X571UAAAACoN1FY0HXxL96VGrm+rZ7gWq1m+3rWyLqn0AAAAKm3UVDeHmwgP1vikRCzH5Lr8BAAAofNZdNAR7NpUYZksBAMDmYUNEQ5AxDIxjAADA5mLDRAMAAMDmA6KxKuRdSMM0tRbTzj3+jbpRBPpX8qpJ849lAMCmAqLhwHqtQlltquN0OtRR6gyF6OC5NVCNPItGNkJQiKKhXucgr7dIMY9XUiwN07Ew73O8wsHAa7+8Y2x8mPqPN9HexyrpWMqrHvRKfOoVKh4r8an7Z6fJtsKoBACQDyAaDux38RjrCWjy5lAhGlkjb95NrBZnMNYetpx2GtHw2i/XvO2JBjoWaae9vM/9fqDECygl3SwwagW3cEfyFeXyfqTKVhqyX2GvLOWNYQAUDRANB5ZoVFdXU5lr4SSnQ019AVnaNa0FecNnQ3J51/3HA6xPnPhzvP+a0+qFZj7rMKcIgX6hnv3Su5rGvsS53GH91i5WYXNZs1mWFTXj9nppoxeyqls4+crsBOy8a8KtdKyRz+clGun2J/LZ66VyHq9pV6/cNlbI83obMQBFDETDgf2q6HH1GurkK8X9RcP3Vd4r8rpyFoL2Yet15fp15jW2I9LdG8nXG+v9etWyTGtOq+4bPndnmnWY3ULgWONZr+wXPmq9BtsRNsPaxSrs1rVZs9l6PbyHEHigav4pa27LfQtRy7ux1LeTKjLtF7xEwyoPzgWh+LcdyXAqH57YabyRt52G0r0tGIAiAKLhwBYN9mwxa+0KcTRCetHwWjTIWNOaa6JqQfpEjZZRr4NutRZT0i0Nc31ix8JKGdacFifoPLcTt2io8B3jeovPdWM48Qp2R1hZN8Nn7WIV1rFwlORJwDWbVdgq6rqm9jBxtcjSiF6DJD2WALvXHhGB2qYF3ksUMu238BENn9+iF9uppVnWGuH7NK0X9k8RNQCKB4iGA0M0GFVb5hZD4n3+nqKhnUia5UlTnSvDtfj9tgP1GtNQq73p3zKsOS1O0L1WhYlbNOKjx+npkNSIm6grolfD07jD+q1drMI6nK+ZJ/Ldb83mOLc8dtI2WT+gsYN6L45brbBM2K/XNsMqced4dZddiihk2p9gdaKRglpNz+i+AqDIgGg4cIoGewC1Mlb4EDvXtRQNtZZ3MNFQx/usOZ2taChWojQx3EeRRhlzCNPBc9bxjrDqPOnXLs5NNDTRcRrpO04tsohM+CVrsDkt1r2wu+0srDWrkysXukUh034TH9Hw6Z5KxSseAIoHiIYDt2gw4jylRryrKo1oeHVPGWta59g9lSIKrjWnsxMNFouLztaFWgNc73eEzbB2sb9oWPmYtntKViWU1oW1h4lSf53/dciYSo17hTclvlYLKNU4fzPt19FYeDl7j3vrGAgfpwiXiy5zLEaW5EVLAxQxEA0HHqLBRHtkEJcdjadosGsJMBAu63pbA+HD1PlE8IFw/zWssxcNe01htZwntzguHeJavl7r2xE2w9rF/qLBYuS3ZrNeJ10G0RXRC9RW6fe/F6vFYA/Y+5G+JWGRXUuDz+yYchuzBvSNMQuZxpuYWMD5OXSY7xfGNEARA9Fw4C0aMk1VZhmlEw0h7ZrWgrlut5pyq2dSCbql4Zhy23whuUaz7xrW2YoGExunXnvKrZyr4TiNaV/tDuu3dnEm0ZDWlu+azeZ4iXsashs1TpCcueXHWouGXIfjz33u2VEiFEf1dfL+qmc6aETPIAOgGIFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAERonGveVlgsFgMNgG2r17mT9zMYljDQyiAYPBYJvZbEHw+jTNDp+jQTRgMBisEM10/vZnLmbGnYNBNGAwGKwYzBYG89M0M2wOBtGAwWCwQjTT+dufuZgZdw4G0YDBYLBiMFsYzE/TzLA5GEQDBoPBCtFM5+/+XI3Z8eZoEA0YDAYrBrOFId3nGhlEAwaDwQrBMjl9+czFJI41sHURjR/9LEa/+8IsPfTszUD2+9+epbeHFz3jgsFgMJhhtiB4fZpmh8/R1kU0RAS8xMHPRGS84oLBYLCSMNP525+5mBl3DrYuomELgdc+L8s2PAwGg5W82cJgfppmhs3B1lU0sjWvuGAwGKwkzHT+9mcuZsadg0E0NtQm6VRNOb16yWtfsdplenXrbjo16bUPBoOt2mxhMD9NM8PmYOiectutUTr18pO0vaKctmwN0fYnn6eTl6PeYXM2P9Gw9u05OemxbzMbRAMGC2Sm83d/rsbseHO0dRGNbG3jRGOSTu8O0eONZ+iTW4t07+4iffZRJ+2peJReu5yP2VwQDRgMtkZmC0O6zzWydRGNQ33zdOj0vOc+L9sw0bjxFu3Z+hSduu78faR1O205cCGx/ck7h2jP9pDVEtl9jIZmddhJOf4QvXP5WGL/Uy+zAN1NxvXJ6UZ6KsStmIrttKf1BL32Pz1EQ8UjLR1tNW/RZ/bxZ8xzH6L3XGm1zBKcp46PJ3+71klPbt1Dp6etbb94hppdYqXSYzt6y+n/8ORRdR2poqb3v53Mg+31J+jjW879J8+/Ta98I5mHI4n9bLOX6eTzT9I2ufbQk/Ri50e0YO8LkMcLQ530ooq7nLZ9o5FOjyf3wWAFa5mcvnzmYhLHGljeRWP4k88TIhBUODZMNO5+RD/Yzo7w2CjNGU7ItIULh+jRRw/Tz8T53p2mkWO7k05dO3vVUlnksNM/pVc5vhdP6+6tj47S4xXsMD+aVq2YT8400uMcPmhLY+GdRip7dB+dvma1gj4+sZvKKhrpPdPhavvspJEue3vP2zTH3zPFk1k0yqlMxHI8SnN8nYlwyqz9Kg/u8Pb0R3SSW29ljT/Vjt8+vpNGJA/vjNJJvs5H2z6yjr87TiefZCFou2zdg+kL9OqjLIAdWgAz5fH1E9wy5LTqaxORfnT7YRqStKjzw2BFZrYgeH2aZofP0dalpfHDS4tZCceGiQbbwtW3qOlrXEuVGu6hTnpvlB18Yr/lyF95x+iquvNTeoUd6ukb/F05NHa+hoMSB1x2+LL+HqJHW7VzVMbxebU07H0O0bC2n3/bTM80nd7jVdtnm36bnk84eiucdWzmeDKLxuN08pp9rNtkv6u1NnSUHk3kS+rxStB2a4G7dJjKth+lEVO05fgKdvzyW4A8ftIWGGUsQo+H6LXLyfAw2KYw0/nbn7mYGXcOlhfRsJ1+OsskHHY4r33rYlJD/ehtOvnybjUgvu0pu/vEqiUnuo0Sph2qcmjs3Iy4xKFtaRaHZjnrRI1YmfVbMNHwdtYjbdt1/M7fHUIxe4ZeTHRNZY4ns2jY373MY/9dbi34HG+2itT3l+1WiTaVfn1MgDxOvT/p8hgGKyKzhcH8NM0Mm4NtiGgcLHTRME26S9gRWd0n4vC20w8+8ggntgGiMXSYW0WeorFMc2/voS31Z+izdxoTXVNB4llz0dCtsXTHZxQNNdakj8k6j2GwTWqm87c/czEz7hxsXbqn5N1TQQVDbKNEQ/r6t7i7Rtg+OfGU7j6R/nbXALOYHd7Xocn3deyeEtMtjBfrQ8ZxmeORNH/zxBqKhhqEN7un0otGsO6pdHm8SD9rNMdPtLnuJwxWlGYLg/lpmhk2B8v/QPj1u1kJhthGica9O5fptUdD9NThC8aU27eoiX/b85blROdOP09lMph91arNzsmU3G+wk5MB4Qyi4R4I//jtfT4D4cv0swPcwjl8mRYWrTEUawCbne91PYD91vPsTHnbYyDcsii9U8/ndznpTPEoJ/7kURpSA9Xj9F7jo0YcQUQjOVB9b3GcTu1mseQ8SA6E+4iGHgjf0/GRHgi/TD/4hnsgPEMeb32UXjlj3a+F62fola89T+/oWWMw2KYx0/m7P1djdrw52rq0NA72zQcWDLENEw2x2VE6fWgPPS7TYtn5bfvTp+iVk6OOmusnbzfSU2q6pzWl85QWkIwOjS3QlFttCyxI31Rhk3Emz62nymaYTqq6qIxZVLb5xnN3kt7Z9ziV8fWVbX+SXmk7RN/MSjSeotdOHE1MiX1y31spU27TiobY7GX64f961Jhyq2dSyb4AeTx3+Rg9/6fW/Snbvpt+cMFsVcFgRWq2MKT7XCNbF9HI1jZUNIrMpEssbfdVXiyTqMBgME/L5PTlMxeTONbA1kU0shUBiMYa2J0ozY3KfxaSf+hbH4NowGDrarYgeH2aZofP0dZVNLI1r7hgwUzNhqp4nJpOr2crQwyiAYOtiZnO3/7Mxcy4czCIBgwGgxWD2cJgfppmhs3B0D0Fg8FghWim87c/czEz7hxsXUTjd/dmv9zr7zViuVcYDAYLbLYwmJ+mmWFzsIXY5/kXDXn3lIiAlzh4mYjMcT7GKy4YDAYrCTOdv/tzNWbHm6Oti2jAYDAYLM9mC0O6zzUyiAYMBoMVgmVy+vKZi0kca2AQDRgMBtvMZguC16dpdvgcDaIBg8FghWim87c/czEz7hwMogGDwWDFYLYwmJ+mmWFzMIgGDAaDFaKZzt/+zMXMuHMwiAYMBoMVg9nCYH6aZobNwSAaMBgMVohmOn/352rMjjdHg2jAYDBYMZgtDOk+18iUaBAAAAAQAIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQmHUXjZUHRG9/dI/++EiU/oTtJ/xdfgMAAFD4rJtoLN77kv76vbv0e99OXStcfms/f1eFAQAAULjkXTR+ffsBvfyTRfpXDTMJkfhP+2fptXfvKpPv9u8S5iUOK8cAAAAoPPImGh9OfEE735in36hLtii+ejRKp68uO7qj5Lv89t9fu50IJ8c81XlHxQEAAKBwyJto2ALw28/dpD0nF+jjm/f1nvT8Yuo+1XUv0G/xMfbxhccwtW0tp7YrejMD8clhGpmM6a01ZrqH6re20ojeTGF2nIauRfVGFmSKNxdWmyYAQEGQd9G4fTf7cQo5ZiNFI3ath1qqK6mMxWFLRSXVNPbQRMLvZycaI0dDVLZvgNZENq600hbTmWdw7tHeOioLd9CE3g5MHkVj1WkCABQEeReNbBj8x2R31EaJRny4laq2hqnl3CTF4rwdm6RLB8JUVttDUysSIjvRWFOyFI1Vk8+WBgBgU1MwotF1eUmFP3DaqpNvjGhMUqS6nGo6J/W2ZukCtWwNaaFwi0aMJiJNVFMZYoceou3VTXT+ht7FjBzm1srhYfU9GqmlLYe66XxjNW2TVkyomlrOTlPsagfV28fXdtCYR7NExSPHaFPnV869mc4PJ4+vaRzQ4qbPt6uHEp1BNwYSLaiySj53n+s6bXS8vWf5ukJyPo949TVZuPJkZVpd4/YKPla11Pq805Qh/UL86nHa/4TsK6dtTzRRv5lkv+vxSQMAYPUUhGhEhu4lwjef2UDRmB+g/VurKHJdbyeI09TwII3c4KaHy0HGzr1EZeFWGtKeeaq7lsqqu2nK2kwVjYpaioxGKb7CcfY2UFkFC0XdcRqT45fGqbc2ROH2URU+Bc+WRjlVHWBHK62i6AVqqyyn/WetPHSKxjh1hUNU3z3J5+aw17upnp1p51W100lKvIPUFmYx7bKccibRmOiQllk3TUh2xSetazpqXVOqaKRPP92QNNZS73XeKfnFIhau5Otfkp3+1+OXBgDA6tlw0ej9v8uJsLZgCEGPX1OUE2MnNa23PXHVqpdiFFNOTKPj6J+1NlNbGoPqu2KFnbHEZfzkdPQuPEWjiS4Z55fzlbUa50vEJemuoq5raoMxhdCFireZhswa/7tNtKWyncb4eybRkDRUd4xbG0z8xjANDU/zGb1EI336Rw6HqNrR6uOWYFWIjqnd/tfjlwYAwOrJm2j89vOW01+KWwPhl6+nTp89+/+WE1NyTcGQY+Q3iWNdWY1orMRoLNE9JV05Ysk4UkTDx9kK2YuGc+wh5XyJuOI01rmTtnFtvL6xg3ovjlMsXXeNR7xS639a/5bpOuKjx+npkHS1NVFXZJAmjItJFY106Z+m3l12fjrNOo//9filAQCwevImGr//7Tnl+D+NrtC3/y6mvvf8wz291xKM36xPFQxB/twnv0sc60ra7il2QjFuUahqqtNBKieouqd0HdYlPIUjGproOI30HaeW2koqC79E570EMkfRUKxEaWK4jyKNtbS9IkwHz1kncqQpgGgkuqrS4Xc9adIAAFg9eRONJ/7mjnL88m4pEQX5Lq2Kc79Ypp/+Mp5WMAQ5RvZJHOuLHgjXffcJfAbCxcnVRwxnpJxrAYoGO9chqY2rPUKU+utcabdR8WbonjK72RzXwY76orNmH+urS6QjuGjEaehAiMoOXHB2Kdlp8r0e/zQAAFZP3kTje+fvKse/6/i82raF41/85U3652zpBEPY/aN5tV/iWG/i7JirKnbSsYt6gDXDlFsZcN2yq4PGuKURj45SpE66qfIkGkqQ6qh/ls8lnjQr0eBWFNe2W+zathp0DnHt2+MeqHjTD4SLeJVVNFC/jB/EozTWWatmMNmicf65kDqWG5mqtn/pELcC9H9VgosGM9qupz9baY7LbKnHGui8HOx7Pf5pAACsnryJht3FJC2KWzHrvSG2cPgJhoS1WyE3NugdVLHh47Tf/nNfKEx7m/vS/7lPT+2UKbRllbXUea6bDhpdXGsqGsTnerlKpau+h0NkIxpM3PzTYqia9h8f9R4YVvG6ptw2X7AcsCJGYx079bRhzp+Odr5m4zpi49RrT3eVYxuOJ6YRZyUaTGy4g/Z+1RovUvk7mMwZ3+vxSQMAYPXkTTSE/3HMep/U3lOL+hdLONIJhiBh5Rg5FgAAQGGRV9GQd0lJV5S0HIYnM7988B8+/UKFlWN+OZ35XVUAAADWl7yKhvDGJeuf3v/+xRkau5no30hhfGZFhZGwP/yZ+ccHAAAAhULeRUN4scfqcvrXDTNq9pQb+Ue47JMwEhYAAEBhsi6i8eWXzkHwF368qLquLozH1bKv9u9/5TPWAQAAYONZF9Gwee/jOD3SZP3pzzT57fw1z3k8AAAACoh1FQ3hixWirp8vUdlf3VIm3+U3AAAAhc+6iwYAAIDNC0QDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQGogEAACAwEA0AAACBgWgAAAAIDEQDAABAYCAaAAAAAgPRAAAAEBiIBgAAgMBANAAAAAQmb6JxZmSZ/vDQHD307M3A9kjTHP09H7f5GKa2rbXUO6033VxppS27eiiqN1dLNFIbOB4V9vCw3sqS6R6q97seAEDJkjfR+M/7Zz2FIZP987+8Sb+Yuq9j2UAmu6lmayV1XtXbvkA0AAClQd5EwxaBbNh1fF4d8wcH5yi+on/cIMbaKylcWUllBy5QXP+WHogGAKA0KCjRWLz3Jf2Xb1ktlP1vL+pfN4CVUeqsrKbIlT7au7WJLi3p3xPEaKyjlrZXlNOWUDW1RDrooOlkY6PUVcuCs7Wctj3RRL0dL/k4+xhNRJqopjJEW7aGaHt1E52/oXe5cItG/FoPtVRb5ynj9LacTXp5FfZQN51vrKZtvF+l09gvTL3bTPX2eWs7aGRe74BoAADSUFCiIXw48QX90zrrWPm+EcTfb6Iy5ZzjNHQgRHv7nO4+draBysIsJje4DRKP0lhnLTtu28lG6fxzIao6MEBTavcoRWrZMacRjdi5lziuVhrSO6e6Oa7qbpqyNh04RGN+gA5WhKntoj5wspvqK1joJq1NFXZrmFrOTXOrLU7Ri61UtTW5Pz7YTGH7vCt8DSyCibghGgCANBScaAgH+2LqWGl1SOtjfXEJxdV2Cjuc+DT17ip3CsnKYLJ7SjncOuo3dhM76LQtjaUYxcyWjHbY/bN628AhGiwEsXmz48xKV32PdRarpTGovlvE6VJjOYXbR/m7FbblXeP4pQvUYp8XogEASENBisb9B0QVLbfU8d/8kd1nsk5E+2hvRRMN2Y7c7qrSNXRr/KKSOsX3JjDGNGT8orKdxqwdFn5jGisxGkt0T5Vr83bYDtFgYkb3lH1sfcQ6UIV1jWlMde/Uv0l6k8ckzRQ+iAYAIJWCF40/P76+omF166Q61PBRWyXWVjTU+VQ3ka71+zhsh2iocFb3lDVpQLc0AouG+xoMIBoAgDQUdPfUwy+vd/fUJEWqQ9R2RW/aXD9O1SIEhnNeq+6pkcNJR6+40U1PBxGNFCHidO1wiUba7im5znKq6Uo0nyzsGWsQDQBAGgp6IPzSr9Z5IHy0ncIVrTSSMt2XnWxViFret1oD7oHwkfadPgPhw9S5I/1A+ERHmPd10Bi3NNSgeZ10UwUQjWsdVMXhuka5pbEUpbGuOjVLyiEaPgPh6hoqailyLWZtjx6n+idYGOUSIRoAgDQUlGhs9JTbsaPp/5cx0VlFW/YN6H1rOOV2ZToxLbasspY6z3VzXFUUua73GzhEg5k620Q1IU5DRSXVHx2gyL5yqu60VMFqaTin3La960zBVF9yLEWlUwsIRAMAkI6CEo1C+nMfAACAVPImGnaLIVsrmNeIAAAASCFvoiEvLPyDLF9Y+F+b5qjv6mZ8YSEAAJQGeRMNAAAAxQdEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBANAAAAgYFoAAAACAxEAwAAQGAgGgAAAAID0QAAABAYiAYAAIDAQDQAAAAEBqIBAAAgMBAN4CD+xRd0Z36Rpm/O0eSnU/Sr65/S2K8mYCVkcs/l3ksZkLIgZQIAG4gGUCwsxujXN6bp+sSvaWb2Fm9/TsvLcVp58ECHAKWC3HO591IGpCxImZCyIWUEAIhGiRP7/K6qVd6YmqHP+TsAXkjZkDIiZUXKDChdIBoljNQiJz79DGIBAiNlRcqMlB1QmkA0SpD791dUdwMefLBapOxIGZKyBEoLiEaJIQ+5dDFEb8/rXwBYHVKGpCxBOEoLiEaJIbVDCAZYK6QsSZkCpQNEo4SQLgV0SYG1BuWqtIBolAgy40UGMAHIB1K2MKuqNIBolAjS94xZUiBfSNmSMgaKH4hGCSB/ypI59gDkEylj+ANg8QPRKAFkoDKfrYzOS0u05+QC/fo2/j1eykgZw6B48QPRKHLkvUHyGoh88OWXRHXdC/TQszeV/ceXZ+mTW9lOv4zRRKSJaipDtGVrOW37ah11Dkb1PpA709S7q5y2HB62NkfbqWpriPafzU8eS1nDu6qKG4hGkSMvnMvHzBYRjKdPzCcEw7Ydf3tHhwhG7GwDlbETqznUQ5cuDlDk5SreDtOx4bgOUegMUxuLXX2kUGvYbtHooOqKEB08p0XjSiuLdS31rlHypaxJmQPFC0SjyJE3lcqL59YSUzD+5f+ecYjG985n1w02cpgd2o5uSg6hRmns3DBNbRbN2Gyi4WaNRUPKmpQ5ULxANIocmdEibyxdK0Qw/vyHlmBEhu7RB+Nx+o06SzCef2tBhwrOVFc1O60wtZybpnhKz5aXw3M56ZUYjRxvoJoQh+MWy/bqJuo8tJO/t9KIFYIzYYDaaiu5BcNhQmHa29FOBx2O3r+LLH6th1qqjeOPDlJU0qocrpzXNm/nGx1sp71fteJ2HM8o0dzVQf0dtbS9QuLgVldjD02kG0+OjVNvY3UibNUz7TQ0q/cJ89b+bepc1dQSGab+Rv5u5+F0D9XzvrYr+tyJtLPt6mHJzg0pa5hFVdxANIocWRthrV5vvsLR2ILRdXlJ/dYzfE+JxmoEQ7ESpUuHpEuKnZY41OY+Gkv8YT2zaIy1h5XzfLrZ6t7qZcFQcdmiER2g/exgyx5roK6+QRrq66C9YctJ2nFMRWqprKKK2vrGKTo/TWORl6gq0UU2Sp2V5RRu7KOJ6RhNXemg+sqd1DXMXj06TkMXj9Nejqua0z10kVtIVrYkmR+ktseq6GAX75vn4y+2Ug2np6p9VO22HXfZjmbqPTfI4lHH5y6nmq5Jtd/BCudHbYivpZn6x6cpNj1Kvfv4+sN8rXLeFU6rXFtoJ7VFBmjoXA+17eDwIjAeohEb5/zorOPz87X38vdhFm4r1KqRsiZlDhQvEI0iRxbVWQvus2D82et3UgRjtS2MFMQBR5rZIXONnB34sStS1c4gGksXqIUdYk2n6WBjNHSoMiEaqiVT0USXzJr7jW7lOFUcKxwfx1HdMa53CnG6JLXzxgv8bZIi1ezUaztoZDLm0RoK2D0Vj1GMRSPGXnnoEMeta/WWaLxkpC9G55/j32o9av3csiljB991TW8Lkgd8/pZ34xR/v4n3V1Pkut4niJCw6HmJhmKNu6eEtSpzoDCBaBQ5a/EAi2B8428swfjbi5ZgdF9ZI8FYYWdnVm+lNi1CoZxmBtFwO0BNlFsOtmhY3T9uB5wah6Obxjb7uNg49R9toKcfky4qd/dRBtHg6+l/TndtKdM1f1M0XOnzTrN9XXY8TpPzm9dtouKDaIA1AqJR5OTaPfUF16zTCcYzb+bawrBqwWWqRp8kWRPXomHuj/ap7iDlpHUt26+lMdFZ5d/S0K2VvX1OFx29Pk4x3aqIXhmgMXt3fJS6qjjNrbaQ+YtGtEcceS3X/vUVrHBLQloxqxANqyVRR/3mjpUoTYxbPxRCSwPdU8UPRKPIyWUgXATja399WwnEsfesWVHHf7aUEAwZFM8VcapSe69+roP6Lw5yjX6nGsS1hWCsXQRABq/7aOhcNx18zBpQtp20e0zDmrLLTjLtmEY7Pa0GzZNxTHTJOIgxLtIsaQhRfQ/vj1miUvbYSxQ5N0iXIs1qTCKsxyRENI7J/h2tnP4+GjEdNiNTiq2B/kmKzU/TRF8zVXP41YgGrUxSZAdfvzlmsVO682qpXy7FHtOocI5pqNZIOtEYli4vbj21cv72DRuz2FYHBsKLH4hGkZPLlNu/6LL+uJcvwbCJXkzOLiqrlBk/yVq+PVvImg1kiUcXtz4SNXvX7CnpOrrU4eqmMWZPlVXWUudgn6t1EFPOXI2n6DBt7OQTmLOvKiqpvnmApoyxjdj7LCT6/J1X9Y823BIYOpqcGVX1TAd17uPvqxENQbrKmpPxba9tpktmQ8ucPcVprWmUyQH8PZ1o8FmGmu38bU/p2soWTLktfiAaRU4uf+776tEo/ckRy3V1XLibF8HImfg0jV1zutexo9w6qTpOds96bHyUpszuKd3FJYPHYG3Bn/uKH4hGkZPLa0RENH5n7wxV/p+oEozdP5ovLMGgOI206u6pozLl1dW1JEjNWrqPdPeSTLndL11c9jRVsKbgNSLFD0SjBFjtCwv39Swq4RDb++NFelBQgqGxu6fMrqW+ccfAuupeeiZsdcGwoNQ0dDj/EAfWBLywsDSAaJQAeDU6WA/wavTSAKJRIsiMlny+Hh2UNlK2MGuqNIBolAhY7hXkEyz3WjpANEoImdmSj9ekg9IG5aq0gGiUGDJQGb2deCMgADkhZQmD36UFRKPEuH9/RfU9QzhArkgZkrIkZQqUDhCNEkQecqkdoksBrBYpO1KGIBilB0SjhJEHXwYwMasKBEXKipQZVDhKF4hGiSMzXqSLQebYQzxAOqRsSBmRsoJZUqUNRAMo5E9Z0t0gr4GQWqS8eE7eWLpWq/6BzYPcc7n3UgakLEiZkLKBP+4BAaIBHMh7g+SFc/KmUqlVytoIsqgOrHRM7rnceykDUhbwLilgAtEAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwCjR8FryEQaDwWAwt6GlAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDAQDQAAAIGBaAAAAAgMRAMAAEBgIBoAAAACA9EAAAAQGIgGAACAwEA0AAAABAaiAQAAIDALsc/p/wMEk9hZ3sUDlgAAAABJRU5ErkJggg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abundant Life church</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       Claim this business      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Missing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x308895e7a69d274d</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Shadipur, Subhash Nagar  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       MP6W+CQH, near shitala Temple, Subhash nagar, Shadipur, Port Blair, Andaman and Nicobar Islands 744106      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADoXSURBVHhe7Z3/U5xHfufv7/All0vq7pK7VN1tXeUu+wNJdEMVpckl4uLy1LrMxuXJqSxiLbpYhshBq5W0BAW5WLRLUELYWzbsErMmHi9nzqyFxUprRRitDPGJsCWDowWvDJLwSKCRkMbG+7n+9NM908+XeaaHmQHEvF9Vn5qZ5+mnn+7n6efzfvrLdP8LAgAAACz4k6ZmgmgAANzcvE17T96mm+onABqIBgDAD0QD5ACiAUDFcp9eO3mT2gaX6YuHbtBjTTfp+IX7zi4pGh/TG4mb9PkXbtDnmm/RG0vrzr7PHtC02P47TeKYQ+KY0bv00NlD737nBrW9eYeOHxP7xHFf/N5qZh8tie1fdbbH/uYOLXymtoNHCogGABULi8YN2vv9u7TKDvyj27RfCMfLH4nvLBov3KRvTD0QPz6lhTdu0ue+tSIF4Oao+P6127Twqfhx9y59W8TR9m5a/HBEI7tvhdq+rOJ7uErf+MpN6p4R8QnRefc7N+n3E3flMeDRAqIBQMXiiMY3ptVPWqd3v32D9o+J2oa3eWr6Y3pM/hbH/MUN6n5fbRc8/PEyPfbNO1JQWDSy8Rnxz3xMn+u6Q6vODlHrQPPXowpEA4CKxSsaTi1i72iYaIgag6iBvGZ6+8y+3KLB8XKzlNs+pndVSPDoANEAoGLZaE3jJr08r7YLrGoaU9kw4NEGogFAxeI4dW+fhqxF5BQNp9YQ1qcRKBoPV6hNxC37NIQ4PfzwNn1jGH0ajyIQDQAqFiUaf51r9FSwaOQbPRUoGoKH125nRk99/qvLNKZHY4FHCogGABWL26kDYANEA4CKBaIBCgeiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsEaKxuwH8wSDwWAwWD5DTQMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWbKpo3L73c2p9I0Vf6L5Nv37kpjT+ztuSYh8AAIDtzaaJxpmZh/Tvv3yTHnvhRqDxvh9MP1ShASgvyUQDVZ2aUr+8pGhxaooWU+pnoSwNUdOuBhpeUr8fSaaoa1c1dV1WP7eI6VPV1JTIdSE5jeW5zuHlo7LZFNF4bfJBRhz+6Nt36O3ZtNpD8jtv0/s57NaxRMPPVVNVTStNrqlNLhYoERf7d3XStNoiC5d4uLIWpT3xVhq+6vE460s0ebqR4rVRqnpuiJJqc+pMM1XtHaRF9ZtJn2sVaRDnWFcbmKlOini3hbEyR8MtcdpTkz9NddFcYZzrEfTQynwb+XjUCHcKM9QXjVLbWXUtChWBDYoGO0h3WTItW+Y2h1KJRormE61Uz+VexBepjdPx/ilKWZZjiMb2o+yicevuZ/TLhxxB6Bi9p7b64X0chsPeFMdsDUo0ROE+PBLgDhcGqd7zAPucZ1q8pZ5tpbpdcUpcU9vWpqjvyVo6cHqM5pdSlDYfmGv9FN/VSuOGSE2f4geslvpm1AbBfF8dVR0aE4+gBeJ8PbFqqjsxJt6WhUDrNNWIB+y6CiMEY7ghSrsbB2lWpCm1skTzI+0Ur4kJR6HPUqmi4WGTRMNk669vaUQjOdRAkZgo3wtOuU8vzVBClLu6zinKvjrmBqKx/Si7aHB/BYtB3Tdvqy1EHybX6Ztv36evnbknv2u+KMJw2D//v1ausQw4TvJwYyNVxd1v/8zs6VqKiX0HwkRDkqbxlmqKdTtef3EgTnXqux/h4Gui1JMpn+Itt3afSEMtxfsW1LYUnT9UTQcGPU/H5c5Ax8Lnq4r307zrbc5JU0Q9COm3W8Vbn8iHp0Yl85PJe/GiIR/6gQkaFbWe3fJNs4EGrhj3V4jXeHuDUyOqqaWmXuMtdD3pqgnVPd9Ls5lDHYcxkOimerE/0LGIuM/r2paIu75lhBZV3DL9J8douledOxqnjjM6jqzDlOHki4JjmfPcmqC+52MyT1XRGB3unck6Qa9ohIXNQa7rm77ST8efdt7adz/dSqO6iOjrMdJLTfKtXtQcG8T1Ei8DfA2cc5t5VPemd4QGGmopIvZHapspkalp+kUj97lzkaTRhoBye6WbYrvaaVLcC5lPl3N2n9efRrP8OHlOXByhDpkulWejeKWvDlFHXB/rzv/Gy4cHeb/b6fxU9trXt4gXtszzZ9a2nBr9ef3yxqRmMvnj6zrcJ55Ns2YZUn6cdA7S6CE+fnNqo2UXjd95aVkKwT/MOdlkkeDf2n7t8M2McFz8IC23/fbJZfl783GcZNe5C9RRU5etKTBrvE3UHt7mAlKIaIg498aoo7fb/TBnCrYTNvNgcc2jTjh8IQgRHe+6eDhEoTZrHpJA0XAEJis4WdLXp2hyakkWuOlOkZaTE84Ok+uDQhQbaPQW/yiNaFSJGk5iRoRcT9P8gDiutptm5d4UTZ6spbpTE45QJMXDY5xvvjdGkYZBmucEr4uwp8TvExfUA+M4l4i4ltPiLZYrVF5cx6cXZM0qdtq5iDL9u8R9OSuuh0hX8u124cia6fwK7/U4TF/NYY4GYlFqGlxwao0rE9Qlfne8rRLhCp8nbA4Cr6+4N01cW7wmjhVpXjzTSrGM8DtplrVL/p0Utdu4cELs7HQeL3aKGrDOo7o3shbA8SVptk/UCjJNs55rEHru3PCLVtVzLF5qgweZzzyi4So/g/40Rhr6aZYv1NocJUT50S9rtDJGbVxzvqiu4gLnQTzD6tHYePnwIO+3uvYirnTyAnXVVtPxM85Dnjp7VNS2OmlSJWOR85B5MUuK51Wc99AQza+lxbFOTSzbmhFefjLpHJmj5IqzrdyUXTR+sckRh7sPnNFRPT+67xINNt7GcBj+/a/EMVuD4ySPnxEPENcqVAFiUiOi9tE4QilZQMJFIzUj3jh21YqCzzfRU7DT/HYj3gqMpiYZh/rN32WhZ5HSzVYBTViSQNHI7eizOG+AgWHkebXDc+Iy37RdZikaLgFTDlWKkvzuzpfsz2lw4k2nPGLA+eV+HfmDr6tH2D3Ic/fOqV8iPkM05TVv0QLEcHy6xud2XD7REE4kteJuZuRzRTqV8zPD5wubg6Byxc2W7peBBUrUmWnel21+FCwO7vP0l7nzxelw1QLWuZZbTR3nsuU2Gzbs3CGk5mj4WJ14CxZv383tlDg75+rPkPnMIxrumgqfVztkDusuAzI+VX6ca28WIPVsDDlXdePlw0NAOXbd4zVRjs1n1/cMGGWL4XKufUye8uNPZ/kpu2j8BzViSotG+5tOc5VpXtHgY7YGw+Fy/0XmjcbZLvs55E32iAY7UMNkNXhEPWC3OLzHuUkRMN5aZkR1XTpDriVE1QOT/S47y7XIyPO7z5cx+fCVXjSCwsl8W4qG63jzIZEPR0A+dLyujnptpmh4HjYP6Zl+OhDlml0rDSQmaN5IrEx/TmfldlyBD/aS0WSgTcfnDR8WNgf+6+vci8zxhmXT7E6jPw53vnz3RjB5Um8zw+Y7d37S12dotL/VqW1H92WamMLvg00aw/OcMpqndJp1fBsvHx48PoHhdGeOF7XkWWMwgGMq3aZAaLzbQsqPP53lp+yi8XvfSEohmFr4RP72Nk/9qtE89Y8ffiK38TFbg+kkhWNtVEJhCgiPYvKKRpjzdDlhjaewr4sqJwvLFaN2IeC4udbhestTbx7Szoq38r2iBqN/y+NyN09xh3hKvbpvZvOU63ivaGSaqrykxbHiYefmA/2W5nqY/A4jkPUkzU+NUKKF26Zj1HbWOSDcKXgchFcE1sR+4QCaBucyb4AuJ2GGzxc2B/7r69wL3eThx389/HG48+V3yE5TqbPNDJvv3IWxaDRRht+HoDQWIBryPjjNU861DyjPGyofHvKIhoxLNk+p+oD3GQgTjTzlx5/O8lN20TihOsJf+kG2wLFIcO2Cax1aMBhdC+FjtgZ3oZJNJfF+Gjabqjw32VVIAzGr/ArpmM32UcfRt7W0UsSsanLhqmuljudyVIs5LQHndjrCvR35jkPYko5w83jzgZGj0bJtzJJMcXDO7XpIJ9oLEA3hDC663x5lE6NKs/9hM52Cx0GYac78dj/o7Mgy8Znh84XNgf/6pmnyRNTo01Fkrpf/evjjcOfL75Cdph9/81S+c+dAvjDVUt8V9VtjvJjINLpeXvxpDG+eCsmz7/kQZWqvznMx5cNDwD02HbvvOqv8y3TLlohGGjXS4fIxecqPP53lp+yi8ZPFT6UQ/Mejt1ztcl4+Efs4DIflY7YGj5PkQs8jJ0zHVrBoiDB62CFHq/s0PA+gbH8WhdL9Nuc8IFVB/RlMDtGglCjgsSjVd044naJWQ25FmIudoka1gSG3K1OU6Byk6YBOwlDREEdzE5zs7+FjVWdsvahdifoUnT8SpRiPQuEOwoUx6nrS7CD0Oww3TtzcOSnfS0Tc4yfFdT+S7TvK7RQ8DkLWBGuFcIt08E2THay11HFmgdIibYtneaiyIQRmHvOFzUFguZrppjrVOcukr49Rx5Pi5UMG8l8PfxzufEnHxuXyusiUqMHKTmZPx3rmGoSdO+f9F7XFzhhF9oq3bD3kNjlDw0e4A1qlS5ThSE0zjXIa0qoz3pvG0I7wkDxf7RVpbqABcWx6TcQ90CibeLRobLx8eMgjGtzhLgcDiJqG7Ohu5HLsfgacAQwBHeF5yo83nYtnOqlHhC0nZRcN5r+rJqrv/TjI8znwEFwO87tfzxbxzcfvJOXoD+4AV783Ihpck5BD7tTQ0fqWIZo3tYHhfg3PA8DMdvPokxzxJ+cyHXc++EFuzv65r+75dhrN8+e+iAi7p3nEeYgklqKhnKTTpOUmXDQE6wtyOK5Op+vaeIciDncaAwL8DsMHd8KacTcLcVJxhzsFr4NIC2e2Tzoc3QGZvmIOrxyi0c66bIekJ4+hYXOQq1ylpnrp8OMcF/edNVDfhA6Rx4FK3Pnie3NAOPs+PZz1yaPGnzu91yDk3CH3X7bnj7RnjuMhowdc5V/s73WurTOctJvajPPK8hM6LDg8zzzKSz53wvE2nR6jxBGj6XbD5cNDHtHQQ3tl+eHrdnZQ5NHo5/SW896jIj3Z+MLKjzedfN58gyyKZVNE4+xPHkpB+HzrMj0MqETwnFTct8FhOCzYIoTQ9O0V4rG3m6YzD7UFPO4+Z98E2K74BH2j4P4XR+YlzUE2i+d6UQzF6YctVd9TLjZFNJjf73RqG20j/gzVf2dF7tu6DnCQQVTTp0XtxR7xFv7NRurJNGmBR4XSiAbuf3Gwo69T/wfhn/w/jA3el+QYtR0aMv5UWB42TTT+eXld/meDbfp6troxcsWphfB2DgMA2BxKVtMAxeH7x7f93FxbwaaJBqPnl/qtk8tSVXk6dD3z7ddC5qUCAACwPdhU0fjs50R/cNpppnphcJXianbb2q6k3AcAAGB7s6miwdxY/UzON8ViwcbfeRsAAIDtz6aLBqNHU7FhtBQAADw6bIloMNyHgX4MAAB4tNgy0QAAAPDoAdEokFIPU3T9o/PWHE1exX9VNHyt3f/KzU16YUquq7H1OP+iD/zn8I6mBPnmaWQuzhkzEmwc/z+6t45CynHB5JpKqIxANLx4phbYE2+mxFTWGZVTNJLDjRSJ9dK8/LVJyGlROK9Z2/14I/VdLDKP3ulCvPjOG6W6fe41ygt52KZPRzPzBm0EOYGjd+K4DQHR8ONMwRG0xKvrHt8aocM1MRq46vwshnKLhozf0llDNHY0SzTaoCYP4ynE19OUnOmnJlGQebI6ppyisSV45tLK5jlKHeeKeHO3Eg3jvGtLNNsrrgVPR6HeNMv6sLlwZhmO1dZS/UCxk71BNPw4osErzOnnSFOuewzRKB8QDRM5TbF79TNGTlqopm+WohG25nW+9aB5dtDMesbdNNy5L1Og3AXRmYzNtebzocHsRG95JkmTcdmsHex13or5vrrswk8Cnl0zk46Gdho3rpG8Jr1D1Mf5Eun/gM8tnYRjgSIbdF6P0LgftvB1ljeUd02S33BbaXyim2K81K7aLJFpClv/2Tsp3iD17DWdZ1i6A+5xnnW9uQkn37rpYWtmuwiLq+h8mziiUR+PU1Us+1LAuO6x70XDPdEnPy+TxqSIqSlzzfJmShjPoS4DOa+jzX0JWX/eJxr8XJtrketF2ASFluNQ/xI0uaGRDp7cUE8OyS0GA0YrSamAaJio5S6bet1LUprIAmBO1exa8zrPetAcP+/vm5Hx83TfHbFsgfKLhrnmszNlcmZKdRvRsFk72EI0eAK1SOwojar1ofX01OOqPOpr0nd5IbPIk98BePCel9uzRU0jM2W2wMxP+DrLG8y7gtcfcdYZWaCEePBd6z/IfORe/1lOGW6UBzkFvQivnWd4ur33OP+63nbrpqulhb1rZnsIjavIfLtx0tU1wddXxGmkx7xv3jLjLCmgrh3PlsvTputrd62f6mv2iTLnXNiUvE7xzMyxmTLguo7ZJQ5s7kvY+vPuZ9X93Kev8Vrk2XJUcDnO6V+MadTlPVHTqOt0eNZEd65JKZpc3UA0PKSvDlEbr9sgHtzj7f00Pue+4nxTXaviqYIup4UWNzlsPV92lBGj+YWR62iYzs4lGp5aD88mqqcGl+fNIxo2awcHiIZcK4HFU75hOc0OcgXDDM5smvoNzHdNGI8D8CHPK9Jr2u8dVWtDOJj5CV1nWbChvEvcQsEL8bjWOpHn0dOxO5j3lFdVNNeSl9fLfOMOTbf/Hudb17vQddPltTCE2CQ0rmLz7cLIAzt7w7m77rGrzDhrybgWL1ufo/Nq3Q7/+Z0WAb3ImMy3a3EnZxGyjIDmvS+eJZo9+J/VOqMvRojo1ARN8xohgkLLcU7/Ir97RIAXJtPpkPuPZl7m+Dn1LjRVCiAaQfCb04xeAlK8+e3LVtv5prqqq+qmZpxjvvV8jSYfRm4z97sKosfpysWA1DZ53jyioQtqGEHO2zVpWvADJNf5UPH7rgnjvS5evGLF1/xMK8XEW5heTdD1sIWtsyzYUN4ZFmLjTU83VTmL/AhCr7MjqO6pqD1t+6Hp9t9jdxlgOIwZX2HrpvvjMwiLq9h8u3DnYbY7JlfEnBfly3WPXWWGj/E3FTs453IJikCupa/yGlQGzBe0Qu+LF/d1VeutcDNdSy8NX3S3VBRajnP6F35mvFPQ87ZMOpbo/LE6iqgX3tEZNXNuiYFo5GNdvPGIAqrfUEJvqs16vsWIhrneeOhDHfzQBOJ13j44HX7RkGuMq/h914RxOYAAAs/rXhrXlx9ZrVeOwhP/hvIu4DfW7MObtUzNKvQ653ee4en232N3GWA4jI6v8HXT/fFp8sRVZL7dmHkQyGZaUWYGhWgZ981/bQoTDW7O0nkNKgO+Wn0B98VL4HVNztH0SD91cJ9DTNSa1fGFluONi4ZD+voMjSe6ZX9PZK944TVrNiUAomEgFz/xNB8xsrCpKn7oTZXf3Q+aaz1ocYMLa57yFFxRtc+sXCfP1U6TOd5ogh6aQFxOJwjnAc3XPFVu0fCdw1xnWbChvMvlfP1plOVAr9YYcE/d6QpvpglPt42TNx1ugGPOs266Pz5NnriKzLcbMw8O6Slub2+gJpGGzL1ylZmg5in+H8eU7P8ptnmq0PvixXVdeQVNrl3IPYz/+chet/zl2LXfvCbye+7mqfT1KfdKnqqPNviebByIhomoKfTotbUzQ26HqI07uYayBSDnTc23HrS3I3xuRMSd3e9+wJ0HTXd6UXqBeE3vmAgrC8W62F8TpePixLKjTw6T9cSlzyvIuXZwXtEQp5Yd4UKs9FrSQ80U83SEu64J411X24v3vHp96Bq95rX7YQtfZ9kd1jbvZnOGC1mjU52meZynt0N4fuSoq0M4PN02Tt50uIWvm+6PT5MnriLz7cbMg8ZZP1zW7HSc5rMkyN8Rrs4vSF3udvWVyHyHdIQXel+8uK5rcoyO1zjnkshBA1FqO+s8IIWW45z+RZzN3RHurLSZSYe+J+q/TrJDXlyDUvzvxQSi4WVljkbbs+28ux/fRx2JuYx6h99UcaPyrQdd0JDbfdQz2J2JL37MvbY4n+uAGo7IwyX7jmQLp4xLP4wCTnfg2sEWosEsjhjDBHnIreGDfddE4l9X24U8r3ONHXOGH+b8c1+edZbNsHZ5d94Gg/+X4byVxnvn8jtPQejQ09B02zh5j8MtcN10f3wGYXEVm28XnjxoUmK78dLkfZZY2Mwht7yGN3eCa8w1y+WQW2N4qcy3Z8ht1znjKhR4X7x4rysPoNFDbuUgmv7sUPtCy3GYf8k35DY50e1ax73rXEgmNghEY9uSv+Da4zhIdxt0pVDJeQeg9EA0ti0lFI1NWjt4W1LJeQegDEA0ti2lrGkAAEBpgGgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgZyagCeBsBnUerxzkJBeu6cXFNwBO9PL6gZKPfF6LBv6g2Rhgk9bQhPYdLoXrVLkbzYTYef5KkE8D8OAMDmAtHIh3e9BQ1PDiYFJYdoBO2/zLPcNlBHfz911QXM17QwSPVCCAbU/Ety5a2ao5lV26QQna6jPfu6aXxuKXBFMQAAKCcQjVCcWSXd04ILeI2NeIx6OluDRSPX/sxUFs601F7RkEusulacc6abzkwPzaLiWWMZAAA2E4hGGOykzVXcFNyMFWHnnmOG2Hz7c4kGz3B5YNC9jdfj0OF47Y26k73Up2a55FpLUPMVAACUC4hGTtI0eSLqnzqb586PqjUfgkQh335JbtEI2yanWDbWMJDLoxrrTwAAQLmBaOSC14r2rpJFKRpv4eVclWP3iUK+/ZqNiEaSRhs8i86r1c0w7TcAYLOAaOSAF7+PnDD7F0TdQ4hAzOxT8IhCvv1ZNtI85SwMZCM0AABQLiAaQci1o7NLQzo4b/r+4biOdV3Ot19FIwkWjXwd4bPdtYH7UdMAAGwWEI0A5P81GkcoryvOWZNQFFjT8A65TZ5tpTqzI56XftRrEWf6NPwd9QAAUC4gGl7WZ6ivNkodb5sNUzkotWgIXH/u4zWAjTWzGbkWsVxjPHg/AACUE4gGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwZlNEY/DyA/q1L9+ix164YWW/2bpMP5h+oI4GAACwXdgU0WARCBKHMGORAQAAsL3YFNHQQmBLoeEBAABsDpsqGoUaAACA7QVEY0tZouHnqqnrsvpZEUxR164GGl5SPwEAjxRonvKSmqPhljjtqammql1R2hNvpsRUSu0sNWGi4exrSuw07wrRAOBRZlNEo1C2TjSWaLQhSnUnxmgxlSZaT1Nypp+aamLUMyV+lxyIBgDg0WJTRONro/foa2fuqV/52TLRuDVETbv20fB19Vsxe7qWqk5OqF9Ei+faqak26tREGnppekXtWOLj2+n8VG9mf32LEKB1tV+weKaV6qOiFlNTS02nB6lnb4BoyHi4pqPsuSFKql2LZ81zt9O4J60OjuDUDyyo34Jr/RTf1UijKqKweKZPecRKpkc7esfpDyS6ZT78oqb2j2SvwZ5DgzSfqaw5+xMXR6jj6ew1nDUrcytTlGiO027OezROx/tnKCPZFtc4faWfjsu4q2n30600alwGAEBxlF00/umjTzIiYCscWyYa6zPUVyscYe8cpQwnZJKeaKdYrJMm2fmuJ2m2tyHr1JWzlzUV4eXSyQvUJeI7fkZ5xJluqqsRDnNGhBa1mMWzrVQnwtvWNNLnWikSO0qj15xa0PxgA0VqWmk8oPUsmTDSpX83jhAHzRdPftGopgiL5UKKuELmxtkvr8Ga+JmcoYSovUVOXFCOXx/fT7OcuLU5Soh8xrpn5F5aX6BEXAhB95RzD5IT1BUTAtinPH++a3x9UNQMRVpV3likY7WdNM1pAQAUzabUNL7347WChGPLREOQvjpEbU+Kt1R+w23vp/E57XYZx5F3nDM85doF6hAOdZT/ViIdmnC+hoNiBxzpnFLfoxQ7rZyjRMQXVNOQeEXD+X14xExPkkYbg972BckROpxx9E4459j88eQXjTpKXJN7AuD9ntralW6KZa6L/3gpaA1K4C53UqS2m2ZN0ebja4Tj520W1ziuBUYiRKguSj3ObgBAkZRFNLTTz2X5hEOH2zL4DXVmhBItDbJDfPc+3XzivCVnmo0yphyqdGjCuXFQBTu0qlPssRxnnXkjljjb7EQj2FnPdteq+L0YQrEyRsczTVP548kvGvp7EAH710VtIeR4s1Ykv7foWolCpl8dY3GN/fcn1zUGABTKlohG+5um4/Sjw20LuLlEOCKn+YQdXi31mZUFky0QjelOUSsKFA2i1EgjVR0ao+S51kzTlE08JRcNVRvLdXxe0ZB9TeqYgq8xAKCUbErzFM89ZSsYzFaJBrf1V3mbRgSLg/tU8wm3t3s6mBkdPtSh8fdNbJ5iVA3j+KGocVz+eDjNBwaNOIsVDdkJbzZP5RYNu+apXNc4TZMnzP4Thed+AgA2Tvk7wq9/WpBgMFslGrQ2RT2xKNV3ThhDboeoTWxrGnK8XOpMM0W4M/uqk5cUD8l9Wjg59lJ5RMPbET4/cjSkI5xo8qSo4XROUTrtuECnA1s43+tO2uaHmoUzFb9zXtYUnT8kzu9x0vnikU483k3T7MXXFmj8RMyIw0Y0sh3VlF6g4QYhluIaOLnIIxqqI7xJVOecjvAp6nva2xGe5xrvilHHWecE6etj1PFkM503NRIAsGE2pabRfiZlLRjMlokGszJHo+2NVMfDYoXz2/34PupIzLneXBdHWqleDvd0hnQOKwHJ69AEVkNuFWkhSAdk2Gyc2XOrobJ5hpPKJipjFJUmNJ71JTp/rI4iIn+R2jh1dLfTgYJEYx/1DHZnhsTGjw35htzmFA1mZYoGno8ZQ27VSCrG4hqnpnrp8OPO/YnUNlDfBBQDgFKxKaJRKFsqGjsMbhLL2XxVFvKJCgDgUWZTRKNQEYBolIC1FKXm+D8L2T/0bQ4QDQB2MpsqGoUa2DhyNFRNHbWd2WzvDdEAYCcD0QAAAGANmqcAAABYsymi8WuH7dcH1/Zf/3xZHQ0AAGC7sCmiwXNPsQgEiUOQsci8Io4BAACwvdgU0QAAALAzgGgAAACwZjV1D6IBAADADogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyRovHg4UOCwWAw2DayBw/8n8WYGXcRBtGAwWCwnWBaGMxP08ywRRhEAwaDwbajmc7f+7kR0/EWaRANGAwG2wmmhSHXZ4kMogGDwWDbwfI5ff4sxjiOEhhEAwaDwR5l04IQ9GmaDl+kQTRgMBhsO5rp/PVnMWbGXYRBNGAwGGwnmBYG89M0M2wRBtGAwWCw7Wim89efxZgZdxG26aJxb+0hJS7fpeipZfpdYa+K77wtKCwMBoPBLE0Lg/lpmhm2CNs00bi18oBOj63Sb7Tc9K0Jztu6zq7KMEHHwmAwWMWZ6fy9nxsxHW+RVnbR+ODGA/rya3fo3zZnxeJzx25S51ur0vi73s5hDouwfExQXDAYDAbLYVoYcn2WyMomGuNz92nv396mX2jM1ij+x18u09BkytUcxd952x90fZwJx8f8z28nZRxmnDAYDLZjLZ/T589ijOMogZVNNLQA/MqhG/S/Xr5NVz7MLwD/OH+fnh+4Tb8sjtHHB4XbWrtEX99VTV8fD9rnt9W5SzQ5lwzcV7QtvEoHd52iyaB9bNdn6J0rS8H7wixfvMXYRtMEg8GCTQtC0KdpOnyRVnbRWLoTvD/M+JitFI3lK6/SS8/soYgQh6qaPfTssVfp/Y/1/sJEY7IzSpHmN2k5YF/BNn6Kqkxnnse5f/T9gxR5oofeD9gXamUUjQ2nCQarNDOdv/4sxsy4i7Cyi0bQvlz29tVsbWSrRGP10il6atcT9NKbc7R8V/z+eI5+1PIERfa/Sj+9z2EKE42SWoGisWErZ00DBoOVx7QwmJ+mmWGLsG0jGt+5eFeG/+rrK/L31ojGHL3yTDU92zvn3n7nh/TSrqgSCq9oJOn9V1ro2T1R4dCjtOeZFnrrmt4nahrtorbSfkl+/+iV/VR14mV669gztJtrMdFn6KU3Fmh5socO6uP399B0plbjiYePUSbPL537SXrrUvb4Z4+9qcRNna/+VfpIx3PtzUwNKrJHnPt1Tz61qXhfe0PkK8rnC4hX5ckxzzW5vyDzuKdGHCtraq8HpylP+tlWJ/voK3/I+6pp9x+20Btz2X2h+QlJAwz2SJjp/PVnMWbGXYRtC9H43qVUJnzbG1soGrfepK/seopeuerdd5d+eukCTV67K767HeTym0co8sQpemfJ+f3Tl/dT5JmX6afqWJ9o1OynV95botX7Is7vv0iRGiEUB/tomo+/M0Ov7Y/SE13vyfA+C6xpVNNTLcLRcq1o6Yf09T3V9JU3nD4Ut2jM0HefiNLBl+fEuUXYqy/TQeFMvzWp4jLNF+8F+voTQkz7HaecTzTe7+Ga2cv0vjj2wd05J0+dTp78opE7/Q+ucRr302tXxXXn6yVE7Ik9Iv+yyTM8P2FpgMF2pGlhMD9NM8MWYVsuGq+96xcMNtvjS2rSiQkntRCwL2Oet+o7SVo2+21UHG9cd377axoXsmHvC2fMcV1Qv3UYs3ZgWqBotNCPjPPz+SKnjPNl4uJ0P0XfvaLDmkKYPV6ajPckvWO+8b/VQlV7TtO0+J5PNDgNz/TMZPavXrtE71xaoFXx3S8audM/2R6lZ1y1PlETfCpKf3WJv4fnJywNehsMtq3NdP7ez42YjrdIK5to/MqLjtO/fddJ7IX3/aOnhv8xlRmSawoGH8PbOA4zfNltI6JxP0nTmeYpbsphy8bhE40QZ5sJU5BouPsefOfLxHWXpnufpd3ibfzgsR567fwMLedqrgmIl9/6v6S25cvH6nt99KUoN7W10HdfuUDvq1oYm180cqV/gV6r19fTbc55wvMTlgYYbEeaFoZcnyWysonGf2m5JR3/3NIaHfs/K/L73/84+1bLgvGLTX7BYOM/9/F2jsPcXnbL2TwlLtTHokbBTR0eBymdoGyeUnnzCM/2EQ1lSzM0+XofvbR/D0WeOEJvBQlkkaIh7f4SvX/pdXrl2H7aU/MEtb65ILe70mQhGpmmqlwWlp8caYDBtqXlc/r8WYxxHCWwsonGF3uS0vHz3FIsCvydaxUj/y9Fb165l1Mw2PgY3sdxePeV11RHuGq7z1hIRzg7uYOvGM5IOtdtKBrCub7Db+OZsEv0xkFP2rXJePM0T5nNbK58CEd93v1mv/z6wUw67EXjLr3TEqVIyw/dTUo6TaH5CU+D3gaD7QjTghD0aZoOX6SVTTT+8uyqdPz7vnNb/tbC8a//9Ab9krBcgsFW/93bcj/HEbS/nLYqHPNTNc/SX51XHax5htxyh2tVfQ9Ni5rG6tJ79MpBbqYqk2hIQTpIb1wX5+JaT0GiIWpR4m37Jf22LTudo+LtO0CYZby5O8JZvCI1L9Ib3H9wd4mme/fLEUxaNN5qispjP+LrJd72f3RC1ALUf1XsRUP8fu+0Gv7spHmVR0t94UV6i8UgND/hadDngsG2tZnOX38WY2bcRVjZREM3MXGN4qOkk2AtHGGCwWF1LeSft2gOquVLffQV/ee+6BP04snXc/+5Tw3t5CG0kT376VtvvkytRhNXSUXjoTjXkadkug6+ulSYaAhbNf+0GH2GvtL3XnDHsIzXM+T25A8dByzDJGm651k1bFhcn57TIs9GPj6eodf0cFc+9sW+zDDigkRD2PKlHnrxD5z+Inl9L2T/TR6an5A0wGA70rQwmJ+mmWGLsLKJBtsXup35pF78+zuZbSwWuQSDjcPyMXxs0H4YDAarCDOdv/4sxsy4i7CyigbPJcVNUVxzmJi7FxjGtEsfOH0dfMx7C5isEAaDwaxNC4P5aZoZtggrq2iwfettp1P714/coOkP1wLDsP3Tz9ZkGA7beyHgvwMwGAxWSWY6f+/nRkzHW6SVXTTYmhNOk9O/a74pR0959/M/wnkfh+Gw3v0wGAwGy2NaGHJ9lsg2RTTWHrg7wf/s1Tuy6WrsJ/fksq96+1+E9HXAYDDYjrZ8Tp8/izGOowS2KaKh7a1/uke/+efOn/5M422j0/n7PGAwGAzmMS0IQZ+m6fBF2qaKBtvd+w/pO+N36b+9tCyNv/O2oLAwGAxWsWY6f/1ZjJlxF2GbLhowGAwGK4NpYTA/TTPDFmEQDRgMBtuOZjp//VmMmXEXYRANGAwG2wmmhcH8NM0MW4RBNGAwGGw7mun8vZ8bMR1vkQbRgMFgsJ1gWhhyfZbIIBowGAy2HSyf0+fPYozjKIFBNGAwGOxRNi0IQZ+m6fBFGkQDBoPBtqOZzl9/FmNm3EUYRAMGg8F2gmlhMD9NM8MWYVI0CAAAALAAogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALCmbKLx5vRD+u2Ty/TYCzes7fOty/QDcdyjxxR17Wqg4SX108vlTqp6boiS6udGSSYarOORYU9NqV8FsjRETWH5AQBULGUTjf98/FagMOSzX/rTG/STxU9VLFvIwiDV76qlvivqdygQDQBAZVA20dAiUAjP9a/IY36rbZnS62rjFjHbXUux2lqKnLhAabUtNxANAEBlsK1E4+6Dn9NvfNWpoRx//a7augWsz1BfbZwSl0fo8K5WGl9T2zOkaLa3gfbUVFNVNE4diV5qM51saoYGGoTg7Kqm3U+30nDv0RBnn6L5RCvV10apaleU9sRb6fx1tcuDVzTSV4eoI+6cJyLS23Em6+Vl2JODdL4lTrvFfplOYz+zeK6dmvR5G3ppekXtgGgAAHKwrUSDeXf+E/qXjc6x/H0rSL/dShHpnNM0eSJKh0fc7j51ppkiMSEm10UdJJ2k2b4G4bi1k03S+UNRqjsxRoty9wwlGoRjziEaqbNHRVydNKl2Lg6KuOKDtOj8dOESjZUxaquJUddFdeDCIDXVCKFbcH7KsLti1HF2SdTa0pS82El1u7L70xPtFNPnXRd5ECKYiRuiAQDIwbYTDaZtJCWP5VoH1z42F49QXOmmmMuJL9Hwc9VuIVmfyDZPSYfbSKPGbhIOOmdNYy1FKbMmoxz26C3128AlGkIIUitmw5mTrqYh5yxOTWNCfndI03hLNcW6Z8R3J2zHOeP4tQvUoc8L0QAA5GBbisannxHVdHwsj//S3+k2k00iOUKHa1ppUjty3VSl3tCd/ota6mPfm8Ho0+D+i9pumnV2OIT1aaynaDbTPFWtLNhhu0RDkDKap/SxTQnnQBnW06exOLhPbeP0Zo/Jmil8EA0AgJ9tLxp/3L+5ouE06/gdauy0VonSioY8n2wmUm/9IQ7bJRoynNM85QwaUDUNa9Hw5sEAogEAyMG2bp763LHNbp5aoEQ8Sl2X1U/NtX6KsxAYzrlUzVPTp7KOXnJ9kA7YiIZPiES69npEI2fzFOezmuoHMtUnBz1iDaIBAMjBtu4IH/9gkzvCZ7opVtNJ077hvsLJ1kWp422nNuDtCJ/u3hfSET5FfXtzd4TP98bEvl6aFTUN2WneyM1UFqJxtZfqRLiBGVHTWEvS7ECjHCXlEo2QjnCZh5oGSlxNOb9n+qnpaSGMnEWIBgAgB9tKNLZ6yO3s6dz/y5jvq6OqI2NqXwmH3K4vZYbFRmobqO/soIirjhLX1H4Dl2gIFs+0Un1UpKGmlppOj1HiSDXF+xxVcGoa7iG3XefcKVgcyfalyHQqAYFoAABysa1EYzv9uQ8AAICfsomGrjEUattmGhEAAAA+yiYaPGHhbxU4YeFvti7TyJVHccJCAACoDMomGgAAAHYeEA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAC7Sn3xCd1bu0tKNZVr4cJE+uPYhzX4wD6sg43vO957LAJcFLhMAaCAaQLJ6N0U/u75E1+Z/RjdvfSx+36OHD9O0/tlnKgSoFPie873nMsBlgcsElw0uIwBANCqc1L378q3y+uJNuie+AxAElw0uI1xWuMyAygWiUcHwW+T8hx9BLIA1XFa4zHDZAZUJRKMC+fTTddncgAcfbBQuO1yGuCyBygKiUWHwQ85NDMnbK2oLABuDyxCXJQhHZQHRqDD47RCCAUoFlyUuU6BygGhUENykgCYpUGpQrioLiEaFwCNeuAMTgHLAZQujqioDiEaFwG3PGCUFygWXLS5jYOcD0agA+E9ZPMYegHLCZQx/ANz5QDQqAO6oLGcto298jQ6+sko/u41/j1cyXMbQKb7zgWjscHjeIJ4Gohz8/OdEjYOr9NgLN6T9p2O36KcfFzr8MkXziVaqr41S1a5q2v14I/VNJNU+UDxLNPxcNVWdmnJ+znRT3a4oHT9TnmvMZQ1zVe1sIBo7HJ5wrhwjW1gwDry8khEMbXv/9o4KYUfqTDNFhBOrPzlE4xfHKHGsTvyOUc9UWoXY7kxRlxC7psR2fcP2ikYvxWui1HZWicblTiHWDTRcouRzWeMyB3YuEI0dDs9UyhPPlRJTMP7Nn910icZfny+sGWz6lHBoewcp24WapNmzU7T4qGjGoyYaXkosGlzWuMyBnQtEY4fDI1p4xtJSwYLxx991BCMx+YD+YS5Nv9DoCMaLr66qUPYsDsSF04pRx9klSvtatoIcnsdJr6dour+Z6qMinKix7Im3Ut/JfeJ7J007IcRFGKOuhlpRgxFhojE63NtNbS5HH95Elr46RB1x4/jTE5TktEqHy+fVFux8kxPddPhxJ27X8QIpms/10mhvA+2p4ThEratliOZz9Sen5mi4JZ4JW/d8N03eUvuYFWf/bnmuOHUkpmi0RXzX13BpiJrEvq7L6tyZtAt7bkhIdnFwWcMoqp0NRGOHw2sjlGp683URjRaMgUtrctvQ1AMpGhsRDMl6ksZPcpOUcFrsUNtHaDbzh/X8ojHbHZPO80C707w1LARDxqVFIzlGx4WDjTzZTAMjEzQ50kuHY46T1HEsJhooUlNHXSNzlFxZotnEUarLNJHNUF9tNcVaRmh+KUWLl3upqXYfDUwJr56co8mL/XRYxBUX6Z68KGpIzmXJsjJBXU/WUduA2Lcijr/YSfUiPXXdM3K3dtyRve00fHZCiEejOHc11Q8syP0u1sX1aIiKvLTT6NwSpZZmaPiIyH9M5JXPuy7SynmL7qOuxBhNnh2irr0iPAtMgGik5sT16GsU5xd5Hxbfp4RwO6E2DJc1LnNg5wLR2OHwojql4FMhGH/07Ts+wdhoDcMHO+BEu3DI4o1cOPCey/yqnUc01i5Qh3CI9X2mg03R5MnajGjImkxNK42bb+7XB6XjlHGsi/hEHPHeObWTSdM4v523XBDfFigRF069oZemF1IBtSHL5ql0ilJCNFLCK0+eFHGrt3pHNI4a6UvR+UNiW0PAW7+o2USEgx+4qn4zfA3E+TvOpSn9dqvYH6fENbWPYSERohckGpISN08xpSpzYHsC0djhlOIBZsH4w//tCMbfXnQEY/ByiQRjXTg78/WW36ZZKKTTzCMaXgeoSIqagxYNp/nH64D9cbiaabTp41JzNHq6mQ48yU1U3uajPKIh8jN6SDVtSVNv/qZoeNIXnGadLx2P2/j8Zr5NZHwQDVAiIBo7nGKbpz4Rb9a5BOP57xVbw3DegiPyjT5L9k1ciYa5Pzkim4Okk1Zv2WE1jfm+uvCahqqtHB5xu+jktTlKqVpF8vIYzerd6RkaqBNp7tRCFi4aySF25A3i7V/lYF3UJLgWswHRcGoSjTRq7lhP0vycs2E71DTQPLXzgWjscIrpCGfB+MLf3JYC0fMjZ1RU/ztrGcHgTvFiYafKb+/xQ700enFCvNHvk524Wghmu1kAuPN6hCbPDlLbk06HsnbS3j4NZ8iucJI5+zS66YDsNM/GMT/A/SBGv0g7pyFKTUNif8oRlciTRylxdoLGE+2yTyKm+iRYNHp4/95Okf4RmjYdtoCHFDsd/QuUWlmi+ZF2iovwGxENWl+gxF6Rf7PPYh835zXQKGdF92nUuPs0ZG0kl2hMcZOXqD11ius7MmWMYtsY6Ajf+UA0djjFDLn9kwHnj3vlEgxN8mJ2dFGklkf8ZN/y9WghZzSQIx4DovaRebP3jJ7ipqPxXk8zjTF6KlLbQH0TI57aQUo6c9mfosJ0CSefwRx9VVNLTe1jtGj0baTeFkKizt93RW3UiJrA5OnsyKi653up74j4vhHRYLiprD0b356Gdho3K1rm6CmR1voWHhwgvucSDXGWyXZ9fbt9TVuFgiG3Ox+Ixg6nmD/3PX46Sb/3Dcd19V64XxbBKJr0Es1edbvX2dOidlLXT7plPTU3Q4tm85Rq4uLOY1Ba8Oe+nQ9EY4dTzDQiLBq/evgm1f5lUgrG/r9b2V6CQWma7lTNU6d5yKunaYnhN2tuPlLNSzzk9jg3celhqqCkYBqRnQ9EowLY6ISFR4buSuFgO/z9u/TZthIMhW6eMpuWRuZcHeuyeen5mNMEIwSlvrnX/Yc4UBIwYWFlANGoADA1OtgMMDV6ZQDRqBB4REs5p0cHlQ2XLYyaqgwgGhUClnsF5QTLvVYOEI0Kgke2lGOadFDZoFxVFhCNCoM7KpO3MzMCAlAUXJbQ+V1ZQDQqjE8/XZdtzxAOUCxchrgscZkClQNEowLhh5zfDtGkADYKlx0uQxCMygOiUcHwg88dmBhVBWzhssJlBi8clQtEo8LhES/cxMBj7CEeIBdcNriMcFnBKKnKBqIBJPynLG5u4Gkg+C2SJ57jGUtLteofeHTge873nssAlwUuE1w28Mc9wEA0gAueN4gnnOOZSvmtktdG4EV1YJVjfM/53nMZ4LKAuaSACUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZI0Qha8hEGg8FgMK+hpgEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAmtXUPfr/i+Z5e1lwI7oAAAAASUVORK5CYII=</x:t>
+    <x:t>1,143</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       Lecture Hall 2, GB Pant Exit Gate, Atlanta Point, Port Blair, Andaman and Nicobar Islands 744104      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAD9ISURBVHhe7Z2Pcxvneefv78j1rr1e03bmMnOZa3rtZdgbBrzhCJ2OkHqMxGM2GuNOEzFyoZ4VsnKoKrLCUpY8LJmwZMLjndkwYc2aMRzWHDMWLUaMVdF0FSI5MehJoC2TEU3KkmFTgkQJNp3nnufdd4F3FwtgSRAgRX4/M88Au++777777rvP9/2Fxb8ioFmm0YN11Bxb1tua1fPUURuigQR/X1ugWCRIjb1xSq/xdmqausN11DiwoKLS8gg119ZRw8kxml9OU0biFEo3S5y6+Zjui3qTSSf6qbk+SuP6kFQsSjUHRyiltuZoKByk5uEFK/0VyUOQOl7LqFBnXCvtQLSfZhfSlLaiFCTzWhsF1LEZmjkZpKNjVio2s511VMP5iiV4/1qG5of4XKFeSqrQFE0eCfK1T9ASnyeTSlAsGszlZWWCTtWHqfuCTnNhmK8xQjFddCrfOu0Mp7002kKB+iDtbRqkpByyOkejnF64V24EUyK94nl1kj57nALhLprRSS0NRykQGaYla7N4WmsJGpD7wRVE6kRmYYI6uE7UdMbVsW7s+zN/jsu6voUm9TmtuhOlUX3P1Tl1Gpl4FzXw+Uev6nt8to2322hmVbbSNNXK5X6M65wEZxZUOQVaz/NdFOw64CzHwEkd7ue+1IapY2yOUitWig4udnF4F83qTUdZrqVopjNMNU1jnMvctVtnKl6Pc8+SXZ/OU3eojk6ckZT4PGe4foTbaGpRBVJygO+ZUX7z/WG+5mFHmYR7dN0pBl9/Y7Zsc0jeVZm6rtemVHghPyD3+dCwc9/MaVe8Vb6HIb4nV0v5kspzK32HIBpZPG4IV/pkvzgIrgRSibhCBMRZKDHQXOqlcD2Hyz5V0bkiOyqcP9GocViITp21vYnrYWOnlV6xBclCKl6gy3IwzgdT0m7gyqY2SuASCrkuw3EKcp6ILZCCdnTjN+zvTTSeyzbRdLsr36bT0eUyYh2g8n16Wn1XrLET4bLoNnbll0Ph9Irm1c0qC6p5z1xxi6blUSeWhg+UFI2UdvZZ567TzBeNDMdznZ+Pnh3sokm5r17lnhqjo9m0pA4coNFFFWJxdZAitSxYK/zdz33JCpAHLiep4h+byMVPzdHMhbl80ShRj63rcj5LuXArj45GjaovzvKL9M9ZG0xmMU4z8eXC16GwnoHGIbOsmdQEnQhqgfcShVLhCm8/IPkstS/ZG6YG1VjyTqOaQDQcWDfE6by5pRtpo3FdhzwfIG6pnbArq6ro7gpT6kZbomH2NFRrNRSmvrh1JsfDJixP08ATYdpj5lU7KWdcSTv3IBVFHI3ZwpIWtLRujOcnr4Kbjk4eFndLXvYZ+U5fHqGOSIhbhLl82+mpfDscbX65uMuhWHpF8+pmLU3JWBs1hrhnlE3L6YAKpaXydGRCOUWb/GvJ4bgGcTbcm+o4x0e78ifntNKw6o8png6kjBsGaV5vWsi9s8vOow64HOz67osLt5Nc5p7LI0Has6+FugfHKCk9AY37/hWrx17PUq5M5Jp07z+L8zoziUE6FOTnN9pGQ7Fpms+etAhKbF0CrMW92e4N5IlCqXCbDYoGC3xjqJ1mVAWDaGwzSt8QVendonHDeNg9KnrpdPOdo5DsDWXP5XjYVFdVKulctpWWe5jcD6aHwyiAOs58eLWZXfq8Cm46OnlYiomGimsNg1j5dpaLOr/DOeWXi+PaSqRXNK8uVLpqSEXfWVfcYmmpYzcqGowaZhGnwI7bfU4rDeu61icaceqr9yka674vLrycJPcilhITNNrTQo3suBv7E+uux1a+Ni4airUUzcfHKNYapb31Ye69m4H5SIs+O2ynkeGmcNjoSbqut1R4Dm8/INdUeHhKjgnSiTN2bfFOo5pANBz4uCFcIUoPT7krTKl0852jUFA0PM4hlcx+2JxOyeNB8sSaq3HnQQ1jGNdbzHla34sMT8nDZDhLVS77c+nlO6f8cnFcW4n0iubVRV7cxWE6ZMQtmpZHnfA3PGWzTOMy3n4wShHXOa00vIan0rQU161nr3Jfz/DUuu+LCzk+Wx9ZLDhfs0bvQj0fOtxx7SrfheuxV3iuTKxnqvDwFIvFBWfvIj3W5LpOFzJ3aczlWKT43vA5dQPKbd0XS4XrZBTefmB+oMHVELXKv+Mc74lz3fJIV1mxa6kgEA0H3jfVgZ4Ityc9KRWngX3uiXBnRRfkYQh3xSmTMdswNi7nyK20FHetm+tzLQzHw6YmLkPUcWaBMqv8kJ5tpwi3Ku2HzemUXKJxdYL6uiYc8xSKhCF8Dvh6G3KTk8UdsXsinMtmvzERfrmfGjjukEx0r6YoOdSkhiUKO6cSolEiveJ5dSKTpjUH+ynJPQ01gd8kw1S5uEXTck+Ez43RKR8T4db90Uh6cg9d57TT8DURrstdJn3Hj4T8T4Sv+764cIiGbq3LufR8iVo0EO5XPSHHtZeox17Pklkm7onw2d4DxkR4ri6mpE5zj2PqNJfJMWeP0ETlTU/YF8V1vXkUDC/gX2TiXcr/snVm571148NHVRiIhgOfN2QlTkP2OGwwQicG9UoqwaOiC9b4KscXx6z35bAearMVEQhFqCPG3XYdw+1oMpf6qVmNv3PXv3WExrtyrRVnXJdoSIX2yEOyhx8oV7fcRrWE9MRmSUecTtBQ1Bob37OvjUb7jzvyvXSmjRpVOYSouWeCYsdyLeh851RCNJhi6a1HNGhtmSZbI+qeBkJRGjg7TKeMBQQl01qcoI591v3YG+2l0a719DQslni/ufrHdJBCaro3e8/3RttpymwRc2NmnPO/V5yulEU7C0i2AWDVgaGxXJ3Ze2SY5g3vuL774sLtJGXFVE8TNUh6dl51L8d97cXqcSnRELGURSrqmvk57Ij18z0z6yKLo10mkn4LC1khRVDzd8bKrWJstmgwuXurnxstIPlANECVUV101/g7AAD4BaKxq+Au+7EW59g2AACsA4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvqiYa9z8i+mH8Hh16boX+W/t79O+/9i797tF31XfZN/Kze/Thmo4MAABgW1IV0Zj4fxn6/b++QZ/46vWi9odtN2nyckYfBQAAYLtRcdHoGL+TFYXPfOMGfeOl2zT15oe0svorZRfezKh9EmbH++ard/TRAAAAthMVFY1Odv4iAr/1tXfp5Uv36Ve/0gEeSJjEkbhyzLfOblfhiNP8pz9J83G9WVXk3Ptp8breBACAKlMx0fjJlYxy/r/xl9fpF+98pPfmsHsVbmY5rhwjYZLGVnD38jC9HfksXWFxuPLZz9Jc2zC9f1cHPsCikbk8Qh2REAVq66imPkTN7WM0n9aB24m1NM32N1FDkPNZG6S9kTYavewjo6tx6gvzMZ3mzVmm0YOSjtO6L+rgLAsUi9RRuCeht3OkYlGVj47XvOvj0lCkQJre587awRFK6ZgAPChURDRk0vv39HDTwNSq3uukkGgI3+NjJEzSuPeh3lklMpc6KPnpPfT25DW6xz4ic/saXT+1h678xTCtqIn6B1Q0Er3UUBumU7EEpVbSlF5O0OixMAX2D9P8NluAkB5roppwF82IR13L0PxwlAKhXkqWyGeyN2w5Y4dosBg0hKhvmq9Zrltbxp0Wl084FKJwfRvNuKqsJRqcbtMY5UuXJTYSni8aTmY73XkD4MGjIqLxg5/eU07/M6036OMCQ1LFREOOsSfOX+C0qsc1uvalT9Lc0Jv0sd6jyEzS1U9/SgtFvmjcvTRIV7/0e1bP5EuH6Vrivg4R7tPN7z5OyVoO+/TvUfLws3Tztg4S7ibo2tEvWMfWfoHe/tE1yvXL5Nj93NvRYSPPcj42IhopGm+qo8aBBb2tWUvQQKiOTpyxXKFyjqeHabI1QnvESQYj1H3O2RbO8LWe2BdUTnLPvjYat5NcHqHm2naajPdTc0jCg9TYOkFLWeecpqTRe2h4op9mV3SQizznmp6gU7VRGl2WDc5zMEinzrrc99VBamSh6Wt1O+Y4dWePLUyyJ0SNQ3FVTh3nnD0KVS5NTXS0NkIxVxHSJREbDtu/MdFQaefl15nW0rn2bJnujRYut3JZXV1VVgq/8cDOpCKiceB7K8rhF5uXKCYaghwr4Y2cVtW4fYadcoiuva23s9ynlUuv0813RAycovHx24M099kv0EL8lnL2d15/mnsqX8imcXeiha58/ml69wPeWLtF73Zyr6X5JVIls3aNFh//FL0Ve1O1fDPv8Pn/+HOctiU6d8YP87FP0XU+70eZG5QaYgHZiGisTNCJ2gaKXdXbBsneEAvFtPquHFh9lGKJFOcnQ0tn27h3YjjKxWFq5vDRq+xUJfxMGzvMLpoV/6FEo44aTrJQSA8tdZ66DUFKnz1OgWzvIUUzndwr8Gy587GvteXiMkvS0wjbPY00zV+YoOQNFaSRYaAgO/t0vmNW+YrQoag1LBcIRWlg2jUotHqeOuS6WFjUuV35shz7eZo5GaSIQ3gzal/j0Hk1DFUJ0chMt1PYKLdkP8ev0LDWd77zHers7CwqCBImccTA7qQiolHz9E3l8C9dy5/LsCklGrOLH6lwSatqXB+muZJO2SkaNzo/Rcm+hKNncrPvc3SFHYHsuz3Cjv74JGX7Sx+8Se++/qYSjY/jT9OVRwfpfStE8f5QiK70SOI3WFA+SW/96JYVIKy9Tm9vRDSU4/RubSunpZ2Q+q4FxMLqodiOcrbT7TRl6CdIfZJddY42MkcjxUkGuqyCUmkfm2A3q0nN0cyFOU/REJK9Dao3o+xPWmiySE8hfaaF9hyZUGnli8Y0DbS202himdIry5QcYAFy9RgcQqF6X85wlXdJX/UqjGGy1Bj3PppoPGXNXWy+aFjpOno+InB8L8cdork5vPPOO3Ts2LGCwmELRnNzM128WOJiwY6lIqLxm09agnD7XuHlUqVEQ46VcEmraqxbNCzHfvWfzOEo7l1ID+HxYVKjUNe59/DFT6lhq7eHX6IU9xpsgVGCIsNSblNORM7zOVq4bMW1kH0F8rcwTIeCB2jU9Ok26xENl1NbGj6g9xWe1FUOTp2Dex3qKAuHk1yeoFOPBGnPvhbqHhyj5KJzCMhERCDXK9FzGtmehou07iUsWptejtmJUwitbecktzVUlSvIXBnJ/EUurtqvxKZSomF9zy9z73u5GRQSDggGsKmIaMivvf2Khgw/3bmfH88WDVmCWzUKDk9xa/T2LTUx7kc00qMsBrZoCGv3aSUxSYs9h2mu9lM0992EanEr0XjyDGUXZjnYRNFYz/CUy6nND3CLX+2zHKM93JRHKdEQZEgrMUGjPS3UGAxSY79VDk7YiUfd55EeDTtSsxOkyPA5QtTQm1vxVFo03GIm+badsWFGjyInGnxvZZJeCYUpIHHqq6+UaIRoIH9BV0VxCwcEA5hURDT+y0lreEqGmAoxEr9Hv91iiYtMev/sl85lUrL0VsKqOjxlT4QPX9PbmiIT4cWHp8y5EIuPE9+m5KefZrnhZF9/iq589il61/Sc7KistDZxeEq3rvMnwq2VP46JcIcDy9BUq90qz6jx+8DJ805Hb7f+i4oGi0V8muuDcaQM9bjiW3gMyWjRcE9Q040CDl+Zlfb8UJQi/9v0uuY1WctlAy5Hbp2PnfUla8sUDWt4KEKxmDlUZTr6whQUDceQoJmWdX/MXo/Cq8e1yZjCAcEAJhURja9835oI7yrxA72llY9pb1dKxf21puv0zI/StKa9rxwr+78yWMWJcOZe/GlKfvYLNP/6NbrPD2epJbfWRPh+upbQE+Hxb9OcMRGeelaOHaSUdDu4x/HBMPcuPv+s5YDWErTw+U9S8tQk3ea0P87IuUL0lh6wdk+E33hWVlltRDSYAktua4xhH+XA9ES4kL7QxccYQyE6jY6z1o7M4gR1PNJCkxK9RE9DlsMGooOUlNspQ07szGvC/TSvQp2o3z0c7KekpGtPyNfr83AbP38iPEeeY5Y825P3jHVN9pyFzF8EPZ299LBsgXSIhhZPEaacM9+4aNDFLgrwtY2LoGZSes4ll5YaqpN7on+nkk4MUvM+vmcu/awEtnBAMIBJRUTDXHL7kdkE90CW1/b8+A792+brtKfzPfUbDzlGjpU0qrvk1kItobV/3Fe7h97qfKnoj/vuXnqW3vq8seT20q1cz2PtBr3bZy+5/RQLyNMsAjqM+fh2nBYOs7DIsZ/9LL3V9zqlsy3JzVpya1Hqx33KOR7rp9HsktsDeSuN0vF+OvqQ5TQdK5FKDU/Jiqke4wd70Xaa0vMQeRT9cV+BJbcaz9b8dK9eslpHex5qoqG4PlZ6Ox6/y1BcHaRI7XGa4qhO0WBUL0kmwPV2OaLBIpjsP6DLO0xH+3vplCutpbE2arTzv8/nDx03CREOCAYwqYhoiOO33yVV6Md9bmQ4KnXHmtuQY+RY+XGfpAWqg3KOeU4NAAByVEQ0BHlbrTh+eSVIsaW3biTuVr9GZLcC0QAAlKJioiHI22rF+csKqB/Nln5hocTZ/i8s3LlANAAApaioaAjuV6OfeOk2vf7Wh2ooSszr1ehyDAAAgO1HxUVD8PsnTBIHf8IEAADbl6qIhiAT2vLbDPvvXn/naP7fvWLSGwAAtjdVEw0AAAAPPhANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvtkS0Xjx4ocU/tZdZfIdAADAg0HVRWP22scUaLvjMNkHAABg+1N10Rie/jBPNGQfAACA7Q96GuCBYrazjmo643qrOJmFOM0upPXW1pKKRX3ne+ewTKMH66j7ot7cEGlaisdpaTNu4/IINdd20azeBBsDcxoOrEpeU99GM6t6l4MFikU43Kh4yhnUyj7bgrQ30kajl+1artN0xLFMHqbMuTYK1EdpfFlHV6Rp5nSIag4O09Ka3lWI1BgdrQ3RwCW9bZB5jdOuPU5T7gduNU59Yc5DQScWp253foNhOtozTalS+SmGemijNOq4VoOLXc5zclk2HDDLcn2iMdsTpMCxCS7NjWGVXxONp/SOMoBouLHCAtERchevKquD9v4EDQSDdOrsJqgGRGNT2BLR2L7kHPzRMQ9PsTBMjcqZuUQjW8GZDLeMzrZRQ22EYldlh5Vmc6yQp0zTVCs7tyM555aJdxnHlyLDx/PDl+eQMjRzktM9eZ6/OUn2hi2nXEI0zIc9s5ygWJTTa81Pzze+RMN4qFeXKdnP5RvqpaQWq/WIRnmkafJIHYVDIWocWtD7Ng5Ew439rAWpecRZIfKeqc0CorEpQDQcWBX5aFMT1US4la/32iR7QhTmsEPFRENhOfJwb4K/lxINJjVBJ+qD1HGOZWONW1bcC2gc8HBUBSq9ahHX836zF7B6njo4zbwH9uogNYa7qI/ztx7RUPCxkdoWmlyxNtPxQTqxL6gEaM++FopdyrUGVbmcHqbxIyFurXfRBdlWgmuZZ3m4RUNwCY1bNDKXR6gjIudg4QxFqONMLl1HXJVOO42OtNDe+kKOzEB6cNzjnJrupXDDIM3r3RZSPlGKXRijDnX93LuM9lPSbAwvThhhvTTadcDId5rmY23UGNLh3DOdXNRBjOS7uX+MhqL2dUVpiMt26QwfE5TyC1Jj64TRCy2Wno+8mqylaKaniRr0eRqeMOOWTiubx/oQNfcMU9/+4qIRiUS47nKdMh4g5zPlrov6WnX+pGxnbuggYSVOsZYI7ZF6FozQicFErpFj14ENlaN9X0ZoQK69EqL2gADRcKBbRufE4TY4W/rKCXPr/zWn494U0WBSI1F2Du0U641QTTjXsnZQqKW0xg+WSyBk2MtsoVtIXixxKt5idz+oGlM0RHzqD9DARevK0xecvSNVLrVh6hibo9SKfmxdApCHWzTYgUlPwxzCcOR7ZYJO1Yep+4IO5Z5gs9wjrbf5olFHDSfHaH45TRmv8jVYGmJnpo6VIUn38J9VPoHoICXl1KtzFON7bN1vRgk/t6AHEpTm82QWWECM4cD02eMUYOGe0dleGuZrNBopKt9hFqwFLjcug1mpE0F2cCfZwfGuTGqaujm9E2csb108vRJ5dTHfH+a4wzQvt2wtTTOdvJ3trZZIK9FLDfUsKgkOXMvoHndx0WiOzeX1tIuJhnpO7Gvl/CUHjGtdk3vF5dQbV+VOupyyDbBsHXCWo92T9HVf+PoGLi5QOm2VyG4EouHAqsgnzrCzkl5FT+7BSo9x76NpjNIux+0lGulEP8cJcUWXimWlabaylbkd9podL0x98QIVspBoMJLf3MNtilaO9JkW2qMfznWLRmaZJltlnsW61tnOoKN8BJUHnaYqF/dQli/RMMpI7E+OO1qhjnyzY0rbgqTQjmjEOiBfNNgRe85VuXEKhdx75zCflI+zUaGu1xY3vo6AS7CXho2exmqa0mY+dLmM6xaz5PvQsFFIi8Pcuz1Ao65Wr7/0SuTVRSbNaZlFKvdEerFqo3ha+XWC70eJnoZqTKWtXrHqaTPOZ8qsi3xfGuo4npHBtTma7BqmWWnIeJQ7XeKeot0LV+XSTjNGeLZxJRs+7kvEawRgl7HpovGz+TUamvpQfRbizv1f0Wj8Q2XyvRCyqkqW41ZvdZVRkWX+Ijshbu1X8xyqIrlEw+Xo1DDJmF25jDSLoVpJcjyLzbTR39cPjfscykyx4lZe2M4vt8BPSKvfrN/qwWSHrR2Pw+nk4XVOa6hCPZz6mhwPLyOiZOdJlYs7ff0Q+u9pcGv1TBuFufU3qx9md77TxvCUnVe7rB1xXfetKOJozOFJPVSVWxwh5eO8DtPRqe9Gy1lwlIe0kLPDIHa+c+lJvh31xaPcHNdWNL3iec2DGy+54Snb7HIrlpZVJ+zej4W1r6RoMFJ3AjIcyIc782fVRSsN+e4UTxN1nLuhop4FnWevOqAEWe9b733ZpWyqaPzA9RsM2XYjItHQczcb58++veopHLKqqs5IqzqrrMyKnKLxJi0UpoDEuTVjVLyiD6DC+XAUQrrCNewcR9XEL7eGjGcvs8ItILHLg1zB+cGytx1NQmmFcWvtNW59i/M2nR4/RrOdIWoweh5u5+vEfFC9sK7JLRoydOBwnO701ysaigQNhHLnyhcCa3jKGm5ylnV+XHfa3kiLOec0cpZbHFHcEavvRURDfVfDILr8XOWS55w8ys28tuLpFc+rE6ueqOEpWyAd96RYWlbZb1Q0OCWaPMI9ldPTNO/In1kX5fs6ReOGURZedcAQjXXfl13KporGw9/KiYGYbLuR3oUZR0z2uZHluGYc2a48zoqsuq6RQRo1h6pcjq3wA2jjfjg84IqrhrOkh6F7HA1dcWflF7wqvYEahz85QqNHXKu/1IOT7wQt80rPfFC98TU8ZTtsGw/n52C9oiHxHWXPZb0/V9YbEg01d5WfR1UXZHhSbZVwxJyvYsNTec5HOa4izsmj3MxrK55eibw68HDy0+3GPSme1oaHp2zkOmUC/WCDkT+zLnoNT6UoeSFOSyJyHuW+nuGpdd+XXcqmisYXupyOXrbdPEiiYTkQcazGUM+mi8YyjbuXssqEIregB5w+WVf6Io5PhUt+S/+2wHQ6+ZQWDWsiXE96MumLvdTongh3p782zemG1JxNJk8RGbdoZNghyESnsbrGke/L/VxOURriPGRWOe5Qk1o1Y5e1I66r7JbOdFHfmfzxaXOIzYHUhWw9KOGI3RPhc2N0ypgIl8nmmoP9lOQWbSaVoFiT9GyKOCeVd+f5zGsrnt56RCNNk8fY8cuKolVOa2GCuh+RtOxyK5GWayJ8fuy4j4lwIzFGTXRLHc7mz1kX/UyE2+VOqTgN7PM/Eb7u+7JL2VTR+MeffuRw9LLtRoaiZEjKjlNseMpMq/rDUxbSes61MJlNFo0lPt695JCrM812cQV2r6JaXabZC3OOYQ8n1pBaXhfdA4dDzcOHaDDpeD8dfcgaylFLbuO5nHmKBucqOXBAOfYA96TyUGXL+cqateyx2I/7nEs8Jyh2LDdZ6YjrEg0Jy8+DVX7ev8uwFhdE+uf4uw9HXGzJ7ZosKrCWhcpy2oGzw3TKmGDOc04lRKN4eusRDSadyC713bOPy360iyLZBQSl01rvktu850IWhHAjqpBoiLCZS24bWwb1PJtmJU5DT4SNJbd6JZWgytG15Lb9fO4Hq+u9L7uUTZ8I/5d3PqbYP3+oPgshIiG9CzEvwbCp/kQ42B1Y4uAcfwcA+GHTRQOAbU9qgk4dGSn9ihYAQB4QDQAAAL6BaAAAAPANRAMAAIBvtkQ0ZCWULKEVq86qKAAAAJtB1UVDVkKZS2nFsDoKAAAeDKouGvi7VwAAeHBBTwMAAIBvMKexYfz9anqjeP+iGgAAtpYtEY3tS/FXfjiBaAAAdh8QDQcQDQAAKAZEw0G+aGQuGS/le6iJhrIv5SvwIrWN/k9z0f+ULpYPAACoHhANBy7RcP0HtfU/2PZrx52iUdb/NJf4T+ni+QAAgOoB0XDgEg31KuXj6i8oLVI0f2Ga5j1Eo6z/afb48xjHf0oXzQcAAFQPiIYD9/DUMk0+1UABeS9/+yCNJ5b134oKLtEo43+a1fdi/yldNB8AAFA9IBoOvCfCM4sJmor10ol9QQrs76dk9g9pcqKhnPwG/6e5tGhYeOcDAACqB0TDgVM0Motxmolzq15tMTL3ELKFwikaef/qtZ7/aS4xPFU8HwAAUD0gGg5cPQ37P4/1341mrg5z7yFMQ5dlyykaZf1Pc4n/lC6eDwAAqB4QDQf5w1Op6d7sUlf53+Duc3aYUzTK/p/mEktuC+cDAACqB0QDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+qYpoDF+8R7/7VzfoE1+97sv+oO0m/Wj2nj4aAADAdqEqoiEi4CUOxUxEBgAAwPaiKqJhC4Ff1hsfAABAdaiqaKzXAAAAbC8gGlvKMo0erKPui3pzVxCn7toojS7rTQDAAwWGp9yk52i0NUJ76+uopjZIeyMtFIundeBmU0w0rLDm2E7zrhANAB5kqiIa62XrRGOZxqNBajg5QUvpDNFahlKJQWquD1NfnLc3HYgGAODBoiqi8Tfjd+hvztzRW6XZMtG4MULNtQdodFFva5I9Iao5Pa23iJbOtVNzKGj1RKL9NLuiA5bl+HaajPdnwxtbWYDWdDizdKaNGoPci6kPUXPPMPXt9xANlY70dLQdHKGUDlo6a567naZcebWwBKdxaEFvM1cHKVLbROM6oWLpzHa6xErlx3b0ltMfivWq68gXNR0+liuDvUeGaT7bWbPCYxfGqGNfrgyTZmduJU6xlgjtkWsPRujEYIKyku2jjDOXBumESruO9uxro3GjGAAA5VFx0fjFOx9mRcCvcGyZaKwlaCDEjrB/jtKGEzLJTLdTONxFM+J811KU7I/mnLp29qqnwl4ukzpP3ZzeiTPaIyZ6qaGeHWaCY3MvZulsGzVwfL89jcy5NgqEj9P4VasXND8cpUB9G015jJ6lYka+7O2mMZKopdIpLRp1FBCxXEiTdMicWOGqDFZ5M5WgGPfeAifPa8dvHz9IScnc6hzF+DrDvQkVSmsLFIuwEPTGrXuQmqbuMAvggPb8pcp4cZh7hpxXfW0i0uFQF81KXgAAZVOVnsY//PPquoRjy0SDyVweoVOPcCtVWrjtgzQ1Z7tdwXLkHecMT7l6njrYoY7Lz0qUQ2PnazgoccCBrrj+HqRwj3aOCk7Pq6ehcIuGtX10zMxPisabvFr7TGqMjmYdvRXPOrZ0OqVFo4FiV1WIBxLu6q1d6qVwtlzyj1eCFtUCd7GLAqFeSpqiLcfXs+OXfT7KOGILjIJFqCFIfVYwAKBMKiIattMvZKWEw463ZUgLNTFGsdaomhDfc8AePrFaydlho6xph6ocGjs3iaoRh1bTKR7LctbZFrHC2udPNLyddbI3pNN3YwjFygSdyA5NlU6ntGjY373wCF/j3kKR481ekfreavdKNCr/+hgfZZx/fwqVMQBgvWyJaLS/YjrOfOx42wIZLmFHZA2fiMML0YDZWTDZAtGY7eJekadoEKXHmqjmyASlzrVlh6b8pLPpoqF7Y4WOLykaaq5JH7PuMgYAbCZVGZ6Sd0/5FQxhq0RDxvpr3EMjzNLwAT18IuPtrglmwY5f1KHJ9yoOTwm6h3HiSNA4rnQ6kudDw0aa5YqGmoQ3h6cKi4a/4alCZZyhmZPm/InGdT8BABun8hPhix+tSzCErRINWo1TXzhIjV3TxpLbETrF+5pHLC+XPtNCAZnMvmxdS1qW5O5jJydeqoRouCfC58eOF5kIJ5o5zT2crjhlMpYLtCaw2fkuWnmbH2lhZ8rbBYs1TZNH+PwuJ10qHeXEI700K158dYGmToaNNPyIRm6imjILNBplseQysK6ihGjoifBm7s5ZE+FxGtjnnggvUca1Yeo4a50gszhBHY+00KSpkQCADVOVnkb7mbRvwRC2TDSElTkab2+iBlkWy85vz0MHqCM252i5Lo21UaNa7mkt6RzVAlLSoTG+ltxqMixIh1TcXJq5c+ulsiWWk6ohKmMVlU3RdNaWafKpBgrw9QVCEerobadD6xKNA9Q33JtdEht5aiRvyW1B0RBW4jT0RNhYcqtXUgk+yjgd76ejD1n3JxCK0sA0FAOAzaIqorFetlQ0dhgyJFZw+KoilBIVAMCDTFVEY70iANHYBFbTlJ6T3yzkftBXHSAaAOxkqioa6zWwcdRqqPoGOnWm2t4bogHATgaiAQAAwDcYngIAAOCbqojG7x71///gtv3nv76pjwYAALBdqIpoyLunRAS8xMHLRGSe52MAAABsL6oiGgAAAHYGEA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3SjTu3b9PMBgMBnuA7d69/E/TzLhlGEQDBoPBtqOZzt/+LMfMtMswiAYMBoPtBLOFwfw0zYxbhkE0YDAYbDua6fzdnxsxO90yDaIBg8FgO8FsYSj0uUkG0YDBYLDtYKWcvnyWY5LGJhhEAwaDwR5kswXB69M0O36ZBtGAwWCw7Wim87c/yzEz7TIMogGDwWA7wWxhMD9NM+OWYVUXjTur9yl28TYFO2/SH7O9wN9ln1dcGAwG27VmOn/7sxwz0y7DqiYaN1buUc/ELfpM67t5/wku+7rP3lJxvI6FwWAwWAmzhcH8NM2MW4ZVXDTevH6P/urFD+iTLTmx+PRT71LXq7eUyXd7v8Q5ynHlGK+0YDAYbNeY6fzdnxsxO90yrWKiMTV3l/Z/9336taZcj+Lzf3uTRmbSjuEo+S77/rT7vWw8OeZ//F1KpWGmCYPBYLACZgtDoc9NsoqJhi0Av3nkOv3Fc+/TpV+WFoCfzd+lJ4bep3/Hx9jHe8XbWnuDvllbR9+c8grLt1tzb9DMXMozrGxbeIEO13bSjFeY2GKCXr+07B1WzEqlW45tNE8w2E63Uk5fPssxSWMTrOKisfyBd3gxk2O2UjRuXnqBnnlsLwVYHGrq99KXn3qBrrxnh69PNGa6ghRoeYVueoSt26Y6qcZ05iWc+zs/PEyBh/voikdYUaugaGw4TzAYzNtsQfD6NM2OX6ZVXDS8wgrZa5dzvZGtEo1bb3TSo7UP0zOvzNHN27z93hz9pPVhCjz+Ar19V+KsTzQ21dYpGhu2SvY0YDCYPzOdv/1Zjplpl2HbRjS+d+G2iv+Nl1bU9taIxhw9/1gdfbl/zrn/gx/TM7VBLRRu0UjRledb6ct7g+zQg7T3sVZ69aodxj2Ndu6ttL+hvr/z/ONUc/I5evWpx2iP9GKCj9EzLy/QzZk+Omwf/3gfzWZ7Na505Bht6vzKuZ+mV9/IHf/lp17R4qbP1/gCvWOnc/WVbA8qsJfP/ZLrOm3T6b74Ml9XUM7nka6+JstcZXJ3QV3j3no+VvXUXvLOU4n8i92aGaCvf0nC6mjPl1rp5blcWNHrKZIHGGxHmi0M5qdpZtwybFuIxj+8kc7GP/XyForGjVfo67WP0vOX3WG36e03ztPM1dv83ekgb75yjAIPd9Lry9b22889ToHHnqO39bF5olH/OD3/82W6dZfT/OGTFKhnoTg8QLNy/AcJevHxID3c/XMVP888exp19GgrO1rpFS3/mL65t46+/rI1h+IUjQR9/+EgHX5ujs/NcS8/R4fZmT47o9MyLS/d8/TNh1lMBy2nXEo0rvRJz+w5usLH3rs9Z11Tl3VN+aJROP/3rkoeH6cXL3O5S3mxiD28l69fDXkWv55ieYDBHggznb/9WY6ZaZdhWy4aL/40XzDE/B6/qaacGDupBY+wrLla1R+k6KY5b6PTeHnR2s7vaZzPxb3LzljSOq+37Thm78A0T9FopZ8Y55fzBTqN82XTknw/St+/ZMc1hTB3vDKV7ml63Wzxv9pKNXt7aJa/lxINycNjfYls+K2rb9DrbyzQLf6eLxqF8z/THqTHHL0+7gk+GqRvvyHfi19PsTzY+2CwHWW2MJifpplxy7CKicZvPmk5/fdvW5k9fyV/9dToz9LZJbmmYMgxsk/SMONX3DYiGndTNJsdnpKhHLFcGnmiUcTZZuOsSzSccw9558umdZtm+79Me7g1fvipPnpxMkE3Cw3XeKQrrf4/1/tKXcetnw/QnwdlqK2Vvv/8ebqie2Fi+aJRKP8L9GKjXZ5Os85T/HqK5QEGeyDMdP7uz42YnW6ZVjHR+P3WG8rxzy2v0lP/uKK+/+Cfc61aEYx/05wvGGLy4z7ZL2mY+ytuBYenuKDe4x6FDHW4HKRygmp4Sl+bS3i2j2hoW07QzEsD9Mzjeynw8DF61UsgyxQNZXeX6cobL9HzTz1Oe+sfprZXFtR+R558iEZ2qKqQFbueAnmAwXak2cJQ6HOTrGKi8Wd9KeX45d1SIgryXXoVY/83Ta9culNQMMTkGAmTNNxhlTU9Ea7H7rNWZCJcnNzh5w1npJzrNhQNdq6vS2s8G3eZXj7syrttKt0Sw1PmMJvjOthRTzpb9jdfOpzNh3/RuE2vtwYp0Ppj55CSnaei11M8D/Y+GGxbWSmnL5/lmKSxCVYx0fjbs7eU4z/wvffVti0cv/GX1+nX2QoJhljj999X4ZKGV3gl7RY75kfrv0zfntQTrCWW3MqEa01jH81yT+PW8s/p+cMyTFUh0VCCdJheXuRzSa9nXaLBvShubT9jt7bVpHOQW98ewqzSLTwRLuIVqH+SXpb5g9vLNNv/uFrBZIvGq81Bdew7Ul7c2v/JSe4F6N+q+BcN3v55j17+bOX5lqyW+uKT9KqIQdHrKZ4H+1ww2I4wWxC8Pk2z45dpFRMNe4hJehTvpKwM28JRTDAkrt0LeWuL3kF1840B+rr9477gw/Tk6ZcK/7hPL+2UJbSBvY/Ts688R23GENemisZ9PtexR1W+Dr+wvD7RYLtl/mgx+Bh9feDn3hPDKl3XktvTP7YcsIqTotm+L+tlw1w+fT18zcZ1vJegF+3lrnLskwPZZcTrEg22m2/00ZN/as0XqfI9n/s1edHrKZIHGOyBMNP525/lmJl2GVYx0RD7Yq/1Pqknf/BBdp+IRSHBEJO4cowc6xUOg8FgMA+zhcH8NM2MW4ZVVDTkXVIyFCU9h+m5O55xTHvjTWuuQ475+QJeVgiDwXaxmc7f/izHzLTLsIqKhtizr1mT2v/h2HWa/eWqZxyxX1xbVXEkbv95j98OwGAwGKyw2cJgfppmxi3DKi4aYi0xa8jpt1veVaun3OHyi3AJkzgS1x0Og8Fgu85M5+/+3IjZ6ZZpVRGN1XvOSfCvvfCBGrqa+Jc76m9f7f1PF5nrgMFgMFgRs4Wh0OcmWVVEw7ZXf3GH/uCvrR/9mSb7xmdLz3nAYDDYjrVSTl8+yzFJYxOsqqIhdvvuffre1G363DM3lcl32ecVFwaDwWAlzBYEr0/T7PhlWtVFAwaDwWA+zHT+9mc5ZqZdhkE0YDAYbCeYLQzmp2lm3DIMogGDwWDb0Uznb3+WY2baZRhEAwaDwXaC2cJgfppmxi3DIBowGAy2Hc10/u7PjZidbpkG0YDBYLCdYLYwFPrcJINowGAw2HawUk5fPssxSWMTDKIBg8FgD7LZguD1aZodv0yDaMBgMNh2NNP525/lmJl2GaZEgwAAAAAfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8E3FROOV2fv0X0/fpE989bpv+8O2m/QjPu7BI07dtVEaXdabbi52Uc3BEUrpzY2SikV9p6Pidsb11jpZHqHmYtcDANi1VEw0/tOJG57CUMp+/S+v078sfaRT2UIWhqmxNkQDl/R2USAaAIDdQcVEwxaB9XBwcEUd80enblJmTe/cIpK9IQqHQhQ4eZ4yel9hIBoAgN3BthKN2/d+RZ/5htVDOfHSbb13C1hL0EAoQrGLY3S0to2mVvX+LGlK9kdpb30d1QQj1BHrp1Omk00naCjKglNbR3v2tdFo//Eizj5N87E2agwFqaY2SHsjbTS5qINcuEUjc3mEOiLWeQKc344zOS+v4p4epsnWCO3hcJVPI1xYOtdOzfZ5o/00u6IDIBoAgAJsK9EQfjr/If3rJutY+b4VZF5ro4ByzhmaORmko2NOd58+00KBMIvJIvdBMilKDkTZcdtONkWTR4LUcHKCllRwgmJRdswFRCN99jin1UUzOnBpmNOKDNOStenAIRorE3SqPkzdF/SBC8PUXM9Ct2Btqri1Yeo4u8y9tgylLnRRQ20uPDPdTmH7vGt8DSyC2bQhGgCAAmw70RBOjaXVsdLrkN5HdXEJxaVeCjuc+DKNHqxzCsnadG54SjncJho3gokddMGexmqa0mZPRjvs8Rt628AhGiwE6RVz4MzKV/OIdRarpzGtvltkaKq1jsK9Cf5uxe04Zxy/ep467PNCNAAABdiWovHRx0T1He+p4//87+0xkyqRGqOj9W00Yztye6hKt9Ct+YsQDYjvzWLMacj8RaiXklaARbE5jbU0JbPDU3XavB22QzSYtDE8ZR/bHLMOVHFdcxpLwwf0Pslv7picmcIH0QAA5LPtReMrg9UVDWtYJ9+hhntsldhc0VDnU8NEutVfxGE7REPFs4anrEUDuqfhWzTc12AA0QAAFGBbD099+qlqD08tUCwSpO6LetPm6iBFRAgM57xZw1OznTlHr1gcpkN+RCNPiDhf+12iUXB4Sq6zjhqHst0nC3vFGkQDAFCAbT0RPvVmlSfCE70Uru+i2bzlvuxkG4LU8ZrVG3BPhM/2HigyER6ngf2FJ8Ln+8Mc1k9J7mmoSfMmGabyIRqX+6mB4w0luKexmqLkUJNaJeUQjSIT4eoa6qMUu5y2thOD1LyPhVEuEaIBACjAthKNrV5ym+wp/LuM+YEGqjk2ocM2ccnt2nJ2WWwgFKWBs8OcVgPFrupwA4doMEtn2qgxyHmoD1FzzwTFjtVRZMBSBaun4Vxy233OmYOlsdxcisqnFhCIBgCgENtKNLbTj/sAAADkUzHRsHsM67Vt8xoRAAAAeVRMNOSFhX+0zhcW/kHbTRq79CC+sBAAAHYHFRMNAAAAOw+IBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAaAAAAfAPRAAAA4BuIBgAAAN9ANAAAAPgGogEAAMA3EA0AAAC+gWgAAADwDUQDAACAbyAawEHmww/pg5XbtHz9Ji38conevPpLSr45D9tFJvdc7r3UAakLUicAsIFoAMWt22m6trhMV+ev0bs33uPtO3T/fobWPv5YxwC7Bbnncu+lDkhdkDohdUPqCAAQjV1O+s5d1apcXHqX7vB3ALyQuiF1ROqK1Bmwe4Fo7GKkFTn/y3cgFsA3UlekzkjdAbsTiMYu5KOP1tRwAx58sFGk7kgdkroEdhcQjV2GPOQyxJB6f0XvAWBjSB2SugTh2F1ANHYZ0jqEYIDNQuqS1Cmwe4Bo7CJkSAFDUmCzQb3aXUA0dgmy4kUmMAGoBFK3sKpqdwDR2CXI2DNWSYFKIXVL6hjY+UA0dgHyoyxZYw9AJZE6hh8A7nwgGrsAmaisZC9jYGqVDj9/i669j1+P72akjmFSfOcD0djhyHuD5DUQleBXvyJqGr5Fn/jqdWX/8akb9PZ7611+mab5WBs1hoJUU1tHex5qooHplA4D5bNMowfrqKYzbm0meqmhNkgnzlSmjKWu4V1VOxuIxg5HXjhXiZUtIhiHnlvJCoZt+7/7gY7hj/SZFgqwE2s8PUJTFyYo9lQDb4epL57RMbY7cepmsWuObdcWtls0+ilSH6RTZ7VoXOxisY7S6CZlX+qa1Dmwc4Fo7HDkTaXy4rnNxBSM3/rauw7R+M7k+obBZjvZoe0fptwUaoqSZ+O09KBoxoMmGm42WTSkrkmdAzsXiMYOR1a0yBtLNwsRjK983xKM2Mw9+qe5DP1akyUYT75wS8fyz9JQhJ1WmDrOLlMmb2TLy+G5nPRammYHW6gxyPG4x7I30kYDpw/w9y6atWJwIUxQdzTEPRiOEwzT0f5eOuVw9MWHyDKXR6gjYhzfM00pyatyuHJe27ydb2q6l44+ZKXtOJ5Ronmwn8b7o7S3XtLgXlfrCM0Xmk9Oz9FoayQbt+GJXpq5ocOEFSt8jzpXhDpicRpv5e92GS6PUDOHdV/U587mne3gCEt2eUhdwyqqnQ1EY4cj/42wWa83X+NkbMEYemNV7RuJ31OisRHBUKylaOq0DEmx0xKH2j5GyewP1kuLRrI3rJznoXZreGuUBUOlZYtGaoJOsIMNPNJCQ2PTNDPWT0fDlpO001iKRSlQ30DdY3OUWlmmZOw4NWSHyBI0EKqjcOsYzS+naeliPzWHDtBQnL16ao5mLgzSUU4rwvmeucA9JKtYcqxMU/cjDXRqiMNW+PgLXdTI+WnoTahg23EH9rfT6NlpFo8mPncdNQ4tqHAHa1we0SBfSzuNzy1TejlBo8f4+sN8rXLeNc6rXFvwAHXHJmjm7Ah17+f4IjAeopGe4/IYaOLz87WP8vc4C7cVa8NIXZM6B3YuEI0djvypzmbwEQvGf/+7D/IEY6M9jDzEAcfa2SFzi5wdeN9FaWqXEI3V89TBDrFxwHSwaZo5HcqKhurJ1LfRlNlyXxxWjlOlscbpcRqR/jkdKGRoSlrnref52wLFIuzUo/00u5D26A35HJ7KpCnNopFmrzxzmtPWrXpLNI4b+UvT5BHeF/Vo9XPPJsAOfuiy3hakDPj8HecylHmtjcMjFLuqwwQREhY9L9FQbPLwlLBZdQ5sTyAaO5zNeIBFML70fyzB+O4FSzCGL26SYKyxszObt9KaFqFQTrOEaLgdoCbFPQdbNKzhH7cDzk/DMUxjm31ceo7Ge1ro0CMyROUePiohGnw940f00JYy3fI3RcOVP+8829dlp+M0Ob953SYqPYgG2CQgGjuccoenPuSWdSHBeOIfyu1hWK3ggGrR58i1xLVomOGpMTUcpJy0bmUX62nMDzQU72no3srRMaeLTl2do7TuVaQuTlDSDs4kaKiB89xlC1lx0UiNiCOPcutfX8Ea9ySkF7MB0bB6Ek00bgaspWh+ztqxHXoaGJ7a+UA0djjlTISLYHzxf72vBKLvJ9aqqMHXV7OCIZPi5SJOVVrvkSP9NH5hmlv0B9Qkri0EyV4RAJm8HqOZs8N06hFrQtl20u45DWvJLjvJgnMavXRITZrn0pgfknkQY16kXfIQpOYRDk9bohJ45DjFzk7TVKxdzUmE9ZyEiEafhO/v4vyP0azpsBlZUmxN9C9QemWZ5sfaKcLxNyIatLZAsf18/eacxQEZzovSuFyKPadR75zTUL2RQqIRlyEv7j11cfmOxY1VbBsDE+E7H4jGDqecJbf/c8j64V6lBMMmdSG3uigQkhU/uVa+vVrIWg1kiccQ9z6yLXvX6ikZOprqdw3TGKunAqEoDUyPuXoHaeXM1XyKjtPNTj6LufqqPkTN7RO0ZMxtpF9jIdHnH7ikd9pwT2CmJ7cyquGJfho4xt83IhqCDJW159LbG22nKbOjZa6e4rw2tsriAP5eSDT4LDPtdvn25g1trRcsud35QDR2OOX8uO+hnhT9ybcs19V//m5FBKNsMsuUvOx0r8ke7p00DJI9sp6eS9CSOTylh7hk8hhsLvhx384HorHDKec1IiIav3P0XQr9bUoJxuN/v7K9BIMyNNulh6d6ZMmra2hJkJa1DB/p4SVZcntChrjsZapgU8FrRHY+EI1dwEZfWHhs5LYSDrGjP7xNH28rwdDYw1Pm0NLYnGNiXQ0vPRG2hmBYUBpb+p0/iAObAl5YuDuAaOwC8Gp0UA3wavTdAURjlyArWir5enSwu5G6hVVTuwOIxi4Bf/cKKgn+7nX3ANHYRcjKlkq8Jh3sblCvdhcQjV2GTFSm3s++ERCAspC6hMnv3QVEY5fx0UdrauwZwgHKReqQ1CWpU2D3ANHYhchDLq1DDCmAjSJ1R+oQBGP3AdHYxciDLxOYWFUF/CJ1ReoMGhy7F4jGLkdWvMgQg6yxh3iAQkjdkDoidQWrpHY3EA2gkB9lyXCDvAZCWpHy4jl5Y+lm/esfeHCQey73XuqA1AWpE1I38MM9IEA0gAN5b5C8cE7eVCqtSvlvBPlTHdjuMbnncu+lDkhdwLukgAlEAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHwD0QAAAOAbiAYAAADfQDQAAAD4BqIBAADANxANAAAAvoFoAAAA8A1EAwAAgG8gGgAAAHyjRMPrLx9hMBgMBnMbehoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8A9EAAADgG4gGAAAA30A0AAAA+AaiAQAAwDcQDQAAAL6BaAAAAPANRAMAAIBvIBoAAAB8cyt9h/4/AL8Uhu4SWXgAAAAASUVORK5CYII=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>!4m7!3m6!1s0x3088950e4f84c987</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Sri Vetrimalai Murugan Temple  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">       MP7W+7H2, RGT Rd, Shadipur, Port Blair, Andaman and Nicobar Islands 744106      </x:t>
+  </x:si>
+  <x:si>
+    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADx5SURBVHhe7Z3/cxznfd/7d6hJ02TaJm1mWk0nbfQDk7DgDEaXxkTj0Y01hqMRUo6JiIEaSUSogKZEGoFMqjAoIWCMwDUUyAwhIToaFkqYhAiLFkUaNAXEJQKHAhwakCmAIHgkgCNBnAj608/n2Wfvnt3bvXuAuwMOuPdr5jN3++3ZZ5999vN+vu2z/4IAAAAAC/6svoEgGgAAAKyAaAAAALAGogEAAMCa0hKNpfu0/ED/LzQPk7RwN6kXAAAArIV1FY3ZgVl65IUbjtXfoC998zaNL+mNdI9OvXaDDg0t6+V8WaDXX5ilk7N68Z9u0WMH4zSuF7ccS4t08puz9Fhg2pYTct9vUMN578VL3ts1cE8v5c9Hb96g10f1wmbi4T366K1Z+j3OI/Icfu61W/RRfEVvLACjt+iRNxf0goGsP3Kb3Mdx05Hl+dq0eWGNrL9ouBnqwRKNfneWHm2K09RDZ1Vh8YnGluY+DX7jBu36ziItSFpK2n6H0/Zb81QoCd48OKLxSP0cfWjoBkTDYTw2S5XfvEOzUqPn2vfs+TmqlGfQ2Zw/W1I0sj9fEI0i4hENxZKqXRz+yGk2Sif+PTp5ZJYO98xRtF47fi4hDWqlf/TgHA3O6NIRr//wTV0C2DdLh86zY5i9TbtkWZsKU9alMu0KLYzdoj0NznZ/qeHw6Tt06KDe9tZC2vHO8PqvOusf+6oRhw1nkd54idNpRi8Kiwt04sQdxxkYaZdKI06D0bekRH5f9lDLcu0v/MBJiGWumbnpsyu2uInExyksNLSxc+S85sbbKxrLNMrOU5W2OT3e+Kf01ZnX/Xv/+xaNGvmi4a1btGufk5/U8nfi9IIvjZY/mqNHDee4cP5mCYn3snJ+h0fMfHuXBk/E6aNFZynwvqtn5xad4jRTz1/DTTqVyvsrNMXCE3XT8q2bGaKhnns+zjGu2cjKB3fplPs8N8xS+0jhBL3wZH++svkM2/wk9yYsT5YaGywazrpHTzjrJCHTomEoOyVp9MQs3wxZZoc/cos+99It1dQ01cfO4Y15WpCS0+I8vc4398SncoyvpmGKhvwXMfqUD3p4n8Z9pYZHv36bpnR4h7/ihnePTn1dBE6c7AOafZ+dQdsdPkspwALQw9fwtVv04Uxmv00qjSQtP42zoHIpXC6WS3+PcqnTyZ6L1P6VmzQozoPTZ88+dgxznAj8cJ/k62644IpLqaPv+yT/cl5o/9hxbqZozA6ys+J7p0rbnzrXqq57me8354sTOl98+MYNin43oY6RfJEqoetlM5+8/pIu/Dzk87oFHc63H35Try8RlIi9dJNOfmxUw1zC7rs8L5ymr484eX/qlFGLvcbP4lc4Py1yOnMJXApwuWsaSZV+n3tT58k5drip56wUyf58hfqMVeSn0DxZgpSEaLjrJCHNmka6aUkeRDMRefvXZLvze2JSrxZSnenhojF1mp1oj3FHljnTakeajoPgiJezzFXUthu057ssXMulUsMwWaapoVv0AjsvKbkdGnAFl/EMMHDTjv8qB6cFZDJOUS2CkoE96TMyF+wISpL0fV/meKumF06HtGg44t/+sbO3qmHxw6zusX+whHHd3nyRuZwu/Dg1OFVjk3zlpm/JILXsOB1q4nzCJdoX3pr3OK7A+248OwpDAORZch2hwqZ56iE70xe8TnHqu75wSo7w5yvUZ1jnpyx5sgQp4ZqGz+Gnqrdpe33UJwwewkVDzuNt307vG5oBhMVFOsUlqc9xlbK0mqdMVmg5vkgnv8Hx5HRV/io+T+2v6eYpZW66OE1Sr4+uqIfWbZqSdf603jzt0eZ9X1Yl/V2n79FUSjRke+b1OduWaXxgjr6kmxOUWYqGx1l+fIsqX7tDUx/N0WNBDrRUWLpLH3IN/jEuJbvPhZkmyuS+ZxENOcbzLNmIhnqedTOVJsg3lCaZz5c3L5g+wzY/ZcuTpUdJ92mkHL4qmQSV2Jz91lLT8JRqrGoaJg9o4UdcitUP24Zj9l+4pB7MJH34La4hnU7QsioZ+dKFH+bH3rzN13mTTs07qzLSZ1ORed/3cIn6dRZ75yHke+qvnbp8GqcvvXSLPpx3it5mfvXmi8xlSTO38EOUoBNfvUkNXDMVQS4dvP0XDun0Cr3vWURj7TUN7/Nc0jWNrM9XFp9hnZ+y5MkSZONEI2D0VDohHTFIPfja8Tl9Gry4nKCTb8ZpnO+Ft09jkdqbZumNa3IMPwzStux2XpkZX/5n6dMIzABu++QnInBcxedSZMmIxkO+bq42NwxqYeBqsXJialSM06x2aEjaozneE7dU+3QqbaWJio+VknHqUZfM/hUWEUkfEciPbtHrQ6VZ6snEJxp8zZIWZslN5Zk23QYt7fCxWzQ4x/+lhtB0S+UreiCDB8JKhs6yv0/j9dF0U4Sc45F6dio6b5cGSyovSEetel70vf2c24QWdt+ziIZzDB+fq09j7BY9+jVOL7Wwyfo0sj5fWXzGKvJTaJ4sQRYSd9dZNNzqVz2Xft+843mXIJ2QftFgzHHSXHJ0RgAxQaOnFCtqNMKjvP71MV70ZPzso6cCMwAjIyGkTVOOKbnmKRbME20h4+9l1Jc7soPFtv1rOk0U3lFTDs5gg6BRH6WPXzSYh1zybzKq++a7CpIPU6PDnBEs7gihE9+5SY8YTTfmQy7LMvolY6SRi/SncCGn5HjAtQ3dxKrubdMcnbzmxjzkvmcTDT4m1+gpBTveNyQPspCqZNxUo6eYLM9XuM+wz0/hebL0WFfRAKAs4NqrDHFu/6dSapoCoDBANAAoJFIq55Kl5/0eALYQEA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AACZ+N/NAEAD0QAAZALRACFANAAoW5yZF+S7NV+SN8TrjRkVlGiEfEPj4X3Ptx9kxlf3nRR50zns2xLm92iif3OnSB9fA8UGogFA2eJMeZH6bo18x0F9/4H/q5cUg7+hIdMBpefdWqQ3OIzDxqSjwd+WkDnOZql9jMNj0flIpjKJleA0KyAnEA0Ayhbv3GpqHrI3btCeQa5t+JunUvNN8TFfM7/9wHrwozl6RH/MK3QeJpmw0Pxo2QyavzYrEA0Ayha/aDi1CDWxY6hoBEwIaUxgGCYanslKU+ZMLQ42FxANAMqWtdY0vN9+sKppyFfrUp8WBpsZiAYAZYvj1P19GqoWESoaTq0hW59GoGjo79GoPg0Wp+VPbtPrfejT2IxANAAoW7RofCNs9FSwaOQaPRUoGszytdup0VOl+7lkkAuIBgBli9epA2ADRAOAsgWiAVYPRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGCNEo3xn04SDAaDwWC5DDUNAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWLOuonH77i+o6VSCvtB+m37zwKwy+S/r4rwNAABAabNuonFmbJn+/Vdm6ZEXbgSabPve6LLeG4D1YIb6ntlBbZf14poZobbtddQ3oxfzxhtecmqERqcSzkK5M9NL9bZpvRKn8QsTFF/Ry6AgrItonBy+nxKHP37jDn0wntRbSP2Xde522XfjcJzItsomGl7SqzxMUayGt29vpVG9Jh6r42VZ51qEdtY0Ud9V5yHP3J7er2OEKHGmgbbt6qFptbdD8v0mjgOfw8zsI61U4V8XhHqogs63gypa+YSMitMzvRRXSwb+B/LmEHU9F6XH5fjKKqpt7Kdpiwcw45rl2IZOGr6pd9BMn22m/Z+POPtEorS/eTAd/uVWbxg+y3T0+t4Z+1RU1dChzqEsTsNeNOJD7eFxLbJojB6LUMWBQVpP2ciVr9fK6FEO66iTDzMJuofVtP+YcQ9XIxo3+2l/ZZS6r+plUBCKLho3Fx/Sr+5zBKFl4K5em4lsk31k31k+ZmNIZ9r9/RkulTWjh2pVZvaJhumAkwl2hk1Uvb2GYtf0Oj9X2ilao4Xi2nGq2d5EFw2RGj0qzqmKusb0Cmayq5q27Vuj41gZoy52oLEpZ9FKNJZGqCMaoXqOREIe2PkJitVFKHrMiFQI/vCTiSm6+EqUtkXbaVw//NO8T0X0Zeobm6Ekr0vGx1T4FUHXaOUonHtXH9M7rSQpMTVILdEdVN0eFmc70UiyYFdX1lHMjau+noo69xqLKxobwZrytQU2opFxD6uM53E1ogGKQtFFQ/orRAyqv3lbryH6hIsN3/zgHn39zF313+VLvI/s+5f/dz3LVCZOpt2/dy9tc526wfixKorytmeziYYiSRcbd1A00FnF6dy+iCFK7JwrnVqHgzj43RyHKqrp0l6e3ei5fTvo2R7fkyKl8SDn70NqMxV7+1PO2Eo03JqNs0WhakAW5wsMf36QDm2vdhzO0nlq4Wtu+SBd41TEuWTo7mOyFtHQqJpc9XGa1MvTZ5qoNsKOi2s/9cd6qGNXbtEYbWURPzKklzQqrrup77osOE4+dqGfWp4SwedSeV0njRvZOHm1l1pqqqhClZ5rqOWMGc8EjXfW0c5KjleEt8U66bBxvaajVWl7pIfONdY4NUDev+39dEqr7R6nLHFzr9GJZ3esXaWBP61MrPL1Cotns463pGfz+YzaV/pcgyoe6VqEN285BN9Dj9D488JKnIaP7aVquaec7tXPGenu21fCqe/spS65Rxb5GARTdNH4vVfnlBB8OOE4CBEJWXbtN/bPpoTjwk+Tat3vHplTy+uPLnm+L07N57yUo+NS1geSEfMQDamteJq/nH1TgiA1D3FyLAgVbrgr/ADyQ2nWPBRWoiFNal4HHRxnJodzVsc1nucYZycwfEk/t/Y0xjUtX+0qK3mIhhK6Kq7hyAKf16kxcMy4FOuUnHOLRqKfCxFVTXQu9PyOY66oO07jctFLXCvjuKTuPwvm4cootV3QKcJ5oF7yki4TKFGPcnpc55RNxmm8i2thPmfnEQ19DcnUNfhqkVlFQ+LZqfpIElluZHAeMfN1gv+zkz7QT5MSTnKK+qSmmMofwedaVU2DSV6XmkaUC1U6AF9emOyUGl+PE4eVBA0f5eVXdBwCREPSruvyFCWyXTzIStFF45frHXFYvO+Mjur4wT2PaIjJOkH2keV/xcdsDE6mPXSGH1ypVRhNMcpxSGldZcTsopEY6+R9qvhB9WfMJA2/EqHabrcG4aDC2Oc0y8h/9VAqJ6sda0ATlsJCNJIfNFGFr9akzscPdLCFOOeEiGY0U7gCyEiTlRlv85TqrwgqaYawVtGY8TZPSbOft3mNj7GoaTil2d1cspcaRBOXnkdo2nNrxUF6CxkqDdzmK2lmmTcP0HHtla3Of09z6MoQh5dFNDy1njgN7N2RqpWq7VlFI6AmF0DGPWQ8+Vrdk700YO6gal9uvIPPZSMa/jxZ2zmRLqj48kIy4RM/yVtuDTlANNK1d7BWii4a/0GPmHJFo/m001xlml805JiNwXA8nhqB8WAHiYYvk6vmh/6AzKkeKt+DJkjJW2V0aYaK6Ac8/V81sWhRcc7vPV/KMh5Gx6H4+2eCHILC95ClSIxR165IRik+jMA02dWa7gj3i4ZaTu+b4cTD4uUhyOGwQLe6najO9kNnjDYjvS6naLjEJ2g41k6HpHmDa6KHU01M4iC98fOnccJonnLj56SnHOuvRXrDyxAN332e7tmdZbuEZYpGrnR0CLyHZr6We2Y0+zlI02r2c9mIhqemER+j7mc47/Xqdf68wAWSdPOUa+GiYZuHQThFF40/eD2uhGBk6jO17G+e+nWjeeofPvlMrZNjNgYz0xoO1xQQaevPUdMIY7zdqDqbqJIll8quGLULRsKWWoeUkFMlJFVq5dKV2Nkm2rbrOI27y/6aiGqOyRwJFhrnIOfMD6U0O1Tzg54R7xD84avrdkVPUDWnBjo3r5dTmA7OYBWikXIK0vkfjahao4OzPS/RMEhcaKZo6hoyHaQnDVT8neYp6Uj3xlWOzU801CCJ0O1mmmbGM4zQPOISKBrSP1dY0RA8/VKevJDk8FiIpXnKzeNmgQSiURSKLhqv6I7wV7+XflhFJKR2IbUOVzAEtxYix2wM3kyr2sNrjlOf2VTlKyXnfLhc3D6RwNqx09F9uLHJaBNmJNNXN1ELl7TSHeUGEpfQcwc3hQmhcfY7Z91GXH10yBlBZUlG+Kppy2iuU6O5MmtAXgdn4I9XIJkOR+5fRRXfK+1Q1tY8NUWx6oC4KqF370umg/SkQcZ9cs7rxNWJtyf8XM1THqfr9DN4mqc8zVdFEg11T3I1T2Weq7Ci4ezvuX9DzRCNIlN00fjJ9AMlBP/x5Zu6lBXMZ7xN9pF95ZiNwZdplaOX6q7h7NcoGmo/YwSTH9XEwA+3tyTsOKxtYZ3G2UQj6KHWhMbZ85Al+CFzhpUGvpsxP0Kx1h4azagtBIev1rEAT+qwkhz36srd1HFhymmTXkrQ9IVWquUSeca4et/DH0yQw3HW1bq1NF9H+GT/y56O8OkzrdRxJkBke73Dg2lpioZbd/M6V5ByiMbVTj5PHXVL5/VSnMa796qRT25c/R3ho+0cts/ZeUTDvQYmwWkmYafOzelaUdlAA55O9RDRWOU99KI7wl8ZdPp3klM0sI9L/Z6O8Mx7pvL5Xg43mQzwB5n3MOkfNu3Lo+cOcEGgkeOwxOHxvm1Pyug1C9HIcu0gO0UXDeG/6yaqt34U5PkcZAiu7PP7r4Vn0+KTmWmlQ9zj7NciGqpkHTDE1ESNKMp8yMbb+fxh4Usb+wg7Mr1oIvEObApjQuNsPmTqvwhWpikHpPcd8L2wJwSGr5qLvGnrbednB7S7gbqHAq7U9/AHEyQajAiFcWy2IbfiVNwXIP3EL3TSITeufGzNc+3Gy4o5RIPxnneQYgfMTtlVDrk90El9qSG3u6nLk2YSlnTay7Yo7e9s57BCRGO199DPCgsFxyM95NbihceZQTqsHHvQeZ176Mlvcg3ZXu5LjFF3nXNfHn+qifr6WtODRnz7ekQjy7WD7KyLaJz9ybIShMea5mg5oBIhc1JJ34bsI/uCTYC8oOgOZd0SOH1Y3ppe6aGceWjzzirZcvdwFZTztefJuoiG8LlWp7ZxuD/zoax9c15t27gOcLA6kjT+zb3Ucbm0HeyqiHMJeF9IU1wJUTjR2IL30Jpyvvb8WTfR+Oe5FfXOhtjo9XR1o/+KUwuR9bIPACCcgtY0AFgD6yYagju/1O8cmVOdYDIdujvz7dezzEsFAACgNFhX0Xj4C6I/POY0U73Qs0A1enbbqra42gYAAKC0WVfREG4sPFTzTYlYiMl/WQcAAKD0WXfRENzRVGIYLQUAAJuHDRENQfow0I8BAACbiw0TDQAAAJsPiMY6UK7DJAtx3QX7PrZ6Azj9Jv9GotIl19vWaybkTWwACgREIwz1adcq6rqil/MAopGJ2lZZRwMZ00z4pn4o1Pexiy0avullslGKoqGmKjGn70hZ0FQbSRptjfK2kOtVnwrmY333Pjk1RhdlavndUdrvn+6F7/BkTE+1It8tqWmic+qriF7iF9pp/5MybQiEcaOAaIQgcz5Fq8Lnb1oNEI1M1DZ2SunvbGt8olEwIBqrRj48Fpj/1Xxe4tyDr1emwleCY957mUixqo5ajh+nturMOcLUx8LcryPKZJI9MklkpzH1OgvVsWraubudLk7MZP3qICguEI0g1ASDNRS7LFM9Z84wqyY+6x5Sk7XJxHDyMHRfMcrC8olK+VCP+tJbO/W1pj+SI2T7XrQKu7M/NQmbG3Zqwjv5sJDM6mm8PJ8zvGxx9aBLe1U67p7SnuOMsn0HO9d1myjHWV1DtZXmNy8Yf01DSsBGGPGhdqpX8dMT1F01IiAzlzakv5196PhY2uGpcJupL590zPZ9ab9orMyo73i7k/nVNvanzpUhGjeHqOu5qDHJYDreat8jgzRqTmi4iu+LZ4tHVtQEkwE17RX5fHCUOlqbvNfrcu041UZbqaORz2fe+9Q5gyaW9E7vrnC/MeN++U9q/u6XH8GGAtEIQJV61EPtfJPC/y0F5cjMKba7+cF2Jz9TD1uE6rvG1Dco3KmdUw9Qju9Fq7BlmuwpdhsrMk12DTsDdnB6CupknB8mDi81sZ5NeGFx9ZE4+7Ka7ntYBzUtpb3Up2JFNNiZhn0HO9d1+3Ad56R886Kygc7pc2YTjeSITKfO2645LjUu38d2PzKlnBmnU/uI8+0PnU6padFVuDtSU3m76Zj63ohlOoZ+X9onGp5vV+vvZ7vf8vCKxgR1S7r1TDlThc9LvNIzIqt9t0ep5axMy56k+Afmx5/4nuX4vni2eGQj6DPBgsRHTX8eWLMSQeC4vy/T6ofd+yDRcNa1mZ8BkXXGDMQypXr1kU7q8hWmwPoD0cjAJxQyG6bv4ZEHwlMq0o5Otf2qari3RGR+jtP58p7pdPRDpL4X7YT9bI/xQF3voWe376Y+o33X80BahBcaVz9Lvq//efYV0cjyHexc1+0j7Tid7zKkvsMQKhoBpVE+evR4K52TOAWcX907+YyurFPhNtOwsV19ZCsl9qtMRz8+J6r275zQS3yu6yOpaew9oqHOm/B8W0KOdadoV/uaH+ZS98H9+JMTx1wfcAqLRziOAGdM5R8fpEMRLfABoiEC9rj+QmP6vvnR6RokGlogHLzrVHhG4Udq3lGzsAHWDYiGH/n6mPmJVLepyvAXkoE9md5wdOohNz9tyqh1xgMU/r3o7GG7+B/IfMNLsZKg8VTzlBuWu29mW7np/Gyu28Q8VjmjSqeEGi4a2ol4SqNpVHge58pw7eGQG5YK11cyVoKcXreqdPTjc6LJseP0LNcQd9Y1UXdsiCYN5+a5dmHGaJ5yTadbZho6Nb709zGyfyo2WzxCcacNNwVYi3u9W6Dxi4b6OiOfVxdu/Hk0zVpEI04DdX7Rdj5QVupT2W9FIBo+1ENqPrzazCp9Nkesjs/mPNW+Yd+LtnPyngeyAOG5qHiq5intej37FlE0GNXMUsU1AXbcBRONm0ZY6lqyiMZq09FPQMlbmhcnR/op1ih9DlE6fNY53nPtS5yuLNL1PROp2oZ5fzPTcHWioQiJRzBxOrcv8zPB0hwVNfsUPNfrfKs79XU9xpNHPXjT1SHo3vK6VPNUUtUy/emf856AogDR8OBUy70lHubacaoxSl4ZmdV0rvwwZW2mkYfNLGXqh8MNL2vYGs8DWYDwXDL2VU7V3Te7aOS8bh9+0ZB4D0h7+zN1VGOcJ32tjuPwljYTND2iS88B519V89Rq09GPHJ9youykL3hL9TISyQ3fc+0qXl6xGT5iKxqOsw1vnsoej0Ckw9msaSuckn5QYUqs7axcQ/C2DCHVcfamZcC99XWEqy9YegoFzv1BTWP9gWiYyCdXXSfjQarC6TberI7Y3yE80U+HzQ7hHN+LtnHyaUfKFCA8F+k03fZMJ41zTSMZH6PYXmmmcvfNIRq5rttHpmgwEjcZ5WOcx7xWm45w9/wUH6Gup1bREb7adPTjEw0prcu51GdKuaR/8UhV6n0Tz7WrDvgqajkzxedN0vTZZqqRNNDXnF00dA0t9Pvi2eORiVNjsOko915vJp486iFINPjMniG3CadD3+xLVHnDGRCQ7tPwixtYDyAaBtm+qz3ZVU3b+GGTbTkdcY6hp9m+F23j5P0PZL7hpdDDM8VZyuiUrrM9dDhV2sshGsJqh9wGlHineb05+sd/rekht3KOZrpoFE5lyG13auiqDLnVI6kEdd2+IbfN59PfnmZWlY5+/E40MaG+462Gusq5Go6nhif7rz15pTN1TbWNvTTQynlNl6pziYbUtrIOuc0SjwykP2+7t/8ulAKLhlyH5+U+zj/pb7A7qCHRKn8FDLcG6wZEAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWLMuotFz+T79xldu0iMv3LCy326ao++N3tdHAwAAKBXWRTREBILEIZuJyAAAACgt1kU0XCGwZbX7AwAAWB/WVTRWawAAAEoLiMaGMkN9z+ygtst6sSwYobbtddQ3oxcBAJsKNE/5SUxQX2MN7azcQdu2R2hnTQPFRhJ6Y6HJJhrOtvrYVvOuEA0ANjPrIhqrZeNEY4YG6iJU/cogTSeSRCtJio8dp/rKKHWM8HLBgWgAADYX6yIaXx+4S18/c1cv5WbDRONmL9Vv30191/WyZvxYFW07MqSXiKbfb6b6qohTE6nrpNF5vWFGjm+mcyOdqe21jSxAK3o7M32miWojXIuprKL6Yz3UsStANFQ4UtPR9kwvxfWm6bPmuZvpoi+uDo7g1HZP6WXm2nGq2b6XBnRA2cIZPeoTKxUf19E7Tr871q6uI1PU9Pb+dBrs3NdDk6nKmrM9dqGfWp5Kp+G4WZmbH6FYQw09LtceqaFDx8coJdkWaZy8cpwOqbB30ONPNdGAkQwAgPwoumj846efpUTAVjg2TDRWxqirih1h5wQlDCdkkhxqpmi0lYbF+a7EabyzLu3UtbNXNRX2csn4eWrj8A6d0R5xrJ2qK9lhjvHeXIuZPttE1by/bU0j+X4TVURfpoFrTi1osqeOKiqb6GJA61k8ZsTLXd7bT7JrrnByi8YOqhCxnEqQVMi8ONtVGizxYnyMYlx7q3jlvHb87vHHaVwitzRBMb7OaPuY2korUxSrYSFoH3HuQXyI2qIsgF3a8+dK4+s9XDPkuOprE5GOVrXSqMQFAJA361LTeOtHS6sSjg0TDSZ5tZcOP8mlVCnhNh+nixOu2xUcR97yvuEpl85TCzvUAXmtRDk0dr6GgxIHXNE6ov9HKHpMO0cFhxdU01D4RcNZ3t9vxidOA3uDSvtMvJ/2pxy9s59zbO5wcotGNcWuqS0ByHZfbe1KO0VT6ZJ5vBK0Oi1wl1upoqqdxk3RluMr2fHLOos0rnEFRsEiVB2hDmczACBPiiIartMPs1zC4e63YUgJdayfYo11qkP88d1u84lTSk41G6VMO1Tl0Ni5ya4acWjbjorHcpx1qkSscNbZiUawsx5vr9Lh+zGEYn6QDqWapnKHk1s03P9BBGxf4dpCluPNWpH63+jWSjQq/voYizTOvD9haQwAWC0bIhrNp03HmYm7X0kgzSXsiJzmE3F4VdRlVhZMNkA0Rlu5VhQoGkSJ/r20bd8gxd9vSjVN2YRTcNHQtbGw43OKhupr0sesOo0BAIVkXZqnZO4pW8EQNko0pK1/m79phJnu2a2bT6S93dfBLLj7Z3Vo8n8dm6cEXcM4tC9iHJc7HInzsz1GmPmKhuqEN5unwkXDrnkqLI2TNPyK2X+i8d1PAMDaKX5H+PUHqxIMYaNEg5ZGqCMaodrWIWPIbS8d5nX1vY6XS5xpoArpzL7qXEtChuQ+xU5OvFQO0fB3hE/2v5ylI5xo+AjXcFpHKJl0XKDTgc3O97oTt8neBnamvByarAk6t4/P73PSucJRTrymnUbFiy9N0cVXokYYNqKR7qim5BT11bFYcho4V5FDNHRHeD1X55yO8BHqesrfEZ4jjbdHqeWsc4Lk9UFqebKBzpkaCQBYM+tS02g+k7AWDGHDREOYn6CB5r1ULcNi2fk9/vnd1BKb8JRcp/ubqFYN93SGdPZpAcnp0BirIbeaJAvSs2rfdJjpc+uhsjmGk6omKmMUlUvWcFZm6NzBaqrg66uoqqGW9mZ6dlWisZs6etpTQ2JrDvZmDLkNFQ1hfoS6n4saQ271SCrBIo0TI520//PO/amoqqOuISgGAIViXURjtWyoaGwxpEkstPmqKOQSFQDAZmZdRGO1IgDRKABLCUpMyDsL6Rf61geIBgBbmXUVjdUaWDtqNFRlNR0+s97eG6IBwFYGogEAAMAaNE8BAACwZl1E4zf2238f3LX/+pdz+mgAAAClwrqIhsw9JSIQJA5BJiLzNh8DAACgtFgX0QAAALA1gGgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKxRonF/eZlgMBgMVkJ2/37mbz5mhp2HQTRgMBhsK5grDOavaea+eRhEAwaDwUrRTOfv/12LueHmaRANGAwG2wrmCkPYb4EMogGDwWClYLmcvvzmYxJGAQyiAYPBYJvZXEEI+jXN3T9Pg2jAYDBYKZrp/N3ffMwMOw+DaMBgMNhWMFcYzF/TzH3zMIgGDAaDlaKZzt/9zcfMsPOwdReNu0vLFLu8SJGjc/T7bO/wf1kXtC8MBoPBLM0VBvPXNHPfPGzdROPm/H06NrhAv9U4m/FNcFnXdnZB7RN0LAwGg5Wdmc7f/7sWc8PN04ouGj+9cZ++cvIO/duGtFg8enCWWt9bUCb/3fWyz37eV44JCgsGg8FgIeYKQ9hvgaxoonFx4h7t+tvb9Et70zWK//FXc9Q7nPA0R8l/WfeHbbdS+8kx//ONuArDDBMGg8G2rOVy+vKbj0kYBbCiiYYrAL+27wb9rxO36conuQXgHybv0XPdt+lX+Rj3+KD9NtYu0Wvbd9BrF4O2ZdrCxCUanogHbsvbpt6h57cfpeGgbWLXx+iHV2aCt2WzXOHmY2uNEwwGCzZXEIJ+TXP3z9OKLhozd4K3ZzM5ZiNFY+7KO/Tq0zupgsVhW+VO+vLBd+jjW+721YnGcGuEKhpO01zAtlXbxaO0zXTmOZz7p995niqe6KCPA7ZltSKKxprjBIOVm5nO3/3Nx8yw87Cii0bQtjD74Gq6NrJRorFw6Sh9cfsT9OrpCZpb5OVbE/SDxieoYs879LN7ss/qRKOgtkrRWLMVs6YBg8GKY64wmL+mmfvmYSUjGm9eWFT7f/XdebW8MaIxQW8/vYO+3DnhXX/n+/Tq9ogWCr9oxOnjtxvpyzsj7NAjtPPpRnrvmruNaxrNXFtpvqT+f/r2Htr2ygl67+DT9LjUYiJP06unpmhuuIOed4/f00GjqVqNLxw5Rps6v3LuR+i9S+njv3zwtBY3fb7ad+hTN5xrp1M1qIqdfO53fdfpmg735Cm+roicLyBcfU2O+dLk3pS6xp2VfKyqqb0bHKcc8RdbGO6il/5Itu2gx/+okU5NpLdlvZ4scYDBNoWZzt/9zcfMsPOwkhCNty4lUvsfPrWBonHzNL20/Yv09lX/tkX62aXzNHxtkf97HeTc6QNU8cRR+uGMs/yzE3uo4ukT9DN9bIZoVO6ht388Qwv3OMzvvEgVlSwUz3fRqBx/Z4xO7onQE20/VvtnWGBNYwd9sZEdrdSKZr5Pr+3cQS+dcvpQvKIxRt9+IkLPn5jgc/O+V0/Q8+xMvzWswzItI9zz9NoTLKbHHaecSzQ+7pCa2Qn6mI+9vzjhXFOrc02ZohEe//vXJI576ORVTndJLxaxJ3by9asmz+zXky0OMNiWNFcYzF/TzH3zsA0XjZMfZQqGmO3xBTXlxNhJTQVsS5mvVH0nTnNmv40O49R1ZzmzpnE+ve89dsYS1nm97O5j1g5MCxSNRvqBcX45X8VR43ypsCTeX6RvX3H3NYUwfbwyFe4R+qFZ4n+vkbbtPEaj/D+XaEgcnu4YS21fuHaJfnhpihb4f6ZohMd/uDlCT3tqfVwT/GKE/vqS/M9+Pdni4K6DwUraTOfv/12LueHmaUUTjV970XH6txedyJ7/OHP0VN8/JFJDck3BkGNknYRh7l90W4to3IvTaKp5SppyxNJhZIhGFmeb2mdVouHte8g4XyqsRRrt/DI9zqXx5w920MlzYzQX1lwTEK6U+v9Ur8t1HQs/7qI/jUhTWyN9++3z9LGuhYllikZY/KfoZK2bnl5zzpP9erLFAQbbkuYKQ9hvgaxoovFfGm8qxz8xs0QHvzuv/v/9j9KlWhGMX67PFAwxeblP1ksY5vqiW2jzFCfULa5RSFOHz0EqJ6iap/S1+YSndERD28wYDb/bRa/u2UkVTxyg94IEMk/RUHZvhj6+9C69fXAP7ax8gppOT6n1njhZiEaqqSrMsl1PSBxgsJK0XE5ffvMxCaMAVjTR+FJHXDl+mVtKREH+S62i//8l6PSVu6GCISbHyDYJw7+tuKY7wnXbfcqydISLk3v+bcMZKedagqLBzvWHUhpP7TtDp573xd01FW6O5imzmc1zHeyoz3lL9nPvPp+Kh71oLNIPGyNU0fh9b5OSG6es15M9Du46GGxLmCsIQb+mufvnaUUTjb86u6Ac/+43b6tlVzj+9Z/foF9hCxMMsdpv31bbJYyg7cW0BXbMX6z8Mv31Od3BmmPIrXS4bqvtoFGuaSzM/Jjefl6aqYokGkqQnqdT1/lcUutZlWhwLYpL26+6pW3V6Rzh0neAMKtwwzvCRbwqKl+kU9J/sDhDo5171AgmVzTeq4+oYz+V9OLS/g9e4VqAflfFXjR4+cfH9PBnJ84LMlrqCy/SeyIGWa8nexzcc8FgJW2m83d/8zEz7DysaKLhNjFJjeLTuBNhVziyCYbs69ZC/nmD5qCau9RFL7kv90WeoBePvBv+cp8e2ilDaCt27qFvnT5BTUYTV0FFY5nPdeCLKl7PvzOzOtFgWzBfWow8TS91/Ti4Y1iF6xtye+T7jgNW+8RptOPLetgwp0/HMb5m4zpujdFJd7irHPtiV2oY8apEg23uUge9+IdOf5FK3/Ppt8mzXk+WOMBgW9JcYTB/TTP3zcOKJhpiX2h35pN68e/vpNaJWIQJhpjsK8fIsUHbYTAYrCzMdP7ubz5mhp2HFVU0ZC4paYqSmsPQxN3AfUy79FOnr0OO+fEUJiuEwWAwa3OFwfw1zdw3DyuqaIh96wOnU/s3D9yg0U+WAvcR+8efL6l9ZN/O8wHvDsBgMFg5men8/b9rMTfcPK3ooiHWEHOanP5dw6waPeXfLm+EyzbZR/b1b4fBYDBYDnOFIey3QLYuorF039sJ/hfv3FFNV4M/uas+++qu/1qWvg4YDAbb0pbL6ctvPiZhFMDWRTRce+8f79Jv/6Xz0p9psm5gNHefBwwGg8F85gpC0K9p7v552rqKhtjivWV68+Ii/bdX55TJf1kXtC8MBoOVrZnO3/3Nx8yw87B1Fw0YDAaDFcFcYTB/TTP3zcMgGjAYDFaKZjp/9zcfM8POwyAaMBgMthXMFQbz1zRz3zwMogGDwWClaKbz9/+uxdxw8zSIBgwGg20Fc4Uh7LdABtGAwWCwUrBcTl9+8zEJowAG0YDBYLDNbK4gBP2a5u6fp0E0YDAYrBTNdP7ubz5mhp2HQTRgMBhsK5grDOavaea+eZgSDQIAAAAsgGgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsKZponB5dpt89MkePvHDD2h5rmqPv8XGbjxFq215HfTN60c/lVtr2TC/F9eJaicfqrMNR+x4d0UurZKaX6rNdDwCgbCmaaPznQzcDhSGX/cqf36CfTD/QoWwgUz1Uu72Kuq7o5axANAAA5UHRRMMVgdXwzPF5dczvHJ6j5IpeuUGMt1dRtKqKKl45T0m9LhyIBgCgPCgp0Vi8/wv6ra86NZRD7y7qtRvAyhh1VdVQ7HI/7d/eRBeX9PoUCRrvrKOdlTtoW6SGWmKddNh0sokx6q5jwdm+gx5/qon6Ol/O4uwTNBlrotqqCG3bHqGdNU107rre5MMvGsmrvdRS45ynguPbcibt5dW+R3roXGMNPc7bVTyN7cL0+81U7563rpNG5/UGiAYAIISSEg3ho8nP6F/udY6V/xtB8oMmqlDOOUnDr0Rof7/X3SfONFBFlMXkOtdBknEa76pjx+062Tid2xeh6lcGaVptHqNYHTvmENFInH2Zw2qlYb1xuofDqumhaWfRg0c05gfpcGWU2i7oA6d6qL6ShW7KWVT7bo9Sy9kZrrUlKX6hlaq3p7cnh5op6p53ha+BRTAVNkQDABBCyYmGcLg/oY6VWofUPtYXn1Bcaaeox4nPUN8zO7xCsjKUbp5SDncvDRibiR10aE1jKUEJsyajHfbATb1s4BENFoLEvNlw5sSrvtc5i1PTGFL/HZJ0sXEHRdvH+L+zb8v7xvFL56nFPS9EAwAQQkmKxoOHRJUtt9Txf/p3bpvJOhHvp/2VTTTsOnK3qUqX0J3+iyrqEt+bwujTkP6LqnYadzY4ZOvTWEnQeKp5aoe2YIftEQ0mYTRPucfWx5wD1b6+Po3pnt16ncQ3fUzaTOGDaAAAMil50fiT4+srGk6zTqZDjR5zVaKwoqHOp5qJdKk/i8P2iIbaz2mecgYN6JqGtWj4r8EAogEACKGkm6cePbjezVNTFKuJUNtlvehy7TjViBAYzrlQzVOjR9OOXnG9h561EY0MIeJ47fKJRmjzlFznDqrtTlWfHNwRaxANAEAIJd0RfvGn69wRPtZO0cpWGs0Y7stOtjpCLR84tQF/R/ho++4sHeEj1LUrvCN8sjPK2zppnGsaqtN8rzRTWYjG1U6q5v26x7imsRSn8e69apSURzSydISra6iso9jVhLM8dpzqn2JhlEuEaAAAQigp0djoIbfjx8Lfy5jsqqZtBwb1tgIOuV2ZSQ2Lraiqo66zPRxWNcWu6e0GHtFgps80UW2E41BZRfXHBil2YAfVdDmq4NQ0vENu2973xmC6P92XouKpBQSiAQAIo6REo5Re7gMAAJBJ0UTDrTGs1kpmGhEAAAAZFE00ZMLC31nlhIW/3TRH/Vc244SFAABQHhRNNAAAAGw9IBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiATwkP/uM7swv0syNOZr6ZJp+eu0TGv/pJKyMTO653HvJA5IXJE8A4ALRAIqFxQT9/PoMXZv8Oc3evMXLd2l5OUkrDx/qPUC5IPdc7r3kAckLkickb0geAQCiUeYk7t5Tpcrr07N0l/8DEITkDckjklckz4DyBaJRxkgpcvKTTyEWwBrJK5JnJO+A8gSiUYY8eLCimhvw4IO1InlH8pDkJVBeQDTKDHnIpYkhfnterwFgbUgekrwE4SgvIBplhpQOIRigUEhekjwFygeIRhkhTQpokgKFBvmqvIBolAky4kU6MAEoBpK3MKqqPIBolAnS9oxRUqBYSN6SPAa2PhCNMkBeypIx9gAUE8ljeAFw6wPRKAOko7KYtYyui0v0/NsL9PPbeHu8nJE8hk7xrQ9EY4sj8wbJNBDF4Be/INrbs0CPvHBD2X86eJN+dmu1wy8TNBlrotqqCG3bvoMe//xe6hqK620gf2ao75kdtO3oiLM41k7V2yN06Exx0ljyGuaq2tpANLY4MuFcMUa2iGA8e2I+JRiu7frbO3oPOxJnGqiCnVjtkV66eGGQYgereTlKHSNJvUepM0JtLHb1sVItYftFo5NqKiN0+KwWjcutLNZ11Feg6EtekzwHti4QjS2OzFQqE88VElMw/s1fzHpE4xvnVtcMNnqUHdquHkp3ocZp/OwITW8WzdhsouGnwKIheU3yHNi6QDS2ODKiRWYsLRQiGH/ybUcwYsP36cOJJP3SXkcwXnxnQe9lz3R3DTutKLWcnaFkRstWkMPzOemVBI0eb6DaCO/HNZadNU3UdWQ3/2+lUWcPToRBaqur4hoM7xOJ0v7OdjrscfTZm8iSV3uppcY4/tgQxSWuyuHKeV0Ldr7xoXba/3knbM/xjBLNZzppoLOOdlZKGFzrauylybD+5MQE9TXWpPatfq6dhm/qbcK8s/1xda4aaomN0EAj/3fTcKaX6nlb22V97lTc2Z7pZcnOD8lrGEW1tYFobHHk2wiFmt58hYNxBaP70pJa1ztyX4nGWgRDsRKni0ekSYqdljjU5n4aT72wnls0xtujynk+2+w0b/WxYKiwXNGID9IhdrAVTzZQd/8QDfd30v6o4yTdMKZjdVRRWU1t/RMUn5+h8djLVJ1qIhujrqodFG3sp8mZBE1f7qT6qt3UPcJePT5BwxeO034Oq4bjPXyBa0hOsqSZH6K2J6vpcDdvm+fjL7RSLcenun1MbXYdd8WuZuo7O8TisZfPvYNqu6fUdg8rnB51Eb6WZhqYmKHEzBj1HeDrj/K1ynlXOK5ybZHd1BYbpOGzvdS2i/cXgQkQjcQEp0fXXj4/X3sf/x9h4Xb2WjOS1yTPga0LRGOLIx/VKQQPWDD++I07GYKx1hpGBuKAY83skLlEzg6847IUtXOIxtJ5amGHWNtlOtgEDR+pSomGqslUNtFFs+R+vUc5ThXGCofHYdR0TuiNQpIuSum88Tz/m6JYDTv1uk4anUoE1IYsm6eSCUqwaCTYKw8f4bB1qd4RjZeN+CXo3D5eVxdQ6ueaTQU7+O6relmQNODzt7yfpOQHTby9hmLX9DZBhIRFL0g0FAVunhIKledAaQLR2OIU4gEWwfij/+MIxt9ecASj53KBBGOFnZ1ZvJXStAiFcpo5RMPvADVxrjm4ouE0//gdcGYYnmYa19zjEhM0cKyBnn1Smqj8zUc5RIOvZ2CfbtpSpkv+pmj44hccZ/e63HC8Juc3r9tEhQfRAAUCorHFybd56jMuWYcJxnNv5VvDcErBFapEnyZdEteiYW6P96vmIOWkdSk7W01jsqs6e01D11b293tddPzaBCV0rSJ+eZDG3c3JMequ5ji3ukKWXTTiveLI67j0r69ghWsSUotZg2g4NYm9NGBuWInT5ISzohRqGmie2vpANLY4+XSEi2B84W9uK4Ho+IEzKur4D5dSgiGd4vkiTlVK7zX7OmngwhCX6HerTlxXCMbbRQCk87qfhs/20OEnnQ5l10n7+zScIbvsJEP7NNrpWdVpng5jslv6QYx+kWaJQ4Tqe3l7whGViidfptjZIboYa1Z9ElHdJyGi0SHbd7Vy/Ptp1HTYjAwpdjr6pygxP0OT/c1Uw/uvRTRoZYpiu/j6zT6L3dKcV0cDcilun0alt09D1UbCRGNEmry49tTK6ds/YoxiWxvoCN/6QDS2OPkMuf2zbufFvWIJhkv8Qnp0UUWVjPhJl/Ld0ULOaCBHPLq59pEq2ftGT0nT0cVOXzONMXqqoqqOuob6fbWDhHLmqj9F79PGTj6FOfqqsorqmwdp2ujbSHzAQqLP33VFr3ThmsDwsfTIqOrnOqnrAP9fi2gI0lTWnA5vZ10zXTQrWuboKY5rbaMMDuD/YaLBZxludtO3PaNpa7VgyO3WB6Kxxcnn5b7PH4vTH7zuuK7O8/eKIhh5k5yh8ate9zp+jGsn1cfJbVlPTIzRtNk8pZu4pPMYFBa83Lf1gWhscfKZRkRE49f3z1LVX8WVYOz5u/nSEgxK0mirbp46JkNefU1LgpSspflINy/JkNtD0sTlDlMFBQXTiGx9IBplwFonLDzQu6iEQ2z/dxbpYUkJhsZtnjKblvonPB3rqnnpuajTBMOCUtvQ6X0hDhQETFhYHkA0ygBMjQ7WA0yNXh5ANMoEGdFSzOnRQXkjeQujpsoDiEaZgM+9gmKCz72WDxCNMkJGthRjmnRQ3iBflRcQjTJDOirjt1MzAgKQF5KX0PldXkA0yowHD1ZU2zOEA+SL5CHJS5KnQPkA0ShD5CGX0iGaFMBakbwjeQiCUX5ANMoYefClAxOjqoAtklckz6DAUb5ANMocGfEiTQwyxh7iAcKQvCF5RPIKRkmVNxANoJCXsqS5QaaBkFKkTDwnM5YW6qt/YPMg91zuveQByQuSJyRv4MU9IEA0gAeZN0gmnJOZSqVUKd9GkI/qwMrH5J7LvZc8IHkBc0kBE4gGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKxRohH0yUcYDAaDwfyGmgYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAaxYSd+n/A8RhxsGxJCx4AAAAAElFTkSuQmCC</x:t>
   </x:si>
   <x:si>
     <x:t>744106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>!4m7!3m6!1s0x3088950e4f84c987</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Sri Vetrimalai Murugan Temple  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">       MP7W+7H2, RGT Rd, Shadipur, Port Blair, Andaman and Nicobar Islands 744106      </x:t>
-  </x:si>
-  <x:si>
-    <x:t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAY0AAAFHCAYAAABd1BADAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAADx5SURBVHhe7Z3/cxznfd/7d6hJ02TaJm1mWk0nbfQDk7DgDEaXxkTj0Y01hqMRUo6JiIEaSUSogKZEGoFMqjAoIWCMwDUUyAwhIToaFkqYhAiLFkUaNAXEJQKHAhwakCmAIHgkgCNBnAj608/n2Wfvnt3bvXuAuwMOuPdr5jN3++3ZZ5999vN+vu2z/4IAAAAAC/6svoEgGgAAAKyAaAAAALAGogEAAMCa0hKNpfu0/ED/LzQPk7RwN6kXAAAArIV1FY3ZgVl65IUbjtXfoC998zaNL+mNdI9OvXaDDg0t6+V8WaDXX5ilk7N68Z9u0WMH4zSuF7ccS4t08puz9Fhg2pYTct9vUMN578VL3ts1cE8v5c9Hb96g10f1wmbi4T366K1Z+j3OI/Icfu61W/RRfEVvLACjt+iRNxf0goGsP3Kb3Mdx05Hl+dq0eWGNrL9ouBnqwRKNfneWHm2K09RDZ1Vh8YnGluY+DX7jBu36ziItSFpK2n6H0/Zb81QoCd48OKLxSP0cfWjoBkTDYTw2S5XfvEOzUqPn2vfs+TmqlGfQ2Zw/W1I0sj9fEI0i4hENxZKqXRz+yGk2Sif+PTp5ZJYO98xRtF47fi4hDWqlf/TgHA3O6NIRr//wTV0C2DdLh86zY5i9TbtkWZsKU9alMu0KLYzdoj0NznZ/qeHw6Tt06KDe9tZC2vHO8PqvOusf+6oRhw1nkd54idNpRi8Kiwt04sQdxxkYaZdKI06D0bekRH5f9lDLcu0v/MBJiGWumbnpsyu2uInExyksNLSxc+S85sbbKxrLNMrOU5W2OT3e+Kf01ZnX/Xv/+xaNGvmi4a1btGufk5/U8nfi9IIvjZY/mqNHDee4cP5mCYn3snJ+h0fMfHuXBk/E6aNFZynwvqtn5xad4jRTz1/DTTqVyvsrNMXCE3XT8q2bGaKhnns+zjGu2cjKB3fplPs8N8xS+0jhBL3wZH++svkM2/wk9yYsT5YaGywazrpHTzjrJCHTomEoOyVp9MQs3wxZZoc/cos+99It1dQ01cfO4Y15WpCS0+I8vc4398SncoyvpmGKhvwXMfqUD3p4n8Z9pYZHv36bpnR4h7/ihnePTn1dBE6c7AOafZ+dQdsdPkspwALQw9fwtVv04Uxmv00qjSQtP42zoHIpXC6WS3+PcqnTyZ6L1P6VmzQozoPTZ88+dgxznAj8cJ/k62644IpLqaPv+yT/cl5o/9hxbqZozA6ys+J7p0rbnzrXqq57me8354sTOl98+MYNin43oY6RfJEqoetlM5+8/pIu/Dzk87oFHc63H35Try8RlIi9dJNOfmxUw1zC7rs8L5ymr484eX/qlFGLvcbP4lc4Py1yOnMJXApwuWsaSZV+n3tT58k5drip56wUyf58hfqMVeSn0DxZgpSEaLjrJCHNmka6aUkeRDMRefvXZLvze2JSrxZSnenhojF1mp1oj3FHljnTakeajoPgiJezzFXUthu057ssXMulUsMwWaapoVv0AjsvKbkdGnAFl/EMMHDTjv8qB6cFZDJOUS2CkoE96TMyF+wISpL0fV/meKumF06HtGg44t/+sbO3qmHxw6zusX+whHHd3nyRuZwu/Dg1OFVjk3zlpm/JILXsOB1q4nzCJdoX3pr3OK7A+248OwpDAORZch2hwqZ56iE70xe8TnHqu75wSo7w5yvUZ1jnpyx5sgQp4ZqGz+Gnqrdpe33UJwwewkVDzuNt307vG5oBhMVFOsUlqc9xlbK0mqdMVmg5vkgnv8Hx5HRV/io+T+2v6eYpZW66OE1Sr4+uqIfWbZqSdf603jzt0eZ9X1Yl/V2n79FUSjRke+b1OduWaXxgjr6kmxOUWYqGx1l+fIsqX7tDUx/N0WNBDrRUWLpLH3IN/jEuJbvPhZkmyuS+ZxENOcbzLNmIhnqedTOVJsg3lCaZz5c3L5g+wzY/ZcuTpUdJ92mkHL4qmQSV2Jz91lLT8JRqrGoaJg9o4UdcitUP24Zj9l+4pB7MJH34La4hnU7QsioZ+dKFH+bH3rzN13mTTs07qzLSZ1ORed/3cIn6dRZ75yHke+qvnbp8GqcvvXSLPpx3it5mfvXmi8xlSTO38EOUoBNfvUkNXDMVQS4dvP0XDun0Cr3vWURj7TUN7/Nc0jWNrM9XFp9hnZ+y5MkSZONEI2D0VDohHTFIPfja8Tl9Gry4nKCTb8ZpnO+Ft09jkdqbZumNa3IMPwzStux2XpkZX/5n6dMIzABu++QnInBcxedSZMmIxkO+bq42NwxqYeBqsXJialSM06x2aEjaozneE7dU+3QqbaWJio+VknHqUZfM/hUWEUkfEciPbtHrQ6VZ6snEJxp8zZIWZslN5Zk23QYt7fCxWzQ4x/+lhtB0S+UreiCDB8JKhs6yv0/j9dF0U4Sc45F6dio6b5cGSyovSEetel70vf2c24QWdt+ziIZzDB+fq09j7BY9+jVOL7Wwyfo0sj5fWXzGKvJTaJ4sQRYSd9dZNNzqVz2Xft+843mXIJ2QftFgzHHSXHJ0RgAxQaOnFCtqNMKjvP71MV70ZPzso6cCMwAjIyGkTVOOKbnmKRbME20h4+9l1Jc7soPFtv1rOk0U3lFTDs5gg6BRH6WPXzSYh1zybzKq++a7CpIPU6PDnBEs7gihE9+5SY8YTTfmQy7LMvolY6SRi/SncCGn5HjAtQ3dxKrubdMcnbzmxjzkvmcTDT4m1+gpBTveNyQPspCqZNxUo6eYLM9XuM+wz0/hebL0WFfRAKAs4NqrDHFu/6dSapoCoDBANAAoJFIq55Kl5/0eALYQEA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AACZ+N/NAEAD0QAAZALRACFANAAoW5yZF+S7NV+SN8TrjRkVlGiEfEPj4X3Ptx9kxlf3nRR50zns2xLm92iif3OnSB9fA8UGogFA2eJMeZH6bo18x0F9/4H/q5cUg7+hIdMBpefdWqQ3OIzDxqSjwd+WkDnOZql9jMNj0flIpjKJleA0KyAnEA0Ayhbv3GpqHrI3btCeQa5t+JunUvNN8TFfM7/9wHrwozl6RH/MK3QeJpmw0Pxo2QyavzYrEA0Ayha/aDi1CDWxY6hoBEwIaUxgGCYanslKU+ZMLQ42FxANAMqWtdY0vN9+sKppyFfrUp8WBpsZiAYAZYvj1P19GqoWESoaTq0hW59GoGjo79GoPg0Wp+VPbtPrfejT2IxANAAoW7RofCNs9FSwaOQaPRUoGszytdup0VOl+7lkkAuIBgBli9epA2ADRAOAsgWiAVYPRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGCNEo3xn04SDAaDwWC5DDUNAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWLOuonH77i+o6VSCvtB+m37zwKwy+S/r4rwNAABAabNuonFmbJn+/Vdm6ZEXbgSabPve6LLeG4D1YIb6ntlBbZf14poZobbtddQ3oxfzxhtecmqERqcSzkK5M9NL9bZpvRKn8QsTFF/Ry6AgrItonBy+nxKHP37jDn0wntRbSP2Xde522XfjcJzItsomGl7SqzxMUayGt29vpVG9Jh6r42VZ51qEdtY0Ud9V5yHP3J7er2OEKHGmgbbt6qFptbdD8v0mjgOfw8zsI61U4V8XhHqogs63gypa+YSMitMzvRRXSwb+B/LmEHU9F6XH5fjKKqpt7Kdpiwcw45rl2IZOGr6pd9BMn22m/Z+POPtEorS/eTAd/uVWbxg+y3T0+t4Z+1RU1dChzqEsTsNeNOJD7eFxLbJojB6LUMWBQVpP2ciVr9fK6FEO66iTDzMJuofVtP+YcQ9XIxo3+2l/ZZS6r+plUBCKLho3Fx/Sr+5zBKFl4K5em4lsk31k31k+ZmNIZ9r9/RkulTWjh2pVZvaJhumAkwl2hk1Uvb2GYtf0Oj9X2ilao4Xi2nGq2d5EFw2RGj0qzqmKusb0Cmayq5q27Vuj41gZoy52oLEpZ9FKNJZGqCMaoXqOREIe2PkJitVFKHrMiFQI/vCTiSm6+EqUtkXbaVw//NO8T0X0Zeobm6Ekr0vGx1T4FUHXaOUonHtXH9M7rSQpMTVILdEdVN0eFmc70UiyYFdX1lHMjau+noo69xqLKxobwZrytQU2opFxD6uM53E1ogGKQtFFQ/orRAyqv3lbryH6hIsN3/zgHn39zF313+VLvI/s+5f/dz3LVCZOpt2/dy9tc526wfixKorytmeziYYiSRcbd1A00FnF6dy+iCFK7JwrnVqHgzj43RyHKqrp0l6e3ei5fTvo2R7fkyKl8SDn70NqMxV7+1PO2Eo03JqNs0WhakAW5wsMf36QDm2vdhzO0nlq4Wtu+SBd41TEuWTo7mOyFtHQqJpc9XGa1MvTZ5qoNsKOi2s/9cd6qGNXbtEYbWURPzKklzQqrrup77osOE4+dqGfWp4SwedSeV0njRvZOHm1l1pqqqhClZ5rqOWMGc8EjXfW0c5KjleEt8U66bBxvaajVWl7pIfONdY4NUDev+39dEqr7R6nLHFzr9GJZ3esXaWBP61MrPL1Cotns463pGfz+YzaV/pcgyoe6VqEN285BN9Dj9D488JKnIaP7aVquaec7tXPGenu21fCqe/spS65Rxb5GARTdNH4vVfnlBB8OOE4CBEJWXbtN/bPpoTjwk+Tat3vHplTy+uPLnm+L07N57yUo+NS1geSEfMQDamteJq/nH1TgiA1D3FyLAgVbrgr/ADyQ2nWPBRWoiFNal4HHRxnJodzVsc1nucYZycwfEk/t/Y0xjUtX+0qK3mIhhK6Kq7hyAKf16kxcMy4FOuUnHOLRqKfCxFVTXQu9PyOY66oO07jctFLXCvjuKTuPwvm4cootV3QKcJ5oF7yki4TKFGPcnpc55RNxmm8i2thPmfnEQ19DcnUNfhqkVlFQ+LZqfpIElluZHAeMfN1gv+zkz7QT5MSTnKK+qSmmMofwedaVU2DSV6XmkaUC1U6AF9emOyUGl+PE4eVBA0f5eVXdBwCREPSruvyFCWyXTzIStFF45frHXFYvO+Mjur4wT2PaIjJOkH2keV/xcdsDE6mPXSGH1ypVRhNMcpxSGldZcTsopEY6+R9qvhB9WfMJA2/EqHabrcG4aDC2Oc0y8h/9VAqJ6sda0ATlsJCNJIfNFGFr9akzscPdLCFOOeEiGY0U7gCyEiTlRlv85TqrwgqaYawVtGY8TZPSbOft3mNj7GoaTil2d1cspcaRBOXnkdo2nNrxUF6CxkqDdzmK2lmmTcP0HHtla3Of09z6MoQh5dFNDy1njgN7N2RqpWq7VlFI6AmF0DGPWQ8+Vrdk700YO6gal9uvIPPZSMa/jxZ2zmRLqj48kIy4RM/yVtuDTlANNK1d7BWii4a/0GPmHJFo/m001xlml805JiNwXA8nhqB8WAHiYYvk6vmh/6AzKkeKt+DJkjJW2V0aYaK6Ac8/V81sWhRcc7vPV/KMh5Gx6H4+2eCHILC95ClSIxR165IRik+jMA02dWa7gj3i4ZaTu+b4cTD4uUhyOGwQLe6najO9kNnjDYjvS6naLjEJ2g41k6HpHmDa6KHU01M4iC98fOnccJonnLj56SnHOuvRXrDyxAN332e7tmdZbuEZYpGrnR0CLyHZr6We2Y0+zlI02r2c9mIhqemER+j7mc47/Xqdf68wAWSdPOUa+GiYZuHQThFF40/eD2uhGBk6jO17G+e+nWjeeofPvlMrZNjNgYz0xoO1xQQaevPUdMIY7zdqDqbqJIll8quGLULRsKWWoeUkFMlJFVq5dKV2Nkm2rbrOI27y/6aiGqOyRwJFhrnIOfMD6U0O1Tzg54R7xD84avrdkVPUDWnBjo3r5dTmA7OYBWikXIK0vkfjahao4OzPS/RMEhcaKZo6hoyHaQnDVT8neYp6Uj3xlWOzU801CCJ0O1mmmbGM4zQPOISKBrSP1dY0RA8/VKevJDk8FiIpXnKzeNmgQSiURSKLhqv6I7wV7+XflhFJKR2IbUOVzAEtxYix2wM3kyr2sNrjlOf2VTlKyXnfLhc3D6RwNqx09F9uLHJaBNmJNNXN1ELl7TSHeUGEpfQcwc3hQmhcfY7Z91GXH10yBlBZUlG+Kppy2iuU6O5MmtAXgdn4I9XIJkOR+5fRRXfK+1Q1tY8NUWx6oC4KqF370umg/SkQcZ9cs7rxNWJtyf8XM1THqfr9DN4mqc8zVdFEg11T3I1T2Weq7Ci4ezvuX9DzRCNIlN00fjJ9AMlBP/x5Zu6lBXMZ7xN9pF95ZiNwZdplaOX6q7h7NcoGmo/YwSTH9XEwA+3tyTsOKxtYZ3G2UQj6KHWhMbZ85Al+CFzhpUGvpsxP0Kx1h4azagtBIev1rEAT+qwkhz36srd1HFhymmTXkrQ9IVWquUSeca4et/DH0yQw3HW1bq1NF9H+GT/y56O8OkzrdRxJkBke73Dg2lpioZbd/M6V5ByiMbVTj5PHXVL5/VSnMa796qRT25c/R3ho+0cts/ZeUTDvQYmwWkmYafOzelaUdlAA55O9RDRWOU99KI7wl8ZdPp3klM0sI9L/Z6O8Mx7pvL5Xg43mQzwB5n3MOkfNu3Lo+cOcEGgkeOwxOHxvm1Pyug1C9HIcu0gO0UXDeG/6yaqt34U5PkcZAiu7PP7r4Vn0+KTmWmlQ9zj7NciGqpkHTDE1ESNKMp8yMbb+fxh4Usb+wg7Mr1oIvEObApjQuNsPmTqvwhWpikHpPcd8L2wJwSGr5qLvGnrbednB7S7gbqHAq7U9/AHEyQajAiFcWy2IbfiVNwXIP3EL3TSITeufGzNc+3Gy4o5RIPxnneQYgfMTtlVDrk90El9qSG3u6nLk2YSlnTay7Yo7e9s57BCRGO199DPCgsFxyM95NbihceZQTqsHHvQeZ176Mlvcg3ZXu5LjFF3nXNfHn+qifr6WtODRnz7ekQjy7WD7KyLaJz9ybIShMea5mg5oBIhc1JJ34bsI/uCTYC8oOgOZd0SOH1Y3ppe6aGceWjzzirZcvdwFZTztefJuoiG8LlWp7ZxuD/zoax9c15t27gOcLA6kjT+zb3Ucbm0HeyqiHMJeF9IU1wJUTjR2IL30Jpyvvb8WTfR+Oe5FfXOhtjo9XR1o/+KUwuR9bIPACCcgtY0AFgD6yYagju/1O8cmVOdYDIdujvz7dezzEsFAACgNFhX0Xj4C6I/POY0U73Qs0A1enbbqra42gYAAKC0WVfREG4sPFTzTYlYiMl/WQcAAKD0WXfRENzRVGIYLQUAAJuHDRENQfow0I8BAACbiw0TDQAAAJsPiMY6UK7DJAtx3QX7PrZ6Azj9Jv9GotIl19vWaybkTWwACgREIwz1adcq6rqil/MAopGJ2lZZRwMZ00z4pn4o1Pexiy0avullslGKoqGmKjGn70hZ0FQbSRptjfK2kOtVnwrmY333Pjk1RhdlavndUdrvn+6F7/BkTE+1It8tqWmic+qriF7iF9pp/5MybQiEcaOAaIQgcz5Fq8Lnb1oNEI1M1DZ2SunvbGt8olEwIBqrRj48Fpj/1Xxe4tyDr1emwleCY957mUixqo5ajh+nturMOcLUx8LcryPKZJI9MklkpzH1OgvVsWraubudLk7MZP3qICguEI0g1ASDNRS7LFM9Z84wqyY+6x5Sk7XJxHDyMHRfMcrC8olK+VCP+tJbO/W1pj+SI2T7XrQKu7M/NQmbG3Zqwjv5sJDM6mm8PJ8zvGxx9aBLe1U67p7SnuOMsn0HO9d1myjHWV1DtZXmNy8Yf01DSsBGGPGhdqpX8dMT1F01IiAzlzakv5196PhY2uGpcJupL590zPZ9ab9orMyo73i7k/nVNvanzpUhGjeHqOu5qDHJYDreat8jgzRqTmi4iu+LZ4tHVtQEkwE17RX5fHCUOlqbvNfrcu041UZbqaORz2fe+9Q5gyaW9E7vrnC/MeN++U9q/u6XH8GGAtEIQJV61EPtfJPC/y0F5cjMKba7+cF2Jz9TD1uE6rvG1Dco3KmdUw9Qju9Fq7BlmuwpdhsrMk12DTsDdnB6CupknB8mDi81sZ5NeGFx9ZE4+7Ka7ntYBzUtpb3Up2JFNNiZhn0HO9d1+3Ad56R886Kygc7pc2YTjeSITKfO2645LjUu38d2PzKlnBmnU/uI8+0PnU6padFVuDtSU3m76Zj63ohlOoZ+X9onGp5vV+vvZ7vf8vCKxgR1S7r1TDlThc9LvNIzIqt9t0ep5axMy56k+Afmx5/4nuX4vni2eGQj6DPBgsRHTX8eWLMSQeC4vy/T6ofd+yDRcNa1mZ8BkXXGDMQypXr1kU7q8hWmwPoD0cjAJxQyG6bv4ZEHwlMq0o5Otf2qari3RGR+jtP58p7pdPRDpL4X7YT9bI/xQF3voWe376Y+o33X80BahBcaVz9Lvq//efYV0cjyHexc1+0j7Tid7zKkvsMQKhoBpVE+evR4K52TOAWcX907+YyurFPhNtOwsV19ZCsl9qtMRz8+J6r275zQS3yu6yOpaew9oqHOm/B8W0KOdadoV/uaH+ZS98H9+JMTx1wfcAqLRziOAGdM5R8fpEMRLfABoiEC9rj+QmP6vvnR6RokGlogHLzrVHhG4Udq3lGzsAHWDYiGH/n6mPmJVLepyvAXkoE9md5wdOohNz9tyqh1xgMU/r3o7GG7+B/IfMNLsZKg8VTzlBuWu29mW7np/Gyu28Q8VjmjSqeEGi4a2ol4SqNpVHge58pw7eGQG5YK11cyVoKcXreqdPTjc6LJseP0LNcQd9Y1UXdsiCYN5+a5dmHGaJ5yTadbZho6Nb709zGyfyo2WzxCcacNNwVYi3u9W6Dxi4b6OiOfVxdu/Hk0zVpEI04DdX7Rdj5QVupT2W9FIBo+1ENqPrzazCp9Nkesjs/mPNW+Yd+LtnPyngeyAOG5qHiq5intej37FlE0GNXMUsU1AXbcBRONm0ZY6lqyiMZq09FPQMlbmhcnR/op1ih9DlE6fNY53nPtS5yuLNL1PROp2oZ5fzPTcHWioQiJRzBxOrcv8zPB0hwVNfsUPNfrfKs79XU9xpNHPXjT1SHo3vK6VPNUUtUy/emf856AogDR8OBUy70lHubacaoxSl4ZmdV0rvwwZW2mkYfNLGXqh8MNL2vYGs8DWYDwXDL2VU7V3Te7aOS8bh9+0ZB4D0h7+zN1VGOcJ32tjuPwljYTND2iS88B519V89Rq09GPHJ9youykL3hL9TISyQ3fc+0qXl6xGT5iKxqOsw1vnsoej0Ckw9msaSuckn5QYUqs7axcQ/C2DCHVcfamZcC99XWEqy9YegoFzv1BTWP9gWiYyCdXXSfjQarC6TberI7Y3yE80U+HzQ7hHN+LtnHyaUfKFCA8F+k03fZMJ41zTSMZH6PYXmmmcvfNIRq5rttHpmgwEjcZ5WOcx7xWm45w9/wUH6Gup1bREb7adPTjEw0prcu51GdKuaR/8UhV6n0Tz7WrDvgqajkzxedN0vTZZqqRNNDXnF00dA0t9Pvi2eORiVNjsOko915vJp486iFINPjMniG3CadD3+xLVHnDGRCQ7tPwixtYDyAaBtm+qz3ZVU3b+GGTbTkdcY6hp9m+F23j5P0PZL7hpdDDM8VZyuiUrrM9dDhV2sshGsJqh9wGlHineb05+sd/rekht3KOZrpoFE5lyG13auiqDLnVI6kEdd2+IbfN59PfnmZWlY5+/E40MaG+462Gusq5Go6nhif7rz15pTN1TbWNvTTQynlNl6pziYbUtrIOuc0SjwykP2+7t/8ulAKLhlyH5+U+zj/pb7A7qCHRKn8FDLcG6wZEAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWAPRAAAAYA1EAwAAgDUQDQAAANZANAAAAFgD0QAAAGANRAMAAIA1EA0AAADWQDQAAABYA9EAAABgDUQDAACANRANAAAA1kA0AAAAWLMuotFz+T79xldu0iMv3LCy326ao++N3tdHAwAAKBXWRTREBILEIZuJyAAAACgt1kU0XCGwZbX7AwAAWB/WVTRWawAAAEoLiMaGMkN9z+ygtst6sSwYobbtddQ3oxcBAJsKNE/5SUxQX2MN7azcQdu2R2hnTQPFRhJ6Y6HJJhrOtvrYVvOuEA0ANjPrIhqrZeNEY4YG6iJU/cogTSeSRCtJio8dp/rKKHWM8HLBgWgAADYX6yIaXx+4S18/c1cv5WbDRONmL9Vv30191/WyZvxYFW07MqSXiKbfb6b6qohTE6nrpNF5vWFGjm+mcyOdqe21jSxAK3o7M32miWojXIuprKL6Yz3UsStANFQ4UtPR9kwvxfWm6bPmuZvpoi+uDo7g1HZP6WXm2nGq2b6XBnRA2cIZPeoTKxUf19E7Tr871q6uI1PU9Pb+dBrs3NdDk6nKmrM9dqGfWp5Kp+G4WZmbH6FYQw09LtceqaFDx8coJdkWaZy8cpwOqbB30ONPNdGAkQwAgPwoumj846efpUTAVjg2TDRWxqirih1h5wQlDCdkkhxqpmi0lYbF+a7EabyzLu3UtbNXNRX2csn4eWrj8A6d0R5xrJ2qK9lhjvHeXIuZPttE1by/bU0j+X4TVURfpoFrTi1osqeOKiqb6GJA61k8ZsTLXd7bT7JrrnByi8YOqhCxnEqQVMi8ONtVGizxYnyMYlx7q3jlvHb87vHHaVwitzRBMb7OaPuY2korUxSrYSFoH3HuQXyI2qIsgF3a8+dK4+s9XDPkuOprE5GOVrXSqMQFAJA361LTeOtHS6sSjg0TDSZ5tZcOP8mlVCnhNh+nixOu2xUcR97yvuEpl85TCzvUAXmtRDk0dr6GgxIHXNE6ov9HKHpMO0cFhxdU01D4RcNZ3t9vxidOA3uDSvtMvJ/2pxy9s59zbO5wcotGNcWuqS0ByHZfbe1KO0VT6ZJ5vBK0Oi1wl1upoqqdxk3RluMr2fHLOos0rnEFRsEiVB2hDmczACBPiiIartMPs1zC4e63YUgJdayfYo11qkP88d1u84lTSk41G6VMO1Tl0Ni5ya4acWjbjorHcpx1qkSscNbZiUawsx5vr9Lh+zGEYn6QDqWapnKHk1s03P9BBGxf4dpCluPNWpH63+jWSjQq/voYizTOvD9haQwAWC0bIhrNp03HmYm7X0kgzSXsiJzmE3F4VdRlVhZMNkA0Rlu5VhQoGkSJ/r20bd8gxd9vSjVN2YRTcNHQtbGw43OKhupr0sesOo0BAIVkXZqnZO4pW8EQNko0pK1/m79phJnu2a2bT6S93dfBLLj7Z3Vo8n8dm6cEXcM4tC9iHJc7HInzsz1GmPmKhuqEN5unwkXDrnkqLI2TNPyK2X+i8d1PAMDaKX5H+PUHqxIMYaNEg5ZGqCMaodrWIWPIbS8d5nX1vY6XS5xpoArpzL7qXEtChuQ+xU5OvFQO0fB3hE/2v5ylI5xo+AjXcFpHKJl0XKDTgc3O97oTt8neBnamvByarAk6t4/P73PSucJRTrymnUbFiy9N0cVXokYYNqKR7qim5BT11bFYcho4V5FDNHRHeD1X55yO8BHqesrfEZ4jjbdHqeWsc4Lk9UFqebKBzpkaCQBYM+tS02g+k7AWDGHDREOYn6CB5r1ULcNi2fk9/vnd1BKb8JRcp/ubqFYN93SGdPZpAcnp0BirIbeaJAvSs2rfdJjpc+uhsjmGk6omKmMUlUvWcFZm6NzBaqrg66uoqqGW9mZ6dlWisZs6etpTQ2JrDvZmDLkNFQ1hfoS6n4saQ271SCrBIo0TI520//PO/amoqqOuISgGAIViXURjtWyoaGwxpEkstPmqKOQSFQDAZmZdRGO1IgDRKABLCUpMyDsL6Rf61geIBgBbmXUVjdUaWDtqNFRlNR0+s97eG6IBwFYGogEAAMAaNE8BAACwZl1E4zf2238f3LX/+pdz+mgAAAClwrqIhsw9JSIQJA5BJiLzNh8DAACgtFgX0QAAALA1gGgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKxRonF/eZlgMBgMVkJ2/37mbz5mhp2HQTRgMBhsK5grDOavaea+eRhEAwaDwUrRTOfv/12LueHmaRANGAwG2wrmCkPYb4EMogGDwWClYLmcvvzmYxJGAQyiAYPBYJvZXEEI+jXN3T9Pg2jAYDBYKZrp/N3ffMwMOw+DaMBgMNhWMFcYzF/TzH3zMIgGDAaDlaKZzt/9zcfMsPOwdReNu0vLFLu8SJGjc/T7bO/wf1kXtC8MBoPBLM0VBvPXNHPfPGzdROPm/H06NrhAv9U4m/FNcFnXdnZB7RN0LAwGg5Wdmc7f/7sWc8PN04ouGj+9cZ++cvIO/duGtFg8enCWWt9bUCb/3fWyz37eV44JCgsGg8FgIeYKQ9hvgaxoonFx4h7t+tvb9Et70zWK//FXc9Q7nPA0R8l/WfeHbbdS+8kx//ONuArDDBMGg8G2rOVy+vKbj0kYBbCiiYYrAL+27wb9rxO36conuQXgHybv0XPdt+lX+Rj3+KD9NtYu0Wvbd9BrF4O2ZdrCxCUanogHbsvbpt6h57cfpeGgbWLXx+iHV2aCt2WzXOHmY2uNEwwGCzZXEIJ+TXP3z9OKLhozd4K3ZzM5ZiNFY+7KO/Tq0zupgsVhW+VO+vLBd+jjW+721YnGcGuEKhpO01zAtlXbxaO0zXTmOZz7p995niqe6KCPA7ZltSKKxprjBIOVm5nO3/3Nx8yw87Cii0bQtjD74Gq6NrJRorFw6Sh9cfsT9OrpCZpb5OVbE/SDxieoYs879LN7ss/qRKOgtkrRWLMVs6YBg8GKY64wmL+mmfvmYSUjGm9eWFT7f/XdebW8MaIxQW8/vYO+3DnhXX/n+/Tq9ogWCr9oxOnjtxvpyzsj7NAjtPPpRnrvmruNaxrNXFtpvqT+f/r2Htr2ygl67+DT9LjUYiJP06unpmhuuIOed4/f00GjqVqNLxw5Rps6v3LuR+i9S+njv3zwtBY3fb7ad+hTN5xrp1M1qIqdfO53fdfpmg735Cm+roicLyBcfU2O+dLk3pS6xp2VfKyqqb0bHKcc8RdbGO6il/5Itu2gx/+okU5NpLdlvZ4scYDBNoWZzt/9zcfMsPOwkhCNty4lUvsfPrWBonHzNL20/Yv09lX/tkX62aXzNHxtkf97HeTc6QNU8cRR+uGMs/yzE3uo4ukT9DN9bIZoVO6ht388Qwv3OMzvvEgVlSwUz3fRqBx/Z4xO7onQE20/VvtnWGBNYwd9sZEdrdSKZr5Pr+3cQS+dcvpQvKIxRt9+IkLPn5jgc/O+V0/Q8+xMvzWswzItI9zz9NoTLKbHHaecSzQ+7pCa2Qn6mI+9vzjhXFOrc02ZohEe//vXJI576ORVTndJLxaxJ3by9asmz+zXky0OMNiWNFcYzF/TzH3zsA0XjZMfZQqGmO3xBTXlxNhJTQVsS5mvVH0nTnNmv40O49R1ZzmzpnE+ve89dsYS1nm97O5j1g5MCxSNRvqBcX45X8VR43ypsCTeX6RvX3H3NYUwfbwyFe4R+qFZ4n+vkbbtPEaj/D+XaEgcnu4YS21fuHaJfnhpihb4f6ZohMd/uDlCT3tqfVwT/GKE/vqS/M9+Pdni4K6DwUraTOfv/12LueHmaUUTjV970XH6txedyJ7/OHP0VN8/JFJDck3BkGNknYRh7l90W4to3IvTaKp5SppyxNJhZIhGFmeb2mdVouHte8g4XyqsRRrt/DI9zqXx5w920MlzYzQX1lwTEK6U+v9Ur8t1HQs/7qI/jUhTWyN9++3z9LGuhYllikZY/KfoZK2bnl5zzpP9erLFAQbbkuYKQ9hvgaxoovFfGm8qxz8xs0QHvzuv/v/9j9KlWhGMX67PFAwxeblP1ksY5vqiW2jzFCfULa5RSFOHz0EqJ6iap/S1+YSndERD28wYDb/bRa/u2UkVTxyg94IEMk/RUHZvhj6+9C69fXAP7ax8gppOT6n1njhZiEaqqSrMsl1PSBxgsJK0XE5ffvMxCaMAVjTR+FJHXDl+mVtKREH+S62i//8l6PSVu6GCISbHyDYJw7+tuKY7wnXbfcqydISLk3v+bcMZKedagqLBzvWHUhpP7TtDp573xd01FW6O5imzmc1zHeyoz3lL9nPvPp+Kh71oLNIPGyNU0fh9b5OSG6es15M9Du46GGxLmCsIQb+mufvnaUUTjb86u6Ac/+43b6tlVzj+9Z/foF9hCxMMsdpv31bbJYyg7cW0BXbMX6z8Mv31Od3BmmPIrXS4bqvtoFGuaSzM/Jjefl6aqYokGkqQnqdT1/lcUutZlWhwLYpL26+6pW3V6Rzh0neAMKtwwzvCRbwqKl+kU9J/sDhDo5171AgmVzTeq4+oYz+V9OLS/g9e4VqAflfFXjR4+cfH9PBnJ84LMlrqCy/SeyIGWa8nexzcc8FgJW2m83d/8zEz7DysaKLhNjFJjeLTuBNhVziyCYbs69ZC/nmD5qCau9RFL7kv90WeoBePvBv+cp8e2ilDaCt27qFvnT5BTUYTV0FFY5nPdeCLKl7PvzOzOtFgWzBfWow8TS91/Ti4Y1iF6xtye+T7jgNW+8RptOPLetgwp0/HMb5m4zpujdFJd7irHPtiV2oY8apEg23uUge9+IdOf5FK3/Ppt8mzXk+WOMBgW9JcYTB/TTP3zcOKJhpiX2h35pN68e/vpNaJWIQJhpjsK8fIsUHbYTAYrCzMdP7ubz5mhp2HFVU0ZC4paYqSmsPQxN3AfUy79FOnr0OO+fEUJiuEwWAwa3OFwfw1zdw3DyuqaIh96wOnU/s3D9yg0U+WAvcR+8efL6l9ZN/O8wHvDsBgMFg5men8/b9rMTfcPK3ooiHWEHOanP5dw6waPeXfLm+EyzbZR/b1b4fBYDBYDnOFIey3QLYuorF039sJ/hfv3FFNV4M/uas+++qu/1qWvg4YDAbb0pbL6ctvPiZhFMDWRTRce+8f79Jv/6Xz0p9psm5gNHefBwwGg8F85gpC0K9p7v552rqKhtjivWV68+Ii/bdX55TJf1kXtC8MBoOVrZnO3/3Nx8yw87B1Fw0YDAaDFcFcYTB/TTP3zcMgGjAYDFaKZjp/9zcfM8POwyAaMBgMthXMFQbz1zRz3zwMogGDwWClaKbz9/+uxdxw8zSIBgwGg20Fc4Uh7LdABtGAwWCwUrBcTl9+8zEJowAG0YDBYLDNbK4gBP2a5u6fp0E0YDAYrBTNdP7ubz5mhp2HQTRgMBhsK5grDOavaea+eZgSDQIAAAAsgGgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsKZponB5dpt89MkePvHDD2h5rmqPv8XGbjxFq215HfTN60c/lVtr2TC/F9eJaicfqrMNR+x4d0UurZKaX6rNdDwCgbCmaaPznQzcDhSGX/cqf36CfTD/QoWwgUz1Uu72Kuq7o5axANAAA5UHRRMMVgdXwzPF5dczvHJ6j5IpeuUGMt1dRtKqKKl45T0m9LhyIBgCgPCgp0Vi8/wv6ra86NZRD7y7qtRvAyhh1VdVQ7HI/7d/eRBeX9PoUCRrvrKOdlTtoW6SGWmKddNh0sokx6q5jwdm+gx5/qon6Ol/O4uwTNBlrotqqCG3bHqGdNU107rre5MMvGsmrvdRS45ynguPbcibt5dW+R3roXGMNPc7bVTyN7cL0+81U7563rpNG5/UGiAYAIISSEg3ho8nP6F/udY6V/xtB8oMmqlDOOUnDr0Rof7/X3SfONFBFlMXkOtdBknEa76pjx+062Tid2xeh6lcGaVptHqNYHTvmENFInH2Zw2qlYb1xuofDqumhaWfRg0c05gfpcGWU2i7oA6d6qL6ShW7KWVT7bo9Sy9kZrrUlKX6hlaq3p7cnh5op6p53ha+BRTAVNkQDABBCyYmGcLg/oY6VWofUPtYXn1Bcaaeox4nPUN8zO7xCsjKUbp5SDncvDRibiR10aE1jKUEJsyajHfbATb1s4BENFoLEvNlw5sSrvtc5i1PTGFL/HZJ0sXEHRdvH+L+zb8v7xvFL56nFPS9EAwAQQkmKxoOHRJUtt9Txf/p3bpvJOhHvp/2VTTTsOnK3qUqX0J3+iyrqEt+bwujTkP6LqnYadzY4ZOvTWEnQeKp5aoe2YIftEQ0mYTRPucfWx5wD1b6+Po3pnt16ncQ3fUzaTOGDaAAAMil50fiT4+srGk6zTqZDjR5zVaKwoqHOp5qJdKk/i8P2iIbaz2mecgYN6JqGtWj4r8EAogEACKGkm6cePbjezVNTFKuJUNtlvehy7TjViBAYzrlQzVOjR9OOXnG9h561EY0MIeJ47fKJRmjzlFznDqrtTlWfHNwRaxANAEAIJd0RfvGn69wRPtZO0cpWGs0Y7stOtjpCLR84tQF/R/ho++4sHeEj1LUrvCN8sjPK2zppnGsaqtN8rzRTWYjG1U6q5v26x7imsRSn8e69apSURzSydISra6iso9jVhLM8dpzqn2JhlEuEaAAAQigp0djoIbfjx8Lfy5jsqqZtBwb1tgIOuV2ZSQ2Lraiqo66zPRxWNcWu6e0GHtFgps80UW2E41BZRfXHBil2YAfVdDmq4NQ0vENu2973xmC6P92XouKpBQSiAQAIo6REo5Re7gMAAJBJ0UTDrTGs1kpmGhEAAAAZFE00ZMLC31nlhIW/3TRH/Vc244SFAABQHhRNNAAAAGw9IBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiATwkP/uM7swv0syNOZr6ZJp+eu0TGv/pJKyMTO653HvJA5IXJE8A4ALRAIqFxQT9/PoMXZv8Oc3evMXLd2l5OUkrDx/qPUC5IPdc7r3kAckLkickb0geAQCiUeYk7t5Tpcrr07N0l/8DEITkDckjklckz4DyBaJRxkgpcvKTTyEWwBrJK5JnJO+A8gSiUYY8eLCimhvw4IO1InlH8pDkJVBeQDTKDHnIpYkhfnterwFgbUgekrwE4SgvIBplhpQOIRigUEhekjwFygeIRhkhTQpokgKFBvmqvIBolAky4kU6MAEoBpK3MKqqPIBolAnS9oxRUqBYSN6SPAa2PhCNMkBeypIx9gAUE8ljeAFw6wPRKAOko7KYtYyui0v0/NsL9PPbeHu8nJE8hk7xrQ9EY4sj8wbJNBDF4Be/INrbs0CPvHBD2X86eJN+dmu1wy8TNBlrotqqCG3bvoMe//xe6hqK620gf2ao75kdtO3oiLM41k7V2yN06Exx0ljyGuaq2tpANLY4MuFcMUa2iGA8e2I+JRiu7frbO3oPOxJnGqiCnVjtkV66eGGQYgereTlKHSNJvUepM0JtLHb1sVItYftFo5NqKiN0+KwWjcutLNZ11Feg6EtekzwHti4QjS2OzFQqE88VElMw/s1fzHpE4xvnVtcMNnqUHdquHkp3ocZp/OwITW8WzdhsouGnwKIheU3yHNi6QDS2ODKiRWYsLRQiGH/ybUcwYsP36cOJJP3SXkcwXnxnQe9lz3R3DTutKLWcnaFkRstWkMPzOemVBI0eb6DaCO/HNZadNU3UdWQ3/2+lUWcPToRBaqur4hoM7xOJ0v7OdjrscfTZm8iSV3uppcY4/tgQxSWuyuHKeV0Ldr7xoXba/3knbM/xjBLNZzppoLOOdlZKGFzrauylybD+5MQE9TXWpPatfq6dhm/qbcK8s/1xda4aaomN0EAj/3fTcKaX6nlb22V97lTc2Z7pZcnOD8lrGEW1tYFobHHk2wiFmt58hYNxBaP70pJa1ztyX4nGWgRDsRKni0ekSYqdljjU5n4aT72wnls0xtujynk+2+w0b/WxYKiwXNGID9IhdrAVTzZQd/8QDfd30v6o4yTdMKZjdVRRWU1t/RMUn5+h8djLVJ1qIhujrqodFG3sp8mZBE1f7qT6qt3UPcJePT5BwxeO034Oq4bjPXyBa0hOsqSZH6K2J6vpcDdvm+fjL7RSLcenun1MbXYdd8WuZuo7O8TisZfPvYNqu6fUdg8rnB51Eb6WZhqYmKHEzBj1HeDrj/K1ynlXOK5ybZHd1BYbpOGzvdS2i/cXgQkQjcQEp0fXXj4/X3sf/x9h4Xb2WjOS1yTPga0LRGOLIx/VKQQPWDD++I07GYKx1hpGBuKAY83skLlEzg6847IUtXOIxtJ5amGHWNtlOtgEDR+pSomGqslUNtFFs+R+vUc5ThXGCofHYdR0TuiNQpIuSum88Tz/m6JYDTv1uk4anUoE1IYsm6eSCUqwaCTYKw8f4bB1qd4RjZeN+CXo3D5eVxdQ6ueaTQU7+O6relmQNODzt7yfpOQHTby9hmLX9DZBhIRFL0g0FAVunhIKledAaQLR2OIU4gEWwfij/+MIxt9ecASj53KBBGOFnZ1ZvJXStAiFcpo5RMPvADVxrjm4ouE0//gdcGYYnmYa19zjEhM0cKyBnn1Smqj8zUc5RIOvZ2CfbtpSpkv+pmj44hccZ/e63HC8Juc3r9tEhQfRAAUCorHFybd56jMuWYcJxnNv5VvDcErBFapEnyZdEteiYW6P96vmIOWkdSk7W01jsqs6e01D11b293tddPzaBCV0rSJ+eZDG3c3JMequ5ji3ukKWXTTiveLI67j0r69ghWsSUotZg2g4NYm9NGBuWInT5ISzohRqGmie2vpANLY4+XSEi2B84W9uK4Ho+IEzKur4D5dSgiGd4vkiTlVK7zX7OmngwhCX6HerTlxXCMbbRQCk87qfhs/20OEnnQ5l10n7+zScIbvsJEP7NNrpWdVpng5jslv6QYx+kWaJQ4Tqe3l7whGViidfptjZIboYa1Z9ElHdJyGi0SHbd7Vy/Ptp1HTYjAwpdjr6pygxP0OT/c1Uw/uvRTRoZYpiu/j6zT6L3dKcV0cDcilun0alt09D1UbCRGNEmry49tTK6ds/YoxiWxvoCN/6QDS2OPkMuf2zbufFvWIJhkv8Qnp0UUWVjPhJl/Ld0ULOaCBHPLq59pEq2ftGT0nT0cVOXzONMXqqoqqOuob6fbWDhHLmqj9F79PGTj6FOfqqsorqmwdp2ujbSHzAQqLP33VFr3ThmsDwsfTIqOrnOqnrAP9fi2gI0lTWnA5vZ10zXTQrWuboKY5rbaMMDuD/YaLBZxludtO3PaNpa7VgyO3WB6Kxxcnn5b7PH4vTH7zuuK7O8/eKIhh5k5yh8ate9zp+jGsn1cfJbVlPTIzRtNk8pZu4pPMYFBa83Lf1gWhscfKZRkRE49f3z1LVX8WVYOz5u/nSEgxK0mirbp46JkNefU1LgpSspflINy/JkNtD0sTlDlMFBQXTiGx9IBplwFonLDzQu6iEQ2z/dxbpYUkJhsZtnjKblvonPB3rqnnpuajTBMOCUtvQ6X0hDhQETFhYHkA0ygBMjQ7WA0yNXh5ANMoEGdFSzOnRQXkjeQujpsoDiEaZgM+9gmKCz72WDxCNMkJGthRjmnRQ3iBflRcQjTJDOirjt1MzAgKQF5KX0PldXkA0yowHD1ZU2zOEA+SL5CHJS5KnQPkA0ShD5CGX0iGaFMBakbwjeQiCUX5ANMoYefClAxOjqoAtklckz6DAUb5ANMocGfEiTQwyxh7iAcKQvCF5RPIKRkmVNxANoJCXsqS5QaaBkFKkTDwnM5YW6qt/YPMg91zuveQByQuSJyRv4MU9IEA0gAeZN0gmnJOZSqVUKd9GkI/qwMrH5J7LvZc8IHkBc0kBE4gGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKxRohH0yUcYDAaDwfyGmgYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAayAaAAAArIFoAAAAsAaiAQAAwBqIBgAAAGsgGgAAAKyBaAAAALAGogEAAMAaiAYAAABrIBoAAACsgWgAAACwBqIBAADAGogGAAAAaxYSd+n/A8RhxsGxJCx4AAAAAElFTkSuQmCC</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -599,7 +608,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K2" s="1">
-        <x:v>44865.7023940046</x:v>
+        <x:v>44865.7494029051</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -628,115 +637,115 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K3" s="1">
-        <x:v>44865.703825706</x:v>
+        <x:v>44865.7506700463</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K4" s="1">
-        <x:v>44865.7048942477</x:v>
+        <x:v>44865.7528360995</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K5" s="1">
-        <x:v>44865.7066691088</x:v>
+        <x:v>44865.7532810301</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K6" s="1">
         <x:v>44865.7085833565</x:v>
